--- a/train/2/time_matrix.xlsx
+++ b/train/2/time_matrix.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AU48"/>
+  <dimension ref="A1:AV48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,6960 +436,6662 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>到达门店简称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>安庆宜秀</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>蚌埠禹会</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>亳州谯城</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>常州武进</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>常州新北</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>滁州琅琊</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>阜阳颍州</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>杭州拱墅</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>杭州江干</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>杭州萧山</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>杭州余杭</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>合肥肥东</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>合肥蜀山</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>湖州吴兴</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>淮安经开</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>淮南经开</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>黄山屯溪</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>嘉兴秀洲</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>金华婺城</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>丽水莲都</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>连云港海州</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>南京江宁</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>南通通州</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>宁波慈溪</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>宁波鄞州</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>上海宝山</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>上海嘉定</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>上海闵行</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>上海浦东</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>上海青浦</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>绍兴越城</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>苏州相城</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>苏州园区</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>宿迁宿城</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>台州椒江</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>泰州海陵</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>温州龙湾</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>无锡惠山</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
+      <c r="AN1" s="1" t="inlineStr">
         <is>
           <t>无锡宜兴</t>
         </is>
       </c>
-      <c r="AN1" s="1" t="inlineStr">
+      <c r="AO1" s="1" t="inlineStr">
         <is>
           <t>芜湖弋江</t>
         </is>
       </c>
-      <c r="AO1" s="1" t="inlineStr">
+      <c r="AP1" s="1" t="inlineStr">
         <is>
           <t>徐州铜山</t>
         </is>
       </c>
-      <c r="AP1" s="1" t="inlineStr">
+      <c r="AQ1" s="1" t="inlineStr">
         <is>
           <t>盐城亭湖</t>
         </is>
       </c>
-      <c r="AQ1" s="1" t="inlineStr">
+      <c r="AR1" s="1" t="inlineStr">
         <is>
           <t>扬州邗江</t>
         </is>
       </c>
-      <c r="AR1" s="1" t="inlineStr">
+      <c r="AS1" s="1" t="inlineStr">
         <is>
           <t>义乌稠江</t>
         </is>
       </c>
-      <c r="AS1" s="1" t="inlineStr">
+      <c r="AT1" s="1" t="inlineStr">
         <is>
           <t>镇江新区</t>
         </is>
       </c>
-      <c r="AT1" s="1" t="inlineStr">
+      <c r="AU1" s="1" t="inlineStr">
         <is>
           <t>舟山定海</t>
         </is>
       </c>
-      <c r="AU1" s="1" t="inlineStr">
+      <c r="AV1" s="1" t="inlineStr">
         <is>
           <t>无锡华友</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>127.5034954382292</v>
-      </c>
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>安庆宜秀</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>219.2132176247463</v>
+        <v>2.125058257303821</v>
       </c>
       <c r="D2" t="n">
-        <v>326.5511064927636</v>
+        <v>3.653553627079105</v>
       </c>
       <c r="E2" t="n">
-        <v>331.0934636454843</v>
+        <v>5.44251844154606</v>
       </c>
       <c r="F2" t="n">
-        <v>166.3094372213884</v>
+        <v>5.518224394091405</v>
       </c>
       <c r="G2" t="n">
-        <v>182.4088705503419</v>
+        <v>2.771823953689807</v>
       </c>
       <c r="H2" t="n">
-        <v>342.7175363859721</v>
+        <v>3.040147842505698</v>
       </c>
       <c r="I2" t="n">
-        <v>349.8400152788889</v>
+        <v>5.711958939766202</v>
       </c>
       <c r="J2" t="n">
-        <v>356.5997508762396</v>
+        <v>5.830666921314815</v>
       </c>
       <c r="K2" t="n">
-        <v>360.1463846445144</v>
+        <v>5.943329181270659</v>
       </c>
       <c r="L2" t="n">
-        <v>83.67550639516914</v>
+        <v>6.00243974407524</v>
       </c>
       <c r="M2" t="n">
-        <v>71.71322569143675</v>
+        <v>1.394591773252819</v>
       </c>
       <c r="N2" t="n">
-        <v>341.2310794059158</v>
+        <v>1.195220428190612</v>
       </c>
       <c r="O2" t="n">
-        <v>271.1993364761246</v>
+        <v>5.687184656765264</v>
       </c>
       <c r="P2" t="n">
-        <v>108.1638701128644</v>
+        <v>4.519988941268744</v>
       </c>
       <c r="Q2" t="n">
-        <v>147.3490507413191</v>
+        <v>1.802731168547739</v>
       </c>
       <c r="R2" t="n">
-        <v>405.805842139534</v>
+        <v>2.455817512355318</v>
       </c>
       <c r="S2" t="n">
-        <v>288.8640273318306</v>
+        <v>6.763430702325566</v>
       </c>
       <c r="T2" t="n">
-        <v>335.351634331563</v>
+        <v>4.814400455530509</v>
       </c>
       <c r="U2" t="n">
-        <v>313.3024416783466</v>
+        <v>5.58919390552605</v>
       </c>
       <c r="V2" t="n">
-        <v>211.6114395227457</v>
+        <v>5.221707361305777</v>
       </c>
       <c r="W2" t="n">
-        <v>474.0279598937367</v>
+        <v>3.526857325379094</v>
       </c>
       <c r="X2" t="n">
-        <v>467.947578299203</v>
+        <v>7.900465998228944</v>
       </c>
       <c r="Y2" t="n">
-        <v>500.2612080811455</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>494.7477915409295</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>469.8318253511309</v>
-      </c>
+        <v>7.799126304986717</v>
+      </c>
+      <c r="Z2" t="inlineStr"/>
+      <c r="AA2" t="inlineStr"/>
       <c r="AB2" t="n">
-        <v>481.5152832218067</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>500.0413510298403</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>453.0989720919573</v>
-      </c>
+        <v>7.830530422518848</v>
+      </c>
+      <c r="AC2" t="inlineStr"/>
+      <c r="AD2" t="inlineStr"/>
       <c r="AE2" t="n">
-        <v>392.4596901305658</v>
+        <v>7.551649534865954</v>
       </c>
       <c r="AF2" t="n">
-        <v>400.864224137741</v>
+        <v>6.540994835509429</v>
       </c>
       <c r="AG2" t="n">
-        <v>397.9299725435894</v>
+        <v>6.681070402295684</v>
       </c>
       <c r="AH2" t="n">
-        <v>223.9433739005513</v>
+        <v>6.632166209059823</v>
       </c>
       <c r="AI2" t="n">
-        <v>497.2552012261438</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>334.7279206373036</v>
-      </c>
+        <v>3.732389565009188</v>
+      </c>
+      <c r="AJ2" t="inlineStr"/>
       <c r="AK2" t="n">
-        <v>441.6879079489335</v>
+        <v>5.578798677288393</v>
       </c>
       <c r="AL2" t="n">
-        <v>365.3491083168797</v>
+        <v>7.361465132482224</v>
       </c>
       <c r="AM2" t="n">
-        <v>310.2908664795512</v>
+        <v>6.089151805281328</v>
       </c>
       <c r="AN2" t="n">
-        <v>151.6276365632503</v>
+        <v>5.171514441325853</v>
       </c>
       <c r="AO2" t="n">
-        <v>187.2783941316348</v>
+        <v>2.527127276054172</v>
       </c>
       <c r="AP2" t="n">
-        <v>377.4491611456171</v>
+        <v>3.12130656886058</v>
       </c>
       <c r="AQ2" t="n">
-        <v>277.7879062707535</v>
+        <v>6.290819352426952</v>
       </c>
       <c r="AR2" t="n">
-        <v>341.0735167252936</v>
+        <v>4.629798437845892</v>
       </c>
       <c r="AS2" t="n">
-        <v>280.4940072942653</v>
+        <v>5.684558612088227</v>
       </c>
       <c r="AT2" t="n">
-        <v>561.6689352485494</v>
-      </c>
-      <c r="AU2" t="n">
-        <v>380.2557597349503</v>
+        <v>4.674900121571088</v>
+      </c>
+      <c r="AU2" t="inlineStr"/>
+      <c r="AV2" t="n">
+        <v>6.337595995582506</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
-        <v>127.5034954382292</v>
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>蚌埠禹会</t>
+        </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C3" t="n">
-        <v>181.1481836627889</v>
-      </c>
+        <v>2.125058257303821</v>
+      </c>
+      <c r="C3" t="inlineStr"/>
       <c r="D3" t="n">
-        <v>295.3038047963856</v>
+        <v>3.019136394379814</v>
       </c>
       <c r="E3" t="n">
-        <v>296.9978639935721</v>
+        <v>4.92173007993976</v>
       </c>
       <c r="F3" t="n">
-        <v>110.9427469263897</v>
+        <v>4.949964399892869</v>
       </c>
       <c r="G3" t="n">
-        <v>171.948617998595</v>
+        <v>1.849045782106494</v>
       </c>
       <c r="H3" t="n">
-        <v>340.0954871860317</v>
+        <v>2.865810299976583</v>
       </c>
       <c r="I3" t="n">
-        <v>347.9175621284799</v>
+        <v>5.668258119767196</v>
       </c>
       <c r="J3" t="n">
-        <v>355.5748411144289</v>
+        <v>5.798626035474665</v>
       </c>
       <c r="K3" t="n">
-        <v>354.2555315415555</v>
+        <v>5.926247351907148</v>
       </c>
       <c r="L3" t="n">
-        <v>55.23958179534411</v>
+        <v>5.904258859025926</v>
       </c>
       <c r="M3" t="n">
-        <v>56.14576963335637</v>
+        <v>0.9206596965890684</v>
       </c>
       <c r="N3" t="n">
-        <v>327.597546770856</v>
+        <v>0.9357628272226061</v>
       </c>
       <c r="O3" t="n">
-        <v>188.7349211762019</v>
+        <v>5.459959112847599</v>
       </c>
       <c r="P3" t="n">
-        <v>39.25581198454712</v>
+        <v>3.145582019603364</v>
       </c>
       <c r="Q3" t="n">
-        <v>199.6835938059583</v>
+        <v>0.6542635330757853</v>
       </c>
       <c r="R3" t="n">
-        <v>390.9848835552033</v>
+        <v>3.328059896765971</v>
       </c>
       <c r="S3" t="n">
-        <v>319.5896772187968</v>
+        <v>6.516414725920055</v>
       </c>
       <c r="T3" t="n">
-        <v>371.5511731587999</v>
+        <v>5.32649462031328</v>
       </c>
       <c r="U3" t="n">
-        <v>215.6392936605961</v>
+        <v>6.192519552646664</v>
       </c>
       <c r="V3" t="n">
-        <v>173.1080193971705</v>
+        <v>3.593988227676602</v>
       </c>
       <c r="W3" t="n">
-        <v>360.4422237813138</v>
+        <v>2.885133656619508</v>
       </c>
       <c r="X3" t="n">
-        <v>460.3030289306344</v>
+        <v>6.00737039635523</v>
       </c>
       <c r="Y3" t="n">
-        <v>496.4144542027742</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>467.3828882219505</v>
-      </c>
+        <v>7.671717148843906</v>
+      </c>
+      <c r="Z3" t="inlineStr"/>
       <c r="AA3" t="n">
-        <v>443.1954823984692</v>
+        <v>7.789714803699174</v>
       </c>
       <c r="AB3" t="n">
-        <v>458.7716866596942</v>
+        <v>7.38659137330782</v>
       </c>
       <c r="AC3" t="n">
-        <v>475.3279425174271</v>
+        <v>7.646194777661571</v>
       </c>
       <c r="AD3" t="n">
-        <v>430.3207461294598</v>
+        <v>7.922132375290451</v>
       </c>
       <c r="AE3" t="n">
-        <v>392.3811273523414</v>
+        <v>7.172012435490998</v>
       </c>
       <c r="AF3" t="n">
-        <v>375.3148758871895</v>
+        <v>6.539685455872357</v>
       </c>
       <c r="AG3" t="n">
-        <v>373.6998153330681</v>
+        <v>6.255247931453159</v>
       </c>
       <c r="AH3" t="n">
-        <v>116.7266302847766</v>
+        <v>6.228330255551135</v>
       </c>
       <c r="AI3" t="n">
-        <v>510.5091920841265</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>286.326405113635</v>
-      </c>
+        <v>1.945443838079611</v>
+      </c>
+      <c r="AJ3" t="inlineStr"/>
       <c r="AK3" t="n">
-        <v>472.1314129600553</v>
+        <v>4.772106751893916</v>
       </c>
       <c r="AL3" t="n">
-        <v>334.3033149538135</v>
+        <v>7.868856882667588</v>
       </c>
       <c r="AM3" t="n">
-        <v>287.4647497661474</v>
+        <v>5.571721915896892</v>
       </c>
       <c r="AN3" t="n">
-        <v>141.2447170197321</v>
+        <v>4.791079162769123</v>
       </c>
       <c r="AO3" t="n">
-        <v>66.86838674778292</v>
+        <v>2.354078616995535</v>
       </c>
       <c r="AP3" t="n">
-        <v>313.658121496289</v>
+        <v>1.114473112463049</v>
       </c>
       <c r="AQ3" t="n">
-        <v>229.2886870913423</v>
+        <v>5.227635358271483</v>
       </c>
       <c r="AR3" t="n">
-        <v>359.2108543422336</v>
+        <v>3.821478118189038</v>
       </c>
       <c r="AS3" t="n">
-        <v>236.6235037072177</v>
+        <v>5.98684757237056</v>
       </c>
       <c r="AT3" t="n">
-        <v>552.3146018272954</v>
-      </c>
-      <c r="AU3" t="n">
-        <v>352.5168315515546</v>
+        <v>3.943725061786961</v>
+      </c>
+      <c r="AU3" t="inlineStr"/>
+      <c r="AV3" t="n">
+        <v>5.875280525859243</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
-        <v>219.2132176247463</v>
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>亳州谯城</t>
+        </is>
       </c>
       <c r="B4" t="n">
-        <v>181.1481836627889</v>
+        <v>3.653553627079105</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>476.4286460253022</v>
-      </c>
+        <v>3.019136394379814</v>
+      </c>
+      <c r="D4" t="inlineStr"/>
       <c r="E4" t="n">
-        <v>478.0249711471633</v>
+        <v>7.940477433755038</v>
       </c>
       <c r="F4" t="n">
-        <v>291.990887755272</v>
+        <v>7.967082852452721</v>
       </c>
       <c r="G4" t="n">
-        <v>48.08676692742301</v>
+        <v>4.866514795921201</v>
       </c>
       <c r="H4" t="n">
-        <v>519.125868001201</v>
-      </c>
-      <c r="I4" t="n">
-        <v>526.901326940863</v>
-      </c>
-      <c r="J4" t="n">
-        <v>534.4696087578643</v>
-      </c>
-      <c r="K4" t="n">
-        <v>533.9544414314925</v>
-      </c>
-      <c r="L4" t="n">
-        <v>212.6419429772254</v>
-      </c>
+        <v>0.8014461154570504</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
-        <v>192.9621053422358</v>
+        <v>3.544032382953758</v>
       </c>
       <c r="N4" t="n">
-        <v>508.0739040681018</v>
-      </c>
-      <c r="O4" t="n">
-        <v>360.7571420266386</v>
-      </c>
+        <v>3.216035089037263</v>
+      </c>
+      <c r="O4" t="inlineStr"/>
       <c r="P4" t="n">
-        <v>151.2944190324414</v>
+        <v>6.012619033777311</v>
       </c>
       <c r="Q4" t="n">
-        <v>353.4362180695201</v>
+        <v>2.52157365054069</v>
       </c>
       <c r="R4" t="n">
-        <v>571.8604339217736</v>
-      </c>
-      <c r="S4" t="n">
-        <v>488.3006152287828</v>
-      </c>
-      <c r="T4" t="n">
-        <v>538.8006315635636</v>
-      </c>
-      <c r="U4" t="n">
-        <v>374.4020813486446</v>
-      </c>
+        <v>5.890603634492003</v>
+      </c>
+      <c r="S4" t="inlineStr"/>
+      <c r="T4" t="inlineStr"/>
+      <c r="U4" t="inlineStr"/>
       <c r="V4" t="n">
-        <v>354.1244256622973</v>
+        <v>6.240034689144077</v>
       </c>
       <c r="W4" t="n">
-        <v>311.9498837565472</v>
+        <v>5.902073761038287</v>
       </c>
       <c r="X4" t="n">
-        <v>640.8034143221046</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>676.6073482072055</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>648.2725387703827</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>624.184758771971</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>639.8879642067562</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>656.3541930388067</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>611.4572565987934</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>571.4253814997253</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>556.4481575614576</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>554.8470860184079</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>279.3420616596766</v>
-      </c>
+        <v>5.199164729275788</v>
+      </c>
+      <c r="Y4" t="inlineStr"/>
+      <c r="Z4" t="inlineStr"/>
+      <c r="AA4" t="inlineStr"/>
+      <c r="AB4" t="inlineStr"/>
+      <c r="AC4" t="inlineStr"/>
+      <c r="AD4" t="inlineStr"/>
+      <c r="AE4" t="inlineStr"/>
+      <c r="AF4" t="inlineStr"/>
+      <c r="AG4" t="inlineStr"/>
+      <c r="AH4" t="inlineStr"/>
       <c r="AI4" t="n">
-        <v>687.4464439161856</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>465.9017421239421</v>
-      </c>
+        <v>4.655701027661277</v>
+      </c>
+      <c r="AJ4" t="inlineStr"/>
       <c r="AK4" t="n">
-        <v>643.0349506645855</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>515.3459278733106</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>468.4296213610709</v>
-      </c>
+        <v>7.765029035399036</v>
+      </c>
+      <c r="AL4" t="inlineStr"/>
+      <c r="AM4" t="inlineStr"/>
       <c r="AN4" t="n">
-        <v>316.1410430946445</v>
+        <v>7.807160356017849</v>
       </c>
       <c r="AO4" t="n">
-        <v>156.9627242806565</v>
+        <v>5.269017384910742</v>
       </c>
       <c r="AP4" t="n">
-        <v>488.4322458807737</v>
-      </c>
-      <c r="AQ4" t="n">
-        <v>409.6931182471677</v>
-      </c>
+        <v>2.616045404677608</v>
+      </c>
+      <c r="AQ4" t="inlineStr"/>
       <c r="AR4" t="n">
-        <v>533.2780377152404</v>
-      </c>
-      <c r="AS4" t="n">
-        <v>417.4014815144845</v>
-      </c>
+        <v>6.828218637452795</v>
+      </c>
+      <c r="AS4" t="inlineStr"/>
       <c r="AT4" t="n">
-        <v>733.1910944718694</v>
-      </c>
-      <c r="AU4" t="n">
-        <v>533.6318578083287</v>
-      </c>
+        <v>6.956691358574742</v>
+      </c>
+      <c r="AU4" t="inlineStr"/>
+      <c r="AV4" t="inlineStr"/>
     </row>
     <row r="5">
-      <c r="A5" t="n">
-        <v>326.5511064927636</v>
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>常州武进</t>
+        </is>
       </c>
       <c r="B5" t="n">
-        <v>295.3038047963856</v>
+        <v>5.44251844154606</v>
       </c>
       <c r="C5" t="n">
-        <v>476.4286460253022</v>
+        <v>4.92173007993976</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>7.879611070968774</v>
-      </c>
+        <v>7.940477433755038</v>
+      </c>
+      <c r="E5" t="inlineStr"/>
       <c r="F5" t="n">
-        <v>184.8507003526669</v>
+        <v>0.1313268511828129</v>
       </c>
       <c r="G5" t="n">
-        <v>463.9175323054986</v>
+        <v>3.080845005877781</v>
       </c>
       <c r="H5" t="n">
-        <v>80.02726718350515</v>
+        <v>7.731958871758311</v>
       </c>
       <c r="I5" t="n">
-        <v>85.58127296623951</v>
+        <v>1.333787786391752</v>
       </c>
       <c r="J5" t="n">
-        <v>91.80908735317284</v>
+        <v>1.426354549437325</v>
       </c>
       <c r="K5" t="n">
-        <v>81.86130814426147</v>
+        <v>1.530151455886214</v>
       </c>
       <c r="L5" t="n">
-        <v>274.9565813995877</v>
+        <v>1.364355135737691</v>
       </c>
       <c r="M5" t="n">
-        <v>298.2651964721456</v>
+        <v>4.582609689993129</v>
       </c>
       <c r="N5" t="n">
-        <v>51.15818731076119</v>
+        <v>4.971086607869094</v>
       </c>
       <c r="O5" t="n">
-        <v>145.8138318505117</v>
+        <v>0.852636455179353</v>
       </c>
       <c r="P5" t="n">
-        <v>328.1944915781189</v>
+        <v>2.430230530841861</v>
       </c>
       <c r="Q5" t="n">
-        <v>208.7913031588333</v>
+        <v>5.469908192968647</v>
       </c>
       <c r="R5" t="n">
-        <v>100.110888011846</v>
+        <v>3.479855052647222</v>
       </c>
       <c r="S5" t="n">
-        <v>149.5932394737389</v>
+        <v>1.668514800197433</v>
       </c>
       <c r="T5" t="n">
-        <v>180.5870397468956</v>
+        <v>2.493220657895649</v>
       </c>
       <c r="U5" t="n">
-        <v>181.2770324874788</v>
+        <v>3.009783995781592</v>
       </c>
       <c r="V5" t="n">
-        <v>123.3640854961401</v>
+        <v>3.021283874791314</v>
       </c>
       <c r="W5" t="n">
-        <v>565.5770661540039</v>
-      </c>
-      <c r="X5" t="n">
-        <v>170.8338568147942</v>
-      </c>
+        <v>2.056068091602336</v>
+      </c>
+      <c r="X5" t="inlineStr"/>
       <c r="Y5" t="n">
-        <v>208.1468656311151</v>
+        <v>2.847230946913237</v>
       </c>
       <c r="Z5" t="n">
-        <v>172.8020026654709</v>
+        <v>3.469114427185252</v>
       </c>
       <c r="AA5" t="n">
-        <v>148.2709601474752</v>
+        <v>2.880033377757848</v>
       </c>
       <c r="AB5" t="n">
-        <v>163.4691819366062</v>
+        <v>2.471182669124586</v>
       </c>
       <c r="AC5" t="n">
-        <v>180.2249988519085</v>
+        <v>2.724486365610104</v>
       </c>
       <c r="AD5" t="n">
-        <v>135.0390530520399</v>
+        <v>3.003749980865141</v>
       </c>
       <c r="AE5" t="n">
-        <v>119.4036099624901</v>
+        <v>2.250650884200665</v>
       </c>
       <c r="AF5" t="n">
-        <v>80.02683206425448</v>
+        <v>1.990060166041502</v>
       </c>
       <c r="AG5" t="n">
-        <v>78.58766790223082</v>
+        <v>1.333780534404241</v>
       </c>
       <c r="AH5" t="n">
-        <v>219.9960223525008</v>
+        <v>1.30979446503718</v>
       </c>
       <c r="AI5" t="n">
-        <v>239.474551450738</v>
+        <v>3.66660037254168</v>
       </c>
       <c r="AJ5" t="n">
-        <v>43.91298069388716</v>
+        <v>3.991242524178967</v>
       </c>
       <c r="AK5" t="n">
-        <v>234.7876371760028</v>
+        <v>0.7318830115647861</v>
       </c>
       <c r="AL5" t="n">
-        <v>39.60664751718109</v>
+        <v>3.913127286266713</v>
       </c>
       <c r="AM5" t="n">
-        <v>23.97644310335611</v>
+        <v>0.6601107919530182</v>
       </c>
       <c r="AN5" t="n">
-        <v>175.8199400732985</v>
+        <v>0.3996073850559351</v>
       </c>
       <c r="AO5" t="n">
-        <v>334.0668681622911</v>
+        <v>2.930332334554974</v>
       </c>
       <c r="AP5" t="n">
-        <v>96.65450652608516</v>
+        <v>5.567781136038186</v>
       </c>
       <c r="AQ5" t="n">
-        <v>71.03312668090996</v>
+        <v>1.610908442101419</v>
       </c>
       <c r="AR5" t="n">
-        <v>134.00359796082</v>
+        <v>1.183885444681833</v>
       </c>
       <c r="AS5" t="n">
-        <v>61.1089136490482</v>
+        <v>2.233393299347</v>
       </c>
       <c r="AT5" t="n">
-        <v>259.2084471606886</v>
+        <v>1.018481894150803</v>
       </c>
       <c r="AU5" t="n">
-        <v>57.22203646458833</v>
+        <v>4.320140786011478</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>0.9537006077431388</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
-        <v>331.0934636454843</v>
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>常州新北</t>
+        </is>
       </c>
       <c r="B6" t="n">
-        <v>296.9978639935721</v>
+        <v>5.518224394091405</v>
       </c>
       <c r="C6" t="n">
-        <v>478.0249711471633</v>
+        <v>4.949964399892869</v>
       </c>
       <c r="D6" t="n">
-        <v>7.879611070968774</v>
+        <v>7.967082852452721</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>186.9429144820663</v>
-      </c>
+        <v>0.1313268511828129</v>
+      </c>
+      <c r="F6" t="inlineStr"/>
       <c r="G6" t="n">
-        <v>466.2679172811908</v>
+        <v>3.115715241367772</v>
       </c>
       <c r="H6" t="n">
-        <v>86.25372711912907</v>
+        <v>7.771131954686513</v>
       </c>
       <c r="I6" t="n">
-        <v>91.47386708588812</v>
+        <v>1.437562118652151</v>
       </c>
       <c r="J6" t="n">
-        <v>97.42077146251032</v>
+        <v>1.524564451431469</v>
       </c>
       <c r="K6" t="n">
-        <v>86.88593431632573</v>
+        <v>1.623679524375172</v>
       </c>
       <c r="L6" t="n">
-        <v>278.0060417430573</v>
+        <v>1.448098905272096</v>
       </c>
       <c r="M6" t="n">
-        <v>301.3702878607658</v>
+        <v>4.633434029050956</v>
       </c>
       <c r="N6" t="n">
-        <v>56.81925013521364</v>
+        <v>5.022838131012763</v>
       </c>
       <c r="O6" t="n">
-        <v>143.2353709006401</v>
+        <v>0.9469875022535608</v>
       </c>
       <c r="P6" t="n">
-        <v>330.4027398582116</v>
+        <v>2.387256181677335</v>
       </c>
       <c r="Q6" t="n">
-        <v>215.2295075775597</v>
+        <v>5.506712330970193</v>
       </c>
       <c r="R6" t="n">
-        <v>101.5203910352683</v>
+        <v>3.587158459625996</v>
       </c>
       <c r="S6" t="n">
-        <v>157.4194601823024</v>
+        <v>1.692006517254472</v>
       </c>
       <c r="T6" t="n">
-        <v>187.9392751768461</v>
+        <v>2.62365766970504</v>
       </c>
       <c r="U6" t="n">
-        <v>176.8825811059425</v>
+        <v>3.132321252947434</v>
       </c>
       <c r="V6" t="n">
-        <v>125.9836782226474</v>
+        <v>2.948043018432375</v>
       </c>
       <c r="W6" t="n">
-        <v>562.6368641331044</v>
-      </c>
-      <c r="X6" t="n">
-        <v>171.9944981091034</v>
-      </c>
+        <v>2.099727970377457</v>
+      </c>
+      <c r="X6" t="inlineStr"/>
       <c r="Y6" t="n">
-        <v>209.3621632102976</v>
+        <v>2.866574968485057</v>
       </c>
       <c r="Z6" t="n">
-        <v>170.4962224696538</v>
+        <v>3.489369386838293</v>
       </c>
       <c r="AA6" t="n">
-        <v>146.2025702729274</v>
+        <v>2.841603707827563</v>
       </c>
       <c r="AB6" t="n">
-        <v>162.0204334527108</v>
+        <v>2.43670950454879</v>
       </c>
       <c r="AC6" t="n">
-        <v>178.3343224253909</v>
+        <v>2.70034055754518</v>
       </c>
       <c r="AD6" t="n">
-        <v>133.8386287698531</v>
+        <v>2.972238707089848</v>
       </c>
       <c r="AE6" t="n">
-        <v>123.5561254514445</v>
+        <v>2.230643812830885</v>
       </c>
       <c r="AF6" t="n">
-        <v>78.98714634718064</v>
+        <v>2.059268757524075</v>
       </c>
       <c r="AG6" t="n">
-        <v>77.99732565083094</v>
+        <v>1.316452439119677</v>
       </c>
       <c r="AH6" t="n">
-        <v>218.9718182682113</v>
+        <v>1.299955427513849</v>
       </c>
       <c r="AI6" t="n">
-        <v>242.6831708532199</v>
+        <v>3.649530304470188</v>
       </c>
       <c r="AJ6" t="n">
-        <v>37.11530181127102</v>
+        <v>4.044719514220331</v>
       </c>
       <c r="AK6" t="n">
-        <v>240.2098585712071</v>
+        <v>0.6185883635211837</v>
       </c>
       <c r="AL6" t="n">
-        <v>37.32670185169292</v>
+        <v>4.003497642853453</v>
       </c>
       <c r="AM6" t="n">
-        <v>31.77245271599019</v>
+        <v>0.6221116975282154</v>
       </c>
       <c r="AN6" t="n">
-        <v>179.9705655753986</v>
+        <v>0.5295408785998366</v>
       </c>
       <c r="AO6" t="n">
-        <v>334.3952571300159</v>
+        <v>2.999509426256644</v>
       </c>
       <c r="AP6" t="n">
-        <v>88.90053614503657</v>
+        <v>5.573254285500265</v>
       </c>
       <c r="AQ6" t="n">
-        <v>70.46793072993708</v>
+        <v>1.481675602417276</v>
       </c>
       <c r="AR6" t="n">
-        <v>140.9321526921777</v>
+        <v>1.174465512165618</v>
       </c>
       <c r="AS6" t="n">
-        <v>61.23299415747451</v>
+        <v>2.348869211536295</v>
       </c>
       <c r="AT6" t="n">
-        <v>259.1292825237569</v>
+        <v>1.020549902624575</v>
       </c>
       <c r="AU6" t="n">
-        <v>56.00851124356384</v>
+        <v>4.318821375395948</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>0.9334751873927306</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="n">
-        <v>166.3094372213884</v>
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>滁州琅琊</t>
+        </is>
       </c>
       <c r="B7" t="n">
-        <v>110.9427469263897</v>
+        <v>2.771823953689807</v>
       </c>
       <c r="C7" t="n">
-        <v>291.990887755272</v>
+        <v>1.849045782106494</v>
       </c>
       <c r="D7" t="n">
-        <v>184.8507003526669</v>
+        <v>4.866514795921201</v>
       </c>
       <c r="E7" t="n">
-        <v>186.9429144820663</v>
+        <v>3.080845005877781</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="n">
-        <v>279.3993685028154</v>
-      </c>
+        <v>3.115715241367772</v>
+      </c>
+      <c r="G7" t="inlineStr"/>
       <c r="H7" t="n">
-        <v>230.6548937913371</v>
+        <v>4.656656141713589</v>
       </c>
       <c r="I7" t="n">
-        <v>238.4900764701946</v>
+        <v>3.844248229855619</v>
       </c>
       <c r="J7" t="n">
-        <v>246.2023423030221</v>
+        <v>3.974834607836576</v>
       </c>
       <c r="K7" t="n">
-        <v>244.1440100833286</v>
+        <v>4.103372371717034</v>
       </c>
       <c r="L7" t="n">
-        <v>95.16664965747721</v>
+        <v>4.069066834722143</v>
       </c>
       <c r="M7" t="n">
-        <v>118.3832940180699</v>
+        <v>1.58611082762462</v>
       </c>
       <c r="N7" t="n">
-        <v>216.8936533883897</v>
+        <v>1.973054900301166</v>
       </c>
       <c r="O7" t="n">
-        <v>105.6424775433616</v>
+        <v>3.614894223139828</v>
       </c>
       <c r="P7" t="n">
-        <v>143.4686146473025</v>
+        <v>1.760707959056027</v>
       </c>
       <c r="Q7" t="n">
-        <v>136.3232866719831</v>
+        <v>2.391143577455042</v>
       </c>
       <c r="R7" t="n">
-        <v>280.0540956126654</v>
+        <v>2.272054777866385</v>
       </c>
       <c r="S7" t="n">
-        <v>222.351657492572</v>
+        <v>4.667568260211089</v>
       </c>
       <c r="T7" t="n">
-        <v>274.3321648735509</v>
+        <v>3.705860958209534</v>
       </c>
       <c r="U7" t="n">
-        <v>152.3153374886132</v>
+        <v>4.572202747892516</v>
       </c>
       <c r="V7" t="n">
-        <v>62.16533503444183</v>
+        <v>2.538588958143554</v>
       </c>
       <c r="W7" t="n">
-        <v>431.2085483426471</v>
+        <v>1.036088917240697</v>
       </c>
       <c r="X7" t="n">
-        <v>349.5140844139121</v>
+        <v>7.186809139044118</v>
       </c>
       <c r="Y7" t="n">
-        <v>385.7829230434641</v>
+        <v>5.825234740231869</v>
       </c>
       <c r="Z7" t="n">
-        <v>357.4301904503129</v>
+        <v>6.429715384057735</v>
       </c>
       <c r="AA7" t="n">
-        <v>333.0453000948511</v>
+        <v>5.957169840838548</v>
       </c>
       <c r="AB7" t="n">
-        <v>348.2518227572704</v>
+        <v>5.550755001580852</v>
       </c>
       <c r="AC7" t="n">
-        <v>365.0649822717639</v>
+        <v>5.804197045954506</v>
       </c>
       <c r="AD7" t="n">
-        <v>319.7176105504127</v>
+        <v>6.084416371196066</v>
       </c>
       <c r="AE7" t="n">
-        <v>282.7476184920706</v>
+        <v>5.328626842506878</v>
       </c>
       <c r="AF7" t="n">
-        <v>264.7523689463707</v>
+        <v>4.712460308201176</v>
       </c>
       <c r="AG7" t="n">
-        <v>263.0202624255936</v>
+        <v>4.412539482439512</v>
       </c>
       <c r="AH7" t="n">
-        <v>86.82959264975733</v>
+        <v>4.38367104042656</v>
       </c>
       <c r="AI7" t="n">
-        <v>402.3039702584137</v>
+        <v>1.447159877495956</v>
       </c>
       <c r="AJ7" t="n">
-        <v>179.7851573993246</v>
+        <v>6.705066170973562</v>
       </c>
       <c r="AK7" t="n">
-        <v>369.5165281793302</v>
+        <v>2.996419289988744</v>
       </c>
       <c r="AL7" t="n">
-        <v>224.1284713558975</v>
+        <v>6.158608802988837</v>
       </c>
       <c r="AM7" t="n">
-        <v>176.5231125852498</v>
+        <v>3.735474522598292</v>
       </c>
       <c r="AN7" t="n">
-        <v>52.44390296510633</v>
+        <v>2.94205187642083</v>
       </c>
       <c r="AO7" t="n">
-        <v>158.733260484777</v>
+        <v>0.8740650494184389</v>
       </c>
       <c r="AP7" t="n">
-        <v>215.0639058708132</v>
+        <v>2.645554341412951</v>
       </c>
       <c r="AQ7" t="n">
-        <v>121.5898248440009</v>
+        <v>3.58439843118022</v>
       </c>
       <c r="AR7" t="n">
-        <v>254.8574382139548</v>
+        <v>2.026497080733349</v>
       </c>
       <c r="AS7" t="n">
-        <v>127.6751907612914</v>
+        <v>4.24762397023258</v>
       </c>
       <c r="AT7" t="n">
-        <v>441.3776885907726</v>
+        <v>2.127919846021523</v>
       </c>
       <c r="AU7" t="n">
-        <v>242.0588731576054</v>
+        <v>7.35629480984621</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>4.034314552626756</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="n">
-        <v>182.4088705503419</v>
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>阜阳颍州</t>
+        </is>
       </c>
       <c r="B8" t="n">
-        <v>171.948617998595</v>
+        <v>3.040147842505698</v>
       </c>
       <c r="C8" t="n">
-        <v>48.08676692742301</v>
+        <v>2.865810299976583</v>
       </c>
       <c r="D8" t="n">
-        <v>463.9175323054986</v>
+        <v>0.8014461154570504</v>
       </c>
       <c r="E8" t="n">
-        <v>466.2679172811908</v>
+        <v>7.731958871758311</v>
       </c>
       <c r="F8" t="n">
-        <v>279.3993685028154</v>
+        <v>7.771131954686513</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>500.1496571120564</v>
-      </c>
-      <c r="I8" t="n">
-        <v>507.8131222217972</v>
-      </c>
-      <c r="J8" t="n">
-        <v>515.2178866643525</v>
-      </c>
-      <c r="K8" t="n">
-        <v>515.8570503766133</v>
-      </c>
-      <c r="L8" t="n">
-        <v>191.6349492764017</v>
-      </c>
+        <v>4.656656141713589</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
-        <v>169.619323116378</v>
+        <v>3.193915821273361</v>
       </c>
       <c r="N8" t="n">
-        <v>491.6194603519319</v>
-      </c>
-      <c r="O8" t="n">
-        <v>359.2753091076934</v>
-      </c>
+        <v>2.826988718606301</v>
+      </c>
+      <c r="O8" t="inlineStr"/>
       <c r="P8" t="n">
-        <v>136.0002641234789</v>
+        <v>5.987921818461557</v>
       </c>
       <c r="Q8" t="n">
-        <v>323.4921256277451</v>
+        <v>2.266671068724649</v>
       </c>
       <c r="R8" t="n">
-        <v>556.2664262576553</v>
-      </c>
-      <c r="S8" t="n">
-        <v>461.8981955966667</v>
-      </c>
+        <v>5.391535427129084</v>
+      </c>
+      <c r="S8" t="inlineStr"/>
       <c r="T8" t="n">
-        <v>511.1873490762381</v>
-      </c>
-      <c r="U8" t="n">
-        <v>379.6008930234365</v>
-      </c>
+        <v>7.698303259944445</v>
+      </c>
+      <c r="U8" t="inlineStr"/>
       <c r="V8" t="n">
-        <v>340.5702003373793</v>
+        <v>6.326681550390608</v>
       </c>
       <c r="W8" t="n">
-        <v>357.8292297051949</v>
+        <v>5.676170005622988</v>
       </c>
       <c r="X8" t="n">
-        <v>623.8048305148392</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>658.7834345481346</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>636.683168970781</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>612.1878129663957</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>626.9378499406899</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>644.0791813422107</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>598.2890870478387</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>552.1558902174719</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>543.504848276636</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>541.5384675741324</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>281.3899189876305</v>
-      </c>
+        <v>5.963820495086582</v>
+      </c>
+      <c r="Y8" t="inlineStr"/>
+      <c r="Z8" t="inlineStr"/>
+      <c r="AA8" t="inlineStr"/>
+      <c r="AB8" t="inlineStr"/>
+      <c r="AC8" t="inlineStr"/>
+      <c r="AD8" t="inlineStr"/>
+      <c r="AE8" t="inlineStr"/>
+      <c r="AF8" t="inlineStr"/>
+      <c r="AG8" t="inlineStr"/>
+      <c r="AH8" t="inlineStr"/>
       <c r="AI8" t="n">
-        <v>665.2645628344098</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>457.7392007487355</v>
-      </c>
+        <v>4.689831983127175</v>
+      </c>
+      <c r="AJ8" t="inlineStr"/>
       <c r="AK8" t="n">
-        <v>616.6385905326674</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>503.3578079999706</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>453.7194830978702</v>
-      </c>
+        <v>7.628986679145592</v>
+      </c>
+      <c r="AL8" t="inlineStr"/>
+      <c r="AM8" t="inlineStr"/>
       <c r="AN8" t="n">
-        <v>296.1635176293012</v>
+        <v>7.561991384964504</v>
       </c>
       <c r="AO8" t="n">
-        <v>166.3108257088225</v>
+        <v>4.93605862715502</v>
       </c>
       <c r="AP8" t="n">
-        <v>485.3697364482958</v>
-      </c>
-      <c r="AQ8" t="n">
-        <v>400.1753700748521</v>
-      </c>
+        <v>2.771847095147041</v>
+      </c>
+      <c r="AQ8" t="inlineStr"/>
       <c r="AR8" t="n">
-        <v>509.6294947717436</v>
-      </c>
-      <c r="AS8" t="n">
-        <v>406.899372364939</v>
-      </c>
+        <v>6.669589501247534</v>
+      </c>
+      <c r="AS8" t="inlineStr"/>
       <c r="AT8" t="n">
-        <v>717.0890171881359</v>
-      </c>
-      <c r="AU8" t="n">
-        <v>521.0084761941367</v>
-      </c>
+        <v>6.781656206082317</v>
+      </c>
+      <c r="AU8" t="inlineStr"/>
+      <c r="AV8" t="inlineStr"/>
     </row>
     <row r="9">
-      <c r="A9" t="n">
-        <v>342.7175363859721</v>
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>杭州拱墅</t>
+        </is>
       </c>
       <c r="B9" t="n">
-        <v>340.0954871860317</v>
+        <v>5.711958939766202</v>
       </c>
       <c r="C9" t="n">
-        <v>519.125868001201</v>
-      </c>
-      <c r="D9" t="n">
-        <v>80.02726718350515</v>
-      </c>
+        <v>5.668258119767196</v>
+      </c>
+      <c r="D9" t="inlineStr"/>
       <c r="E9" t="n">
-        <v>86.25372711912907</v>
+        <v>1.333787786391752</v>
       </c>
       <c r="F9" t="n">
-        <v>230.6548937913371</v>
+        <v>1.437562118652151</v>
       </c>
       <c r="G9" t="n">
-        <v>500.1496571120564</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>7.835326557710694</v>
-      </c>
+        <v>3.844248229855619</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="n">
-        <v>15.55783807430041</v>
+        <v>0.1305887759618449</v>
       </c>
       <c r="K9" t="n">
-        <v>18.39087795966228</v>
+        <v>0.2592973012383402</v>
       </c>
       <c r="L9" t="n">
-        <v>308.5766657825375</v>
+        <v>0.306514632661038</v>
       </c>
       <c r="M9" t="n">
-        <v>330.6085504479614</v>
+        <v>5.142944429708958</v>
       </c>
       <c r="N9" t="n">
-        <v>30.08006577983752</v>
+        <v>5.510142507466024</v>
       </c>
       <c r="O9" t="n">
-        <v>218.8376555812626</v>
+        <v>0.5013344296639587</v>
       </c>
       <c r="P9" t="n">
-        <v>367.9303204247756</v>
+        <v>3.64729425968771</v>
       </c>
       <c r="Q9" t="n">
-        <v>203.7795781434596</v>
+        <v>6.132172007079593</v>
       </c>
       <c r="R9" t="n">
-        <v>67.79805822994201</v>
+        <v>3.396326302390994</v>
       </c>
       <c r="S9" t="n">
-        <v>92.8522115868191</v>
+        <v>1.1299676371657</v>
       </c>
       <c r="T9" t="n">
-        <v>107.3380764045583</v>
+        <v>1.547536859780318</v>
       </c>
       <c r="U9" t="n">
-        <v>259.2584320773307</v>
+        <v>1.788967940075971</v>
       </c>
       <c r="V9" t="n">
-        <v>170.1536533011992</v>
+        <v>4.320973867955511</v>
       </c>
       <c r="W9" t="n">
-        <v>637.2088954944542</v>
-      </c>
-      <c r="X9" t="n">
-        <v>125.3086849043386</v>
-      </c>
+        <v>2.835894221686654</v>
+      </c>
+      <c r="X9" t="inlineStr"/>
       <c r="Y9" t="n">
-        <v>158.8924867651622</v>
+        <v>2.088478081738976</v>
       </c>
       <c r="Z9" t="n">
-        <v>162.0216738913907</v>
+        <v>2.648208112752703</v>
       </c>
       <c r="AA9" t="n">
-        <v>138.5330956568291</v>
+        <v>2.700361231523179</v>
       </c>
       <c r="AB9" t="n">
-        <v>145.0140934868705</v>
+        <v>2.308884927613819</v>
       </c>
       <c r="AC9" t="n">
-        <v>164.2321017167669</v>
+        <v>2.416901558114508</v>
       </c>
       <c r="AD9" t="n">
-        <v>118.8965473127781</v>
+        <v>2.737201695279448</v>
       </c>
       <c r="AE9" t="n">
-        <v>52.31809131847687</v>
+        <v>1.981609121879635</v>
       </c>
       <c r="AF9" t="n">
-        <v>81.1067252928876</v>
+        <v>0.8719681886412812</v>
       </c>
       <c r="AG9" t="n">
-        <v>76.51324289529738</v>
+        <v>1.35177875488146</v>
       </c>
       <c r="AH9" t="n">
-        <v>284.534728460692</v>
+        <v>1.275220714921623</v>
       </c>
       <c r="AI9" t="n">
-        <v>172.3456582699669</v>
+        <v>4.742245474344866</v>
       </c>
       <c r="AJ9" t="n">
-        <v>123.3372809711218</v>
+        <v>2.872427637832782</v>
       </c>
       <c r="AK9" t="n">
-        <v>155.8562968039765</v>
+        <v>2.055621349518697</v>
       </c>
       <c r="AL9" t="n">
-        <v>78.14092860787392</v>
+        <v>2.597604946732942</v>
       </c>
       <c r="AM9" t="n">
-        <v>66.83954008908819</v>
+        <v>1.302348810131232</v>
       </c>
       <c r="AN9" t="n">
-        <v>204.00003906579</v>
+        <v>1.113992334818136</v>
       </c>
       <c r="AO9" t="n">
-        <v>388.2740554986113</v>
+        <v>3.400000651096501</v>
       </c>
       <c r="AP9" t="n">
-        <v>170.8447769554832</v>
+        <v>6.471234258310188</v>
       </c>
       <c r="AQ9" t="n">
-        <v>140.4828379768374</v>
+        <v>2.847412949258052</v>
       </c>
       <c r="AR9" t="n">
-        <v>57.06376970086087</v>
+        <v>2.341380632947291</v>
       </c>
       <c r="AS9" t="n">
-        <v>129.3024616235757</v>
+        <v>0.9510628283476812</v>
       </c>
       <c r="AT9" t="n">
-        <v>219.1404904697987</v>
+        <v>2.155041027059594</v>
       </c>
       <c r="AU9" t="n">
-        <v>74.57754173804207</v>
+        <v>3.652341507829979</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>1.242959028967368</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="n">
-        <v>349.8400152788889</v>
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>杭州江干</t>
+        </is>
       </c>
       <c r="B10" t="n">
-        <v>347.9175621284799</v>
+        <v>5.830666921314815</v>
       </c>
       <c r="C10" t="n">
-        <v>526.901326940863</v>
-      </c>
-      <c r="D10" t="n">
-        <v>85.58127296623951</v>
-      </c>
+        <v>5.798626035474665</v>
+      </c>
+      <c r="D10" t="inlineStr"/>
       <c r="E10" t="n">
-        <v>91.47386708588812</v>
+        <v>1.426354549437325</v>
       </c>
       <c r="F10" t="n">
-        <v>238.4900764701946</v>
+        <v>1.524564451431469</v>
       </c>
       <c r="G10" t="n">
-        <v>507.8131222217972</v>
-      </c>
-      <c r="H10" t="n">
-        <v>7.835326557710694</v>
-      </c>
+        <v>3.974834607836576</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>7.737719830798169</v>
-      </c>
+        <v>0.1305887759618449</v>
+      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="n">
-        <v>13.86729172158303</v>
+        <v>0.1289619971799695</v>
       </c>
       <c r="L10" t="n">
-        <v>316.2610850260069</v>
+        <v>0.2311215286930505</v>
       </c>
       <c r="M10" t="n">
-        <v>338.2523786331104</v>
+        <v>5.271018083766782</v>
       </c>
       <c r="N10" t="n">
-        <v>34.69349580664556</v>
+        <v>5.637539643885174</v>
       </c>
       <c r="O10" t="n">
-        <v>225.8239501844921</v>
+        <v>0.5782249301107593</v>
       </c>
       <c r="P10" t="n">
-        <v>375.6936006453487</v>
+        <v>3.763732503074869</v>
       </c>
       <c r="Q10" t="n">
-        <v>210.2031854984675</v>
+        <v>6.261560010755812</v>
       </c>
       <c r="R10" t="n">
-        <v>62.86615791613502</v>
+        <v>3.503386424974458</v>
       </c>
       <c r="S10" t="n">
-        <v>95.45694218447704</v>
+        <v>1.04776929860225</v>
       </c>
       <c r="T10" t="n">
-        <v>105.9950362685816</v>
+        <v>1.590949036407951</v>
       </c>
       <c r="U10" t="n">
-        <v>265.6384200147755</v>
+        <v>1.766583937809693</v>
       </c>
       <c r="V10" t="n">
-        <v>177.9660234340057</v>
+        <v>4.427307000246259</v>
       </c>
       <c r="W10" t="n">
-        <v>644.4817436633265</v>
-      </c>
-      <c r="X10" t="n">
-        <v>118.1094619234757</v>
-      </c>
+        <v>2.966100390566762</v>
+      </c>
+      <c r="X10" t="inlineStr"/>
       <c r="Y10" t="n">
-        <v>151.3708780565647</v>
+        <v>1.968491032057929</v>
       </c>
       <c r="Z10" t="n">
-        <v>157.0331279493287</v>
+        <v>2.522847967609413</v>
       </c>
       <c r="AA10" t="n">
-        <v>133.9150797094263</v>
+        <v>2.617218799155479</v>
       </c>
       <c r="AB10" t="n">
-        <v>139.5784994625834</v>
+        <v>2.231917995157105</v>
       </c>
       <c r="AC10" t="n">
-        <v>158.8028155624835</v>
+        <v>2.326308324376391</v>
       </c>
       <c r="AD10" t="n">
-        <v>114.034647642693</v>
+        <v>2.646713592708058</v>
       </c>
       <c r="AE10" t="n">
-        <v>44.52576560644059</v>
+        <v>1.90057746071155</v>
       </c>
       <c r="AF10" t="n">
-        <v>79.25729006325612</v>
+        <v>0.7420960934406765</v>
       </c>
       <c r="AG10" t="n">
-        <v>74.59633744668358</v>
+        <v>1.320954834387602</v>
       </c>
       <c r="AH10" t="n">
-        <v>292.0879061538294</v>
+        <v>1.24327229077806</v>
       </c>
       <c r="AI10" t="n">
-        <v>164.574368253481</v>
+        <v>4.868131769230489</v>
       </c>
       <c r="AJ10" t="n">
-        <v>128.4138490595105</v>
+        <v>2.742906137558017</v>
       </c>
       <c r="AK10" t="n">
-        <v>149.5164530371166</v>
+        <v>2.140230817658508</v>
       </c>
       <c r="AL10" t="n">
-        <v>80.42541527085308</v>
+        <v>2.491940883951944</v>
       </c>
       <c r="AM10" t="n">
-        <v>73.6619725892385</v>
+        <v>1.340423587847551</v>
       </c>
       <c r="AN10" t="n">
-        <v>211.6811775328783</v>
+        <v>1.227699543153975</v>
       </c>
       <c r="AO10" t="n">
-        <v>396.0911431332086</v>
+        <v>3.528019625547971</v>
       </c>
       <c r="AP10" t="n">
-        <v>174.5332804592433</v>
+        <v>6.601519052220143</v>
       </c>
       <c r="AQ10" t="n">
-        <v>147.5336869054142</v>
+        <v>2.908888007654054</v>
       </c>
       <c r="AR10" t="n">
-        <v>55.08438712375108</v>
+        <v>2.458894781756903</v>
       </c>
       <c r="AS10" t="n">
-        <v>136.3687137298899</v>
+        <v>0.9180731187291846</v>
       </c>
       <c r="AT10" t="n">
-        <v>211.8883170137537</v>
+        <v>2.272811895498166</v>
       </c>
       <c r="AU10" t="n">
-        <v>74.97815466109522</v>
+        <v>3.531471950229228</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>1.249635911018254</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="n">
-        <v>356.5997508762396</v>
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>杭州萧山</t>
+        </is>
       </c>
       <c r="B11" t="n">
-        <v>355.5748411144289</v>
+        <v>5.943329181270659</v>
       </c>
       <c r="C11" t="n">
-        <v>534.4696087578643</v>
-      </c>
-      <c r="D11" t="n">
-        <v>91.80908735317284</v>
-      </c>
+        <v>5.926247351907148</v>
+      </c>
+      <c r="D11" t="inlineStr"/>
       <c r="E11" t="n">
-        <v>97.42077146251032</v>
+        <v>1.530151455886214</v>
       </c>
       <c r="F11" t="n">
-        <v>246.2023423030221</v>
+        <v>1.623679524375172</v>
       </c>
       <c r="G11" t="n">
-        <v>515.2178866643525</v>
-      </c>
-      <c r="H11" t="n">
-        <v>15.55783807430041</v>
-      </c>
+        <v>4.103372371717034</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="n">
-        <v>7.737719830798169</v>
+        <v>0.2592973012383402</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>13.65563053814978</v>
-      </c>
+        <v>0.1289619971799695</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>323.6991762756776</v>
+        <v>0.2275938423024963</v>
       </c>
       <c r="M11" t="n">
-        <v>345.6353413276364</v>
+        <v>5.394986271261294</v>
       </c>
       <c r="N11" t="n">
-        <v>40.66148416756134</v>
+        <v>5.760589022127273</v>
       </c>
       <c r="O11" t="n">
-        <v>233.0452150603802</v>
+        <v>0.677691402792689</v>
       </c>
       <c r="P11" t="n">
-        <v>383.2440480717214</v>
+        <v>3.884086917673003</v>
       </c>
       <c r="Q11" t="n">
-        <v>216.2396921022261</v>
+        <v>6.387400801195356</v>
       </c>
       <c r="R11" t="n">
-        <v>59.22614710844532</v>
+        <v>3.603994868370435</v>
       </c>
       <c r="S11" t="n">
-        <v>97.94672690754848</v>
+        <v>0.9871024518074221</v>
       </c>
       <c r="T11" t="n">
-        <v>104.5460817827089</v>
+        <v>1.632445448459141</v>
       </c>
       <c r="U11" t="n">
-        <v>272.3716987837066</v>
+        <v>1.742434696378482</v>
       </c>
       <c r="V11" t="n">
-        <v>185.7030642555479</v>
+        <v>4.539528313061776</v>
       </c>
       <c r="W11" t="n">
-        <v>651.8988851308915</v>
-      </c>
-      <c r="X11" t="n">
-        <v>111.4085546300967</v>
-      </c>
+        <v>3.095051070925799</v>
+      </c>
+      <c r="X11" t="inlineStr"/>
       <c r="Y11" t="n">
-        <v>144.2121588282392</v>
+        <v>1.856809243834946</v>
       </c>
       <c r="Z11" t="n">
-        <v>152.9117781691818</v>
+        <v>2.403535980470653</v>
       </c>
       <c r="AA11" t="n">
-        <v>130.2541444411922</v>
+        <v>2.548529636153031</v>
       </c>
       <c r="AB11" t="n">
-        <v>134.9840023879099</v>
+        <v>2.170902407353204</v>
       </c>
       <c r="AC11" t="n">
-        <v>154.1830124291895</v>
+        <v>2.249733373131832</v>
       </c>
       <c r="AD11" t="n">
-        <v>110.1582965077454</v>
+        <v>2.569716873819826</v>
       </c>
       <c r="AE11" t="n">
-        <v>36.97806406324325</v>
+        <v>1.835971608462423</v>
       </c>
       <c r="AF11" t="n">
-        <v>78.84512642106284</v>
+        <v>0.6163010677207208</v>
       </c>
       <c r="AG11" t="n">
-        <v>74.16122065940927</v>
+        <v>1.314085440351047</v>
       </c>
       <c r="AH11" t="n">
-        <v>299.7075755532287</v>
+        <v>1.236020344323488</v>
       </c>
       <c r="AI11" t="n">
-        <v>156.8439939840631</v>
+        <v>4.995126259220478</v>
       </c>
       <c r="AJ11" t="n">
-        <v>134.1584386648775</v>
+        <v>2.614066566401052</v>
       </c>
       <c r="AK11" t="n">
-        <v>142.9980917033594</v>
+        <v>2.235973977747959</v>
       </c>
       <c r="AL11" t="n">
-        <v>83.95429585595343</v>
+        <v>2.383301528389323</v>
       </c>
       <c r="AM11" t="n">
-        <v>80.84799645832929</v>
+        <v>1.39923826426589</v>
       </c>
       <c r="AN11" t="n">
-        <v>219.1208674783834</v>
+        <v>1.347466607638822</v>
       </c>
       <c r="AO11" t="n">
-        <v>403.8272164764811</v>
+        <v>3.652014457973057</v>
       </c>
       <c r="AP11" t="n">
-        <v>179.0065758041321</v>
+        <v>6.730453607941351</v>
       </c>
       <c r="AQ11" t="n">
-        <v>154.8220234638444</v>
+        <v>2.983442930068868</v>
       </c>
       <c r="AR11" t="n">
-        <v>53.49994204675587</v>
+        <v>2.58036705773074</v>
       </c>
       <c r="AS11" t="n">
-        <v>143.6723306631434</v>
+        <v>0.8916657007792644</v>
       </c>
       <c r="AT11" t="n">
-        <v>205.0693969627307</v>
+        <v>2.394538844385724</v>
       </c>
       <c r="AU11" t="n">
-        <v>76.82972746664844</v>
+        <v>3.417823282712178</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>1.280495457777474</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="n">
-        <v>360.1463846445144</v>
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>杭州余杭</t>
+        </is>
       </c>
       <c r="B12" t="n">
-        <v>354.2555315415555</v>
+        <v>6.00243974407524</v>
       </c>
       <c r="C12" t="n">
-        <v>533.9544414314925</v>
-      </c>
-      <c r="D12" t="n">
-        <v>81.86130814426147</v>
-      </c>
+        <v>5.904258859025926</v>
+      </c>
+      <c r="D12" t="inlineStr"/>
       <c r="E12" t="n">
-        <v>86.88593431632573</v>
+        <v>1.364355135737691</v>
       </c>
       <c r="F12" t="n">
-        <v>244.1440100833286</v>
+        <v>1.448098905272096</v>
       </c>
       <c r="G12" t="n">
-        <v>515.8570503766133</v>
-      </c>
-      <c r="H12" t="n">
-        <v>18.39087795966228</v>
-      </c>
+        <v>4.069066834722143</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="n">
-        <v>13.86729172158303</v>
+        <v>0.306514632661038</v>
       </c>
       <c r="J12" t="n">
-        <v>13.65563053814978</v>
+        <v>0.2311215286930505</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>324.2222950608065</v>
-      </c>
+        <v>0.2275938423024963</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
-        <v>346.4770941935512</v>
+        <v>5.403704917680107</v>
       </c>
       <c r="N12" t="n">
-        <v>31.30488881239949</v>
+        <v>5.774618236559187</v>
       </c>
       <c r="O12" t="n">
-        <v>225.3844069905328</v>
+        <v>0.5217481468733248</v>
       </c>
       <c r="P12" t="n">
-        <v>382.9356414871767</v>
+        <v>3.756406783175547</v>
       </c>
       <c r="Q12" t="n">
-        <v>221.9876544777048</v>
+        <v>6.382260691452944</v>
       </c>
       <c r="R12" t="n">
-        <v>49.4804847243741</v>
+        <v>3.699794241295079</v>
       </c>
       <c r="S12" t="n">
-        <v>109.3213922056641</v>
+        <v>0.824674745406235</v>
       </c>
       <c r="T12" t="n">
-        <v>118.1332820746359</v>
+        <v>1.822023203427734</v>
       </c>
       <c r="U12" t="n">
-        <v>263.0807526798231</v>
+        <v>1.968888034577265</v>
       </c>
       <c r="V12" t="n">
-        <v>182.8623687950417</v>
+        <v>4.384679211330385</v>
       </c>
       <c r="W12" t="n">
-        <v>644.9155638774514</v>
-      </c>
-      <c r="X12" t="n">
-        <v>108.4031352187457</v>
-      </c>
+        <v>3.047706146584028</v>
+      </c>
+      <c r="X12" t="inlineStr"/>
       <c r="Y12" t="n">
-        <v>142.9373485064293</v>
+        <v>1.806718920312428</v>
       </c>
       <c r="Z12" t="n">
-        <v>143.7221607185547</v>
+        <v>2.382289141773821</v>
       </c>
       <c r="AA12" t="n">
-        <v>120.3786260542196</v>
+        <v>2.395369345309246</v>
       </c>
       <c r="AB12" t="n">
-        <v>126.6261076181844</v>
+        <v>2.006310434236994</v>
       </c>
       <c r="AC12" t="n">
-        <v>145.8453613366881</v>
+        <v>2.110435126969739</v>
       </c>
       <c r="AD12" t="n">
-        <v>100.6308635184114</v>
+        <v>2.430756022278134</v>
       </c>
       <c r="AE12" t="n">
-        <v>39.60513922920006</v>
+        <v>1.67718105864019</v>
       </c>
       <c r="AF12" t="n">
-        <v>65.75479521175376</v>
+        <v>0.660085653820001</v>
       </c>
       <c r="AG12" t="n">
-        <v>61.07778130912808</v>
+        <v>1.095913253529229</v>
       </c>
       <c r="AH12" t="n">
-        <v>294.2606430695312</v>
+        <v>1.017963021818801</v>
       </c>
       <c r="AI12" t="n">
-        <v>161.4487858542499</v>
+        <v>4.904344051158853</v>
       </c>
       <c r="AJ12" t="n">
-        <v>123.1092305601229</v>
+        <v>2.690813097570832</v>
       </c>
       <c r="AK12" t="n">
-        <v>153.4552681904452</v>
+        <v>2.051820509335382</v>
       </c>
       <c r="AL12" t="n">
-        <v>70.82980068977466</v>
+        <v>2.557587803174087</v>
       </c>
       <c r="AM12" t="n">
-        <v>73.75124994268305</v>
+        <v>1.180496678162911</v>
       </c>
       <c r="AN12" t="n">
-        <v>219.7491952403271</v>
+        <v>1.229187499044717</v>
       </c>
       <c r="AO12" t="n">
-        <v>400.8246675585277</v>
+        <v>3.662486587338785</v>
       </c>
       <c r="AP12" t="n">
-        <v>166.3779819986301</v>
+        <v>6.680411125975461</v>
       </c>
       <c r="AQ12" t="n">
-        <v>147.6300050280804</v>
+        <v>2.772966366643835</v>
       </c>
       <c r="AR12" t="n">
-        <v>67.07371013124187</v>
+        <v>2.460500083801341</v>
       </c>
       <c r="AS12" t="n">
-        <v>136.592844223094</v>
+        <v>1.117895168854031</v>
       </c>
       <c r="AT12" t="n">
-        <v>202.2250689610735</v>
+        <v>2.276547403718233</v>
       </c>
       <c r="AU12" t="n">
-        <v>63.18271742057689</v>
+        <v>3.370417816017891</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>1.053045290342948</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="n">
-        <v>83.67550639516914</v>
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>合肥肥东</t>
+        </is>
       </c>
       <c r="B13" t="n">
-        <v>55.23958179534411</v>
+        <v>1.394591773252819</v>
       </c>
       <c r="C13" t="n">
-        <v>212.6419429772254</v>
+        <v>0.9206596965890684</v>
       </c>
       <c r="D13" t="n">
-        <v>274.9565813995877</v>
+        <v>3.544032382953758</v>
       </c>
       <c r="E13" t="n">
-        <v>278.0060417430573</v>
+        <v>4.582609689993129</v>
       </c>
       <c r="F13" t="n">
-        <v>95.16664965747721</v>
+        <v>4.633434029050956</v>
       </c>
       <c r="G13" t="n">
-        <v>191.6349492764017</v>
+        <v>1.58611082762462</v>
       </c>
       <c r="H13" t="n">
-        <v>308.5766657825375</v>
+        <v>3.193915821273361</v>
       </c>
       <c r="I13" t="n">
-        <v>316.2610850260069</v>
+        <v>5.142944429708958</v>
       </c>
       <c r="J13" t="n">
-        <v>323.6991762756776</v>
+        <v>5.271018083766782</v>
       </c>
       <c r="K13" t="n">
-        <v>324.2222950608065</v>
+        <v>5.394986271261294</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>23.44243013529002</v>
-      </c>
+        <v>5.403704917680107</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
       <c r="N13" t="n">
-        <v>300.2140477029734</v>
+        <v>0.3907071689215004</v>
       </c>
       <c r="O13" t="n">
-        <v>194.4678280743814</v>
+        <v>5.003567461716224</v>
       </c>
       <c r="P13" t="n">
-        <v>62.90705820104149</v>
+        <v>3.241130467906357</v>
       </c>
       <c r="Q13" t="n">
-        <v>148.2821375786574</v>
+        <v>1.048450970017358</v>
       </c>
       <c r="R13" t="n">
-        <v>365.0298433069199</v>
+        <v>2.47136895964429</v>
       </c>
       <c r="S13" t="n">
-        <v>276.4837636014094</v>
+        <v>6.083830721781998</v>
       </c>
       <c r="T13" t="n">
-        <v>327.6392966486294</v>
+        <v>4.608062726690155</v>
       </c>
       <c r="U13" t="n">
-        <v>232.5567123179631</v>
+        <v>5.460654944143823</v>
       </c>
       <c r="V13" t="n">
-        <v>152.224637795809</v>
+        <v>3.875945205299385</v>
       </c>
       <c r="W13" t="n">
-        <v>415.6466521285362</v>
+        <v>2.537077296596816</v>
       </c>
       <c r="X13" t="n">
-        <v>432.2070047732896</v>
+        <v>6.92744420214227</v>
       </c>
       <c r="Y13" t="n">
-        <v>467.1508320153806</v>
+        <v>7.203450079554827</v>
       </c>
       <c r="Z13" t="n">
-        <v>447.5317844986712</v>
+        <v>7.785847200256343</v>
       </c>
       <c r="AA13" t="n">
-        <v>422.8120465174085</v>
+        <v>7.458863074977853</v>
       </c>
       <c r="AB13" t="n">
-        <v>436.8464692701563</v>
+        <v>7.046867441956808</v>
       </c>
       <c r="AC13" t="n">
-        <v>454.389419752986</v>
+        <v>7.280774487835939</v>
       </c>
       <c r="AD13" t="n">
-        <v>408.1427081308641</v>
+        <v>7.5731569958831</v>
       </c>
       <c r="AE13" t="n">
-        <v>360.6604212245834</v>
+        <v>6.802378468847735</v>
       </c>
       <c r="AF13" t="n">
-        <v>353.7092769008362</v>
+        <v>6.011007020409724</v>
       </c>
       <c r="AG13" t="n">
-        <v>351.4975706517184</v>
+        <v>5.895154615013937</v>
       </c>
       <c r="AH13" t="n">
-        <v>140.547239150461</v>
+        <v>5.858292844195306</v>
       </c>
       <c r="AI13" t="n">
-        <v>475.1296349436474</v>
+        <v>2.342453985841017</v>
       </c>
       <c r="AJ13" t="n">
-        <v>274.1320287332908</v>
+        <v>7.918827249060791</v>
       </c>
       <c r="AK13" t="n">
-        <v>430.8893200877133</v>
+        <v>4.568867145554847</v>
       </c>
       <c r="AL13" t="n">
-        <v>314.5625820139224</v>
+        <v>7.181488668128554</v>
       </c>
       <c r="AM13" t="n">
-        <v>263.1715964039381</v>
+        <v>5.24270970023204</v>
       </c>
       <c r="AN13" t="n">
-        <v>104.5801545493526</v>
+        <v>4.386193273398968</v>
       </c>
       <c r="AO13" t="n">
-        <v>122.0477468841949</v>
+        <v>1.743002575822543</v>
       </c>
       <c r="AP13" t="n">
-        <v>310.1018482193946</v>
+        <v>2.034129114736582</v>
       </c>
       <c r="AQ13" t="n">
-        <v>215.8305634015892</v>
+        <v>5.16836413698991</v>
       </c>
       <c r="AR13" t="n">
-        <v>320.6375303774527</v>
+        <v>3.597176056693153</v>
       </c>
       <c r="AS13" t="n">
-        <v>220.9771892036463</v>
+        <v>5.343958839624212</v>
       </c>
       <c r="AT13" t="n">
-        <v>525.5864087150424</v>
-      </c>
-      <c r="AU13" t="n">
-        <v>331.5643243528948</v>
+        <v>3.682953153394105</v>
+      </c>
+      <c r="AU13" t="inlineStr"/>
+      <c r="AV13" t="n">
+        <v>5.526072072548247</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="n">
-        <v>71.71322569143675</v>
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>合肥蜀山</t>
+        </is>
       </c>
       <c r="B14" t="n">
-        <v>56.14576963335637</v>
+        <v>1.195220428190612</v>
       </c>
       <c r="C14" t="n">
-        <v>192.9621053422358</v>
+        <v>0.9357628272226061</v>
       </c>
       <c r="D14" t="n">
-        <v>298.2651964721456</v>
+        <v>3.216035089037263</v>
       </c>
       <c r="E14" t="n">
-        <v>301.3702878607658</v>
+        <v>4.971086607869094</v>
       </c>
       <c r="F14" t="n">
-        <v>118.3832940180699</v>
+        <v>5.022838131012763</v>
       </c>
       <c r="G14" t="n">
-        <v>169.619323116378</v>
+        <v>1.973054900301166</v>
       </c>
       <c r="H14" t="n">
-        <v>330.6085504479614</v>
+        <v>2.826988718606301</v>
       </c>
       <c r="I14" t="n">
-        <v>338.2523786331104</v>
+        <v>5.510142507466024</v>
       </c>
       <c r="J14" t="n">
-        <v>345.6353413276364</v>
+        <v>5.637539643885174</v>
       </c>
       <c r="K14" t="n">
-        <v>346.4770941935512</v>
+        <v>5.760589022127273</v>
       </c>
       <c r="L14" t="n">
-        <v>23.44243013529002</v>
+        <v>5.774618236559187</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>322.8884545221864</v>
-      </c>
+        <v>0.3907071689215004</v>
+      </c>
+      <c r="N14" t="inlineStr"/>
       <c r="O14" t="n">
-        <v>216.0772274176991</v>
+        <v>5.381474242036441</v>
       </c>
       <c r="P14" t="n">
-        <v>48.08085021860636</v>
+        <v>3.601287123628318</v>
       </c>
       <c r="Q14" t="n">
-        <v>162.8879291159259</v>
+        <v>0.8013475036434394</v>
       </c>
       <c r="R14" t="n">
-        <v>387.7899316346638</v>
+        <v>2.714798818598765</v>
       </c>
       <c r="S14" t="n">
-        <v>295.3403249378347</v>
+        <v>6.463165527244398</v>
       </c>
       <c r="T14" t="n">
-        <v>345.9655857489347</v>
+        <v>4.922338748963911</v>
       </c>
       <c r="U14" t="n">
-        <v>252.2427399147797</v>
+        <v>5.766093095815578</v>
       </c>
       <c r="V14" t="n">
-        <v>175.6413048132613</v>
+        <v>4.204045665246328</v>
       </c>
       <c r="W14" t="n">
-        <v>411.4605261462442</v>
+        <v>2.927355080221021</v>
       </c>
       <c r="X14" t="n">
-        <v>454.6192343276858</v>
+        <v>6.857675435770736</v>
       </c>
       <c r="Y14" t="n">
-        <v>489.3513138072202</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>470.7666610885779</v>
-      </c>
+        <v>7.576987238794763</v>
+      </c>
+      <c r="Z14" t="inlineStr"/>
       <c r="AA14" t="n">
-        <v>446.0248284901983</v>
+        <v>7.846111018142965</v>
       </c>
       <c r="AB14" t="n">
-        <v>459.9419139594506</v>
+        <v>7.433747141503305</v>
       </c>
       <c r="AC14" t="n">
-        <v>477.5500749041067</v>
+        <v>7.665698565990843</v>
       </c>
       <c r="AD14" t="n">
-        <v>431.234913626407</v>
+        <v>7.959167915068445</v>
       </c>
       <c r="AE14" t="n">
-        <v>382.5599692079321</v>
+        <v>7.187248560440116</v>
       </c>
       <c r="AF14" t="n">
-        <v>376.8812485915636</v>
+        <v>6.375999486798867</v>
       </c>
       <c r="AG14" t="n">
-        <v>374.6278705910051</v>
+        <v>6.281354143192727</v>
       </c>
       <c r="AH14" t="n">
-        <v>157.6790469908725</v>
+        <v>6.243797843183419</v>
       </c>
       <c r="AI14" t="n">
-        <v>496.0692274744408</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>297.5487585927639</v>
-      </c>
+        <v>2.627984116514542</v>
+      </c>
+      <c r="AJ14" t="inlineStr"/>
       <c r="AK14" t="n">
-        <v>450.0795023272591</v>
+        <v>4.959145976546065</v>
       </c>
       <c r="AL14" t="n">
-        <v>337.8717236068457</v>
+        <v>7.501325038787653</v>
       </c>
       <c r="AM14" t="n">
-        <v>286.2303802748984</v>
+        <v>5.631195393447428</v>
       </c>
       <c r="AN14" t="n">
-        <v>126.7333514585433</v>
+        <v>4.770506337914973</v>
       </c>
       <c r="AO14" t="n">
-        <v>119.4146726454322</v>
+        <v>2.112222524309054</v>
       </c>
       <c r="AP14" t="n">
-        <v>333.1166948583773</v>
+        <v>1.990244544090537</v>
       </c>
       <c r="AQ14" t="n">
-        <v>239.2460675672255</v>
+        <v>5.551944914306288</v>
       </c>
       <c r="AR14" t="n">
-        <v>340.9682032779714</v>
+        <v>3.987434459453759</v>
       </c>
       <c r="AS14" t="n">
-        <v>244.419359490823</v>
+        <v>5.68280338796619</v>
       </c>
       <c r="AT14" t="n">
-        <v>548.1186780586718</v>
-      </c>
-      <c r="AU14" t="n">
-        <v>354.7953314874139</v>
+        <v>4.073655991513716</v>
+      </c>
+      <c r="AU14" t="inlineStr"/>
+      <c r="AV14" t="n">
+        <v>5.913255524790232</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="n">
-        <v>341.2310794059158</v>
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>湖州吴兴</t>
+        </is>
       </c>
       <c r="B15" t="n">
-        <v>327.597546770856</v>
+        <v>5.687184656765264</v>
       </c>
       <c r="C15" t="n">
-        <v>508.0739040681018</v>
-      </c>
-      <c r="D15" t="n">
-        <v>51.15818731076119</v>
-      </c>
+        <v>5.459959112847599</v>
+      </c>
+      <c r="D15" t="inlineStr"/>
       <c r="E15" t="n">
-        <v>56.81925013521364</v>
+        <v>0.852636455179353</v>
       </c>
       <c r="F15" t="n">
-        <v>216.8936533883897</v>
+        <v>0.9469875022535608</v>
       </c>
       <c r="G15" t="n">
-        <v>491.6194603519319</v>
-      </c>
-      <c r="H15" t="n">
-        <v>30.08006577983752</v>
-      </c>
+        <v>3.614894223139828</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="n">
-        <v>34.69349580664556</v>
+        <v>0.5013344296639587</v>
       </c>
       <c r="J15" t="n">
-        <v>40.66148416756134</v>
+        <v>0.5782249301107593</v>
       </c>
       <c r="K15" t="n">
-        <v>31.30488881239949</v>
+        <v>0.677691402792689</v>
       </c>
       <c r="L15" t="n">
-        <v>300.2140477029734</v>
+        <v>0.5217481468733248</v>
       </c>
       <c r="M15" t="n">
-        <v>322.8884545221864</v>
+        <v>5.003567461716224</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>194.1019467574121</v>
-      </c>
+        <v>5.381474242036441</v>
+      </c>
+      <c r="O15" t="inlineStr"/>
       <c r="P15" t="n">
-        <v>357.5557161311677</v>
+        <v>3.235032445956869</v>
       </c>
       <c r="Q15" t="n">
-        <v>208.723919514695</v>
+        <v>5.959261935519462</v>
       </c>
       <c r="R15" t="n">
-        <v>65.05867186817181</v>
+        <v>3.478731991911583</v>
       </c>
       <c r="S15" t="n">
-        <v>115.3581289448743</v>
+        <v>1.084311197802864</v>
       </c>
       <c r="T15" t="n">
-        <v>136.2234620589858</v>
+        <v>1.922635482414571</v>
       </c>
       <c r="U15" t="n">
-        <v>232.0466075553744</v>
+        <v>2.27039103431643</v>
       </c>
       <c r="V15" t="n">
-        <v>154.9991590861983</v>
+        <v>3.867443459256239</v>
       </c>
       <c r="W15" t="n">
-        <v>613.7109622649962</v>
-      </c>
-      <c r="X15" t="n">
-        <v>132.7374008103785</v>
-      </c>
+        <v>2.583319318103306</v>
+      </c>
+      <c r="X15" t="inlineStr"/>
       <c r="Y15" t="n">
-        <v>168.8938821044578</v>
+        <v>2.212290013506309</v>
       </c>
       <c r="Z15" t="n">
-        <v>154.7927969353785</v>
+        <v>2.814898035074296</v>
       </c>
       <c r="AA15" t="n">
-        <v>130.1185653178653</v>
+        <v>2.579879948922974</v>
       </c>
       <c r="AB15" t="n">
-        <v>140.4262782913981</v>
+        <v>2.168642755297754</v>
       </c>
       <c r="AC15" t="n">
-        <v>159.1744594029591</v>
+        <v>2.340437971523301</v>
       </c>
       <c r="AD15" t="n">
-        <v>112.2758211769895</v>
+        <v>2.652907656715986</v>
       </c>
       <c r="AE15" t="n">
-        <v>70.40995727948201</v>
+        <v>1.871263686283158</v>
       </c>
       <c r="AF15" t="n">
-        <v>64.27118461461741</v>
+        <v>1.173499287991367</v>
       </c>
       <c r="AG15" t="n">
-        <v>60.29696559318547</v>
+        <v>1.071186410243623</v>
       </c>
       <c r="AH15" t="n">
-        <v>263.7740081472149</v>
+        <v>1.004949426553091</v>
       </c>
       <c r="AI15" t="n">
-        <v>192.1101941659835</v>
+        <v>4.396233469120249</v>
       </c>
       <c r="AJ15" t="n">
-        <v>93.72074483288466</v>
+        <v>3.201836569433058</v>
       </c>
       <c r="AK15" t="n">
-        <v>183.6296652418985</v>
+        <v>1.562012413881411</v>
       </c>
       <c r="AL15" t="n">
-        <v>49.92468649350452</v>
+        <v>3.060494420698309</v>
       </c>
       <c r="AM15" t="n">
-        <v>42.9509301309803</v>
+        <v>0.8320781082250754</v>
       </c>
       <c r="AN15" t="n">
-        <v>196.4608901295312</v>
+        <v>0.7158488355163384</v>
       </c>
       <c r="AO15" t="n">
-        <v>372.2001307598028</v>
+        <v>3.27434816882552</v>
       </c>
       <c r="AP15" t="n">
-        <v>140.8257981537193</v>
+        <v>6.20333551266338</v>
       </c>
       <c r="AQ15" t="n">
-        <v>116.4859186226313</v>
+        <v>2.347096635895322</v>
       </c>
       <c r="AR15" t="n">
-        <v>86.7286522056571</v>
+        <v>1.941431977043855</v>
       </c>
       <c r="AS15" t="n">
-        <v>105.5032179326579</v>
+        <v>1.445477536760952</v>
       </c>
       <c r="AT15" t="n">
-        <v>225.5017142972619</v>
+        <v>1.758386965544299</v>
       </c>
       <c r="AU15" t="n">
-        <v>50.9276041486185</v>
+        <v>3.758361904954366</v>
+      </c>
+      <c r="AV15" t="n">
+        <v>0.848793402476975</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="n">
-        <v>271.1993364761246</v>
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>淮安经开</t>
+        </is>
       </c>
       <c r="B16" t="n">
-        <v>188.7349211762019</v>
+        <v>4.519988941268744</v>
       </c>
       <c r="C16" t="n">
-        <v>360.7571420266386</v>
+        <v>3.145582019603364</v>
       </c>
       <c r="D16" t="n">
-        <v>145.8138318505117</v>
+        <v>6.012619033777311</v>
       </c>
       <c r="E16" t="n">
-        <v>143.2353709006401</v>
+        <v>2.430230530841861</v>
       </c>
       <c r="F16" t="n">
-        <v>105.6424775433616</v>
+        <v>2.387256181677335</v>
       </c>
       <c r="G16" t="n">
-        <v>359.2753091076934</v>
+        <v>1.760707959056027</v>
       </c>
       <c r="H16" t="n">
-        <v>218.8376555812626</v>
+        <v>5.987921818461557</v>
       </c>
       <c r="I16" t="n">
-        <v>225.8239501844921</v>
+        <v>3.64729425968771</v>
       </c>
       <c r="J16" t="n">
-        <v>233.0452150603802</v>
+        <v>3.763732503074869</v>
       </c>
       <c r="K16" t="n">
-        <v>225.3844069905328</v>
+        <v>3.884086917673003</v>
       </c>
       <c r="L16" t="n">
-        <v>194.4678280743814</v>
+        <v>3.756406783175547</v>
       </c>
       <c r="M16" t="n">
-        <v>216.0772274176991</v>
+        <v>3.241130467906357</v>
       </c>
       <c r="N16" t="n">
-        <v>194.1019467574121</v>
+        <v>3.601287123628318</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
-      </c>
-      <c r="P16" t="n">
-        <v>227.4178841003573</v>
-      </c>
+        <v>3.235032445956869</v>
+      </c>
+      <c r="P16" t="inlineStr"/>
       <c r="Q16" t="n">
-        <v>220.9681810187937</v>
+        <v>3.790298068339288</v>
       </c>
       <c r="R16" t="n">
-        <v>244.5187325794222</v>
+        <v>3.682803016979895</v>
       </c>
       <c r="S16" t="n">
-        <v>252.437323228962</v>
+        <v>4.075312209657036</v>
       </c>
       <c r="T16" t="n">
-        <v>298.6223165098272</v>
+        <v>4.2072887204827</v>
       </c>
       <c r="U16" t="n">
-        <v>53.94855221233814</v>
+        <v>4.977038608497121</v>
       </c>
       <c r="V16" t="n">
-        <v>90.74525541938159</v>
+        <v>0.8991425368723023</v>
       </c>
       <c r="W16" t="n">
-        <v>419.850564886384</v>
+        <v>1.51242092365636</v>
       </c>
       <c r="X16" t="n">
-        <v>314.4968950003796</v>
+        <v>6.997509414773067</v>
       </c>
       <c r="Y16" t="n">
-        <v>351.8337156017598</v>
+        <v>5.241614916672993</v>
       </c>
       <c r="Z16" t="n">
-        <v>300.6206050405559</v>
+        <v>5.86389526002933</v>
       </c>
       <c r="AA16" t="n">
-        <v>278.671518037393</v>
+        <v>5.010343417342598</v>
       </c>
       <c r="AB16" t="n">
-        <v>296.9470665352422</v>
+        <v>4.644525300623216</v>
       </c>
       <c r="AC16" t="n">
-        <v>310.5439550049617</v>
+        <v>4.94911777558737</v>
       </c>
       <c r="AD16" t="n">
-        <v>270.6594591169112</v>
+        <v>5.175732583416029</v>
       </c>
       <c r="AE16" t="n">
-        <v>264.2888017686328</v>
+        <v>4.510990985281853</v>
       </c>
       <c r="AF16" t="n">
-        <v>218.3551946946925</v>
+        <v>4.404813362810547</v>
       </c>
       <c r="AG16" t="n">
-        <v>218.4541645202991</v>
+        <v>3.639253244911542</v>
       </c>
       <c r="AH16" t="n">
-        <v>83.21115289235098</v>
+        <v>3.640902742004986</v>
       </c>
       <c r="AI16" t="n">
-        <v>385.1949366900989</v>
+        <v>1.38685254820585</v>
       </c>
       <c r="AJ16" t="n">
-        <v>116.7783304154043</v>
+        <v>6.419915611501649</v>
       </c>
       <c r="AK16" t="n">
-        <v>373.8606967339684</v>
+        <v>1.946305506923405</v>
       </c>
       <c r="AL16" t="n">
-        <v>176.880424098343</v>
+        <v>6.231011612232806</v>
       </c>
       <c r="AM16" t="n">
-        <v>152.1972251878177</v>
+        <v>2.948007068305716</v>
       </c>
       <c r="AN16" t="n">
-        <v>141.7488547152659</v>
+        <v>2.536620419796961</v>
       </c>
       <c r="AO16" t="n">
-        <v>206.6702791618484</v>
+        <v>2.362480911921098</v>
       </c>
       <c r="AP16" t="n">
-        <v>127.8378621596634</v>
+        <v>3.444504652697473</v>
       </c>
       <c r="AQ16" t="n">
-        <v>78.39640267019595</v>
+        <v>2.130631035994389</v>
       </c>
       <c r="AR16" t="n">
-        <v>262.807151161513</v>
+        <v>1.306606711169933</v>
       </c>
       <c r="AS16" t="n">
-        <v>89.58744261121164</v>
+        <v>4.380119186025216</v>
       </c>
       <c r="AT16" t="n">
-        <v>398.1570353705687</v>
+        <v>1.493124043520194</v>
       </c>
       <c r="AU16" t="n">
-        <v>196.1510651405578</v>
+        <v>6.635950589509479</v>
+      </c>
+      <c r="AV16" t="n">
+        <v>3.269184419009298</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="n">
-        <v>108.1638701128644</v>
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>淮南经开</t>
+        </is>
       </c>
       <c r="B17" t="n">
-        <v>39.25581198454712</v>
+        <v>1.802731168547739</v>
       </c>
       <c r="C17" t="n">
-        <v>151.2944190324414</v>
+        <v>0.6542635330757853</v>
       </c>
       <c r="D17" t="n">
-        <v>328.1944915781189</v>
+        <v>2.52157365054069</v>
       </c>
       <c r="E17" t="n">
-        <v>330.4027398582116</v>
+        <v>5.469908192968647</v>
       </c>
       <c r="F17" t="n">
-        <v>143.4686146473025</v>
+        <v>5.506712330970193</v>
       </c>
       <c r="G17" t="n">
-        <v>136.0002641234789</v>
+        <v>2.391143577455042</v>
       </c>
       <c r="H17" t="n">
-        <v>367.9303204247756</v>
+        <v>2.266671068724649</v>
       </c>
       <c r="I17" t="n">
-        <v>375.6936006453487</v>
+        <v>6.132172007079593</v>
       </c>
       <c r="J17" t="n">
-        <v>383.2440480717214</v>
+        <v>6.261560010755812</v>
       </c>
       <c r="K17" t="n">
-        <v>382.9356414871767</v>
+        <v>6.387400801195356</v>
       </c>
       <c r="L17" t="n">
-        <v>62.90705820104149</v>
+        <v>6.382260691452944</v>
       </c>
       <c r="M17" t="n">
-        <v>48.08085021860636</v>
+        <v>1.048450970017358</v>
       </c>
       <c r="N17" t="n">
-        <v>357.5557161311677</v>
+        <v>0.8013475036434394</v>
       </c>
       <c r="O17" t="n">
-        <v>227.4178841003573</v>
+        <v>5.959261935519462</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>210.0512403654559</v>
-      </c>
+        <v>3.790298068339288</v>
+      </c>
+      <c r="Q17" t="inlineStr"/>
       <c r="R17" t="n">
-        <v>421.779026339528</v>
+        <v>3.500854006090932</v>
       </c>
       <c r="S17" t="n">
-        <v>339.2636052331246</v>
+        <v>7.029650438992133</v>
       </c>
       <c r="T17" t="n">
-        <v>390.5119866345462</v>
+        <v>5.654393420552077</v>
       </c>
       <c r="U17" t="n">
-        <v>254.8623243428545</v>
+        <v>6.50853311057577</v>
       </c>
       <c r="V17" t="n">
-        <v>204.9611197876799</v>
+        <v>4.247705405714242</v>
       </c>
       <c r="W17" t="n">
-        <v>366.7789377570891</v>
+        <v>3.416018663127999</v>
       </c>
       <c r="X17" t="n">
-        <v>490.1807200442402</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>525.7385751083913</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>500.875193269375</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>476.4474335348884</v>
-      </c>
+        <v>6.112982295951485</v>
+      </c>
+      <c r="Y17" t="inlineStr"/>
+      <c r="Z17" t="inlineStr"/>
+      <c r="AA17" t="inlineStr"/>
       <c r="AB17" t="n">
-        <v>491.4407802348306</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>508.4148022587524</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>462.8398144574467</v>
-      </c>
+        <v>7.940790558914808</v>
+      </c>
+      <c r="AC17" t="inlineStr"/>
+      <c r="AD17" t="inlineStr"/>
       <c r="AE17" t="n">
-        <v>420.2108792693514</v>
+        <v>7.713996907624112</v>
       </c>
       <c r="AF17" t="n">
-        <v>407.9535091807758</v>
+        <v>7.003514654489191</v>
       </c>
       <c r="AG17" t="n">
-        <v>406.0932904545845</v>
+        <v>6.79922515301293</v>
       </c>
       <c r="AH17" t="n">
-        <v>155.8527282582165</v>
+        <v>6.768221507576408</v>
       </c>
       <c r="AI17" t="n">
-        <v>536.2490391221321</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>321.8994422127041</v>
-      </c>
+        <v>2.597545470970275</v>
+      </c>
+      <c r="AJ17" t="inlineStr"/>
       <c r="AK17" t="n">
-        <v>493.4987705015463</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>367.556228193971</v>
-      </c>
+        <v>5.364990703545069</v>
+      </c>
+      <c r="AL17" t="inlineStr"/>
       <c r="AM17" t="n">
-        <v>318.7080194555456</v>
+        <v>6.125937136566183</v>
       </c>
       <c r="AN17" t="n">
-        <v>164.9032917646648</v>
+        <v>5.311800324259093</v>
       </c>
       <c r="AO17" t="n">
-        <v>80.32505661835542</v>
+        <v>2.748388196077747</v>
       </c>
       <c r="AP17" t="n">
-        <v>351.3566043964729</v>
+        <v>1.338750943639257</v>
       </c>
       <c r="AQ17" t="n">
-        <v>264.2127100476043</v>
+        <v>5.855943406607881</v>
       </c>
       <c r="AR17" t="n">
-        <v>382.5732131758706</v>
+        <v>4.403545167460071</v>
       </c>
       <c r="AS17" t="n">
-        <v>270.9000721160114</v>
+        <v>6.376220219597844</v>
       </c>
       <c r="AT17" t="n">
-        <v>582.9764877324729</v>
-      </c>
-      <c r="AU17" t="n">
-        <v>385.35685782854</v>
+        <v>4.515001201933524</v>
+      </c>
+      <c r="AU17" t="inlineStr"/>
+      <c r="AV17" t="n">
+        <v>6.422614297142333</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="n">
-        <v>147.3490507413191</v>
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>黄山屯溪</t>
+        </is>
       </c>
       <c r="B18" t="n">
-        <v>199.6835938059583</v>
+        <v>2.455817512355318</v>
       </c>
       <c r="C18" t="n">
-        <v>353.4362180695201</v>
+        <v>3.328059896765971</v>
       </c>
       <c r="D18" t="n">
-        <v>208.7913031588333</v>
+        <v>5.890603634492003</v>
       </c>
       <c r="E18" t="n">
-        <v>215.2295075775597</v>
+        <v>3.479855052647222</v>
       </c>
       <c r="F18" t="n">
-        <v>136.3232866719831</v>
+        <v>3.587158459625996</v>
       </c>
       <c r="G18" t="n">
-        <v>323.4921256277451</v>
+        <v>2.272054777866385</v>
       </c>
       <c r="H18" t="n">
-        <v>203.7795781434596</v>
+        <v>5.391535427129084</v>
       </c>
       <c r="I18" t="n">
-        <v>210.2031854984675</v>
+        <v>3.396326302390994</v>
       </c>
       <c r="J18" t="n">
-        <v>216.2396921022261</v>
+        <v>3.503386424974458</v>
       </c>
       <c r="K18" t="n">
-        <v>221.9876544777048</v>
+        <v>3.603994868370435</v>
       </c>
       <c r="L18" t="n">
-        <v>148.2821375786574</v>
+        <v>3.699794241295079</v>
       </c>
       <c r="M18" t="n">
-        <v>162.8879291159259</v>
+        <v>2.47136895964429</v>
       </c>
       <c r="N18" t="n">
-        <v>208.723919514695</v>
+        <v>2.714798818598765</v>
       </c>
       <c r="O18" t="n">
-        <v>220.9681810187937</v>
+        <v>3.478731991911583</v>
       </c>
       <c r="P18" t="n">
-        <v>210.0512403654559</v>
+        <v>3.682803016979895</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
-      </c>
-      <c r="R18" t="n">
-        <v>270.3082255109895</v>
-      </c>
+        <v>3.500854006090932</v>
+      </c>
+      <c r="R18" t="inlineStr"/>
       <c r="S18" t="n">
-        <v>141.5611866931189</v>
+        <v>4.505137091849824</v>
       </c>
       <c r="T18" t="n">
-        <v>188.4550676549207</v>
+        <v>2.359353111551982</v>
       </c>
       <c r="U18" t="n">
-        <v>274.3514991896607</v>
+        <v>3.140917794248679</v>
       </c>
       <c r="V18" t="n">
-        <v>131.8555808740915</v>
+        <v>4.572524986494345</v>
       </c>
       <c r="W18" t="n">
-        <v>555.0160531560587</v>
-      </c>
-      <c r="X18" t="n">
-        <v>327.0841053263592</v>
-      </c>
+        <v>2.197593014568191</v>
+      </c>
+      <c r="X18" t="inlineStr"/>
       <c r="Y18" t="n">
-        <v>357.4120923490291</v>
+        <v>5.45140175543932</v>
       </c>
       <c r="Z18" t="n">
-        <v>363.1778589653514</v>
+        <v>5.956868205817151</v>
       </c>
       <c r="AA18" t="n">
-        <v>338.6855560797482</v>
+        <v>6.05296431608919</v>
       </c>
       <c r="AB18" t="n">
-        <v>347.6562180484651</v>
+        <v>5.644759267995803</v>
       </c>
       <c r="AC18" t="n">
-        <v>366.7392588630628</v>
+        <v>5.794270300807752</v>
       </c>
       <c r="AD18" t="n">
-        <v>320.2443762485859</v>
+        <v>6.112320981051046</v>
       </c>
       <c r="AE18" t="n">
-        <v>250.4504133963653</v>
+        <v>5.337406270809764</v>
       </c>
       <c r="AF18" t="n">
-        <v>272.2540816185353</v>
+        <v>4.174173556606089</v>
       </c>
       <c r="AG18" t="n">
-        <v>268.6015418693075</v>
+        <v>4.537568026975589</v>
       </c>
       <c r="AH18" t="n">
-        <v>223.133089939908</v>
+        <v>4.476692364488459</v>
       </c>
       <c r="AI18" t="n">
-        <v>350.4692062882312</v>
+        <v>3.7188848323318</v>
       </c>
       <c r="AJ18" t="n">
-        <v>231.7433036002321</v>
+        <v>5.841153438137186</v>
       </c>
       <c r="AK18" t="n">
-        <v>294.6406584048896</v>
+        <v>3.862388393337203</v>
       </c>
       <c r="AL18" t="n">
-        <v>243.3458562435843</v>
+        <v>4.910677640081492</v>
       </c>
       <c r="AM18" t="n">
-        <v>187.5771159834413</v>
+        <v>4.055764270726406</v>
       </c>
       <c r="AN18" t="n">
-        <v>84.62124118375282</v>
+        <v>3.126285266390688</v>
       </c>
       <c r="AO18" t="n">
-        <v>264.8959212696951</v>
+        <v>1.410354019729213</v>
       </c>
       <c r="AP18" t="n">
-        <v>284.8680218156547</v>
+        <v>4.414932021161586</v>
       </c>
       <c r="AQ18" t="n">
-        <v>185.6574277042414</v>
+        <v>4.747800363594246</v>
       </c>
       <c r="AR18" t="n">
-        <v>194.8063204826587</v>
+        <v>3.094290461737357</v>
       </c>
       <c r="AS18" t="n">
-        <v>182.8015464090359</v>
+        <v>3.246772008044311</v>
       </c>
       <c r="AT18" t="n">
-        <v>419.9022584890636</v>
+        <v>3.046692440150599</v>
       </c>
       <c r="AU18" t="n">
-        <v>254.5453639781076</v>
+        <v>6.998370974817727</v>
+      </c>
+      <c r="AV18" t="n">
+        <v>4.242422732968461</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="n">
-        <v>405.805842139534</v>
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>嘉兴秀洲</t>
+        </is>
       </c>
       <c r="B19" t="n">
-        <v>390.9848835552033</v>
+        <v>6.763430702325566</v>
       </c>
       <c r="C19" t="n">
-        <v>571.8604339217736</v>
-      </c>
-      <c r="D19" t="n">
-        <v>100.110888011846</v>
-      </c>
+        <v>6.516414725920055</v>
+      </c>
+      <c r="D19" t="inlineStr"/>
       <c r="E19" t="n">
-        <v>101.5203910352683</v>
+        <v>1.668514800197433</v>
       </c>
       <c r="F19" t="n">
-        <v>280.0540956126654</v>
+        <v>1.692006517254472</v>
       </c>
       <c r="G19" t="n">
-        <v>556.2664262576553</v>
-      </c>
-      <c r="H19" t="n">
-        <v>67.79805822994201</v>
-      </c>
+        <v>4.667568260211089</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="n">
-        <v>62.86615791613502</v>
+        <v>1.1299676371657</v>
       </c>
       <c r="J19" t="n">
-        <v>59.22614710844532</v>
+        <v>1.04776929860225</v>
       </c>
       <c r="K19" t="n">
-        <v>49.4804847243741</v>
+        <v>0.9871024518074221</v>
       </c>
       <c r="L19" t="n">
-        <v>365.0298433069199</v>
+        <v>0.824674745406235</v>
       </c>
       <c r="M19" t="n">
-        <v>387.7899316346638</v>
+        <v>6.083830721781998</v>
       </c>
       <c r="N19" t="n">
-        <v>65.05867186817181</v>
+        <v>6.463165527244398</v>
       </c>
       <c r="O19" t="n">
-        <v>244.5187325794222</v>
+        <v>1.084311197802864</v>
       </c>
       <c r="P19" t="n">
-        <v>421.779026339528</v>
+        <v>4.075312209657036</v>
       </c>
       <c r="Q19" t="n">
-        <v>270.3082255109895</v>
+        <v>7.029650438992133</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
-      </c>
-      <c r="S19" t="n">
-        <v>157.0882683573308</v>
-      </c>
+        <v>4.505137091849824</v>
+      </c>
+      <c r="S19" t="inlineStr"/>
       <c r="T19" t="n">
-        <v>157.3572766073063</v>
+        <v>2.618137805955514</v>
       </c>
       <c r="U19" t="n">
-        <v>274.3494553888967</v>
+        <v>2.622621276788438</v>
       </c>
       <c r="V19" t="n">
-        <v>217.898449923975</v>
+        <v>4.572490923148279</v>
       </c>
       <c r="W19" t="n">
-        <v>663.0880135834419</v>
-      </c>
-      <c r="X19" t="n">
-        <v>70.75465283900751</v>
-      </c>
+        <v>3.631640832066251</v>
+      </c>
+      <c r="X19" t="inlineStr"/>
       <c r="Y19" t="n">
-        <v>108.0384605081279</v>
+        <v>1.179244213983458</v>
       </c>
       <c r="Z19" t="n">
-        <v>94.24174067022118</v>
+        <v>1.800641008468799</v>
       </c>
       <c r="AA19" t="n">
-        <v>71.0903477297984</v>
+        <v>1.57069567783702</v>
       </c>
       <c r="AB19" t="n">
-        <v>77.44247551283622</v>
+        <v>1.184839128829973</v>
       </c>
       <c r="AC19" t="n">
-        <v>96.6166445268299</v>
+        <v>1.290707925213937</v>
       </c>
       <c r="AD19" t="n">
-        <v>51.17470568079489</v>
+        <v>1.610277408780498</v>
       </c>
       <c r="AE19" t="n">
-        <v>46.16370620065972</v>
+        <v>0.8529117613465814</v>
       </c>
       <c r="AF19" t="n">
-        <v>35.0672158560678</v>
+        <v>0.7693951033443286</v>
       </c>
       <c r="AG19" t="n">
-        <v>31.90717459421293</v>
+        <v>0.58445359760113</v>
       </c>
       <c r="AH19" t="n">
-        <v>320.1052890498969</v>
+        <v>0.5317862432368822</v>
       </c>
       <c r="AI19" t="n">
-        <v>145.1643775355519</v>
+        <v>5.335088150831615</v>
       </c>
       <c r="AJ19" t="n">
-        <v>130.7249129859397</v>
+        <v>2.419406292259198</v>
       </c>
       <c r="AK19" t="n">
-        <v>162.7738027011785</v>
+        <v>2.178748549765661</v>
       </c>
       <c r="AL19" t="n">
-        <v>68.95685556700116</v>
+        <v>2.712896711686308</v>
       </c>
       <c r="AM19" t="n">
-        <v>103.563310792418</v>
+        <v>1.149280926116686</v>
       </c>
       <c r="AN19" t="n">
-        <v>261.477964529937</v>
+        <v>1.726055179873634</v>
       </c>
       <c r="AO19" t="n">
-        <v>433.0502455877321</v>
+        <v>4.35796607549895</v>
       </c>
       <c r="AP19" t="n">
-        <v>159.1113076929336</v>
+        <v>7.217504093128869</v>
       </c>
       <c r="AQ19" t="n">
-        <v>171.1399376370298</v>
+        <v>2.65185512821556</v>
       </c>
       <c r="AR19" t="n">
-        <v>108.2087058018664</v>
+        <v>2.852332293950497</v>
       </c>
       <c r="AS19" t="n">
-        <v>161.0573806777922</v>
+        <v>1.803478430031106</v>
       </c>
       <c r="AT19" t="n">
-        <v>161.3368140159455</v>
+        <v>2.684289677963203</v>
       </c>
       <c r="AU19" t="n">
-        <v>50.90599740230263</v>
+        <v>2.688946900265759</v>
+      </c>
+      <c r="AV19" t="n">
+        <v>0.8484332900383771</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="n">
-        <v>288.8640273318306</v>
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>金华婺城</t>
+        </is>
       </c>
       <c r="B20" t="n">
-        <v>319.5896772187968</v>
+        <v>4.814400455530509</v>
       </c>
       <c r="C20" t="n">
-        <v>488.3006152287828</v>
-      </c>
-      <c r="D20" t="n">
-        <v>149.5932394737389</v>
-      </c>
+        <v>5.32649462031328</v>
+      </c>
+      <c r="D20" t="inlineStr"/>
       <c r="E20" t="n">
-        <v>157.4194601823024</v>
+        <v>2.493220657895649</v>
       </c>
       <c r="F20" t="n">
-        <v>222.351657492572</v>
+        <v>2.62365766970504</v>
       </c>
       <c r="G20" t="n">
-        <v>461.8981955966667</v>
+        <v>3.705860958209534</v>
       </c>
       <c r="H20" t="n">
-        <v>92.8522115868191</v>
+        <v>7.698303259944445</v>
       </c>
       <c r="I20" t="n">
-        <v>95.45694218447704</v>
+        <v>1.547536859780318</v>
       </c>
       <c r="J20" t="n">
-        <v>97.94672690754848</v>
+        <v>1.590949036407951</v>
       </c>
       <c r="K20" t="n">
-        <v>109.3213922056641</v>
+        <v>1.632445448459141</v>
       </c>
       <c r="L20" t="n">
-        <v>276.4837636014094</v>
+        <v>1.822023203427734</v>
       </c>
       <c r="M20" t="n">
-        <v>295.3403249378347</v>
+        <v>4.608062726690155</v>
       </c>
       <c r="N20" t="n">
-        <v>115.3581289448743</v>
+        <v>4.922338748963911</v>
       </c>
       <c r="O20" t="n">
-        <v>252.437323228962</v>
+        <v>1.922635482414571</v>
       </c>
       <c r="P20" t="n">
-        <v>339.2636052331246</v>
+        <v>4.2072887204827</v>
       </c>
       <c r="Q20" t="n">
-        <v>141.5611866931189</v>
+        <v>5.654393420552077</v>
       </c>
       <c r="R20" t="n">
-        <v>157.0882683573308</v>
+        <v>2.359353111551982</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
-      </c>
-      <c r="T20" t="n">
-        <v>52.1905255279682</v>
-      </c>
+        <v>2.618137805955514</v>
+      </c>
+      <c r="T20" t="inlineStr"/>
       <c r="U20" t="n">
-        <v>302.2815768013003</v>
+        <v>0.8698420921328033</v>
       </c>
       <c r="V20" t="n">
-        <v>175.0536848154826</v>
+        <v>5.038026280021672</v>
       </c>
       <c r="W20" t="n">
-        <v>651.5918483226283</v>
-      </c>
-      <c r="X20" t="n">
-        <v>197.9433504642491</v>
-      </c>
+        <v>2.917561413591376</v>
+      </c>
+      <c r="X20" t="inlineStr"/>
       <c r="Y20" t="n">
-        <v>223.486646699099</v>
+        <v>3.299055841070818</v>
       </c>
       <c r="Z20" t="n">
-        <v>249.9428527213584</v>
+        <v>3.724777444984984</v>
       </c>
       <c r="AA20" t="n">
-        <v>227.9123205242623</v>
+        <v>4.16571421202264</v>
       </c>
       <c r="AB20" t="n">
-        <v>231.192593231141</v>
+        <v>3.798538675404372</v>
       </c>
       <c r="AC20" t="n">
-        <v>250.1913295941127</v>
+        <v>3.853209887185684</v>
       </c>
       <c r="AD20" t="n">
-        <v>207.6714944608682</v>
+        <v>4.169855493235212</v>
       </c>
       <c r="AE20" t="n">
-        <v>122.908132680436</v>
+        <v>3.461191574347803</v>
       </c>
       <c r="AF20" t="n">
-        <v>173.9547855728643</v>
+        <v>2.048468878007268</v>
       </c>
       <c r="AG20" t="n">
-        <v>169.3653510457746</v>
+        <v>2.899246426214405</v>
       </c>
       <c r="AH20" t="n">
-        <v>296.9398546871011</v>
+        <v>2.822755850762911</v>
       </c>
       <c r="AI20" t="n">
-        <v>209.4625557029584</v>
+        <v>4.948997578118352</v>
       </c>
       <c r="AJ20" t="n">
-        <v>191.2758765246056</v>
+        <v>3.491042595049306</v>
       </c>
       <c r="AK20" t="n">
-        <v>154.8422330482933</v>
+        <v>3.187931275410094</v>
       </c>
       <c r="AL20" t="n">
-        <v>164.6716129705165</v>
+        <v>2.580703884138221</v>
       </c>
       <c r="AM20" t="n">
-        <v>126.7832254516318</v>
+        <v>2.744526882841941</v>
       </c>
       <c r="AN20" t="n">
-        <v>178.91947175156</v>
+        <v>2.113053757527196</v>
       </c>
       <c r="AO20" t="n">
-        <v>378.0209582861631</v>
+        <v>2.981991195859334</v>
       </c>
       <c r="AP20" t="n">
-        <v>246.1686099871174</v>
+        <v>6.300349304769385</v>
       </c>
       <c r="AQ20" t="n">
-        <v>180.5929642171088</v>
+        <v>4.102810166451956</v>
       </c>
       <c r="AR20" t="n">
-        <v>57.13344165338329</v>
+        <v>3.009882736951814</v>
       </c>
       <c r="AS20" t="n">
-        <v>170.8008140792793</v>
+        <v>0.9522240275563882</v>
       </c>
       <c r="AT20" t="n">
-        <v>286.8027043071542</v>
+        <v>2.846680234654654</v>
       </c>
       <c r="AU20" t="n">
-        <v>165.5955786161119</v>
+        <v>4.780045071785903</v>
+      </c>
+      <c r="AV20" t="n">
+        <v>2.759926310268532</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="n">
-        <v>335.351634331563</v>
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>丽水莲都</t>
+        </is>
       </c>
       <c r="B21" t="n">
-        <v>371.5511731587999</v>
+        <v>5.58919390552605</v>
       </c>
       <c r="C21" t="n">
-        <v>538.8006315635636</v>
-      </c>
-      <c r="D21" t="n">
-        <v>180.5870397468956</v>
-      </c>
+        <v>6.192519552646664</v>
+      </c>
+      <c r="D21" t="inlineStr"/>
       <c r="E21" t="n">
-        <v>187.9392751768461</v>
+        <v>3.009783995781592</v>
       </c>
       <c r="F21" t="n">
-        <v>274.3321648735509</v>
+        <v>3.132321252947434</v>
       </c>
       <c r="G21" t="n">
-        <v>511.1873490762381</v>
-      </c>
-      <c r="H21" t="n">
-        <v>107.3380764045583</v>
-      </c>
+        <v>4.572202747892516</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="n">
-        <v>105.9950362685816</v>
+        <v>1.788967940075971</v>
       </c>
       <c r="J21" t="n">
-        <v>104.5460817827089</v>
+        <v>1.766583937809693</v>
       </c>
       <c r="K21" t="n">
-        <v>118.1332820746359</v>
+        <v>1.742434696378482</v>
       </c>
       <c r="L21" t="n">
-        <v>327.6392966486294</v>
+        <v>1.968888034577265</v>
       </c>
       <c r="M21" t="n">
-        <v>345.9655857489347</v>
+        <v>5.460654944143823</v>
       </c>
       <c r="N21" t="n">
-        <v>136.2234620589858</v>
+        <v>5.766093095815578</v>
       </c>
       <c r="O21" t="n">
-        <v>298.6223165098272</v>
+        <v>2.27039103431643</v>
       </c>
       <c r="P21" t="n">
-        <v>390.5119866345462</v>
+        <v>4.977038608497121</v>
       </c>
       <c r="Q21" t="n">
-        <v>188.4550676549207</v>
+        <v>6.50853311057577</v>
       </c>
       <c r="R21" t="n">
-        <v>157.3572766073063</v>
+        <v>3.140917794248679</v>
       </c>
       <c r="S21" t="n">
-        <v>52.1905255279682</v>
+        <v>2.622621276788438</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
-      </c>
-      <c r="U21" t="n">
-        <v>346.4730524754347</v>
-      </c>
+        <v>0.8698420921328033</v>
+      </c>
+      <c r="U21" t="inlineStr"/>
       <c r="V21" t="n">
-        <v>225.3861150653469</v>
+        <v>5.774550874590577</v>
       </c>
       <c r="W21" t="n">
-        <v>702.7404124352034</v>
-      </c>
-      <c r="X21" t="n">
-        <v>179.3521181315881</v>
-      </c>
+        <v>3.756435251089115</v>
+      </c>
+      <c r="X21" t="inlineStr"/>
       <c r="Y21" t="n">
-        <v>197.7481914491645</v>
+        <v>2.989201968859801</v>
       </c>
       <c r="Z21" t="n">
-        <v>242.7288476890404</v>
+        <v>3.295803190819409</v>
       </c>
       <c r="AA21" t="n">
-        <v>223.7800800870481</v>
+        <v>4.045480794817339</v>
       </c>
       <c r="AB21" t="n">
-        <v>222.5078924980041</v>
+        <v>3.729668001450801</v>
       </c>
       <c r="AC21" t="n">
-        <v>240.4186124199618</v>
+        <v>3.708464874966734</v>
       </c>
       <c r="AD21" t="n">
-        <v>203.5836930226893</v>
+        <v>4.00697687366603</v>
       </c>
       <c r="AE21" t="n">
-        <v>114.0472795516753</v>
+        <v>3.393061550378155</v>
       </c>
       <c r="AF21" t="n">
-        <v>182.8411858674806</v>
+        <v>1.900787992527922</v>
       </c>
       <c r="AG21" t="n">
-        <v>178.1771313568608</v>
+        <v>3.047353097791343</v>
       </c>
       <c r="AH21" t="n">
-        <v>347.4828620505284</v>
+        <v>2.96961885594768</v>
       </c>
       <c r="AI21" t="n">
-        <v>170.6343157879578</v>
+        <v>5.791381034175473</v>
       </c>
       <c r="AJ21" t="n">
-        <v>224.2970540321189</v>
+        <v>2.843905263132631</v>
       </c>
       <c r="AK21" t="n">
-        <v>106.3652315375972</v>
+        <v>3.738284233868649</v>
       </c>
       <c r="AL21" t="n">
-        <v>185.4430123315072</v>
+        <v>1.772753858959953</v>
       </c>
       <c r="AM21" t="n">
-        <v>160.547697544028</v>
+        <v>3.090716872191787</v>
       </c>
       <c r="AN21" t="n">
-        <v>231.0637906078766</v>
+        <v>2.675794959067133</v>
       </c>
       <c r="AO21" t="n">
-        <v>430.2102143817289</v>
+        <v>3.851063176797943</v>
       </c>
       <c r="AP21" t="n">
-        <v>275.9290547621708</v>
+        <v>7.170170239695481</v>
       </c>
       <c r="AQ21" t="n">
-        <v>223.657376041968</v>
+        <v>4.598817579369514</v>
       </c>
       <c r="AR21" t="n">
-        <v>51.06057481730483</v>
+        <v>3.727622934032801</v>
       </c>
       <c r="AS21" t="n">
-        <v>213.1525965146373</v>
+        <v>0.8510095802884138</v>
       </c>
       <c r="AT21" t="n">
-        <v>260.0806147605529</v>
+        <v>3.552543275243955</v>
       </c>
       <c r="AU21" t="n">
-        <v>180.9499547136068</v>
+        <v>4.334676912675881</v>
+      </c>
+      <c r="AV21" t="n">
+        <v>3.015832578560114</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="n">
-        <v>313.3024416783466</v>
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>连云港海州</t>
+        </is>
       </c>
       <c r="B22" t="n">
-        <v>215.6392936605961</v>
+        <v>5.221707361305777</v>
       </c>
       <c r="C22" t="n">
-        <v>374.4020813486446</v>
+        <v>3.593988227676602</v>
       </c>
       <c r="D22" t="n">
-        <v>181.2770324874788</v>
+        <v>6.240034689144077</v>
       </c>
       <c r="E22" t="n">
-        <v>176.8825811059425</v>
+        <v>3.021283874791314</v>
       </c>
       <c r="F22" t="n">
-        <v>152.3153374886132</v>
+        <v>2.948043018432375</v>
       </c>
       <c r="G22" t="n">
-        <v>379.6008930234365</v>
+        <v>2.538588958143554</v>
       </c>
       <c r="H22" t="n">
-        <v>259.2584320773307</v>
+        <v>6.326681550390608</v>
       </c>
       <c r="I22" t="n">
-        <v>265.6384200147755</v>
+        <v>4.320973867955511</v>
       </c>
       <c r="J22" t="n">
-        <v>272.3716987837066</v>
+        <v>4.427307000246259</v>
       </c>
       <c r="K22" t="n">
-        <v>263.0807526798231</v>
+        <v>4.539528313061776</v>
       </c>
       <c r="L22" t="n">
-        <v>232.5567123179631</v>
+        <v>4.384679211330385</v>
       </c>
       <c r="M22" t="n">
-        <v>252.2427399147797</v>
+        <v>3.875945205299385</v>
       </c>
       <c r="N22" t="n">
-        <v>232.0466075553744</v>
+        <v>4.204045665246328</v>
       </c>
       <c r="O22" t="n">
-        <v>53.94855221233814</v>
+        <v>3.867443459256239</v>
       </c>
       <c r="P22" t="n">
-        <v>254.8623243428545</v>
+        <v>0.8991425368723023</v>
       </c>
       <c r="Q22" t="n">
-        <v>274.3514991896607</v>
+        <v>4.247705405714242</v>
       </c>
       <c r="R22" t="n">
-        <v>274.3494553888967</v>
+        <v>4.572524986494345</v>
       </c>
       <c r="S22" t="n">
-        <v>302.2815768013003</v>
+        <v>4.572490923148279</v>
       </c>
       <c r="T22" t="n">
-        <v>346.4730524754347</v>
+        <v>5.038026280021672</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
-      </c>
-      <c r="V22" t="n">
-        <v>144.6898329619516</v>
-      </c>
+        <v>5.774550874590577</v>
+      </c>
+      <c r="V22" t="inlineStr"/>
       <c r="W22" t="n">
-        <v>390.724371409571</v>
+        <v>2.411497216032527</v>
       </c>
       <c r="X22" t="n">
-        <v>341.8280828335111</v>
+        <v>6.512072856826183</v>
       </c>
       <c r="Y22" t="n">
-        <v>378.6068892011722</v>
+        <v>5.697134713891852</v>
       </c>
       <c r="Z22" t="n">
-        <v>316.6090444693481</v>
+        <v>6.310114820019536</v>
       </c>
       <c r="AA22" t="n">
-        <v>297.003688688979</v>
+        <v>5.276817407822468</v>
       </c>
       <c r="AB22" t="n">
-        <v>316.356336172972</v>
+        <v>4.950061478149649</v>
       </c>
       <c r="AC22" t="n">
-        <v>327.5728442953076</v>
+        <v>5.272605602882866</v>
       </c>
       <c r="AD22" t="n">
-        <v>292.4009851424915</v>
+        <v>5.459547404921794</v>
       </c>
       <c r="AE22" t="n">
-        <v>300.4356596896386</v>
+        <v>4.873349752374859</v>
       </c>
       <c r="AF22" t="n">
-        <v>244.2625197863455</v>
+        <v>5.007260994827309</v>
       </c>
       <c r="AG22" t="n">
-        <v>245.307758028573</v>
+        <v>4.071041996439091</v>
       </c>
       <c r="AH22" t="n">
-        <v>99.22450407841264</v>
+        <v>4.08846263380955</v>
       </c>
       <c r="AI22" t="n">
-        <v>418.5777640317503</v>
+        <v>1.653741734640211</v>
       </c>
       <c r="AJ22" t="n">
-        <v>143.7151078548935</v>
+        <v>6.976296067195839</v>
       </c>
       <c r="AK22" t="n">
-        <v>415.1039731293873</v>
+        <v>2.395251797581559</v>
       </c>
       <c r="AL22" t="n">
-        <v>205.395259779938</v>
+        <v>6.918399552156456</v>
       </c>
       <c r="AM22" t="n">
-        <v>192.7499559776703</v>
+        <v>3.423254329665634</v>
       </c>
       <c r="AN22" t="n">
-        <v>193.5790452702572</v>
+        <v>3.212499266294506</v>
       </c>
       <c r="AO22" t="n">
-        <v>217.4400869203345</v>
+        <v>3.226317421170954</v>
       </c>
       <c r="AP22" t="n">
-        <v>132.3945964386421</v>
+        <v>3.624001448672241</v>
       </c>
       <c r="AQ22" t="n">
-        <v>122.8559935166604</v>
+        <v>2.206576607310702</v>
       </c>
       <c r="AR22" t="n">
-        <v>307.4852143356619</v>
+        <v>2.047599891944339</v>
       </c>
       <c r="AS22" t="n">
-        <v>133.5527954585479</v>
+        <v>5.124753572261031</v>
       </c>
       <c r="AT22" t="n">
-        <v>419.1687806686929</v>
+        <v>2.225879924309131</v>
       </c>
       <c r="AU22" t="n">
-        <v>223.8144765973479</v>
+        <v>6.986146344478215</v>
+      </c>
+      <c r="AV22" t="n">
+        <v>3.730241276622465</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="n">
-        <v>211.6114395227457</v>
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>南京江宁</t>
+        </is>
       </c>
       <c r="B23" t="n">
-        <v>173.1080193971705</v>
+        <v>3.526857325379094</v>
       </c>
       <c r="C23" t="n">
-        <v>354.1244256622973</v>
+        <v>2.885133656619508</v>
       </c>
       <c r="D23" t="n">
-        <v>123.3640854961401</v>
+        <v>5.902073761038287</v>
       </c>
       <c r="E23" t="n">
-        <v>125.9836782226474</v>
+        <v>2.056068091602336</v>
       </c>
       <c r="F23" t="n">
-        <v>62.16533503444183</v>
+        <v>2.099727970377457</v>
       </c>
       <c r="G23" t="n">
-        <v>340.5702003373793</v>
+        <v>1.036088917240697</v>
       </c>
       <c r="H23" t="n">
-        <v>170.1536533011992</v>
+        <v>5.676170005622988</v>
       </c>
       <c r="I23" t="n">
-        <v>177.9660234340057</v>
+        <v>2.835894221686654</v>
       </c>
       <c r="J23" t="n">
-        <v>185.7030642555479</v>
+        <v>2.966100390566762</v>
       </c>
       <c r="K23" t="n">
-        <v>182.8623687950417</v>
+        <v>3.095051070925799</v>
       </c>
       <c r="L23" t="n">
-        <v>152.224637795809</v>
+        <v>3.047706146584028</v>
       </c>
       <c r="M23" t="n">
-        <v>175.6413048132613</v>
+        <v>2.537077296596816</v>
       </c>
       <c r="N23" t="n">
-        <v>154.9991590861983</v>
+        <v>2.927355080221021</v>
       </c>
       <c r="O23" t="n">
-        <v>90.74525541938159</v>
+        <v>2.583319318103306</v>
       </c>
       <c r="P23" t="n">
-        <v>204.9611197876799</v>
+        <v>1.51242092365636</v>
       </c>
       <c r="Q23" t="n">
-        <v>131.8555808740915</v>
+        <v>3.416018663127999</v>
       </c>
       <c r="R23" t="n">
-        <v>217.898449923975</v>
+        <v>2.197593014568191</v>
       </c>
       <c r="S23" t="n">
-        <v>175.0536848154826</v>
+        <v>3.631640832066251</v>
       </c>
       <c r="T23" t="n">
-        <v>225.3861150653469</v>
+        <v>2.917561413591376</v>
       </c>
       <c r="U23" t="n">
-        <v>144.6898329619516</v>
+        <v>3.756435251089115</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
-      </c>
-      <c r="W23" t="n">
-        <v>477.6524543326622</v>
-      </c>
+        <v>2.411497216032527</v>
+      </c>
+      <c r="W23" t="inlineStr"/>
       <c r="X23" t="n">
-        <v>287.4787548310484</v>
+        <v>7.960874238877704</v>
       </c>
       <c r="Y23" t="n">
-        <v>323.8738934641399</v>
+        <v>4.791312580517474</v>
       </c>
       <c r="Z23" t="n">
-        <v>296.1625579484577</v>
+        <v>5.397898224402331</v>
       </c>
       <c r="AA23" t="n">
-        <v>271.6246139682051</v>
+        <v>4.936042632474296</v>
       </c>
       <c r="AB23" t="n">
-        <v>286.4797309874762</v>
+        <v>4.527076899470085</v>
       </c>
       <c r="AC23" t="n">
-        <v>303.5137440221069</v>
+        <v>4.774662183124604</v>
       </c>
       <c r="AD23" t="n">
-        <v>257.8825153681684</v>
+        <v>5.058562400368449</v>
       </c>
       <c r="AE23" t="n">
-        <v>221.8598814666825</v>
+        <v>4.298041922802806</v>
       </c>
       <c r="AF23" t="n">
-        <v>202.9956971442526</v>
+        <v>3.697664691111375</v>
       </c>
       <c r="AG23" t="n">
-        <v>201.1410673318262</v>
+        <v>3.383261619070876</v>
       </c>
       <c r="AH23" t="n">
-        <v>122.098915523633</v>
+        <v>3.352351122197104</v>
       </c>
       <c r="AI23" t="n">
-        <v>342.4059457229902</v>
+        <v>2.034981925393884</v>
       </c>
       <c r="AJ23" t="n">
-        <v>123.5767463555087</v>
+        <v>5.706765762049836</v>
       </c>
       <c r="AK23" t="n">
-        <v>314.4405363940505</v>
+        <v>2.059612439258478</v>
       </c>
       <c r="AL23" t="n">
-        <v>162.8714565635198</v>
+        <v>5.240675606567508</v>
       </c>
       <c r="AM23" t="n">
-        <v>114.3585204827058</v>
+        <v>2.714524276058664</v>
       </c>
       <c r="AN23" t="n">
-        <v>62.15602115149692</v>
+        <v>1.90597534137843</v>
       </c>
       <c r="AO23" t="n">
-        <v>218.1337187873263</v>
+        <v>1.035933685858282</v>
       </c>
       <c r="AP23" t="n">
-        <v>166.8200589363555</v>
+        <v>3.635561979788772</v>
       </c>
       <c r="AQ23" t="n">
-        <v>66.17697114701758</v>
+        <v>2.780334315605925</v>
       </c>
       <c r="AR23" t="n">
-        <v>199.4585138722893</v>
+        <v>1.10294951911696</v>
       </c>
       <c r="AS23" t="n">
-        <v>69.4967196500579</v>
+        <v>3.324308564538155</v>
       </c>
       <c r="AT23" t="n">
-        <v>379.2157548370881</v>
+        <v>1.158278660834298</v>
       </c>
       <c r="AU23" t="n">
-        <v>180.4420260252019</v>
+        <v>6.320262580618135</v>
+      </c>
+      <c r="AV23" t="n">
+        <v>3.007367100420031</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="n">
-        <v>474.0279598937367</v>
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>南通通州</t>
+        </is>
       </c>
       <c r="B24" t="n">
-        <v>360.4422237813138</v>
+        <v>7.900465998228944</v>
       </c>
       <c r="C24" t="n">
-        <v>311.9498837565472</v>
+        <v>6.00737039635523</v>
       </c>
       <c r="D24" t="n">
-        <v>565.5770661540039</v>
-      </c>
-      <c r="E24" t="n">
-        <v>562.6368641331044</v>
-      </c>
-      <c r="F24" t="n">
-        <v>431.2085483426471</v>
-      </c>
+        <v>5.199164729275788</v>
+      </c>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr"/>
       <c r="G24" t="n">
-        <v>357.8292297051949</v>
+        <v>7.186809139044118</v>
       </c>
       <c r="H24" t="n">
-        <v>637.2088954944542</v>
-      </c>
-      <c r="I24" t="n">
-        <v>644.4817436633265</v>
-      </c>
-      <c r="J24" t="n">
-        <v>651.8988851308915</v>
-      </c>
-      <c r="K24" t="n">
-        <v>644.9155638774514</v>
-      </c>
-      <c r="L24" t="n">
-        <v>415.6466521285362</v>
-      </c>
+        <v>5.963820495086582</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
-        <v>411.4605261462442</v>
+        <v>6.92744420214227</v>
       </c>
       <c r="N24" t="n">
-        <v>613.7109622649962</v>
-      </c>
-      <c r="O24" t="n">
-        <v>419.850564886384</v>
-      </c>
+        <v>6.857675435770736</v>
+      </c>
+      <c r="O24" t="inlineStr"/>
       <c r="P24" t="n">
-        <v>366.7789377570891</v>
+        <v>6.997509414773067</v>
       </c>
       <c r="Q24" t="n">
-        <v>555.0160531560587</v>
-      </c>
-      <c r="R24" t="n">
-        <v>663.0880135834419</v>
-      </c>
-      <c r="S24" t="n">
-        <v>651.5918483226283</v>
-      </c>
-      <c r="T24" t="n">
-        <v>702.7404124352034</v>
-      </c>
-      <c r="U24" t="n">
-        <v>390.724371409571</v>
-      </c>
+        <v>6.112982295951485</v>
+      </c>
+      <c r="R24" t="inlineStr"/>
+      <c r="S24" t="inlineStr"/>
+      <c r="T24" t="inlineStr"/>
+      <c r="U24" t="inlineStr"/>
       <c r="V24" t="n">
-        <v>477.6524543326622</v>
+        <v>6.512072856826183</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
-      </c>
-      <c r="X24" t="n">
-        <v>731.8551319209604</v>
-      </c>
-      <c r="Y24" t="n">
-        <v>768.8733249022475</v>
-      </c>
-      <c r="Z24" t="n">
-        <v>705.8558683536758</v>
-      </c>
-      <c r="AA24" t="n">
-        <v>687.1911544481601</v>
-      </c>
-      <c r="AB24" t="n">
-        <v>706.7176860527426</v>
-      </c>
-      <c r="AC24" t="n">
-        <v>717.1598153590471</v>
-      </c>
-      <c r="AD24" t="n">
-        <v>683.1125402350618</v>
-      </c>
-      <c r="AE24" t="n">
-        <v>684.0366256332873</v>
-      </c>
-      <c r="AF24" t="n">
-        <v>634.413380902384</v>
-      </c>
-      <c r="AG24" t="n">
-        <v>635.1852513234311</v>
-      </c>
-      <c r="AH24" t="n">
-        <v>355.8011819671609</v>
-      </c>
+        <v>7.960874238877704</v>
+      </c>
+      <c r="X24" t="inlineStr"/>
+      <c r="Y24" t="inlineStr"/>
+      <c r="Z24" t="inlineStr"/>
+      <c r="AA24" t="inlineStr"/>
+      <c r="AB24" t="inlineStr"/>
+      <c r="AC24" t="inlineStr"/>
+      <c r="AD24" t="inlineStr"/>
+      <c r="AE24" t="inlineStr"/>
+      <c r="AF24" t="inlineStr"/>
+      <c r="AG24" t="inlineStr"/>
+      <c r="AH24" t="inlineStr"/>
       <c r="AI24" t="n">
-        <v>805.0311854334556</v>
-      </c>
-      <c r="AJ24" t="n">
-        <v>532.7108517900045</v>
-      </c>
-      <c r="AK24" t="n">
-        <v>789.7664460230917</v>
-      </c>
-      <c r="AL24" t="n">
-        <v>594.4071669291187</v>
-      </c>
-      <c r="AM24" t="n">
-        <v>571.3072452702165</v>
-      </c>
-      <c r="AN24" t="n">
-        <v>480.6213510103845</v>
-      </c>
-      <c r="AO24" t="n">
-        <v>293.5990584078156</v>
-      </c>
+        <v>5.930019699452681</v>
+      </c>
+      <c r="AJ24" t="inlineStr"/>
+      <c r="AK24" t="inlineStr"/>
+      <c r="AL24" t="inlineStr"/>
+      <c r="AM24" t="inlineStr"/>
+      <c r="AN24" t="inlineStr"/>
+      <c r="AO24" t="inlineStr"/>
       <c r="AP24" t="n">
-        <v>520.6750654154874</v>
-      </c>
-      <c r="AQ24" t="n">
-        <v>497.2991666478346</v>
-      </c>
-      <c r="AR24" t="n">
-        <v>675.6214868004358</v>
-      </c>
-      <c r="AS24" t="n">
-        <v>508.3766262684319</v>
-      </c>
-      <c r="AT24" t="n">
-        <v>809.6062545076647</v>
-      </c>
-      <c r="AU24" t="n">
-        <v>613.2952804569991</v>
-      </c>
+        <v>4.89331764013026</v>
+      </c>
+      <c r="AQ24" t="inlineStr"/>
+      <c r="AR24" t="inlineStr"/>
+      <c r="AS24" t="inlineStr"/>
+      <c r="AT24" t="inlineStr"/>
+      <c r="AU24" t="inlineStr"/>
+      <c r="AV24" t="inlineStr"/>
     </row>
     <row r="25">
-      <c r="A25" t="n">
-        <v>467.947578299203</v>
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>宁波慈溪</t>
+        </is>
       </c>
       <c r="B25" t="n">
-        <v>460.3030289306344</v>
+        <v>7.799126304986717</v>
       </c>
       <c r="C25" t="n">
-        <v>640.8034143221046</v>
-      </c>
-      <c r="D25" t="n">
-        <v>170.8338568147942</v>
-      </c>
+        <v>7.671717148843906</v>
+      </c>
+      <c r="D25" t="inlineStr"/>
       <c r="E25" t="n">
-        <v>171.9944981091034</v>
+        <v>2.847230946913237</v>
       </c>
       <c r="F25" t="n">
-        <v>349.5140844139121</v>
+        <v>2.866574968485057</v>
       </c>
       <c r="G25" t="n">
-        <v>623.8048305148392</v>
-      </c>
-      <c r="H25" t="n">
-        <v>125.3086849043386</v>
-      </c>
+        <v>5.825234740231869</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="n">
-        <v>118.1094619234757</v>
+        <v>2.088478081738976</v>
       </c>
       <c r="J25" t="n">
-        <v>111.4085546300967</v>
+        <v>1.968491032057929</v>
       </c>
       <c r="K25" t="n">
-        <v>108.4031352187457</v>
+        <v>1.856809243834946</v>
       </c>
       <c r="L25" t="n">
-        <v>432.2070047732896</v>
+        <v>1.806718920312428</v>
       </c>
       <c r="M25" t="n">
-        <v>454.6192343276858</v>
+        <v>7.203450079554827</v>
       </c>
       <c r="N25" t="n">
-        <v>132.7374008103785</v>
+        <v>7.576987238794763</v>
       </c>
       <c r="O25" t="n">
-        <v>314.4968950003796</v>
+        <v>2.212290013506309</v>
       </c>
       <c r="P25" t="n">
-        <v>490.1807200442402</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>327.0841053263592</v>
-      </c>
+        <v>5.241614916672993</v>
+      </c>
+      <c r="Q25" t="inlineStr"/>
       <c r="R25" t="n">
-        <v>70.75465283900751</v>
+        <v>5.45140175543932</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9433504642491</v>
+        <v>1.179244213983458</v>
       </c>
       <c r="T25" t="n">
-        <v>179.3521181315881</v>
+        <v>3.299055841070818</v>
       </c>
       <c r="U25" t="n">
-        <v>341.8280828335111</v>
+        <v>2.989201968859801</v>
       </c>
       <c r="V25" t="n">
-        <v>287.4787548310484</v>
+        <v>5.697134713891852</v>
       </c>
       <c r="W25" t="n">
-        <v>731.8551319209604</v>
-      </c>
-      <c r="X25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y25" t="n">
-        <v>37.37182697304661</v>
-      </c>
+        <v>4.791312580517474</v>
+      </c>
+      <c r="X25" t="inlineStr"/>
+      <c r="Y25" t="inlineStr"/>
       <c r="Z25" t="n">
-        <v>75.66253183658199</v>
+        <v>0.6228637828841102</v>
       </c>
       <c r="AA25" t="n">
-        <v>69.54948210604222</v>
+        <v>1.261042197276367</v>
       </c>
       <c r="AB25" t="n">
-        <v>55.98990507153981</v>
+        <v>1.159158035100704</v>
       </c>
       <c r="AC25" t="n">
-        <v>68.40608380747295</v>
+        <v>0.9331650845256635</v>
       </c>
       <c r="AD25" t="n">
-        <v>58.62415085653111</v>
+        <v>1.140101396791216</v>
       </c>
       <c r="AE25" t="n">
-        <v>76.81071965220973</v>
+        <v>0.9770691809421852</v>
       </c>
       <c r="AF25" t="n">
-        <v>97.56556631866165</v>
+        <v>1.280178660870162</v>
       </c>
       <c r="AG25" t="n">
-        <v>96.66989061837215</v>
+        <v>1.626092771977694</v>
       </c>
       <c r="AH25" t="n">
-        <v>390.8043141246163</v>
+        <v>1.611164843639536</v>
       </c>
       <c r="AI25" t="n">
-        <v>88.78308152256649</v>
+        <v>6.513405235410272</v>
       </c>
       <c r="AJ25" t="n">
-        <v>199.2051130364484</v>
+        <v>1.479718025376108</v>
       </c>
       <c r="AK25" t="n">
-        <v>138.1942074677489</v>
+        <v>3.32008521727414</v>
       </c>
       <c r="AL25" t="n">
-        <v>137.7619527263654</v>
+        <v>2.303236791129148</v>
       </c>
       <c r="AM25" t="n">
-        <v>173.5238018644836</v>
+        <v>2.296032545439423</v>
       </c>
       <c r="AN25" t="n">
-        <v>327.8976299644948</v>
+        <v>2.89206336440806</v>
       </c>
       <c r="AO25" t="n">
-        <v>503.5434639123218</v>
-      </c>
-      <c r="AP25" t="n">
-        <v>219.4820077292835</v>
-      </c>
+        <v>5.464960499408247</v>
+      </c>
+      <c r="AP25" t="inlineStr"/>
       <c r="AQ25" t="n">
-        <v>241.8668639816159</v>
+        <v>3.658033462154726</v>
       </c>
       <c r="AR25" t="n">
-        <v>141.312155692125</v>
+        <v>4.031114399693598</v>
       </c>
       <c r="AS25" t="n">
-        <v>231.8116347002635</v>
+        <v>2.35520259486875</v>
       </c>
       <c r="AT25" t="n">
-        <v>93.85210436297569</v>
+        <v>3.863527245004391</v>
       </c>
       <c r="AU25" t="n">
-        <v>118.6609072374438</v>
+        <v>1.564201739382928</v>
+      </c>
+      <c r="AV25" t="n">
+        <v>1.97768178729073</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="n">
-        <v>500.2612080811455</v>
-      </c>
-      <c r="B26" t="n">
-        <v>496.4144542027742</v>
-      </c>
-      <c r="C26" t="n">
-        <v>676.6073482072055</v>
-      </c>
-      <c r="D26" t="n">
-        <v>208.1468656311151</v>
-      </c>
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>宁波鄞州</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr"/>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr"/>
       <c r="E26" t="n">
-        <v>209.3621632102976</v>
+        <v>3.469114427185252</v>
       </c>
       <c r="F26" t="n">
-        <v>385.7829230434641</v>
+        <v>3.489369386838293</v>
       </c>
       <c r="G26" t="n">
-        <v>658.7834345481346</v>
-      </c>
-      <c r="H26" t="n">
-        <v>158.8924867651622</v>
-      </c>
+        <v>6.429715384057735</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="n">
-        <v>151.3708780565647</v>
+        <v>2.648208112752703</v>
       </c>
       <c r="J26" t="n">
-        <v>144.2121588282392</v>
+        <v>2.522847967609413</v>
       </c>
       <c r="K26" t="n">
-        <v>142.9373485064293</v>
+        <v>2.403535980470653</v>
       </c>
       <c r="L26" t="n">
-        <v>467.1508320153806</v>
+        <v>2.382289141773821</v>
       </c>
       <c r="M26" t="n">
-        <v>489.3513138072202</v>
-      </c>
-      <c r="N26" t="n">
-        <v>168.8938821044578</v>
-      </c>
+        <v>7.785847200256343</v>
+      </c>
+      <c r="N26" t="inlineStr"/>
       <c r="O26" t="n">
-        <v>351.8337156017598</v>
+        <v>2.814898035074296</v>
       </c>
       <c r="P26" t="n">
-        <v>525.7385751083913</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>357.4120923490291</v>
-      </c>
+        <v>5.86389526002933</v>
+      </c>
+      <c r="Q26" t="inlineStr"/>
       <c r="R26" t="n">
-        <v>108.0384605081279</v>
+        <v>5.956868205817151</v>
       </c>
       <c r="S26" t="n">
-        <v>223.486646699099</v>
+        <v>1.800641008468799</v>
       </c>
       <c r="T26" t="n">
-        <v>197.7481914491645</v>
+        <v>3.724777444984984</v>
       </c>
       <c r="U26" t="n">
-        <v>378.6068892011722</v>
+        <v>3.295803190819409</v>
       </c>
       <c r="V26" t="n">
-        <v>323.8738934641399</v>
+        <v>6.310114820019536</v>
       </c>
       <c r="W26" t="n">
-        <v>768.8733249022475</v>
-      </c>
-      <c r="X26" t="n">
-        <v>37.37182697304661</v>
-      </c>
+        <v>5.397898224402331</v>
+      </c>
+      <c r="X26" t="inlineStr"/>
       <c r="Y26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z26" t="n">
-        <v>92.5567860862304</v>
-      </c>
+        <v>0.6228637828841102</v>
+      </c>
+      <c r="Z26" t="inlineStr"/>
       <c r="AA26" t="n">
-        <v>95.59921147293518</v>
+        <v>1.542613101437173</v>
       </c>
       <c r="AB26" t="n">
-        <v>77.4667724950038</v>
+        <v>1.593320191215586</v>
       </c>
       <c r="AC26" t="n">
-        <v>81.81421396095283</v>
+        <v>1.29111287491673</v>
       </c>
       <c r="AD26" t="n">
-        <v>90.34950089178473</v>
+        <v>1.363570232682547</v>
       </c>
       <c r="AE26" t="n">
-        <v>107.8310086240912</v>
+        <v>1.505825014863079</v>
       </c>
       <c r="AF26" t="n">
-        <v>134.4601937325446</v>
+        <v>1.797183477068186</v>
       </c>
       <c r="AG26" t="n">
-        <v>133.7751106949677</v>
+        <v>2.241003228875743</v>
       </c>
       <c r="AH26" t="n">
-        <v>428.1352625700059</v>
+        <v>2.229585178249462</v>
       </c>
       <c r="AI26" t="n">
-        <v>67.41721885349587</v>
+        <v>7.135587709500098</v>
       </c>
       <c r="AJ26" t="n">
-        <v>236.3504223245462</v>
+        <v>1.123620314224931</v>
       </c>
       <c r="AK26" t="n">
-        <v>135.5222076741516</v>
+        <v>3.939173705409103</v>
       </c>
       <c r="AL26" t="n">
-        <v>175.0391428308624</v>
+        <v>2.258703461235859</v>
       </c>
       <c r="AM26" t="n">
-        <v>210.2790176156815</v>
+        <v>2.91731904718104</v>
       </c>
       <c r="AN26" t="n">
-        <v>362.6447732784819</v>
+        <v>3.504650293594692</v>
       </c>
       <c r="AO26" t="n">
-        <v>540.4448382992671</v>
-      </c>
-      <c r="AP26" t="n">
-        <v>254.6500303597458</v>
-      </c>
+        <v>6.044079554641366</v>
+      </c>
+      <c r="AP26" t="inlineStr"/>
       <c r="AQ26" t="n">
-        <v>279.1778786072958</v>
+        <v>4.24416717266243</v>
       </c>
       <c r="AR26" t="n">
-        <v>166.3653886537937</v>
+        <v>4.65296464345493</v>
       </c>
       <c r="AS26" t="n">
-        <v>269.0751545412816</v>
+        <v>2.772756477563229</v>
       </c>
       <c r="AT26" t="n">
-        <v>63.32042902501153</v>
+        <v>4.48458590902136</v>
       </c>
       <c r="AU26" t="n">
-        <v>155.8810694691666</v>
+        <v>1.055340483750192</v>
+      </c>
+      <c r="AV26" t="n">
+        <v>2.598017824486111</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="n">
-        <v>494.7477915409295</v>
-      </c>
-      <c r="B27" t="n">
-        <v>467.3828882219505</v>
-      </c>
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>上海宝山</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr"/>
       <c r="C27" t="n">
-        <v>648.2725387703827</v>
-      </c>
-      <c r="D27" t="n">
-        <v>172.8020026654709</v>
-      </c>
+        <v>7.789714803699174</v>
+      </c>
+      <c r="D27" t="inlineStr"/>
       <c r="E27" t="n">
-        <v>170.4962224696538</v>
+        <v>2.880033377757848</v>
       </c>
       <c r="F27" t="n">
-        <v>357.4301904503129</v>
+        <v>2.841603707827563</v>
       </c>
       <c r="G27" t="n">
-        <v>636.683168970781</v>
-      </c>
-      <c r="H27" t="n">
-        <v>162.0216738913907</v>
-      </c>
+        <v>5.957169840838548</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="n">
-        <v>157.0331279493287</v>
+        <v>2.700361231523179</v>
       </c>
       <c r="J27" t="n">
-        <v>152.9117781691818</v>
+        <v>2.617218799155479</v>
       </c>
       <c r="K27" t="n">
-        <v>143.7221607185547</v>
+        <v>2.548529636153031</v>
       </c>
       <c r="L27" t="n">
-        <v>447.5317844986712</v>
+        <v>2.395369345309246</v>
       </c>
       <c r="M27" t="n">
-        <v>470.7666610885779</v>
+        <v>7.458863074977853</v>
       </c>
       <c r="N27" t="n">
-        <v>154.7927969353785</v>
+        <v>7.846111018142965</v>
       </c>
       <c r="O27" t="n">
-        <v>300.6206050405559</v>
+        <v>2.579879948922974</v>
       </c>
       <c r="P27" t="n">
-        <v>500.875193269375</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>363.1778589653514</v>
-      </c>
+        <v>5.010343417342598</v>
+      </c>
+      <c r="Q27" t="inlineStr"/>
       <c r="R27" t="n">
-        <v>94.24174067022118</v>
+        <v>6.05296431608919</v>
       </c>
       <c r="S27" t="n">
-        <v>249.9428527213584</v>
+        <v>1.57069567783702</v>
       </c>
       <c r="T27" t="n">
-        <v>242.7288476890404</v>
+        <v>4.16571421202264</v>
       </c>
       <c r="U27" t="n">
-        <v>316.6090444693481</v>
+        <v>4.045480794817339</v>
       </c>
       <c r="V27" t="n">
-        <v>296.1625579484577</v>
+        <v>5.276817407822468</v>
       </c>
       <c r="W27" t="n">
-        <v>705.8558683536758</v>
-      </c>
-      <c r="X27" t="n">
-        <v>75.66253183658199</v>
-      </c>
+        <v>4.936042632474296</v>
+      </c>
+      <c r="X27" t="inlineStr"/>
       <c r="Y27" t="n">
-        <v>92.5567860862304</v>
+        <v>1.261042197276367</v>
       </c>
       <c r="Z27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA27" t="n">
-        <v>24.92285373996787</v>
-      </c>
+        <v>1.542613101437173</v>
+      </c>
+      <c r="AA27" t="inlineStr"/>
       <c r="AB27" t="n">
-        <v>20.72824481302924</v>
+        <v>0.4153808956661311</v>
       </c>
       <c r="AC27" t="n">
-        <v>12.25369042237947</v>
+        <v>0.3454707468838207</v>
       </c>
       <c r="AD27" t="n">
-        <v>43.16558572887532</v>
+        <v>0.2042281737063245</v>
       </c>
       <c r="AE27" t="n">
-        <v>129.4605429230284</v>
+        <v>0.7194264288145887</v>
       </c>
       <c r="AF27" t="n">
-        <v>94.17202171649028</v>
+        <v>2.157675715383807</v>
       </c>
       <c r="AG27" t="n">
-        <v>96.87346120706593</v>
+        <v>1.569533695274838</v>
       </c>
       <c r="AH27" t="n">
-        <v>382.2928923349032</v>
+        <v>1.614557686784432</v>
       </c>
       <c r="AI27" t="n">
-        <v>158.6159423397585</v>
+        <v>6.37154820558172</v>
       </c>
       <c r="AJ27" t="n">
-        <v>185.1148647617375</v>
+        <v>2.643599038995975</v>
       </c>
       <c r="AK27" t="n">
-        <v>213.7932646300594</v>
+        <v>3.085247746028958</v>
       </c>
       <c r="AL27" t="n">
-        <v>133.3265146689844</v>
+        <v>3.563221077167656</v>
       </c>
       <c r="AM27" t="n">
-        <v>185.2348101825282</v>
+        <v>2.222108577816406</v>
       </c>
       <c r="AN27" t="n">
-        <v>346.5715148868745</v>
+        <v>3.087246836375471</v>
       </c>
       <c r="AO27" t="n">
-        <v>502.1237928265257</v>
-      </c>
-      <c r="AP27" t="n">
-        <v>185.1849925223047</v>
-      </c>
+        <v>5.776191914781242</v>
+      </c>
+      <c r="AP27" t="inlineStr"/>
       <c r="AQ27" t="n">
-        <v>238.8575808090699</v>
+        <v>3.086416542038411</v>
       </c>
       <c r="AR27" t="n">
-        <v>197.4939643021745</v>
+        <v>3.980959680151165</v>
       </c>
       <c r="AS27" t="n">
-        <v>230.8754893974247</v>
+        <v>3.291566071702908</v>
       </c>
       <c r="AT27" t="n">
-        <v>106.293183558679</v>
+        <v>3.847924823290412</v>
       </c>
       <c r="AU27" t="n">
-        <v>115.9713344134614</v>
+        <v>1.771553059311316</v>
+      </c>
+      <c r="AV27" t="n">
+        <v>1.932855573557691</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="n">
-        <v>469.8318253511309</v>
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>上海嘉定</t>
+        </is>
       </c>
       <c r="B28" t="n">
-        <v>443.1954823984692</v>
+        <v>7.830530422518848</v>
       </c>
       <c r="C28" t="n">
-        <v>624.184758771971</v>
-      </c>
-      <c r="D28" t="n">
-        <v>148.2709601474752</v>
-      </c>
+        <v>7.38659137330782</v>
+      </c>
+      <c r="D28" t="inlineStr"/>
       <c r="E28" t="n">
-        <v>146.2025702729274</v>
+        <v>2.471182669124586</v>
       </c>
       <c r="F28" t="n">
-        <v>333.0453000948511</v>
+        <v>2.43670950454879</v>
       </c>
       <c r="G28" t="n">
-        <v>612.1878129663957</v>
-      </c>
-      <c r="H28" t="n">
-        <v>138.5330956568291</v>
-      </c>
+        <v>5.550755001580852</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="n">
-        <v>133.9150797094263</v>
+        <v>2.308884927613819</v>
       </c>
       <c r="J28" t="n">
-        <v>130.2541444411922</v>
+        <v>2.231917995157105</v>
       </c>
       <c r="K28" t="n">
-        <v>120.3786260542196</v>
+        <v>2.170902407353204</v>
       </c>
       <c r="L28" t="n">
-        <v>422.8120465174085</v>
+        <v>2.006310434236994</v>
       </c>
       <c r="M28" t="n">
-        <v>446.0248284901983</v>
+        <v>7.046867441956808</v>
       </c>
       <c r="N28" t="n">
-        <v>130.1185653178653</v>
+        <v>7.433747141503305</v>
       </c>
       <c r="O28" t="n">
-        <v>278.671518037393</v>
+        <v>2.168642755297754</v>
       </c>
       <c r="P28" t="n">
-        <v>476.4474335348884</v>
+        <v>4.644525300623216</v>
       </c>
       <c r="Q28" t="n">
-        <v>338.6855560797482</v>
+        <v>7.940790558914808</v>
       </c>
       <c r="R28" t="n">
-        <v>71.0903477297984</v>
+        <v>5.644759267995803</v>
       </c>
       <c r="S28" t="n">
-        <v>227.9123205242623</v>
+        <v>1.184839128829973</v>
       </c>
       <c r="T28" t="n">
-        <v>223.7800800870481</v>
+        <v>3.798538675404372</v>
       </c>
       <c r="U28" t="n">
-        <v>297.003688688979</v>
+        <v>3.729668001450801</v>
       </c>
       <c r="V28" t="n">
-        <v>271.6246139682051</v>
+        <v>4.950061478149649</v>
       </c>
       <c r="W28" t="n">
-        <v>687.1911544481601</v>
-      </c>
-      <c r="X28" t="n">
-        <v>69.54948210604222</v>
-      </c>
+        <v>4.527076899470085</v>
+      </c>
+      <c r="X28" t="inlineStr"/>
       <c r="Y28" t="n">
-        <v>95.59921147293518</v>
+        <v>1.159158035100704</v>
       </c>
       <c r="Z28" t="n">
-        <v>24.92285373996787</v>
+        <v>1.593320191215586</v>
       </c>
       <c r="AA28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB28" t="n">
-        <v>19.91417560662046</v>
-      </c>
+        <v>0.4153808956661311</v>
+      </c>
+      <c r="AB28" t="inlineStr"/>
       <c r="AC28" t="n">
-        <v>32.27446586187435</v>
+        <v>0.3319029267770077</v>
       </c>
       <c r="AD28" t="n">
-        <v>20.36845850483699</v>
+        <v>0.5379077643645725</v>
       </c>
       <c r="AE28" t="n">
-        <v>109.7617167383383</v>
+        <v>0.3394743084139499</v>
       </c>
       <c r="AF28" t="n">
-        <v>69.28747572890721</v>
+        <v>1.829361945638972</v>
       </c>
       <c r="AG28" t="n">
-        <v>71.95154894545311</v>
+        <v>1.15479126214874</v>
       </c>
       <c r="AH28" t="n">
-        <v>359.7501166225381</v>
+        <v>1.199192482424219</v>
       </c>
       <c r="AI28" t="n">
-        <v>157.5436210070134</v>
+        <v>5.995835277042302</v>
       </c>
       <c r="AJ28" t="n">
-        <v>162.455990180541</v>
+        <v>2.625727016783557</v>
       </c>
       <c r="AK28" t="n">
-        <v>204.318192821853</v>
+        <v>2.70759983634235</v>
       </c>
       <c r="AL28" t="n">
-        <v>108.9285379076125</v>
+        <v>3.405303213697551</v>
       </c>
       <c r="AM28" t="n">
-        <v>160.3474582676718</v>
+        <v>1.815475631793541</v>
       </c>
       <c r="AN28" t="n">
-        <v>321.6890342803378</v>
+        <v>2.672457637794529</v>
       </c>
       <c r="AO28" t="n">
-        <v>478.8345977168098</v>
+        <v>5.361483904672296</v>
       </c>
       <c r="AP28" t="n">
-        <v>167.0199289158137</v>
+        <v>7.980576628613496</v>
       </c>
       <c r="AQ28" t="n">
-        <v>215.1174563425961</v>
+        <v>2.783665481930228</v>
       </c>
       <c r="AR28" t="n">
-        <v>176.9444969672872</v>
+        <v>3.585290939043268</v>
       </c>
       <c r="AS28" t="n">
-        <v>206.8866797449808</v>
+        <v>2.949074949454787</v>
       </c>
       <c r="AT28" t="n">
-        <v>122.5222025793159</v>
+        <v>3.448111329083013</v>
       </c>
       <c r="AU28" t="n">
-        <v>91.26571834590145</v>
+        <v>2.042036709655265</v>
+      </c>
+      <c r="AV28" t="n">
+        <v>1.521095305765024</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="n">
-        <v>481.5152832218067</v>
-      </c>
-      <c r="B29" t="n">
-        <v>458.7716866596942</v>
-      </c>
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>上海闵行</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr"/>
       <c r="C29" t="n">
-        <v>639.8879642067562</v>
-      </c>
-      <c r="D29" t="n">
-        <v>163.4691819366062</v>
-      </c>
+        <v>7.646194777661571</v>
+      </c>
+      <c r="D29" t="inlineStr"/>
       <c r="E29" t="n">
-        <v>162.0204334527108</v>
+        <v>2.724486365610104</v>
       </c>
       <c r="F29" t="n">
-        <v>348.2518227572704</v>
+        <v>2.70034055754518</v>
       </c>
       <c r="G29" t="n">
-        <v>626.9378499406899</v>
-      </c>
-      <c r="H29" t="n">
-        <v>145.0140934868705</v>
-      </c>
+        <v>5.804197045954506</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="n">
-        <v>139.5784994625834</v>
+        <v>2.416901558114508</v>
       </c>
       <c r="J29" t="n">
-        <v>134.9840023879099</v>
+        <v>2.326308324376391</v>
       </c>
       <c r="K29" t="n">
-        <v>126.6261076181844</v>
+        <v>2.249733373131832</v>
       </c>
       <c r="L29" t="n">
-        <v>436.8464692701563</v>
+        <v>2.110435126969739</v>
       </c>
       <c r="M29" t="n">
-        <v>459.9419139594506</v>
+        <v>7.280774487835939</v>
       </c>
       <c r="N29" t="n">
-        <v>140.4262782913981</v>
+        <v>7.665698565990843</v>
       </c>
       <c r="O29" t="n">
-        <v>296.9470665352422</v>
+        <v>2.340437971523301</v>
       </c>
       <c r="P29" t="n">
-        <v>491.4407802348306</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>347.6562180484651</v>
-      </c>
+        <v>4.94911777558737</v>
+      </c>
+      <c r="Q29" t="inlineStr"/>
       <c r="R29" t="n">
-        <v>77.44247551283622</v>
+        <v>5.794270300807752</v>
       </c>
       <c r="S29" t="n">
-        <v>231.192593231141</v>
+        <v>1.290707925213937</v>
       </c>
       <c r="T29" t="n">
-        <v>222.5078924980041</v>
+        <v>3.853209887185684</v>
       </c>
       <c r="U29" t="n">
-        <v>316.356336172972</v>
+        <v>3.708464874966734</v>
       </c>
       <c r="V29" t="n">
-        <v>286.4797309874762</v>
+        <v>5.272605602882866</v>
       </c>
       <c r="W29" t="n">
-        <v>706.7176860527426</v>
-      </c>
-      <c r="X29" t="n">
-        <v>55.98990507153981</v>
-      </c>
+        <v>4.774662183124604</v>
+      </c>
+      <c r="X29" t="inlineStr"/>
       <c r="Y29" t="n">
-        <v>77.4667724950038</v>
+        <v>0.9331650845256635</v>
       </c>
       <c r="Z29" t="n">
-        <v>20.72824481302924</v>
+        <v>1.29111287491673</v>
       </c>
       <c r="AA29" t="n">
-        <v>19.91417560662046</v>
+        <v>0.3454707468838207</v>
       </c>
       <c r="AB29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC29" t="n">
-        <v>19.22524317185651</v>
-      </c>
+        <v>0.3319029267770077</v>
+      </c>
+      <c r="AC29" t="inlineStr"/>
       <c r="AD29" t="n">
-        <v>28.70780593076059</v>
+        <v>0.3204207195309418</v>
       </c>
       <c r="AE29" t="n">
-        <v>109.7384727571454</v>
+        <v>0.4784634321793431</v>
       </c>
       <c r="AF29" t="n">
-        <v>83.50092607076934</v>
+        <v>1.828974545952423</v>
       </c>
       <c r="AG29" t="n">
-        <v>85.40786537838891</v>
+        <v>1.391682101179489</v>
       </c>
       <c r="AH29" t="n">
-        <v>377.5116190390592</v>
+        <v>1.423464422973148</v>
       </c>
       <c r="AI29" t="n">
-        <v>141.5317922525572</v>
+        <v>6.291860317317654</v>
       </c>
       <c r="AJ29" t="n">
-        <v>180.3848426557255</v>
+        <v>2.358863204209287</v>
       </c>
       <c r="AK29" t="n">
-        <v>193.7281400695353</v>
+        <v>3.006414044262092</v>
       </c>
       <c r="AL29" t="n">
-        <v>124.719785343327</v>
+        <v>3.228802334492255</v>
       </c>
       <c r="AM29" t="n">
-        <v>173.724199542188</v>
+        <v>2.078663089055451</v>
       </c>
       <c r="AN29" t="n">
-        <v>334.7638829965628</v>
+        <v>2.895403325703134</v>
       </c>
       <c r="AO29" t="n">
-        <v>495.7836488601704</v>
-      </c>
-      <c r="AP29" t="n">
-        <v>186.7773564843738</v>
-      </c>
+        <v>5.579398049942712</v>
+      </c>
+      <c r="AP29" t="inlineStr"/>
       <c r="AQ29" t="n">
-        <v>231.7182288599419</v>
+        <v>3.11295594140623</v>
       </c>
       <c r="AR29" t="n">
-        <v>177.9400304196969</v>
+        <v>3.861970480999031</v>
       </c>
       <c r="AS29" t="n">
-        <v>223.1079911386701</v>
+        <v>2.965667173661614</v>
       </c>
       <c r="AT29" t="n">
-        <v>102.8929650435828</v>
+        <v>3.718466518977834</v>
       </c>
       <c r="AU29" t="n">
-        <v>106.2562945000983</v>
+        <v>1.71488275072638</v>
+      </c>
+      <c r="AV29" t="n">
+        <v>1.770938241668305</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="n">
-        <v>500.0413510298403</v>
-      </c>
-      <c r="B30" t="n">
-        <v>475.3279425174271</v>
-      </c>
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>上海浦东</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr"/>
       <c r="C30" t="n">
-        <v>656.3541930388067</v>
-      </c>
-      <c r="D30" t="n">
-        <v>180.2249988519085</v>
-      </c>
+        <v>7.922132375290451</v>
+      </c>
+      <c r="D30" t="inlineStr"/>
       <c r="E30" t="n">
-        <v>178.3343224253909</v>
+        <v>3.003749980865141</v>
       </c>
       <c r="F30" t="n">
-        <v>365.0649822717639</v>
+        <v>2.972238707089848</v>
       </c>
       <c r="G30" t="n">
-        <v>644.0791813422107</v>
-      </c>
-      <c r="H30" t="n">
-        <v>164.2321017167669</v>
-      </c>
+        <v>6.084416371196066</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="n">
-        <v>158.8028155624835</v>
+        <v>2.737201695279448</v>
       </c>
       <c r="J30" t="n">
-        <v>154.1830124291895</v>
+        <v>2.646713592708058</v>
       </c>
       <c r="K30" t="n">
-        <v>145.8453613366881</v>
+        <v>2.569716873819826</v>
       </c>
       <c r="L30" t="n">
-        <v>454.389419752986</v>
+        <v>2.430756022278134</v>
       </c>
       <c r="M30" t="n">
-        <v>477.5500749041067</v>
+        <v>7.5731569958831</v>
       </c>
       <c r="N30" t="n">
-        <v>159.1744594029591</v>
+        <v>7.959167915068445</v>
       </c>
       <c r="O30" t="n">
-        <v>310.5439550049617</v>
+        <v>2.652907656715986</v>
       </c>
       <c r="P30" t="n">
-        <v>508.4148022587524</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>366.7392588630628</v>
-      </c>
+        <v>5.175732583416029</v>
+      </c>
+      <c r="Q30" t="inlineStr"/>
       <c r="R30" t="n">
-        <v>96.6166445268299</v>
+        <v>6.112320981051046</v>
       </c>
       <c r="S30" t="n">
-        <v>250.1913295941127</v>
+        <v>1.610277408780498</v>
       </c>
       <c r="T30" t="n">
-        <v>240.4186124199618</v>
+        <v>4.169855493235212</v>
       </c>
       <c r="U30" t="n">
-        <v>327.5728442953076</v>
+        <v>4.00697687366603</v>
       </c>
       <c r="V30" t="n">
-        <v>303.5137440221069</v>
+        <v>5.459547404921794</v>
       </c>
       <c r="W30" t="n">
-        <v>717.1598153590471</v>
-      </c>
-      <c r="X30" t="n">
-        <v>68.40608380747295</v>
-      </c>
+        <v>5.058562400368449</v>
+      </c>
+      <c r="X30" t="inlineStr"/>
       <c r="Y30" t="n">
-        <v>81.81421396095283</v>
+        <v>1.140101396791216</v>
       </c>
       <c r="Z30" t="n">
-        <v>12.25369042237947</v>
+        <v>1.363570232682547</v>
       </c>
       <c r="AA30" t="n">
-        <v>32.27446586187435</v>
+        <v>0.2042281737063245</v>
       </c>
       <c r="AB30" t="n">
-        <v>19.22524317185651</v>
+        <v>0.5379077643645725</v>
       </c>
       <c r="AC30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD30" t="n">
-        <v>46.94964130211774</v>
-      </c>
+        <v>0.3204207195309418</v>
+      </c>
+      <c r="AD30" t="inlineStr"/>
       <c r="AE30" t="n">
-        <v>128.3326641536646</v>
+        <v>0.7824940217019624</v>
       </c>
       <c r="AF30" t="n">
-        <v>100.6838324126622</v>
+        <v>2.13887773589441</v>
       </c>
       <c r="AG30" t="n">
-        <v>102.962728812354</v>
+        <v>1.67806387354437</v>
       </c>
       <c r="AH30" t="n">
-        <v>391.8528836156792</v>
+        <v>1.7160454802059</v>
       </c>
       <c r="AI30" t="n">
-        <v>148.5196974589846</v>
+        <v>6.530881393594653</v>
       </c>
       <c r="AJ30" t="n">
-        <v>194.5585701338497</v>
+        <v>2.475328290983077</v>
       </c>
       <c r="AK30" t="n">
-        <v>206.4295112371053</v>
+        <v>3.242642835564161</v>
       </c>
       <c r="AL30" t="n">
-        <v>141.0249208692066</v>
+        <v>3.440491853951755</v>
       </c>
       <c r="AM30" t="n">
-        <v>191.4965300734732</v>
+        <v>2.35041534782011</v>
       </c>
       <c r="AN30" t="n">
-        <v>352.7506237886081</v>
+        <v>3.191608834557886</v>
       </c>
       <c r="AO30" t="n">
-        <v>511.0989874472917</v>
-      </c>
-      <c r="AP30" t="n">
-        <v>196.5048303670007</v>
-      </c>
+        <v>5.879177063143469</v>
+      </c>
+      <c r="AP30" t="inlineStr"/>
       <c r="AQ30" t="n">
-        <v>247.3857744873835</v>
+        <v>3.275080506116679</v>
       </c>
       <c r="AR30" t="n">
-        <v>196.5722635741852</v>
+        <v>4.123096241456392</v>
       </c>
       <c r="AS30" t="n">
-        <v>239.1159842980332</v>
+        <v>3.276204392903086</v>
       </c>
       <c r="AT30" t="n">
-        <v>94.22677375123824</v>
+        <v>3.98526640496722</v>
       </c>
       <c r="AU30" t="n">
-        <v>123.0717343571644</v>
+        <v>1.570446229187304</v>
+      </c>
+      <c r="AV30" t="n">
+        <v>2.051195572619406</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="n">
-        <v>453.0989720919573</v>
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>上海青浦</t>
+        </is>
       </c>
       <c r="B31" t="n">
-        <v>430.3207461294598</v>
+        <v>7.551649534865954</v>
       </c>
       <c r="C31" t="n">
-        <v>611.4572565987934</v>
-      </c>
-      <c r="D31" t="n">
-        <v>135.0390530520399</v>
-      </c>
+        <v>7.172012435490998</v>
+      </c>
+      <c r="D31" t="inlineStr"/>
       <c r="E31" t="n">
-        <v>133.8386287698531</v>
+        <v>2.250650884200665</v>
       </c>
       <c r="F31" t="n">
-        <v>319.7176105504127</v>
+        <v>2.230643812830885</v>
       </c>
       <c r="G31" t="n">
-        <v>598.2890870478387</v>
-      </c>
-      <c r="H31" t="n">
-        <v>118.8965473127781</v>
-      </c>
+        <v>5.328626842506878</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="n">
-        <v>114.034647642693</v>
+        <v>1.981609121879635</v>
       </c>
       <c r="J31" t="n">
-        <v>110.1582965077454</v>
+        <v>1.90057746071155</v>
       </c>
       <c r="K31" t="n">
-        <v>100.6308635184114</v>
+        <v>1.835971608462423</v>
       </c>
       <c r="L31" t="n">
-        <v>408.1427081308641</v>
+        <v>1.67718105864019</v>
       </c>
       <c r="M31" t="n">
-        <v>431.234913626407</v>
+        <v>6.802378468847735</v>
       </c>
       <c r="N31" t="n">
-        <v>112.2758211769895</v>
+        <v>7.187248560440116</v>
       </c>
       <c r="O31" t="n">
-        <v>270.6594591169112</v>
+        <v>1.871263686283158</v>
       </c>
       <c r="P31" t="n">
-        <v>462.8398144574467</v>
+        <v>4.510990985281853</v>
       </c>
       <c r="Q31" t="n">
-        <v>320.2443762485859</v>
+        <v>7.713996907624112</v>
       </c>
       <c r="R31" t="n">
-        <v>51.17470568079489</v>
+        <v>5.337406270809764</v>
       </c>
       <c r="S31" t="n">
-        <v>207.6714944608682</v>
+        <v>0.8529117613465814</v>
       </c>
       <c r="T31" t="n">
-        <v>203.5836930226893</v>
+        <v>3.461191574347803</v>
       </c>
       <c r="U31" t="n">
-        <v>292.4009851424915</v>
+        <v>3.393061550378155</v>
       </c>
       <c r="V31" t="n">
-        <v>257.8825153681684</v>
+        <v>4.873349752374859</v>
       </c>
       <c r="W31" t="n">
-        <v>683.1125402350618</v>
-      </c>
-      <c r="X31" t="n">
-        <v>58.62415085653111</v>
-      </c>
+        <v>4.298041922802806</v>
+      </c>
+      <c r="X31" t="inlineStr"/>
       <c r="Y31" t="n">
-        <v>90.34950089178473</v>
+        <v>0.9770691809421852</v>
       </c>
       <c r="Z31" t="n">
-        <v>43.16558572887532</v>
+        <v>1.505825014863079</v>
       </c>
       <c r="AA31" t="n">
-        <v>20.36845850483699</v>
+        <v>0.7194264288145887</v>
       </c>
       <c r="AB31" t="n">
-        <v>28.70780593076059</v>
+        <v>0.3394743084139499</v>
       </c>
       <c r="AC31" t="n">
-        <v>46.94964130211774</v>
+        <v>0.4784634321793431</v>
       </c>
       <c r="AD31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE31" t="n">
-        <v>89.53790446946316</v>
-      </c>
+        <v>0.7824940217019624</v>
+      </c>
+      <c r="AE31" t="inlineStr"/>
       <c r="AF31" t="n">
-        <v>55.0122486297664</v>
+        <v>1.492298407824386</v>
       </c>
       <c r="AG31" t="n">
-        <v>56.75313841954116</v>
+        <v>0.9168708104961067</v>
       </c>
       <c r="AH31" t="n">
-        <v>350.4909821981868</v>
+        <v>0.945885640325686</v>
       </c>
       <c r="AI31" t="n">
-        <v>147.3236432743131</v>
+        <v>5.841516369969781</v>
       </c>
       <c r="AJ31" t="n">
-        <v>153.8857409756575</v>
+        <v>2.455394054571885</v>
       </c>
       <c r="AK31" t="n">
-        <v>188.0897721208901</v>
+        <v>2.564762349594292</v>
       </c>
       <c r="AL31" t="n">
-        <v>96.63837135445939</v>
+        <v>3.134829535348168</v>
       </c>
       <c r="AM31" t="n">
-        <v>145.0164825713693</v>
+        <v>1.610639522574323</v>
       </c>
       <c r="AN31" t="n">
-        <v>306.0854062150316</v>
+        <v>2.416941376189488</v>
       </c>
       <c r="AO31" t="n">
-        <v>467.9965641157489</v>
+        <v>5.101423436917194</v>
       </c>
       <c r="AP31" t="n">
-        <v>165.239539165435</v>
+        <v>7.799942735262481</v>
       </c>
       <c r="AQ31" t="n">
-        <v>203.8542181885248</v>
+        <v>2.753992319423916</v>
       </c>
       <c r="AR31" t="n">
-        <v>156.581492837619</v>
+        <v>3.39757030314208</v>
       </c>
       <c r="AS31" t="n">
-        <v>195.0314031738314</v>
+        <v>2.60969154729365</v>
       </c>
       <c r="AT31" t="n">
-        <v>127.5713830578031</v>
+        <v>3.250523386230524</v>
       </c>
       <c r="AU31" t="n">
-        <v>77.90135413500131</v>
+        <v>2.126189717630052</v>
+      </c>
+      <c r="AV31" t="n">
+        <v>1.298355902250022</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="n">
-        <v>392.4596901305658</v>
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>绍兴越城</t>
+        </is>
       </c>
       <c r="B32" t="n">
-        <v>392.3811273523414</v>
+        <v>6.540994835509429</v>
       </c>
       <c r="C32" t="n">
-        <v>571.4253814997253</v>
-      </c>
-      <c r="D32" t="n">
-        <v>119.4036099624901</v>
-      </c>
+        <v>6.539685455872357</v>
+      </c>
+      <c r="D32" t="inlineStr"/>
       <c r="E32" t="n">
-        <v>123.5561254514445</v>
+        <v>1.990060166041502</v>
       </c>
       <c r="F32" t="n">
-        <v>282.7476184920706</v>
+        <v>2.059268757524075</v>
       </c>
       <c r="G32" t="n">
-        <v>552.1558902174719</v>
-      </c>
-      <c r="H32" t="n">
-        <v>52.31809131847687</v>
-      </c>
+        <v>4.712460308201176</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="n">
-        <v>44.52576560644059</v>
+        <v>0.8719681886412812</v>
       </c>
       <c r="J32" t="n">
-        <v>36.97806406324325</v>
+        <v>0.7420960934406765</v>
       </c>
       <c r="K32" t="n">
-        <v>39.60513922920006</v>
+        <v>0.6163010677207208</v>
       </c>
       <c r="L32" t="n">
-        <v>360.6604212245834</v>
+        <v>0.660085653820001</v>
       </c>
       <c r="M32" t="n">
-        <v>382.5599692079321</v>
+        <v>6.011007020409724</v>
       </c>
       <c r="N32" t="n">
-        <v>70.40995727948201</v>
+        <v>6.375999486798867</v>
       </c>
       <c r="O32" t="n">
-        <v>264.2888017686328</v>
+        <v>1.173499287991367</v>
       </c>
       <c r="P32" t="n">
-        <v>420.2108792693514</v>
+        <v>4.404813362810547</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.4504133963653</v>
+        <v>7.003514654489191</v>
       </c>
       <c r="R32" t="n">
-        <v>46.16370620065972</v>
+        <v>4.174173556606089</v>
       </c>
       <c r="S32" t="n">
-        <v>122.908132680436</v>
+        <v>0.7693951033443286</v>
       </c>
       <c r="T32" t="n">
-        <v>114.0472795516753</v>
+        <v>2.048468878007268</v>
       </c>
       <c r="U32" t="n">
-        <v>300.4356596896386</v>
+        <v>1.900787992527922</v>
       </c>
       <c r="V32" t="n">
-        <v>221.8598814666825</v>
+        <v>5.007260994827309</v>
       </c>
       <c r="W32" t="n">
-        <v>684.0366256332873</v>
-      </c>
-      <c r="X32" t="n">
-        <v>76.81071965220973</v>
-      </c>
+        <v>3.697664691111375</v>
+      </c>
+      <c r="X32" t="inlineStr"/>
       <c r="Y32" t="n">
-        <v>107.8310086240912</v>
+        <v>1.280178660870162</v>
       </c>
       <c r="Z32" t="n">
-        <v>129.4605429230284</v>
+        <v>1.797183477068186</v>
       </c>
       <c r="AA32" t="n">
-        <v>109.7617167383383</v>
+        <v>2.157675715383807</v>
       </c>
       <c r="AB32" t="n">
-        <v>109.7384727571454</v>
+        <v>1.829361945638972</v>
       </c>
       <c r="AC32" t="n">
-        <v>128.3326641536646</v>
+        <v>1.828974545952423</v>
       </c>
       <c r="AD32" t="n">
-        <v>89.53790446946316</v>
+        <v>2.13887773589441</v>
       </c>
       <c r="AE32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF32" t="n">
-        <v>78.42403396146091</v>
-      </c>
+        <v>1.492298407824386</v>
+      </c>
+      <c r="AF32" t="inlineStr"/>
       <c r="AG32" t="n">
-        <v>74.29266596747161</v>
+        <v>1.307067232691015</v>
       </c>
       <c r="AH32" t="n">
-        <v>333.8568840740541</v>
+        <v>1.23821109945786</v>
       </c>
       <c r="AI32" t="n">
-        <v>121.8516870904048</v>
+        <v>5.564281401234235</v>
       </c>
       <c r="AJ32" t="n">
-        <v>158.3257916434961</v>
+        <v>2.030861451506746</v>
       </c>
       <c r="AK32" t="n">
-        <v>121.0748568752312</v>
+        <v>2.638763194058269</v>
       </c>
       <c r="AL32" t="n">
-        <v>100.3871689316547</v>
+        <v>2.017914281253853</v>
       </c>
       <c r="AM32" t="n">
-        <v>113.2208129720667</v>
+        <v>1.673119482194245</v>
       </c>
       <c r="AN32" t="n">
-        <v>256.0851617927952</v>
+        <v>1.887013549534444</v>
       </c>
       <c r="AO32" t="n">
-        <v>439.960895834592</v>
+        <v>4.268086029879921</v>
       </c>
       <c r="AP32" t="n">
-        <v>196.0738061751884</v>
+        <v>7.332681597243199</v>
       </c>
       <c r="AQ32" t="n">
-        <v>186.88750160209</v>
+        <v>3.267896769586474</v>
       </c>
       <c r="AR32" t="n">
-        <v>68.23964155232717</v>
+        <v>3.114791693368167</v>
       </c>
       <c r="AS32" t="n">
-        <v>175.9131747640135</v>
+        <v>1.137327359205453</v>
       </c>
       <c r="AT32" t="n">
-        <v>169.5672223855671</v>
+        <v>2.931886246066893</v>
       </c>
       <c r="AU32" t="n">
-        <v>86.80961722641082</v>
+        <v>2.826120373092785</v>
+      </c>
+      <c r="AV32" t="n">
+        <v>1.446826953773513</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="n">
-        <v>400.864224137741</v>
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>苏州相城</t>
+        </is>
       </c>
       <c r="B33" t="n">
-        <v>375.3148758871895</v>
+        <v>6.681070402295684</v>
       </c>
       <c r="C33" t="n">
-        <v>556.4481575614576</v>
-      </c>
-      <c r="D33" t="n">
-        <v>80.02683206425448</v>
-      </c>
+        <v>6.255247931453159</v>
+      </c>
+      <c r="D33" t="inlineStr"/>
       <c r="E33" t="n">
-        <v>78.98714634718064</v>
+        <v>1.333780534404241</v>
       </c>
       <c r="F33" t="n">
-        <v>264.7523689463707</v>
+        <v>1.316452439119677</v>
       </c>
       <c r="G33" t="n">
-        <v>543.504848276636</v>
-      </c>
-      <c r="H33" t="n">
-        <v>81.1067252928876</v>
-      </c>
+        <v>4.412539482439512</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="n">
-        <v>79.25729006325612</v>
+        <v>1.35177875488146</v>
       </c>
       <c r="J33" t="n">
-        <v>78.84512642106284</v>
+        <v>1.320954834387602</v>
       </c>
       <c r="K33" t="n">
-        <v>65.75479521175376</v>
+        <v>1.314085440351047</v>
       </c>
       <c r="L33" t="n">
-        <v>353.7092769008362</v>
+        <v>1.095913253529229</v>
       </c>
       <c r="M33" t="n">
-        <v>376.8812485915636</v>
+        <v>5.895154615013937</v>
       </c>
       <c r="N33" t="n">
-        <v>64.27118461461741</v>
+        <v>6.281354143192727</v>
       </c>
       <c r="O33" t="n">
-        <v>218.3551946946925</v>
+        <v>1.071186410243623</v>
       </c>
       <c r="P33" t="n">
-        <v>407.9535091807758</v>
+        <v>3.639253244911542</v>
       </c>
       <c r="Q33" t="n">
-        <v>272.2540816185353</v>
+        <v>6.79922515301293</v>
       </c>
       <c r="R33" t="n">
-        <v>35.0672158560678</v>
+        <v>4.537568026975589</v>
       </c>
       <c r="S33" t="n">
-        <v>173.9547855728643</v>
+        <v>0.58445359760113</v>
       </c>
       <c r="T33" t="n">
-        <v>182.8411858674806</v>
+        <v>2.899246426214405</v>
       </c>
       <c r="U33" t="n">
-        <v>244.2625197863455</v>
+        <v>3.047353097791343</v>
       </c>
       <c r="V33" t="n">
-        <v>202.9956971442526</v>
+        <v>4.071041996439091</v>
       </c>
       <c r="W33" t="n">
-        <v>634.413380902384</v>
-      </c>
-      <c r="X33" t="n">
-        <v>97.56556631866165</v>
-      </c>
+        <v>3.383261619070876</v>
+      </c>
+      <c r="X33" t="inlineStr"/>
       <c r="Y33" t="n">
-        <v>134.4601937325446</v>
+        <v>1.626092771977694</v>
       </c>
       <c r="Z33" t="n">
-        <v>94.17202171649028</v>
+        <v>2.241003228875743</v>
       </c>
       <c r="AA33" t="n">
-        <v>69.28747572890721</v>
+        <v>1.569533695274838</v>
       </c>
       <c r="AB33" t="n">
-        <v>83.50092607076934</v>
+        <v>1.15479126214874</v>
       </c>
       <c r="AC33" t="n">
-        <v>100.6838324126622</v>
+        <v>1.391682101179489</v>
       </c>
       <c r="AD33" t="n">
-        <v>55.0122486297664</v>
+        <v>1.67806387354437</v>
       </c>
       <c r="AE33" t="n">
-        <v>78.42403396146091</v>
+        <v>0.9168708104961067</v>
       </c>
       <c r="AF33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG33" t="n">
-        <v>4.683912926179691</v>
-      </c>
+        <v>1.307067232691015</v>
+      </c>
+      <c r="AG33" t="inlineStr"/>
       <c r="AH33" t="n">
-        <v>296.8501646861582</v>
+        <v>0.07806521543632818</v>
       </c>
       <c r="AI33" t="n">
-        <v>178.3585406324326</v>
+        <v>4.947502744769303</v>
       </c>
       <c r="AJ33" t="n">
-        <v>102.0806943082505</v>
+        <v>2.972642343873876</v>
       </c>
       <c r="AK33" t="n">
-        <v>197.4977292516195</v>
+        <v>1.701344905137508</v>
       </c>
       <c r="AL33" t="n">
-        <v>42.09227615934264</v>
+        <v>3.291628820860324</v>
       </c>
       <c r="AM33" t="n">
-        <v>91.06321369044564</v>
+        <v>0.701537935989044</v>
       </c>
       <c r="AN33" t="n">
-        <v>252.4029270542293</v>
+        <v>1.517720228174094</v>
       </c>
       <c r="AO33" t="n">
-        <v>413.3544421412226</v>
+        <v>4.206715450903823</v>
       </c>
       <c r="AP33" t="n">
-        <v>124.8712540050545</v>
+        <v>6.889240702353709</v>
       </c>
       <c r="AQ33" t="n">
-        <v>149.2720693936302</v>
+        <v>2.081187566750908</v>
       </c>
       <c r="AR33" t="n">
-        <v>132.0317521245531</v>
+        <v>2.48786782322717</v>
       </c>
       <c r="AS33" t="n">
-        <v>140.2199977057276</v>
+        <v>2.200529202075885</v>
       </c>
       <c r="AT33" t="n">
-        <v>180.58298668207</v>
+        <v>2.336999961762126</v>
       </c>
       <c r="AU33" t="n">
-        <v>22.97919226348861</v>
+        <v>3.009716444701166</v>
+      </c>
+      <c r="AV33" t="n">
+        <v>0.3829865377248102</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="n">
-        <v>397.9299725435894</v>
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>苏州园区</t>
+        </is>
       </c>
       <c r="B34" t="n">
-        <v>373.6998153330681</v>
+        <v>6.632166209059823</v>
       </c>
       <c r="C34" t="n">
-        <v>554.8470860184079</v>
-      </c>
-      <c r="D34" t="n">
-        <v>78.58766790223082</v>
-      </c>
+        <v>6.228330255551135</v>
+      </c>
+      <c r="D34" t="inlineStr"/>
       <c r="E34" t="n">
-        <v>77.99732565083094</v>
+        <v>1.30979446503718</v>
       </c>
       <c r="F34" t="n">
-        <v>263.0202624255936</v>
+        <v>1.299955427513849</v>
       </c>
       <c r="G34" t="n">
-        <v>541.5384675741324</v>
-      </c>
-      <c r="H34" t="n">
-        <v>76.51324289529738</v>
-      </c>
+        <v>4.38367104042656</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="n">
-        <v>74.59633744668358</v>
+        <v>1.275220714921623</v>
       </c>
       <c r="J34" t="n">
-        <v>74.16122065940927</v>
+        <v>1.24327229077806</v>
       </c>
       <c r="K34" t="n">
-        <v>61.07778130912808</v>
+        <v>1.236020344323488</v>
       </c>
       <c r="L34" t="n">
-        <v>351.4975706517184</v>
+        <v>1.017963021818801</v>
       </c>
       <c r="M34" t="n">
-        <v>374.6278705910051</v>
+        <v>5.858292844195306</v>
       </c>
       <c r="N34" t="n">
-        <v>60.29696559318547</v>
+        <v>6.243797843183419</v>
       </c>
       <c r="O34" t="n">
-        <v>218.4541645202991</v>
+        <v>1.004949426553091</v>
       </c>
       <c r="P34" t="n">
-        <v>406.0932904545845</v>
+        <v>3.640902742004986</v>
       </c>
       <c r="Q34" t="n">
-        <v>268.6015418693075</v>
+        <v>6.768221507576408</v>
       </c>
       <c r="R34" t="n">
-        <v>31.90717459421293</v>
+        <v>4.476692364488459</v>
       </c>
       <c r="S34" t="n">
-        <v>169.3653510457746</v>
+        <v>0.5317862432368822</v>
       </c>
       <c r="T34" t="n">
-        <v>178.1771313568608</v>
+        <v>2.822755850762911</v>
       </c>
       <c r="U34" t="n">
-        <v>245.307758028573</v>
+        <v>2.96961885594768</v>
       </c>
       <c r="V34" t="n">
-        <v>201.1410673318262</v>
+        <v>4.08846263380955</v>
       </c>
       <c r="W34" t="n">
-        <v>635.1852513234311</v>
-      </c>
-      <c r="X34" t="n">
-        <v>96.66989061837215</v>
-      </c>
+        <v>3.352351122197104</v>
+      </c>
+      <c r="X34" t="inlineStr"/>
       <c r="Y34" t="n">
-        <v>133.7751106949677</v>
+        <v>1.611164843639536</v>
       </c>
       <c r="Z34" t="n">
-        <v>96.87346120706593</v>
+        <v>2.229585178249462</v>
       </c>
       <c r="AA34" t="n">
-        <v>71.95154894545311</v>
+        <v>1.614557686784432</v>
       </c>
       <c r="AB34" t="n">
-        <v>85.40786537838891</v>
+        <v>1.199192482424219</v>
       </c>
       <c r="AC34" t="n">
-        <v>102.962728812354</v>
+        <v>1.423464422973148</v>
       </c>
       <c r="AD34" t="n">
-        <v>56.75313841954116</v>
+        <v>1.7160454802059</v>
       </c>
       <c r="AE34" t="n">
-        <v>74.29266596747161</v>
+        <v>0.945885640325686</v>
       </c>
       <c r="AF34" t="n">
-        <v>4.683912926179691</v>
+        <v>1.23821109945786</v>
       </c>
       <c r="AG34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH34" t="n">
-        <v>296.4278573873007</v>
-      </c>
+        <v>0.07806521543632818</v>
+      </c>
+      <c r="AH34" t="inlineStr"/>
       <c r="AI34" t="n">
-        <v>176.1775876303676</v>
+        <v>4.940464289788344</v>
       </c>
       <c r="AJ34" t="n">
-        <v>102.5753384658712</v>
+        <v>2.936293127172794</v>
       </c>
       <c r="AK34" t="n">
-        <v>193.7976599380354</v>
+        <v>1.709588974431186</v>
       </c>
       <c r="AL34" t="n">
-        <v>41.67973273494465</v>
+        <v>3.229960998967256</v>
       </c>
       <c r="AM34" t="n">
-        <v>88.54170377279118</v>
+        <v>0.6946622122490775</v>
       </c>
       <c r="AN34" t="n">
-        <v>249.8486937400491</v>
+        <v>1.475695062879853</v>
       </c>
       <c r="AO34" t="n">
-        <v>412.3664306750373</v>
+        <v>4.164144895667484</v>
       </c>
       <c r="AP34" t="n">
-        <v>127.3619636334146</v>
+        <v>6.872773844583955</v>
       </c>
       <c r="AQ34" t="n">
-        <v>148.4344321868717</v>
+        <v>2.122699393890243</v>
       </c>
       <c r="AR34" t="n">
-        <v>127.3561097636014</v>
+        <v>2.473907203114529</v>
       </c>
       <c r="AS34" t="n">
-        <v>139.1775676926111</v>
+        <v>2.122601829393356</v>
       </c>
       <c r="AT34" t="n">
-        <v>181.1816302327427</v>
+        <v>2.319626128210186</v>
       </c>
       <c r="AU34" t="n">
-        <v>22.3521996033744</v>
+        <v>3.019693837212379</v>
+      </c>
+      <c r="AV34" t="n">
+        <v>0.37253666005624</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="n">
-        <v>223.9433739005513</v>
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>宿迁宿城</t>
+        </is>
       </c>
       <c r="B35" t="n">
-        <v>116.7266302847766</v>
+        <v>3.732389565009188</v>
       </c>
       <c r="C35" t="n">
-        <v>279.3420616596766</v>
+        <v>1.945443838079611</v>
       </c>
       <c r="D35" t="n">
-        <v>219.9960223525008</v>
+        <v>4.655701027661277</v>
       </c>
       <c r="E35" t="n">
-        <v>218.9718182682113</v>
+        <v>3.66660037254168</v>
       </c>
       <c r="F35" t="n">
-        <v>86.82959264975733</v>
+        <v>3.649530304470188</v>
       </c>
       <c r="G35" t="n">
-        <v>281.3899189876305</v>
+        <v>1.447159877495956</v>
       </c>
       <c r="H35" t="n">
-        <v>284.534728460692</v>
+        <v>4.689831983127175</v>
       </c>
       <c r="I35" t="n">
-        <v>292.0879061538294</v>
+        <v>4.742245474344866</v>
       </c>
       <c r="J35" t="n">
-        <v>299.7075755532287</v>
+        <v>4.868131769230489</v>
       </c>
       <c r="K35" t="n">
-        <v>294.2606430695312</v>
+        <v>4.995126259220478</v>
       </c>
       <c r="L35" t="n">
-        <v>140.547239150461</v>
+        <v>4.904344051158853</v>
       </c>
       <c r="M35" t="n">
-        <v>157.6790469908725</v>
+        <v>2.342453985841017</v>
       </c>
       <c r="N35" t="n">
-        <v>263.7740081472149</v>
+        <v>2.627984116514542</v>
       </c>
       <c r="O35" t="n">
-        <v>83.21115289235098</v>
+        <v>4.396233469120249</v>
       </c>
       <c r="P35" t="n">
-        <v>155.8527282582165</v>
+        <v>1.38685254820585</v>
       </c>
       <c r="Q35" t="n">
-        <v>223.133089939908</v>
+        <v>2.597545470970275</v>
       </c>
       <c r="R35" t="n">
-        <v>320.1052890498969</v>
+        <v>3.7188848323318</v>
       </c>
       <c r="S35" t="n">
-        <v>296.9398546871011</v>
+        <v>5.335088150831615</v>
       </c>
       <c r="T35" t="n">
-        <v>347.4828620505284</v>
+        <v>4.948997578118352</v>
       </c>
       <c r="U35" t="n">
-        <v>99.22450407841264</v>
+        <v>5.791381034175473</v>
       </c>
       <c r="V35" t="n">
-        <v>122.098915523633</v>
+        <v>1.653741734640211</v>
       </c>
       <c r="W35" t="n">
-        <v>355.8011819671609</v>
+        <v>2.034981925393884</v>
       </c>
       <c r="X35" t="n">
-        <v>390.8043141246163</v>
+        <v>5.930019699452681</v>
       </c>
       <c r="Y35" t="n">
-        <v>428.1352625700059</v>
+        <v>6.513405235410272</v>
       </c>
       <c r="Z35" t="n">
-        <v>382.2928923349032</v>
+        <v>7.135587709500098</v>
       </c>
       <c r="AA35" t="n">
-        <v>359.7501166225381</v>
+        <v>6.37154820558172</v>
       </c>
       <c r="AB35" t="n">
-        <v>377.5116190390592</v>
+        <v>5.995835277042302</v>
       </c>
       <c r="AC35" t="n">
-        <v>391.8528836156792</v>
+        <v>6.291860317317654</v>
       </c>
       <c r="AD35" t="n">
-        <v>350.4909821981868</v>
+        <v>6.530881393594653</v>
       </c>
       <c r="AE35" t="n">
-        <v>333.8568840740541</v>
+        <v>5.841516369969781</v>
       </c>
       <c r="AF35" t="n">
-        <v>296.8501646861582</v>
+        <v>5.564281401234235</v>
       </c>
       <c r="AG35" t="n">
-        <v>296.4278573873007</v>
+        <v>4.947502744769303</v>
       </c>
       <c r="AH35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI35" t="n">
-        <v>455.7080871912118</v>
-      </c>
+        <v>4.940464289788344</v>
+      </c>
+      <c r="AI35" t="inlineStr"/>
       <c r="AJ35" t="n">
-        <v>197.2983066529503</v>
+        <v>7.595134786520196</v>
       </c>
       <c r="AK35" t="n">
-        <v>434.5732002474001</v>
+        <v>3.288305110882505</v>
       </c>
       <c r="AL35" t="n">
-        <v>254.808950809662</v>
+        <v>7.242886670790001</v>
       </c>
       <c r="AM35" t="n">
-        <v>220.8240086984657</v>
+        <v>4.2468158468277</v>
       </c>
       <c r="AN35" t="n">
-        <v>139.0932489860588</v>
+        <v>3.680400144974429</v>
       </c>
       <c r="AO35" t="n">
-        <v>123.8314248291131</v>
+        <v>2.318220816434313</v>
       </c>
       <c r="AP35" t="n">
-        <v>210.6610299053746</v>
+        <v>2.063857080485218</v>
       </c>
       <c r="AQ35" t="n">
-        <v>148.9857424843858</v>
+        <v>3.511017165089576</v>
       </c>
       <c r="AR35" t="n">
-        <v>320.0366546810291</v>
+        <v>2.483095708073096</v>
       </c>
       <c r="AS35" t="n">
-        <v>159.3041304440327</v>
+        <v>5.333944244683819</v>
       </c>
       <c r="AT35" t="n">
-        <v>477.4165898741369</v>
+        <v>2.655068840733878</v>
       </c>
       <c r="AU35" t="n">
-        <v>274.1076507702535</v>
+        <v>7.956943164568949</v>
+      </c>
+      <c r="AV35" t="n">
+        <v>4.568460846170891</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="n">
-        <v>497.2552012261438</v>
-      </c>
-      <c r="B36" t="n">
-        <v>510.5091920841265</v>
-      </c>
-      <c r="C36" t="n">
-        <v>687.4464439161856</v>
-      </c>
-      <c r="D36" t="n">
-        <v>239.474551450738</v>
-      </c>
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>台州椒江</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr"/>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr"/>
       <c r="E36" t="n">
-        <v>242.6831708532199</v>
+        <v>3.991242524178967</v>
       </c>
       <c r="F36" t="n">
-        <v>402.3039702584137</v>
+        <v>4.044719514220331</v>
       </c>
       <c r="G36" t="n">
-        <v>665.2645628344098</v>
-      </c>
-      <c r="H36" t="n">
-        <v>172.3456582699669</v>
-      </c>
+        <v>6.705066170973562</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="n">
-        <v>164.574368253481</v>
+        <v>2.872427637832782</v>
       </c>
       <c r="J36" t="n">
-        <v>156.8439939840631</v>
+        <v>2.742906137558017</v>
       </c>
       <c r="K36" t="n">
-        <v>161.4487858542499</v>
+        <v>2.614066566401052</v>
       </c>
       <c r="L36" t="n">
-        <v>475.1296349436474</v>
+        <v>2.690813097570832</v>
       </c>
       <c r="M36" t="n">
-        <v>496.0692274744408</v>
-      </c>
-      <c r="N36" t="n">
-        <v>192.1101941659835</v>
-      </c>
+        <v>7.918827249060791</v>
+      </c>
+      <c r="N36" t="inlineStr"/>
       <c r="O36" t="n">
-        <v>385.1949366900989</v>
+        <v>3.201836569433058</v>
       </c>
       <c r="P36" t="n">
-        <v>536.2490391221321</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>350.4692062882312</v>
-      </c>
+        <v>6.419915611501649</v>
+      </c>
+      <c r="Q36" t="inlineStr"/>
       <c r="R36" t="n">
-        <v>145.1643775355519</v>
+        <v>5.841153438137186</v>
       </c>
       <c r="S36" t="n">
-        <v>209.4625557029584</v>
+        <v>2.419406292259198</v>
       </c>
       <c r="T36" t="n">
-        <v>170.6343157879578</v>
+        <v>3.491042595049306</v>
       </c>
       <c r="U36" t="n">
-        <v>418.5777640317503</v>
+        <v>2.843905263132631</v>
       </c>
       <c r="V36" t="n">
-        <v>342.4059457229902</v>
+        <v>6.976296067195839</v>
       </c>
       <c r="W36" t="n">
-        <v>805.0311854334556</v>
-      </c>
-      <c r="X36" t="n">
-        <v>88.78308152256649</v>
-      </c>
+        <v>5.706765762049836</v>
+      </c>
+      <c r="X36" t="inlineStr"/>
       <c r="Y36" t="n">
-        <v>67.41721885349587</v>
+        <v>1.479718025376108</v>
       </c>
       <c r="Z36" t="n">
-        <v>158.6159423397585</v>
+        <v>1.123620314224931</v>
       </c>
       <c r="AA36" t="n">
-        <v>157.5436210070134</v>
+        <v>2.643599038995975</v>
       </c>
       <c r="AB36" t="n">
-        <v>141.5317922525572</v>
+        <v>2.625727016783557</v>
       </c>
       <c r="AC36" t="n">
-        <v>148.5196974589846</v>
+        <v>2.358863204209287</v>
       </c>
       <c r="AD36" t="n">
-        <v>147.3236432743131</v>
+        <v>2.475328290983077</v>
       </c>
       <c r="AE36" t="n">
-        <v>121.8516870904048</v>
+        <v>2.455394054571885</v>
       </c>
       <c r="AF36" t="n">
-        <v>178.3585406324326</v>
+        <v>2.030861451506746</v>
       </c>
       <c r="AG36" t="n">
-        <v>176.1775876303676</v>
+        <v>2.972642343873876</v>
       </c>
       <c r="AH36" t="n">
-        <v>455.7080871912118</v>
+        <v>2.936293127172794</v>
       </c>
       <c r="AI36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ36" t="n">
-        <v>274.9261201306355</v>
-      </c>
+        <v>7.595134786520196</v>
+      </c>
+      <c r="AJ36" t="inlineStr"/>
       <c r="AK36" t="n">
-        <v>80.90904383116282</v>
+        <v>4.582102002177259</v>
       </c>
       <c r="AL36" t="n">
-        <v>213.6092034123763</v>
+        <v>1.348484063852714</v>
       </c>
       <c r="AM36" t="n">
-        <v>235.0167920988728</v>
+        <v>3.560153390206271</v>
       </c>
       <c r="AN36" t="n">
-        <v>371.3465773274531</v>
+        <v>3.916946534981213</v>
       </c>
       <c r="AO36" t="n">
-        <v>560.4319625040409</v>
-      </c>
-      <c r="AP36" t="n">
-        <v>303.1420530883136</v>
-      </c>
+        <v>6.189109622124219</v>
+      </c>
+      <c r="AP36" t="inlineStr"/>
       <c r="AQ36" t="n">
-        <v>308.4093687093861</v>
+        <v>5.052367551471893</v>
       </c>
       <c r="AR36" t="n">
-        <v>156.3592575968369</v>
+        <v>5.140156145156435</v>
       </c>
       <c r="AS36" t="n">
-        <v>297.5199968299155</v>
+        <v>2.605987626613949</v>
       </c>
       <c r="AT36" t="n">
-        <v>108.0190302995664</v>
+        <v>4.958666613831925</v>
       </c>
       <c r="AU36" t="n">
-        <v>196.0518175426249</v>
+        <v>1.80031717165944</v>
+      </c>
+      <c r="AV36" t="n">
+        <v>3.267530292377081</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="n">
-        <v>334.7279206373036</v>
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <t>泰州海陵</t>
+        </is>
       </c>
       <c r="B37" t="n">
-        <v>286.326405113635</v>
+        <v>5.578798677288393</v>
       </c>
       <c r="C37" t="n">
-        <v>465.9017421239421</v>
+        <v>4.772106751893916</v>
       </c>
       <c r="D37" t="n">
-        <v>43.91298069388716</v>
+        <v>7.765029035399036</v>
       </c>
       <c r="E37" t="n">
-        <v>37.11530181127102</v>
+        <v>0.7318830115647861</v>
       </c>
       <c r="F37" t="n">
-        <v>179.7851573993246</v>
+        <v>0.6185883635211837</v>
       </c>
       <c r="G37" t="n">
-        <v>457.7392007487355</v>
+        <v>2.996419289988744</v>
       </c>
       <c r="H37" t="n">
-        <v>123.3372809711218</v>
+        <v>7.628986679145592</v>
       </c>
       <c r="I37" t="n">
-        <v>128.4138490595105</v>
+        <v>2.055621349518697</v>
       </c>
       <c r="J37" t="n">
-        <v>134.1584386648775</v>
+        <v>2.140230817658508</v>
       </c>
       <c r="K37" t="n">
-        <v>123.1092305601229</v>
+        <v>2.235973977747959</v>
       </c>
       <c r="L37" t="n">
-        <v>274.1320287332908</v>
+        <v>2.051820509335382</v>
       </c>
       <c r="M37" t="n">
-        <v>297.5487585927639</v>
+        <v>4.568867145554847</v>
       </c>
       <c r="N37" t="n">
-        <v>93.72074483288466</v>
+        <v>4.959145976546065</v>
       </c>
       <c r="O37" t="n">
-        <v>116.7783304154043</v>
+        <v>1.562012413881411</v>
       </c>
       <c r="P37" t="n">
-        <v>321.8994422127041</v>
+        <v>1.946305506923405</v>
       </c>
       <c r="Q37" t="n">
-        <v>231.7433036002321</v>
+        <v>5.364990703545069</v>
       </c>
       <c r="R37" t="n">
-        <v>130.7249129859397</v>
+        <v>3.862388393337203</v>
       </c>
       <c r="S37" t="n">
-        <v>191.2758765246056</v>
+        <v>2.178748549765661</v>
       </c>
       <c r="T37" t="n">
-        <v>224.2970540321189</v>
+        <v>3.187931275410094</v>
       </c>
       <c r="U37" t="n">
-        <v>143.7151078548935</v>
+        <v>3.738284233868649</v>
       </c>
       <c r="V37" t="n">
-        <v>123.5767463555087</v>
+        <v>2.395251797581559</v>
       </c>
       <c r="W37" t="n">
-        <v>532.7108517900045</v>
-      </c>
-      <c r="X37" t="n">
-        <v>199.2051130364484</v>
-      </c>
+        <v>2.059612439258478</v>
+      </c>
+      <c r="X37" t="inlineStr"/>
       <c r="Y37" t="n">
-        <v>236.3504223245462</v>
+        <v>3.32008521727414</v>
       </c>
       <c r="Z37" t="n">
-        <v>185.1148647617375</v>
+        <v>3.939173705409103</v>
       </c>
       <c r="AA37" t="n">
-        <v>162.455990180541</v>
+        <v>3.085247746028958</v>
       </c>
       <c r="AB37" t="n">
-        <v>180.3848426557255</v>
+        <v>2.70759983634235</v>
       </c>
       <c r="AC37" t="n">
-        <v>194.5585701338497</v>
+        <v>3.006414044262092</v>
       </c>
       <c r="AD37" t="n">
-        <v>153.8857409756575</v>
+        <v>3.242642835564161</v>
       </c>
       <c r="AE37" t="n">
-        <v>158.3257916434961</v>
+        <v>2.564762349594292</v>
       </c>
       <c r="AF37" t="n">
-        <v>102.0806943082505</v>
+        <v>2.638763194058269</v>
       </c>
       <c r="AG37" t="n">
-        <v>102.5753384658712</v>
+        <v>1.701344905137508</v>
       </c>
       <c r="AH37" t="n">
-        <v>197.2983066529503</v>
+        <v>1.709588974431186</v>
       </c>
       <c r="AI37" t="n">
-        <v>274.9261201306355</v>
+        <v>3.288305110882505</v>
       </c>
       <c r="AJ37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK37" t="n">
-        <v>276.5614711076751</v>
-      </c>
+        <v>4.582102002177259</v>
+      </c>
+      <c r="AK37" t="inlineStr"/>
       <c r="AL37" t="n">
-        <v>61.79534521107365</v>
+        <v>4.609357851794584</v>
       </c>
       <c r="AM37" t="n">
-        <v>64.64049473250368</v>
+        <v>1.029922420184561</v>
       </c>
       <c r="AN37" t="n">
-        <v>183.4591273835174</v>
+        <v>1.077341578875061</v>
       </c>
       <c r="AO37" t="n">
-        <v>317.311082161157</v>
+        <v>3.057652123058623</v>
       </c>
       <c r="AP37" t="n">
-        <v>56.48198757003885</v>
+        <v>5.288518036019283</v>
       </c>
       <c r="AQ37" t="n">
-        <v>58.30289458305143</v>
+        <v>0.9413664595006476</v>
       </c>
       <c r="AR37" t="n">
-        <v>177.9042554434152</v>
+        <v>0.9717149097175238</v>
       </c>
       <c r="AS37" t="n">
-        <v>54.23810379872999</v>
+        <v>2.965070924056919</v>
       </c>
       <c r="AT37" t="n">
-        <v>281.3822165916429</v>
+        <v>0.9039683966454999</v>
       </c>
       <c r="AU37" t="n">
-        <v>80.58509686007898</v>
+        <v>4.689703609860715</v>
+      </c>
+      <c r="AV37" t="n">
+        <v>1.343084947667983</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="n">
-        <v>441.6879079489335</v>
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t>温州龙湾</t>
+        </is>
       </c>
       <c r="B38" t="n">
-        <v>472.1314129600553</v>
+        <v>7.361465132482224</v>
       </c>
       <c r="C38" t="n">
-        <v>643.0349506645855</v>
-      </c>
-      <c r="D38" t="n">
-        <v>234.7876371760028</v>
-      </c>
+        <v>7.868856882667588</v>
+      </c>
+      <c r="D38" t="inlineStr"/>
       <c r="E38" t="n">
-        <v>240.2098585712071</v>
+        <v>3.913127286266713</v>
       </c>
       <c r="F38" t="n">
-        <v>369.5165281793302</v>
+        <v>4.003497642853453</v>
       </c>
       <c r="G38" t="n">
-        <v>616.6385905326674</v>
-      </c>
-      <c r="H38" t="n">
-        <v>155.8562968039765</v>
-      </c>
+        <v>6.158608802988837</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="n">
-        <v>149.5164530371166</v>
+        <v>2.597604946732942</v>
       </c>
       <c r="J38" t="n">
-        <v>142.9980917033594</v>
+        <v>2.491940883951944</v>
       </c>
       <c r="K38" t="n">
-        <v>153.4552681904452</v>
+        <v>2.383301528389323</v>
       </c>
       <c r="L38" t="n">
-        <v>430.8893200877133</v>
+        <v>2.557587803174087</v>
       </c>
       <c r="M38" t="n">
-        <v>450.0795023272591</v>
+        <v>7.181488668128554</v>
       </c>
       <c r="N38" t="n">
-        <v>183.6296652418985</v>
+        <v>7.501325038787653</v>
       </c>
       <c r="O38" t="n">
-        <v>373.8606967339684</v>
+        <v>3.060494420698309</v>
       </c>
       <c r="P38" t="n">
-        <v>493.4987705015463</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>294.6406584048896</v>
-      </c>
+        <v>6.231011612232806</v>
+      </c>
+      <c r="Q38" t="inlineStr"/>
       <c r="R38" t="n">
-        <v>162.7738027011785</v>
+        <v>4.910677640081492</v>
       </c>
       <c r="S38" t="n">
-        <v>154.8422330482933</v>
+        <v>2.712896711686308</v>
       </c>
       <c r="T38" t="n">
-        <v>106.3652315375972</v>
+        <v>2.580703884138221</v>
       </c>
       <c r="U38" t="n">
-        <v>415.1039731293873</v>
+        <v>1.772753858959953</v>
       </c>
       <c r="V38" t="n">
-        <v>314.4405363940505</v>
+        <v>6.918399552156456</v>
       </c>
       <c r="W38" t="n">
-        <v>789.7664460230917</v>
-      </c>
-      <c r="X38" t="n">
-        <v>138.1942074677489</v>
-      </c>
+        <v>5.240675606567508</v>
+      </c>
+      <c r="X38" t="inlineStr"/>
       <c r="Y38" t="n">
-        <v>135.5222076741516</v>
+        <v>2.303236791129148</v>
       </c>
       <c r="Z38" t="n">
-        <v>213.7932646300594</v>
+        <v>2.258703461235859</v>
       </c>
       <c r="AA38" t="n">
-        <v>204.318192821853</v>
+        <v>3.563221077167656</v>
       </c>
       <c r="AB38" t="n">
-        <v>193.7281400695353</v>
+        <v>3.405303213697551</v>
       </c>
       <c r="AC38" t="n">
-        <v>206.4295112371053</v>
+        <v>3.228802334492255</v>
       </c>
       <c r="AD38" t="n">
-        <v>188.0897721208901</v>
+        <v>3.440491853951755</v>
       </c>
       <c r="AE38" t="n">
-        <v>121.0748568752312</v>
+        <v>3.134829535348168</v>
       </c>
       <c r="AF38" t="n">
-        <v>197.4977292516195</v>
+        <v>2.017914281253853</v>
       </c>
       <c r="AG38" t="n">
-        <v>193.7976599380354</v>
+        <v>3.291628820860324</v>
       </c>
       <c r="AH38" t="n">
-        <v>434.5732002474001</v>
+        <v>3.229960998967256</v>
       </c>
       <c r="AI38" t="n">
-        <v>80.90904383116282</v>
+        <v>7.242886670790001</v>
       </c>
       <c r="AJ38" t="n">
-        <v>276.5614711076751</v>
+        <v>1.348484063852714</v>
       </c>
       <c r="AK38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL38" t="n">
-        <v>221.0848015870561</v>
-      </c>
+        <v>4.609357851794584</v>
+      </c>
+      <c r="AL38" t="inlineStr"/>
       <c r="AM38" t="n">
-        <v>222.578101414479</v>
+        <v>3.684746693117602</v>
       </c>
       <c r="AN38" t="n">
-        <v>330.8868084794829</v>
+        <v>3.70963502357465</v>
       </c>
       <c r="AO38" t="n">
-        <v>527.8085589434006</v>
-      </c>
-      <c r="AP38" t="n">
-        <v>317.0592859096468</v>
-      </c>
+        <v>5.514780141324716</v>
+      </c>
+      <c r="AP38" t="inlineStr"/>
       <c r="AQ38" t="n">
-        <v>295.5095061555427</v>
+        <v>5.284321431827447</v>
       </c>
       <c r="AR38" t="n">
-        <v>115.0156187165264</v>
+        <v>4.925158435925711</v>
       </c>
       <c r="AS38" t="n">
-        <v>284.3264003191088</v>
+        <v>1.916926978608774</v>
       </c>
       <c r="AT38" t="n">
-        <v>187.3255735322398</v>
+        <v>4.738773338651813</v>
       </c>
       <c r="AU38" t="n">
-        <v>207.8613719706967</v>
+        <v>3.122092892203996</v>
+      </c>
+      <c r="AV38" t="n">
+        <v>3.464356199511611</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="n">
-        <v>365.3491083168797</v>
+      <c r="A39" s="1" t="inlineStr">
+        <is>
+          <t>无锡惠山</t>
+        </is>
       </c>
       <c r="B39" t="n">
-        <v>334.3033149538135</v>
+        <v>6.089151805281328</v>
       </c>
       <c r="C39" t="n">
-        <v>515.3459278733106</v>
-      </c>
-      <c r="D39" t="n">
-        <v>39.60664751718109</v>
-      </c>
+        <v>5.571721915896892</v>
+      </c>
+      <c r="D39" t="inlineStr"/>
       <c r="E39" t="n">
-        <v>37.32670185169292</v>
+        <v>0.6601107919530182</v>
       </c>
       <c r="F39" t="n">
-        <v>224.1284713558975</v>
+        <v>0.6221116975282154</v>
       </c>
       <c r="G39" t="n">
-        <v>503.3578079999706</v>
-      </c>
-      <c r="H39" t="n">
-        <v>78.14092860787392</v>
-      </c>
+        <v>3.735474522598292</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="n">
-        <v>80.42541527085308</v>
+        <v>1.302348810131232</v>
       </c>
       <c r="J39" t="n">
-        <v>83.95429585595343</v>
+        <v>1.340423587847551</v>
       </c>
       <c r="K39" t="n">
-        <v>70.82980068977466</v>
+        <v>1.39923826426589</v>
       </c>
       <c r="L39" t="n">
-        <v>314.5625820139224</v>
+        <v>1.180496678162911</v>
       </c>
       <c r="M39" t="n">
-        <v>337.8717236068457</v>
+        <v>5.24270970023204</v>
       </c>
       <c r="N39" t="n">
-        <v>49.92468649350452</v>
+        <v>5.631195393447428</v>
       </c>
       <c r="O39" t="n">
-        <v>176.880424098343</v>
+        <v>0.8320781082250754</v>
       </c>
       <c r="P39" t="n">
-        <v>367.556228193971</v>
+        <v>2.948007068305716</v>
       </c>
       <c r="Q39" t="n">
-        <v>243.3458562435843</v>
+        <v>6.125937136566183</v>
       </c>
       <c r="R39" t="n">
-        <v>68.95685556700116</v>
+        <v>4.055764270726406</v>
       </c>
       <c r="S39" t="n">
-        <v>164.6716129705165</v>
+        <v>1.149280926116686</v>
       </c>
       <c r="T39" t="n">
-        <v>185.4430123315072</v>
+        <v>2.744526882841941</v>
       </c>
       <c r="U39" t="n">
-        <v>205.395259779938</v>
+        <v>3.090716872191787</v>
       </c>
       <c r="V39" t="n">
-        <v>162.8714565635198</v>
+        <v>3.423254329665634</v>
       </c>
       <c r="W39" t="n">
-        <v>594.4071669291187</v>
-      </c>
-      <c r="X39" t="n">
-        <v>137.7619527263654</v>
-      </c>
+        <v>2.714524276058664</v>
+      </c>
+      <c r="X39" t="inlineStr"/>
       <c r="Y39" t="n">
-        <v>175.0391428308624</v>
+        <v>2.296032545439423</v>
       </c>
       <c r="Z39" t="n">
-        <v>133.3265146689844</v>
+        <v>2.91731904718104</v>
       </c>
       <c r="AA39" t="n">
-        <v>108.9285379076125</v>
+        <v>2.222108577816406</v>
       </c>
       <c r="AB39" t="n">
-        <v>124.719785343327</v>
+        <v>1.815475631793541</v>
       </c>
       <c r="AC39" t="n">
-        <v>141.0249208692066</v>
+        <v>2.078663089055451</v>
       </c>
       <c r="AD39" t="n">
-        <v>96.63837135445939</v>
+        <v>2.35041534782011</v>
       </c>
       <c r="AE39" t="n">
-        <v>100.3871689316547</v>
+        <v>1.610639522574323</v>
       </c>
       <c r="AF39" t="n">
-        <v>42.09227615934264</v>
+        <v>1.673119482194245</v>
       </c>
       <c r="AG39" t="n">
-        <v>41.67973273494465</v>
+        <v>0.701537935989044</v>
       </c>
       <c r="AH39" t="n">
-        <v>254.808950809662</v>
+        <v>0.6946622122490775</v>
       </c>
       <c r="AI39" t="n">
-        <v>213.6092034123763</v>
+        <v>4.2468158468277</v>
       </c>
       <c r="AJ39" t="n">
-        <v>61.79534521107365</v>
+        <v>3.560153390206271</v>
       </c>
       <c r="AK39" t="n">
-        <v>221.0848015870561</v>
+        <v>1.029922420184561</v>
       </c>
       <c r="AL39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM39" t="n">
-        <v>56.12226989962511</v>
-      </c>
+        <v>3.684746693117602</v>
+      </c>
+      <c r="AM39" t="inlineStr"/>
       <c r="AN39" t="n">
-        <v>215.0846513911792</v>
+        <v>0.9353711649937518</v>
       </c>
       <c r="AO39" t="n">
-        <v>371.3913874215865</v>
+        <v>3.584744189852986</v>
       </c>
       <c r="AP39" t="n">
-        <v>96.16627500659187</v>
+        <v>6.189856457026441</v>
       </c>
       <c r="AQ39" t="n">
-        <v>107.2574190894867</v>
+        <v>1.602771250109865</v>
       </c>
       <c r="AR39" t="n">
-        <v>135.1138687303253</v>
+        <v>1.787623651491445</v>
       </c>
       <c r="AS39" t="n">
-        <v>98.40986399140017</v>
+        <v>2.251897812172089</v>
       </c>
       <c r="AT39" t="n">
-        <v>222.6614307415659</v>
+        <v>1.64016439985667</v>
       </c>
       <c r="AU39" t="n">
-        <v>19.32757778586079</v>
+        <v>3.711023845692766</v>
+      </c>
+      <c r="AV39" t="n">
+        <v>0.3221262964310132</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="n">
-        <v>310.2908664795512</v>
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>无锡宜兴</t>
+        </is>
       </c>
       <c r="B40" t="n">
-        <v>287.4647497661474</v>
+        <v>5.171514441325853</v>
       </c>
       <c r="C40" t="n">
-        <v>468.4296213610709</v>
+        <v>4.791079162769123</v>
       </c>
       <c r="D40" t="n">
-        <v>23.97644310335611</v>
+        <v>7.807160356017849</v>
       </c>
       <c r="E40" t="n">
-        <v>31.77245271599019</v>
+        <v>0.3996073850559351</v>
       </c>
       <c r="F40" t="n">
-        <v>176.5231125852498</v>
+        <v>0.5295408785998366</v>
       </c>
       <c r="G40" t="n">
-        <v>453.7194830978702</v>
+        <v>2.94205187642083</v>
       </c>
       <c r="H40" t="n">
-        <v>66.83954008908819</v>
+        <v>7.561991384964504</v>
       </c>
       <c r="I40" t="n">
-        <v>73.6619725892385</v>
+        <v>1.113992334818136</v>
       </c>
       <c r="J40" t="n">
-        <v>80.84799645832929</v>
+        <v>1.227699543153975</v>
       </c>
       <c r="K40" t="n">
-        <v>73.75124994268305</v>
+        <v>1.347466607638822</v>
       </c>
       <c r="L40" t="n">
-        <v>263.1715964039381</v>
+        <v>1.229187499044717</v>
       </c>
       <c r="M40" t="n">
-        <v>286.2303802748984</v>
+        <v>4.386193273398968</v>
       </c>
       <c r="N40" t="n">
-        <v>42.9509301309803</v>
+        <v>4.770506337914973</v>
       </c>
       <c r="O40" t="n">
-        <v>152.1972251878177</v>
+        <v>0.7158488355163384</v>
       </c>
       <c r="P40" t="n">
-        <v>318.7080194555456</v>
+        <v>2.536620419796961</v>
       </c>
       <c r="Q40" t="n">
-        <v>187.5771159834413</v>
+        <v>5.311800324259093</v>
       </c>
       <c r="R40" t="n">
-        <v>103.563310792418</v>
+        <v>3.126285266390688</v>
       </c>
       <c r="S40" t="n">
-        <v>126.7832254516318</v>
+        <v>1.726055179873634</v>
       </c>
       <c r="T40" t="n">
-        <v>160.547697544028</v>
+        <v>2.113053757527196</v>
       </c>
       <c r="U40" t="n">
-        <v>192.7499559776703</v>
+        <v>2.675794959067133</v>
       </c>
       <c r="V40" t="n">
-        <v>114.3585204827058</v>
+        <v>3.212499266294506</v>
       </c>
       <c r="W40" t="n">
-        <v>571.3072452702165</v>
-      </c>
-      <c r="X40" t="n">
-        <v>173.5238018644836</v>
-      </c>
+        <v>1.90597534137843</v>
+      </c>
+      <c r="X40" t="inlineStr"/>
       <c r="Y40" t="n">
-        <v>210.2790176156815</v>
+        <v>2.89206336440806</v>
       </c>
       <c r="Z40" t="n">
-        <v>185.2348101825282</v>
+        <v>3.504650293594692</v>
       </c>
       <c r="AA40" t="n">
-        <v>160.3474582676718</v>
+        <v>3.087246836375471</v>
       </c>
       <c r="AB40" t="n">
-        <v>173.724199542188</v>
+        <v>2.672457637794529</v>
       </c>
       <c r="AC40" t="n">
-        <v>191.4965300734732</v>
+        <v>2.895403325703134</v>
       </c>
       <c r="AD40" t="n">
-        <v>145.0164825713693</v>
+        <v>3.191608834557886</v>
       </c>
       <c r="AE40" t="n">
-        <v>113.2208129720667</v>
+        <v>2.416941376189488</v>
       </c>
       <c r="AF40" t="n">
-        <v>91.06321369044564</v>
+        <v>1.887013549534444</v>
       </c>
       <c r="AG40" t="n">
-        <v>88.54170377279118</v>
+        <v>1.517720228174094</v>
       </c>
       <c r="AH40" t="n">
-        <v>220.8240086984657</v>
+        <v>1.475695062879853</v>
       </c>
       <c r="AI40" t="n">
-        <v>235.0167920988728</v>
+        <v>3.680400144974429</v>
       </c>
       <c r="AJ40" t="n">
-        <v>64.64049473250368</v>
+        <v>3.916946534981213</v>
       </c>
       <c r="AK40" t="n">
-        <v>222.578101414479</v>
+        <v>1.077341578875061</v>
       </c>
       <c r="AL40" t="n">
-        <v>56.12226989962511</v>
+        <v>3.70963502357465</v>
       </c>
       <c r="AM40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN40" t="n">
-        <v>161.3420434876606</v>
-      </c>
+        <v>0.9353711649937518</v>
+      </c>
+      <c r="AN40" t="inlineStr"/>
       <c r="AO40" t="n">
-        <v>330.1896683609849</v>
+        <v>2.689034058127677</v>
       </c>
       <c r="AP40" t="n">
-        <v>119.5299414476939</v>
+        <v>5.503161139349748</v>
       </c>
       <c r="AQ40" t="n">
-        <v>74.03914550104228</v>
+        <v>1.992165690794899</v>
       </c>
       <c r="AR40" t="n">
-        <v>116.3101657247153</v>
+        <v>1.233985758350705</v>
       </c>
       <c r="AS40" t="n">
-        <v>62.93232894131255</v>
+        <v>1.938502762078589</v>
       </c>
       <c r="AT40" t="n">
-        <v>264.8594563192617</v>
+        <v>1.048872149021876</v>
       </c>
       <c r="AU40" t="n">
-        <v>69.96531353653555</v>
+        <v>4.414324271987695</v>
+      </c>
+      <c r="AV40" t="n">
+        <v>1.166088558942259</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="n">
-        <v>151.6276365632503</v>
+      <c r="A41" s="1" t="inlineStr">
+        <is>
+          <t>芜湖弋江</t>
+        </is>
       </c>
       <c r="B41" t="n">
-        <v>141.2447170197321</v>
+        <v>2.527127276054172</v>
       </c>
       <c r="C41" t="n">
-        <v>316.1410430946445</v>
+        <v>2.354078616995535</v>
       </c>
       <c r="D41" t="n">
-        <v>175.8199400732985</v>
+        <v>5.269017384910742</v>
       </c>
       <c r="E41" t="n">
-        <v>179.9705655753986</v>
+        <v>2.930332334554974</v>
       </c>
       <c r="F41" t="n">
-        <v>52.44390296510633</v>
+        <v>2.999509426256644</v>
       </c>
       <c r="G41" t="n">
-        <v>296.1635176293012</v>
+        <v>0.8740650494184389</v>
       </c>
       <c r="H41" t="n">
-        <v>204.00003906579</v>
+        <v>4.93605862715502</v>
       </c>
       <c r="I41" t="n">
-        <v>211.6811775328783</v>
+        <v>3.400000651096501</v>
       </c>
       <c r="J41" t="n">
-        <v>219.1208674783834</v>
+        <v>3.528019625547971</v>
       </c>
       <c r="K41" t="n">
-        <v>219.7491952403271</v>
+        <v>3.652014457973057</v>
       </c>
       <c r="L41" t="n">
-        <v>104.5801545493526</v>
+        <v>3.662486587338785</v>
       </c>
       <c r="M41" t="n">
-        <v>126.7333514585433</v>
+        <v>1.743002575822543</v>
       </c>
       <c r="N41" t="n">
-        <v>196.4608901295312</v>
+        <v>2.112222524309054</v>
       </c>
       <c r="O41" t="n">
-        <v>141.7488547152659</v>
+        <v>3.27434816882552</v>
       </c>
       <c r="P41" t="n">
-        <v>164.9032917646648</v>
+        <v>2.362480911921098</v>
       </c>
       <c r="Q41" t="n">
-        <v>84.62124118375282</v>
+        <v>2.748388196077747</v>
       </c>
       <c r="R41" t="n">
-        <v>261.477964529937</v>
+        <v>1.410354019729213</v>
       </c>
       <c r="S41" t="n">
-        <v>178.91947175156</v>
+        <v>4.35796607549895</v>
       </c>
       <c r="T41" t="n">
-        <v>231.0637906078766</v>
+        <v>2.981991195859334</v>
       </c>
       <c r="U41" t="n">
-        <v>193.5790452702572</v>
+        <v>3.851063176797943</v>
       </c>
       <c r="V41" t="n">
-        <v>62.15602115149692</v>
+        <v>3.226317421170954</v>
       </c>
       <c r="W41" t="n">
-        <v>480.6213510103845</v>
-      </c>
-      <c r="X41" t="n">
-        <v>327.8976299644948</v>
-      </c>
+        <v>1.035933685858282</v>
+      </c>
+      <c r="X41" t="inlineStr"/>
       <c r="Y41" t="n">
-        <v>362.6447732784819</v>
+        <v>5.464960499408247</v>
       </c>
       <c r="Z41" t="n">
-        <v>346.5715148868745</v>
+        <v>6.044079554641366</v>
       </c>
       <c r="AA41" t="n">
-        <v>321.6890342803378</v>
+        <v>5.776191914781242</v>
       </c>
       <c r="AB41" t="n">
-        <v>334.7638829965628</v>
+        <v>5.361483904672296</v>
       </c>
       <c r="AC41" t="n">
-        <v>352.7506237886081</v>
+        <v>5.579398049942712</v>
       </c>
       <c r="AD41" t="n">
-        <v>306.0854062150316</v>
+        <v>5.879177063143469</v>
       </c>
       <c r="AE41" t="n">
-        <v>256.0851617927952</v>
+        <v>5.101423436917194</v>
       </c>
       <c r="AF41" t="n">
-        <v>252.4029270542293</v>
+        <v>4.268086029879921</v>
       </c>
       <c r="AG41" t="n">
-        <v>249.8486937400491</v>
+        <v>4.206715450903823</v>
       </c>
       <c r="AH41" t="n">
-        <v>139.0932489860588</v>
+        <v>4.164144895667484</v>
       </c>
       <c r="AI41" t="n">
-        <v>371.3465773274531</v>
+        <v>2.318220816434313</v>
       </c>
       <c r="AJ41" t="n">
-        <v>183.4591273835174</v>
+        <v>6.189109622124219</v>
       </c>
       <c r="AK41" t="n">
-        <v>330.8868084794829</v>
+        <v>3.057652123058623</v>
       </c>
       <c r="AL41" t="n">
-        <v>215.0846513911792</v>
+        <v>5.514780141324716</v>
       </c>
       <c r="AM41" t="n">
-        <v>161.3420434876606</v>
+        <v>3.584744189852986</v>
       </c>
       <c r="AN41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO41" t="n">
-        <v>199.3781219874604</v>
-      </c>
+        <v>2.689034058127677</v>
+      </c>
+      <c r="AO41" t="inlineStr"/>
       <c r="AP41" t="n">
-        <v>228.8371852344562</v>
+        <v>3.322968699791007</v>
       </c>
       <c r="AQ41" t="n">
-        <v>127.5651715021548</v>
+        <v>3.813953087240937</v>
       </c>
       <c r="AR41" t="n">
-        <v>218.30709406625</v>
+        <v>2.12608619170258</v>
       </c>
       <c r="AS41" t="n">
-        <v>129.3309983564551</v>
+        <v>3.638451567770833</v>
       </c>
       <c r="AT41" t="n">
-        <v>421.4492859190625</v>
+        <v>2.155516639274251</v>
       </c>
       <c r="AU41" t="n">
-        <v>230.9377567862053</v>
+        <v>7.024154765317708</v>
+      </c>
+      <c r="AV41" t="n">
+        <v>3.848962613103422</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="n">
-        <v>187.2783941316348</v>
+      <c r="A42" s="1" t="inlineStr">
+        <is>
+          <t>徐州铜山</t>
+        </is>
       </c>
       <c r="B42" t="n">
-        <v>66.86838674778292</v>
+        <v>3.12130656886058</v>
       </c>
       <c r="C42" t="n">
-        <v>156.9627242806565</v>
+        <v>1.114473112463049</v>
       </c>
       <c r="D42" t="n">
-        <v>334.0668681622911</v>
+        <v>2.616045404677608</v>
       </c>
       <c r="E42" t="n">
-        <v>334.3952571300159</v>
+        <v>5.567781136038186</v>
       </c>
       <c r="F42" t="n">
-        <v>158.733260484777</v>
+        <v>5.573254285500265</v>
       </c>
       <c r="G42" t="n">
-        <v>166.3108257088225</v>
+        <v>2.645554341412951</v>
       </c>
       <c r="H42" t="n">
-        <v>388.2740554986113</v>
+        <v>2.771847095147041</v>
       </c>
       <c r="I42" t="n">
-        <v>396.0911431332086</v>
+        <v>6.471234258310188</v>
       </c>
       <c r="J42" t="n">
-        <v>403.8272164764811</v>
+        <v>6.601519052220143</v>
       </c>
       <c r="K42" t="n">
-        <v>400.8246675585277</v>
+        <v>6.730453607941351</v>
       </c>
       <c r="L42" t="n">
-        <v>122.0477468841949</v>
+        <v>6.680411125975461</v>
       </c>
       <c r="M42" t="n">
-        <v>119.4146726454322</v>
+        <v>2.034129114736582</v>
       </c>
       <c r="N42" t="n">
-        <v>372.2001307598028</v>
+        <v>1.990244544090537</v>
       </c>
       <c r="O42" t="n">
-        <v>206.6702791618484</v>
+        <v>6.20333551266338</v>
       </c>
       <c r="P42" t="n">
-        <v>80.32505661835542</v>
+        <v>3.444504652697473</v>
       </c>
       <c r="Q42" t="n">
-        <v>264.8959212696951</v>
+        <v>1.338750943639257</v>
       </c>
       <c r="R42" t="n">
-        <v>433.0502455877321</v>
+        <v>4.414932021161586</v>
       </c>
       <c r="S42" t="n">
-        <v>378.0209582861631</v>
+        <v>7.217504093128869</v>
       </c>
       <c r="T42" t="n">
-        <v>430.2102143817289</v>
+        <v>6.300349304769385</v>
       </c>
       <c r="U42" t="n">
-        <v>217.4400869203345</v>
+        <v>7.170170239695481</v>
       </c>
       <c r="V42" t="n">
-        <v>218.1337187873263</v>
+        <v>3.624001448672241</v>
       </c>
       <c r="W42" t="n">
-        <v>293.5990584078156</v>
+        <v>3.635561979788772</v>
       </c>
       <c r="X42" t="n">
-        <v>503.5434639123218</v>
-      </c>
-      <c r="Y42" t="n">
-        <v>540.4448382992671</v>
-      </c>
-      <c r="Z42" t="n">
-        <v>502.1237928265257</v>
-      </c>
-      <c r="AA42" t="n">
-        <v>478.8345977168098</v>
-      </c>
+        <v>4.89331764013026</v>
+      </c>
+      <c r="Y42" t="inlineStr"/>
+      <c r="Z42" t="inlineStr"/>
+      <c r="AA42" t="inlineStr"/>
       <c r="AB42" t="n">
-        <v>495.7836488601704</v>
-      </c>
-      <c r="AC42" t="n">
-        <v>511.0989874472917</v>
-      </c>
-      <c r="AD42" t="n">
-        <v>467.9965641157489</v>
-      </c>
+        <v>7.980576628613496</v>
+      </c>
+      <c r="AC42" t="inlineStr"/>
+      <c r="AD42" t="inlineStr"/>
       <c r="AE42" t="n">
-        <v>439.960895834592</v>
+        <v>7.799942735262481</v>
       </c>
       <c r="AF42" t="n">
-        <v>413.3544421412226</v>
+        <v>7.332681597243199</v>
       </c>
       <c r="AG42" t="n">
-        <v>412.3664306750373</v>
+        <v>6.889240702353709</v>
       </c>
       <c r="AH42" t="n">
-        <v>123.8314248291131</v>
+        <v>6.872773844583955</v>
       </c>
       <c r="AI42" t="n">
-        <v>560.4319625040409</v>
-      </c>
-      <c r="AJ42" t="n">
-        <v>317.311082161157</v>
-      </c>
+        <v>2.063857080485218</v>
+      </c>
+      <c r="AJ42" t="inlineStr"/>
       <c r="AK42" t="n">
-        <v>527.8085589434006</v>
-      </c>
-      <c r="AL42" t="n">
-        <v>371.3913874215865</v>
-      </c>
+        <v>5.288518036019283</v>
+      </c>
+      <c r="AL42" t="inlineStr"/>
       <c r="AM42" t="n">
-        <v>330.1896683609849</v>
+        <v>6.189856457026441</v>
       </c>
       <c r="AN42" t="n">
-        <v>199.3781219874604</v>
+        <v>5.503161139349748</v>
       </c>
       <c r="AO42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP42" t="n">
-        <v>334.4057886340855</v>
-      </c>
+        <v>3.322968699791007</v>
+      </c>
+      <c r="AP42" t="inlineStr"/>
       <c r="AQ42" t="n">
-        <v>264.1431243935535</v>
+        <v>5.573429810568092</v>
       </c>
       <c r="AR42" t="n">
-        <v>413.4167091234384</v>
+        <v>4.402385406559224</v>
       </c>
       <c r="AS42" t="n">
-        <v>273.188982972876</v>
+        <v>6.89027848539064</v>
       </c>
       <c r="AT42" t="n">
-        <v>593.2737163486876</v>
-      </c>
-      <c r="AU42" t="n">
-        <v>390.3792226416341</v>
+        <v>4.5531497162146</v>
+      </c>
+      <c r="AU42" t="inlineStr"/>
+      <c r="AV42" t="n">
+        <v>6.506320377360568</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="n">
-        <v>377.4491611456171</v>
+      <c r="A43" s="1" t="inlineStr">
+        <is>
+          <t>盐城亭湖</t>
+        </is>
       </c>
       <c r="B43" t="n">
-        <v>313.658121496289</v>
+        <v>6.290819352426952</v>
       </c>
       <c r="C43" t="n">
-        <v>488.4322458807737</v>
-      </c>
-      <c r="D43" t="n">
-        <v>96.65450652608516</v>
-      </c>
+        <v>5.227635358271483</v>
+      </c>
+      <c r="D43" t="inlineStr"/>
       <c r="E43" t="n">
-        <v>88.90053614503657</v>
+        <v>1.610908442101419</v>
       </c>
       <c r="F43" t="n">
-        <v>215.0639058708132</v>
+        <v>1.481675602417276</v>
       </c>
       <c r="G43" t="n">
-        <v>485.3697364482958</v>
-      </c>
-      <c r="H43" t="n">
-        <v>170.8447769554832</v>
-      </c>
+        <v>3.58439843118022</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="n">
-        <v>174.5332804592433</v>
+        <v>2.847412949258052</v>
       </c>
       <c r="J43" t="n">
-        <v>179.0065758041321</v>
+        <v>2.908888007654054</v>
       </c>
       <c r="K43" t="n">
-        <v>166.3779819986301</v>
+        <v>2.983442930068868</v>
       </c>
       <c r="L43" t="n">
-        <v>310.1018482193946</v>
+        <v>2.772966366643835</v>
       </c>
       <c r="M43" t="n">
-        <v>333.1166948583773</v>
+        <v>5.16836413698991</v>
       </c>
       <c r="N43" t="n">
-        <v>140.8257981537193</v>
+        <v>5.551944914306288</v>
       </c>
       <c r="O43" t="n">
-        <v>127.8378621596634</v>
+        <v>2.347096635895322</v>
       </c>
       <c r="P43" t="n">
-        <v>351.3566043964729</v>
+        <v>2.130631035994389</v>
       </c>
       <c r="Q43" t="n">
-        <v>284.8680218156547</v>
+        <v>5.855943406607881</v>
       </c>
       <c r="R43" t="n">
-        <v>159.1113076929336</v>
+        <v>4.747800363594246</v>
       </c>
       <c r="S43" t="n">
-        <v>246.1686099871174</v>
+        <v>2.65185512821556</v>
       </c>
       <c r="T43" t="n">
-        <v>275.9290547621708</v>
+        <v>4.102810166451956</v>
       </c>
       <c r="U43" t="n">
-        <v>132.3945964386421</v>
+        <v>4.598817579369514</v>
       </c>
       <c r="V43" t="n">
-        <v>166.8200589363555</v>
+        <v>2.206576607310702</v>
       </c>
       <c r="W43" t="n">
-        <v>520.6750654154874</v>
-      </c>
-      <c r="X43" t="n">
-        <v>219.4820077292835</v>
-      </c>
+        <v>2.780334315605925</v>
+      </c>
+      <c r="X43" t="inlineStr"/>
       <c r="Y43" t="n">
-        <v>254.6500303597458</v>
+        <v>3.658033462154726</v>
       </c>
       <c r="Z43" t="n">
-        <v>185.1849925223047</v>
+        <v>4.24416717266243</v>
       </c>
       <c r="AA43" t="n">
-        <v>167.0199289158137</v>
+        <v>3.086416542038411</v>
       </c>
       <c r="AB43" t="n">
-        <v>186.7773564843738</v>
+        <v>2.783665481930228</v>
       </c>
       <c r="AC43" t="n">
-        <v>196.5048303670007</v>
+        <v>3.11295594140623</v>
       </c>
       <c r="AD43" t="n">
-        <v>165.239539165435</v>
+        <v>3.275080506116679</v>
       </c>
       <c r="AE43" t="n">
-        <v>196.0738061751884</v>
+        <v>2.753992319423916</v>
       </c>
       <c r="AF43" t="n">
-        <v>124.8712540050545</v>
+        <v>3.267896769586474</v>
       </c>
       <c r="AG43" t="n">
-        <v>127.3619636334146</v>
+        <v>2.081187566750908</v>
       </c>
       <c r="AH43" t="n">
-        <v>210.6610299053746</v>
+        <v>2.122699393890243</v>
       </c>
       <c r="AI43" t="n">
-        <v>303.1420530883136</v>
+        <v>3.511017165089576</v>
       </c>
       <c r="AJ43" t="n">
-        <v>56.48198757003885</v>
+        <v>5.052367551471893</v>
       </c>
       <c r="AK43" t="n">
-        <v>317.0592859096468</v>
+        <v>0.9413664595006476</v>
       </c>
       <c r="AL43" t="n">
-        <v>96.16627500659187</v>
+        <v>5.284321431827447</v>
       </c>
       <c r="AM43" t="n">
-        <v>119.5299414476939</v>
+        <v>1.602771250109865</v>
       </c>
       <c r="AN43" t="n">
-        <v>228.8371852344562</v>
+        <v>1.992165690794899</v>
       </c>
       <c r="AO43" t="n">
-        <v>334.4057886340855</v>
+        <v>3.813953087240937</v>
       </c>
       <c r="AP43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ43" t="n">
-        <v>101.720643821598</v>
-      </c>
+        <v>5.573429810568092</v>
+      </c>
+      <c r="AQ43" t="inlineStr"/>
       <c r="AR43" t="n">
-        <v>227.4431037560842</v>
+        <v>1.695344063693299</v>
       </c>
       <c r="AS43" t="n">
-        <v>102.452762341475</v>
+        <v>3.790718395934737</v>
       </c>
       <c r="AT43" t="n">
-        <v>289.5246089740764</v>
+        <v>1.707546039024583</v>
       </c>
       <c r="AU43" t="n">
-        <v>109.7500495240234</v>
+        <v>4.825410149567941</v>
+      </c>
+      <c r="AV43" t="n">
+        <v>1.829167492067055</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="n">
-        <v>277.7879062707535</v>
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>扬州邗江</t>
+        </is>
       </c>
       <c r="B44" t="n">
-        <v>229.2886870913423</v>
+        <v>4.629798437845892</v>
       </c>
       <c r="C44" t="n">
-        <v>409.6931182471677</v>
+        <v>3.821478118189038</v>
       </c>
       <c r="D44" t="n">
-        <v>71.03312668090996</v>
+        <v>6.828218637452795</v>
       </c>
       <c r="E44" t="n">
-        <v>70.46793072993708</v>
+        <v>1.183885444681833</v>
       </c>
       <c r="F44" t="n">
-        <v>121.5898248440009</v>
+        <v>1.174465512165618</v>
       </c>
       <c r="G44" t="n">
-        <v>400.1753700748521</v>
+        <v>2.026497080733349</v>
       </c>
       <c r="H44" t="n">
-        <v>140.4828379768374</v>
+        <v>6.669589501247534</v>
       </c>
       <c r="I44" t="n">
-        <v>147.5336869054142</v>
+        <v>2.341380632947291</v>
       </c>
       <c r="J44" t="n">
-        <v>154.8220234638444</v>
+        <v>2.458894781756903</v>
       </c>
       <c r="K44" t="n">
-        <v>147.6300050280804</v>
+        <v>2.58036705773074</v>
       </c>
       <c r="L44" t="n">
-        <v>215.8305634015892</v>
+        <v>2.460500083801341</v>
       </c>
       <c r="M44" t="n">
-        <v>239.2460675672255</v>
+        <v>3.597176056693153</v>
       </c>
       <c r="N44" t="n">
-        <v>116.4859186226313</v>
+        <v>3.987434459453759</v>
       </c>
       <c r="O44" t="n">
-        <v>78.39640267019595</v>
+        <v>1.941431977043855</v>
       </c>
       <c r="P44" t="n">
-        <v>264.2127100476043</v>
+        <v>1.306606711169933</v>
       </c>
       <c r="Q44" t="n">
-        <v>185.6574277042414</v>
+        <v>4.403545167460071</v>
       </c>
       <c r="R44" t="n">
-        <v>171.1399376370298</v>
+        <v>3.094290461737357</v>
       </c>
       <c r="S44" t="n">
-        <v>180.5929642171088</v>
+        <v>2.852332293950497</v>
       </c>
       <c r="T44" t="n">
-        <v>223.657376041968</v>
+        <v>3.009882736951814</v>
       </c>
       <c r="U44" t="n">
-        <v>122.8559935166604</v>
+        <v>3.727622934032801</v>
       </c>
       <c r="V44" t="n">
-        <v>66.17697114701758</v>
+        <v>2.047599891944339</v>
       </c>
       <c r="W44" t="n">
-        <v>497.2991666478346</v>
-      </c>
-      <c r="X44" t="n">
-        <v>241.8668639816159</v>
-      </c>
+        <v>1.10294951911696</v>
+      </c>
+      <c r="X44" t="inlineStr"/>
       <c r="Y44" t="n">
-        <v>279.1778786072958</v>
+        <v>4.031114399693598</v>
       </c>
       <c r="Z44" t="n">
-        <v>238.8575808090699</v>
+        <v>4.65296464345493</v>
       </c>
       <c r="AA44" t="n">
-        <v>215.1174563425961</v>
+        <v>3.980959680151165</v>
       </c>
       <c r="AB44" t="n">
-        <v>231.7182288599419</v>
+        <v>3.585290939043268</v>
       </c>
       <c r="AC44" t="n">
-        <v>247.3857744873835</v>
+        <v>3.861970480999031</v>
       </c>
       <c r="AD44" t="n">
-        <v>203.8542181885248</v>
+        <v>4.123096241456392</v>
       </c>
       <c r="AE44" t="n">
-        <v>186.88750160209</v>
+        <v>3.39757030314208</v>
       </c>
       <c r="AF44" t="n">
-        <v>149.2720693936302</v>
+        <v>3.114791693368167</v>
       </c>
       <c r="AG44" t="n">
-        <v>148.4344321868717</v>
+        <v>2.48786782322717</v>
       </c>
       <c r="AH44" t="n">
-        <v>148.9857424843858</v>
+        <v>2.473907203114529</v>
       </c>
       <c r="AI44" t="n">
-        <v>308.4093687093861</v>
+        <v>2.483095708073096</v>
       </c>
       <c r="AJ44" t="n">
-        <v>58.30289458305143</v>
+        <v>5.140156145156435</v>
       </c>
       <c r="AK44" t="n">
-        <v>295.5095061555427</v>
+        <v>0.9717149097175238</v>
       </c>
       <c r="AL44" t="n">
-        <v>107.2574190894867</v>
+        <v>4.925158435925711</v>
       </c>
       <c r="AM44" t="n">
-        <v>74.03914550104228</v>
+        <v>1.787623651491445</v>
       </c>
       <c r="AN44" t="n">
-        <v>127.5651715021548</v>
+        <v>1.233985758350705</v>
       </c>
       <c r="AO44" t="n">
-        <v>264.1431243935535</v>
+        <v>2.12608619170258</v>
       </c>
       <c r="AP44" t="n">
-        <v>101.720643821598</v>
+        <v>4.402385406559224</v>
       </c>
       <c r="AQ44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR44" t="n">
-        <v>185.2907132933917</v>
-      </c>
+        <v>1.695344063693299</v>
+      </c>
+      <c r="AR44" t="inlineStr"/>
       <c r="AS44" t="n">
-        <v>11.19104751531649</v>
+        <v>3.088178554889862</v>
       </c>
       <c r="AT44" t="n">
-        <v>329.5938834688799</v>
+        <v>0.1865174585886082</v>
       </c>
       <c r="AU44" t="n">
-        <v>126.3155697984996</v>
+        <v>5.493231391147998</v>
+      </c>
+      <c r="AV44" t="n">
+        <v>2.10525949664166</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="n">
-        <v>341.0735167252936</v>
+      <c r="A45" s="1" t="inlineStr">
+        <is>
+          <t>义乌稠江</t>
+        </is>
       </c>
       <c r="B45" t="n">
-        <v>359.2108543422336</v>
+        <v>5.684558612088227</v>
       </c>
       <c r="C45" t="n">
-        <v>533.2780377152404</v>
-      </c>
-      <c r="D45" t="n">
-        <v>134.00359796082</v>
-      </c>
+        <v>5.98684757237056</v>
+      </c>
+      <c r="D45" t="inlineStr"/>
       <c r="E45" t="n">
-        <v>140.9321526921777</v>
+        <v>2.233393299347</v>
       </c>
       <c r="F45" t="n">
-        <v>254.8574382139548</v>
+        <v>2.348869211536295</v>
       </c>
       <c r="G45" t="n">
-        <v>509.6294947717436</v>
-      </c>
-      <c r="H45" t="n">
-        <v>57.06376970086087</v>
-      </c>
+        <v>4.24762397023258</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="n">
-        <v>55.08438712375108</v>
+        <v>0.9510628283476812</v>
       </c>
       <c r="J45" t="n">
-        <v>53.49994204675587</v>
+        <v>0.9180731187291846</v>
       </c>
       <c r="K45" t="n">
-        <v>67.07371013124187</v>
+        <v>0.8916657007792644</v>
       </c>
       <c r="L45" t="n">
-        <v>320.6375303774527</v>
+        <v>1.117895168854031</v>
       </c>
       <c r="M45" t="n">
-        <v>340.9682032779714</v>
+        <v>5.343958839624212</v>
       </c>
       <c r="N45" t="n">
-        <v>86.7286522056571</v>
+        <v>5.68280338796619</v>
       </c>
       <c r="O45" t="n">
-        <v>262.807151161513</v>
+        <v>1.445477536760952</v>
       </c>
       <c r="P45" t="n">
-        <v>382.5732131758706</v>
+        <v>4.380119186025216</v>
       </c>
       <c r="Q45" t="n">
-        <v>194.8063204826587</v>
+        <v>6.376220219597844</v>
       </c>
       <c r="R45" t="n">
-        <v>108.2087058018664</v>
+        <v>3.246772008044311</v>
       </c>
       <c r="S45" t="n">
-        <v>57.13344165338329</v>
+        <v>1.803478430031106</v>
       </c>
       <c r="T45" t="n">
-        <v>51.06057481730483</v>
+        <v>0.9522240275563882</v>
       </c>
       <c r="U45" t="n">
-        <v>307.4852143356619</v>
+        <v>0.8510095802884138</v>
       </c>
       <c r="V45" t="n">
-        <v>199.4585138722893</v>
+        <v>5.124753572261031</v>
       </c>
       <c r="W45" t="n">
-        <v>675.6214868004358</v>
-      </c>
-      <c r="X45" t="n">
-        <v>141.312155692125</v>
-      </c>
+        <v>3.324308564538155</v>
+      </c>
+      <c r="X45" t="inlineStr"/>
       <c r="Y45" t="n">
-        <v>166.3653886537937</v>
+        <v>2.35520259486875</v>
       </c>
       <c r="Z45" t="n">
-        <v>197.4939643021745</v>
+        <v>2.772756477563229</v>
       </c>
       <c r="AA45" t="n">
-        <v>176.9444969672872</v>
+        <v>3.291566071702908</v>
       </c>
       <c r="AB45" t="n">
-        <v>177.9400304196969</v>
+        <v>2.949074949454787</v>
       </c>
       <c r="AC45" t="n">
-        <v>196.5722635741852</v>
+        <v>2.965667173661614</v>
       </c>
       <c r="AD45" t="n">
-        <v>156.581492837619</v>
+        <v>3.276204392903086</v>
       </c>
       <c r="AE45" t="n">
-        <v>68.23964155232717</v>
+        <v>2.60969154729365</v>
       </c>
       <c r="AF45" t="n">
-        <v>132.0317521245531</v>
+        <v>1.137327359205453</v>
       </c>
       <c r="AG45" t="n">
-        <v>127.3561097636014</v>
+        <v>2.200529202075885</v>
       </c>
       <c r="AH45" t="n">
-        <v>320.0366546810291</v>
+        <v>2.122601829393356</v>
       </c>
       <c r="AI45" t="n">
-        <v>156.3592575968369</v>
+        <v>5.333944244683819</v>
       </c>
       <c r="AJ45" t="n">
-        <v>177.9042554434152</v>
+        <v>2.605987626613949</v>
       </c>
       <c r="AK45" t="n">
-        <v>115.0156187165264</v>
+        <v>2.965070924056919</v>
       </c>
       <c r="AL45" t="n">
-        <v>135.1138687303253</v>
+        <v>1.916926978608774</v>
       </c>
       <c r="AM45" t="n">
-        <v>116.3101657247153</v>
+        <v>2.251897812172089</v>
       </c>
       <c r="AN45" t="n">
-        <v>218.30709406625</v>
+        <v>1.938502762078589</v>
       </c>
       <c r="AO45" t="n">
-        <v>413.4167091234384</v>
+        <v>3.638451567770833</v>
       </c>
       <c r="AP45" t="n">
-        <v>227.4431037560842</v>
+        <v>6.89027848539064</v>
       </c>
       <c r="AQ45" t="n">
-        <v>185.2907132933917</v>
+        <v>3.790718395934737</v>
       </c>
       <c r="AR45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS45" t="n">
-        <v>174.2868490530188</v>
-      </c>
+        <v>3.088178554889862</v>
+      </c>
+      <c r="AS45" t="inlineStr"/>
       <c r="AT45" t="n">
-        <v>229.6771592440075</v>
+        <v>2.904780817550313</v>
       </c>
       <c r="AU45" t="n">
-        <v>129.9513030270349</v>
+        <v>3.827952654066792</v>
+      </c>
+      <c r="AV45" t="n">
+        <v>2.165855050450581</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="n">
-        <v>280.4940072942653</v>
+      <c r="A46" s="1" t="inlineStr">
+        <is>
+          <t>镇江新区</t>
+        </is>
       </c>
       <c r="B46" t="n">
-        <v>236.6235037072177</v>
+        <v>4.674900121571088</v>
       </c>
       <c r="C46" t="n">
-        <v>417.4014815144845</v>
+        <v>3.943725061786961</v>
       </c>
       <c r="D46" t="n">
-        <v>61.1089136490482</v>
+        <v>6.956691358574742</v>
       </c>
       <c r="E46" t="n">
-        <v>61.23299415747451</v>
+        <v>1.018481894150803</v>
       </c>
       <c r="F46" t="n">
-        <v>127.6751907612914</v>
+        <v>1.020549902624575</v>
       </c>
       <c r="G46" t="n">
-        <v>406.899372364939</v>
+        <v>2.127919846021523</v>
       </c>
       <c r="H46" t="n">
-        <v>129.3024616235757</v>
+        <v>6.781656206082317</v>
       </c>
       <c r="I46" t="n">
-        <v>136.3687137298899</v>
+        <v>2.155041027059594</v>
       </c>
       <c r="J46" t="n">
-        <v>143.6723306631434</v>
+        <v>2.272811895498166</v>
       </c>
       <c r="K46" t="n">
-        <v>136.592844223094</v>
+        <v>2.394538844385724</v>
       </c>
       <c r="L46" t="n">
-        <v>220.9771892036463</v>
+        <v>2.276547403718233</v>
       </c>
       <c r="M46" t="n">
-        <v>244.419359490823</v>
+        <v>3.682953153394105</v>
       </c>
       <c r="N46" t="n">
-        <v>105.5032179326579</v>
+        <v>4.073655991513716</v>
       </c>
       <c r="O46" t="n">
-        <v>89.58744261121164</v>
+        <v>1.758386965544299</v>
       </c>
       <c r="P46" t="n">
-        <v>270.9000721160114</v>
+        <v>1.493124043520194</v>
       </c>
       <c r="Q46" t="n">
-        <v>182.8015464090359</v>
+        <v>4.515001201933524</v>
       </c>
       <c r="R46" t="n">
-        <v>161.0573806777922</v>
+        <v>3.046692440150599</v>
       </c>
       <c r="S46" t="n">
-        <v>170.8008140792793</v>
+        <v>2.684289677963203</v>
       </c>
       <c r="T46" t="n">
-        <v>213.1525965146373</v>
+        <v>2.846680234654654</v>
       </c>
       <c r="U46" t="n">
-        <v>133.5527954585479</v>
+        <v>3.552543275243955</v>
       </c>
       <c r="V46" t="n">
-        <v>69.4967196500579</v>
+        <v>2.225879924309131</v>
       </c>
       <c r="W46" t="n">
-        <v>508.3766262684319</v>
-      </c>
-      <c r="X46" t="n">
-        <v>231.8116347002635</v>
-      </c>
+        <v>1.158278660834298</v>
+      </c>
+      <c r="X46" t="inlineStr"/>
       <c r="Y46" t="n">
-        <v>269.0751545412816</v>
+        <v>3.863527245004391</v>
       </c>
       <c r="Z46" t="n">
-        <v>230.8754893974247</v>
+        <v>4.48458590902136</v>
       </c>
       <c r="AA46" t="n">
-        <v>206.8866797449808</v>
+        <v>3.847924823290412</v>
       </c>
       <c r="AB46" t="n">
-        <v>223.1079911386701</v>
+        <v>3.448111329083013</v>
       </c>
       <c r="AC46" t="n">
-        <v>239.1159842980332</v>
+        <v>3.718466518977834</v>
       </c>
       <c r="AD46" t="n">
-        <v>195.0314031738314</v>
+        <v>3.98526640496722</v>
       </c>
       <c r="AE46" t="n">
-        <v>175.9131747640135</v>
+        <v>3.250523386230524</v>
       </c>
       <c r="AF46" t="n">
-        <v>140.2199977057276</v>
+        <v>2.931886246066893</v>
       </c>
       <c r="AG46" t="n">
-        <v>139.1775676926111</v>
+        <v>2.336999961762126</v>
       </c>
       <c r="AH46" t="n">
-        <v>159.3041304440327</v>
+        <v>2.319626128210186</v>
       </c>
       <c r="AI46" t="n">
-        <v>297.5199968299155</v>
+        <v>2.655068840733878</v>
       </c>
       <c r="AJ46" t="n">
-        <v>54.23810379872999</v>
+        <v>4.958666613831925</v>
       </c>
       <c r="AK46" t="n">
-        <v>284.3264003191088</v>
+        <v>0.9039683966454999</v>
       </c>
       <c r="AL46" t="n">
-        <v>98.40986399140017</v>
+        <v>4.738773338651813</v>
       </c>
       <c r="AM46" t="n">
-        <v>62.93232894131255</v>
+        <v>1.64016439985667</v>
       </c>
       <c r="AN46" t="n">
-        <v>129.3309983564551</v>
+        <v>1.048872149021876</v>
       </c>
       <c r="AO46" t="n">
-        <v>273.188982972876</v>
+        <v>2.155516639274251</v>
       </c>
       <c r="AP46" t="n">
-        <v>102.452762341475</v>
+        <v>4.5531497162146</v>
       </c>
       <c r="AQ46" t="n">
-        <v>11.19104751531649</v>
+        <v>1.707546039024583</v>
       </c>
       <c r="AR46" t="n">
-        <v>174.2868490530188</v>
+        <v>0.1865174585886082</v>
       </c>
       <c r="AS46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT46" t="n">
-        <v>320.182107936147</v>
-      </c>
+        <v>2.904780817550313</v>
+      </c>
+      <c r="AT46" t="inlineStr"/>
       <c r="AU46" t="n">
-        <v>117.2410971294659</v>
+        <v>5.33636846560245</v>
+      </c>
+      <c r="AV46" t="n">
+        <v>1.954018285491098</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="n">
-        <v>561.6689352485494</v>
-      </c>
-      <c r="B47" t="n">
-        <v>552.3146018272954</v>
-      </c>
-      <c r="C47" t="n">
-        <v>733.1910944718694</v>
-      </c>
-      <c r="D47" t="n">
-        <v>259.2084471606886</v>
-      </c>
+      <c r="A47" s="1" t="inlineStr">
+        <is>
+          <t>舟山定海</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr"/>
+      <c r="C47" t="inlineStr"/>
+      <c r="D47" t="inlineStr"/>
       <c r="E47" t="n">
-        <v>259.1292825237569</v>
+        <v>4.320140786011478</v>
       </c>
       <c r="F47" t="n">
-        <v>441.3776885907726</v>
+        <v>4.318821375395948</v>
       </c>
       <c r="G47" t="n">
-        <v>717.0890171881359</v>
-      </c>
-      <c r="H47" t="n">
-        <v>219.1404904697987</v>
-      </c>
+        <v>7.35629480984621</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="n">
-        <v>211.8883170137537</v>
+        <v>3.652341507829979</v>
       </c>
       <c r="J47" t="n">
-        <v>205.0693969627307</v>
+        <v>3.531471950229228</v>
       </c>
       <c r="K47" t="n">
-        <v>202.2250689610735</v>
+        <v>3.417823282712178</v>
       </c>
       <c r="L47" t="n">
-        <v>525.5864087150424</v>
-      </c>
-      <c r="M47" t="n">
-        <v>548.1186780586718</v>
-      </c>
-      <c r="N47" t="n">
-        <v>225.5017142972619</v>
-      </c>
+        <v>3.370417816017891</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="inlineStr"/>
       <c r="O47" t="n">
-        <v>398.1570353705687</v>
+        <v>3.758361904954366</v>
       </c>
       <c r="P47" t="n">
-        <v>582.9764877324729</v>
-      </c>
-      <c r="Q47" t="n">
-        <v>419.9022584890636</v>
-      </c>
+        <v>6.635950589509479</v>
+      </c>
+      <c r="Q47" t="inlineStr"/>
       <c r="R47" t="n">
-        <v>161.3368140159455</v>
+        <v>6.998370974817727</v>
       </c>
       <c r="S47" t="n">
-        <v>286.8027043071542</v>
+        <v>2.688946900265759</v>
       </c>
       <c r="T47" t="n">
-        <v>260.0806147605529</v>
+        <v>4.780045071785903</v>
       </c>
       <c r="U47" t="n">
-        <v>419.1687806686929</v>
+        <v>4.334676912675881</v>
       </c>
       <c r="V47" t="n">
-        <v>379.2157548370881</v>
+        <v>6.986146344478215</v>
       </c>
       <c r="W47" t="n">
-        <v>809.6062545076647</v>
-      </c>
-      <c r="X47" t="n">
-        <v>93.85210436297569</v>
-      </c>
+        <v>6.320262580618135</v>
+      </c>
+      <c r="X47" t="inlineStr"/>
       <c r="Y47" t="n">
-        <v>63.32042902501153</v>
+        <v>1.564201739382928</v>
       </c>
       <c r="Z47" t="n">
-        <v>106.293183558679</v>
+        <v>1.055340483750192</v>
       </c>
       <c r="AA47" t="n">
-        <v>122.5222025793159</v>
+        <v>1.771553059311316</v>
       </c>
       <c r="AB47" t="n">
-        <v>102.8929650435828</v>
+        <v>2.042036709655265</v>
       </c>
       <c r="AC47" t="n">
-        <v>94.22677375123824</v>
+        <v>1.71488275072638</v>
       </c>
       <c r="AD47" t="n">
-        <v>127.5713830578031</v>
+        <v>1.570446229187304</v>
       </c>
       <c r="AE47" t="n">
-        <v>169.5672223855671</v>
+        <v>2.126189717630052</v>
       </c>
       <c r="AF47" t="n">
-        <v>180.58298668207</v>
+        <v>2.826120373092785</v>
       </c>
       <c r="AG47" t="n">
-        <v>181.1816302327427</v>
+        <v>3.009716444701166</v>
       </c>
       <c r="AH47" t="n">
-        <v>477.4165898741369</v>
+        <v>3.019693837212379</v>
       </c>
       <c r="AI47" t="n">
-        <v>108.0190302995664</v>
+        <v>7.956943164568949</v>
       </c>
       <c r="AJ47" t="n">
-        <v>281.3822165916429</v>
+        <v>1.80031717165944</v>
       </c>
       <c r="AK47" t="n">
-        <v>187.3255735322398</v>
+        <v>4.689703609860715</v>
       </c>
       <c r="AL47" t="n">
-        <v>222.6614307415659</v>
+        <v>3.122092892203996</v>
       </c>
       <c r="AM47" t="n">
-        <v>264.8594563192617</v>
+        <v>3.711023845692766</v>
       </c>
       <c r="AN47" t="n">
-        <v>421.4492859190625</v>
+        <v>4.414324271987695</v>
       </c>
       <c r="AO47" t="n">
-        <v>593.2737163486876</v>
-      </c>
-      <c r="AP47" t="n">
-        <v>289.5246089740764</v>
-      </c>
+        <v>7.024154765317708</v>
+      </c>
+      <c r="AP47" t="inlineStr"/>
       <c r="AQ47" t="n">
-        <v>329.5938834688799</v>
+        <v>4.825410149567941</v>
       </c>
       <c r="AR47" t="n">
-        <v>229.6771592440075</v>
+        <v>5.493231391147998</v>
       </c>
       <c r="AS47" t="n">
-        <v>320.182107936147</v>
+        <v>3.827952654066792</v>
       </c>
       <c r="AT47" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU47" t="n">
-        <v>203.4134925790085</v>
+        <v>5.33636846560245</v>
+      </c>
+      <c r="AU47" t="inlineStr"/>
+      <c r="AV47" t="n">
+        <v>3.390224876316808</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="n">
-        <v>380.2557597349503</v>
+      <c r="A48" s="1" t="inlineStr">
+        <is>
+          <t>无锡华友</t>
+        </is>
       </c>
       <c r="B48" t="n">
-        <v>352.5168315515546</v>
+        <v>6.337595995582506</v>
       </c>
       <c r="C48" t="n">
-        <v>533.6318578083287</v>
-      </c>
-      <c r="D48" t="n">
-        <v>57.22203646458833</v>
-      </c>
+        <v>5.875280525859243</v>
+      </c>
+      <c r="D48" t="inlineStr"/>
       <c r="E48" t="n">
-        <v>56.00851124356384</v>
+        <v>0.9537006077431388</v>
       </c>
       <c r="F48" t="n">
-        <v>242.0588731576054</v>
+        <v>0.9334751873927306</v>
       </c>
       <c r="G48" t="n">
-        <v>521.0084761941367</v>
-      </c>
-      <c r="H48" t="n">
-        <v>74.57754173804207</v>
-      </c>
+        <v>4.034314552626756</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="n">
-        <v>74.97815466109522</v>
+        <v>1.242959028967368</v>
       </c>
       <c r="J48" t="n">
-        <v>76.82972746664844</v>
+        <v>1.249635911018254</v>
       </c>
       <c r="K48" t="n">
-        <v>63.18271742057689</v>
+        <v>1.280495457777474</v>
       </c>
       <c r="L48" t="n">
-        <v>331.5643243528948</v>
+        <v>1.053045290342948</v>
       </c>
       <c r="M48" t="n">
-        <v>354.7953314874139</v>
+        <v>5.526072072548247</v>
       </c>
       <c r="N48" t="n">
-        <v>50.9276041486185</v>
+        <v>5.913255524790232</v>
       </c>
       <c r="O48" t="n">
-        <v>196.1510651405578</v>
+        <v>0.848793402476975</v>
       </c>
       <c r="P48" t="n">
-        <v>385.35685782854</v>
+        <v>3.269184419009298</v>
       </c>
       <c r="Q48" t="n">
-        <v>254.5453639781076</v>
+        <v>6.422614297142333</v>
       </c>
       <c r="R48" t="n">
-        <v>50.90599740230263</v>
+        <v>4.242422732968461</v>
       </c>
       <c r="S48" t="n">
-        <v>165.5955786161119</v>
+        <v>0.8484332900383771</v>
       </c>
       <c r="T48" t="n">
-        <v>180.9499547136068</v>
+        <v>2.759926310268532</v>
       </c>
       <c r="U48" t="n">
-        <v>223.8144765973479</v>
+        <v>3.015832578560114</v>
       </c>
       <c r="V48" t="n">
-        <v>180.4420260252019</v>
+        <v>3.730241276622465</v>
       </c>
       <c r="W48" t="n">
-        <v>613.2952804569991</v>
-      </c>
-      <c r="X48" t="n">
-        <v>118.6609072374438</v>
-      </c>
+        <v>3.007367100420031</v>
+      </c>
+      <c r="X48" t="inlineStr"/>
       <c r="Y48" t="n">
-        <v>155.8810694691666</v>
+        <v>1.97768178729073</v>
       </c>
       <c r="Z48" t="n">
-        <v>115.9713344134614</v>
+        <v>2.598017824486111</v>
       </c>
       <c r="AA48" t="n">
-        <v>91.26571834590145</v>
+        <v>1.932855573557691</v>
       </c>
       <c r="AB48" t="n">
-        <v>106.2562945000983</v>
+        <v>1.521095305765024</v>
       </c>
       <c r="AC48" t="n">
-        <v>123.0717343571644</v>
+        <v>1.770938241668305</v>
       </c>
       <c r="AD48" t="n">
-        <v>77.90135413500131</v>
+        <v>2.051195572619406</v>
       </c>
       <c r="AE48" t="n">
-        <v>86.80961722641082</v>
+        <v>1.298355902250022</v>
       </c>
       <c r="AF48" t="n">
-        <v>22.97919226348861</v>
+        <v>1.446826953773513</v>
       </c>
       <c r="AG48" t="n">
-        <v>22.3521996033744</v>
+        <v>0.3829865377248102</v>
       </c>
       <c r="AH48" t="n">
-        <v>274.1076507702535</v>
+        <v>0.37253666005624</v>
       </c>
       <c r="AI48" t="n">
-        <v>196.0518175426249</v>
+        <v>4.568460846170891</v>
       </c>
       <c r="AJ48" t="n">
-        <v>80.58509686007898</v>
+        <v>3.267530292377081</v>
       </c>
       <c r="AK48" t="n">
-        <v>207.8613719706967</v>
+        <v>1.343084947667983</v>
       </c>
       <c r="AL48" t="n">
-        <v>19.32757778586079</v>
+        <v>3.464356199511611</v>
       </c>
       <c r="AM48" t="n">
-        <v>69.96531353653555</v>
+        <v>0.3221262964310132</v>
       </c>
       <c r="AN48" t="n">
-        <v>230.9377567862053</v>
+        <v>1.166088558942259</v>
       </c>
       <c r="AO48" t="n">
-        <v>390.3792226416341</v>
+        <v>3.848962613103422</v>
       </c>
       <c r="AP48" t="n">
-        <v>109.7500495240234</v>
+        <v>6.506320377360568</v>
       </c>
       <c r="AQ48" t="n">
-        <v>126.3155697984996</v>
+        <v>1.829167492067055</v>
       </c>
       <c r="AR48" t="n">
-        <v>129.9513030270349</v>
+        <v>2.10525949664166</v>
       </c>
       <c r="AS48" t="n">
-        <v>117.2410971294659</v>
+        <v>2.165855050450581</v>
       </c>
       <c r="AT48" t="n">
-        <v>203.4134925790085</v>
+        <v>1.954018285491098</v>
       </c>
       <c r="AU48" t="n">
-        <v>0</v>
-      </c>
+        <v>3.390224876316808</v>
+      </c>
+      <c r="AV48" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/train/2/time_matrix.xlsx
+++ b/train/2/time_matrix.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AV48"/>
+  <dimension ref="A1:AS45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,19 +441,19 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>配送中心</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>安庆宜秀</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>蚌埠禹会</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>亳州谯城</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
           <t>常州武进</t>
@@ -471,579 +471,587 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>阜阳颍州</t>
+          <t>杭州拱墅</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>杭州拱墅</t>
+          <t>杭州江干</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>杭州江干</t>
+          <t>杭州萧山</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>杭州萧山</t>
+          <t>杭州余杭</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>杭州余杭</t>
+          <t>合肥肥东</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>合肥肥东</t>
+          <t>合肥蜀山</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>合肥蜀山</t>
+          <t>湖州吴兴</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>湖州吴兴</t>
+          <t>淮安经开</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>淮安经开</t>
+          <t>淮南经开</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>淮南经开</t>
+          <t>黄山屯溪</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>黄山屯溪</t>
+          <t>嘉兴秀洲</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>嘉兴秀洲</t>
+          <t>金华婺城</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>金华婺城</t>
+          <t>丽水莲都</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>丽水莲都</t>
+          <t>连云港海州</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>连云港海州</t>
+          <t>南京江宁</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>南京江宁</t>
+          <t>宁波慈溪</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>南通通州</t>
+          <t>宁波鄞州</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>宁波慈溪</t>
+          <t>上海宝山</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>宁波鄞州</t>
+          <t>上海嘉定</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>上海宝山</t>
+          <t>上海闵行</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>上海嘉定</t>
+          <t>上海浦东</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
-          <t>上海闵行</t>
+          <t>上海青浦</t>
         </is>
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
-          <t>上海浦东</t>
+          <t>绍兴越城</t>
         </is>
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>上海青浦</t>
+          <t>苏州相城</t>
         </is>
       </c>
       <c r="AF1" s="1" t="inlineStr">
         <is>
-          <t>绍兴越城</t>
+          <t>苏州园区</t>
         </is>
       </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
-          <t>苏州相城</t>
+          <t>宿迁宿城</t>
         </is>
       </c>
       <c r="AH1" s="1" t="inlineStr">
         <is>
-          <t>苏州园区</t>
+          <t>台州椒江</t>
         </is>
       </c>
       <c r="AI1" s="1" t="inlineStr">
         <is>
-          <t>宿迁宿城</t>
+          <t>泰州海陵</t>
         </is>
       </c>
       <c r="AJ1" s="1" t="inlineStr">
         <is>
-          <t>台州椒江</t>
+          <t>温州龙湾</t>
         </is>
       </c>
       <c r="AK1" s="1" t="inlineStr">
         <is>
-          <t>泰州海陵</t>
+          <t>无锡惠山</t>
         </is>
       </c>
       <c r="AL1" s="1" t="inlineStr">
         <is>
-          <t>温州龙湾</t>
+          <t>无锡宜兴</t>
         </is>
       </c>
       <c r="AM1" s="1" t="inlineStr">
         <is>
-          <t>无锡惠山</t>
+          <t>芜湖弋江</t>
         </is>
       </c>
       <c r="AN1" s="1" t="inlineStr">
         <is>
-          <t>无锡宜兴</t>
+          <t>徐州铜山</t>
         </is>
       </c>
       <c r="AO1" s="1" t="inlineStr">
         <is>
-          <t>芜湖弋江</t>
+          <t>盐城亭湖</t>
         </is>
       </c>
       <c r="AP1" s="1" t="inlineStr">
         <is>
-          <t>徐州铜山</t>
+          <t>扬州邗江</t>
         </is>
       </c>
       <c r="AQ1" s="1" t="inlineStr">
         <is>
-          <t>盐城亭湖</t>
+          <t>义乌稠江</t>
         </is>
       </c>
       <c r="AR1" s="1" t="inlineStr">
         <is>
-          <t>扬州邗江</t>
+          <t>镇江新区</t>
         </is>
       </c>
       <c r="AS1" s="1" t="inlineStr">
         <is>
-          <t>义乌稠江</t>
-        </is>
-      </c>
-      <c r="AT1" s="1" t="inlineStr">
-        <is>
-          <t>镇江新区</t>
-        </is>
-      </c>
-      <c r="AU1" s="1" t="inlineStr">
-        <is>
           <t>舟山定海</t>
-        </is>
-      </c>
-      <c r="AV1" s="1" t="inlineStr">
-        <is>
-          <t>无锡华友</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>安庆宜秀</t>
+          <t>配送中心</t>
         </is>
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>2.125058257303821</v>
+        <v>6.337595995582506</v>
       </c>
       <c r="D2" t="n">
-        <v>3.653553627079105</v>
+        <v>5.875280525859243</v>
       </c>
       <c r="E2" t="n">
-        <v>5.44251844154606</v>
+        <v>0.9537006077431388</v>
       </c>
       <c r="F2" t="n">
-        <v>5.518224394091405</v>
+        <v>0.9334751873927306</v>
       </c>
       <c r="G2" t="n">
-        <v>2.771823953689807</v>
+        <v>4.034314552626756</v>
       </c>
       <c r="H2" t="n">
-        <v>3.040147842505698</v>
+        <v>1.242959028967368</v>
       </c>
       <c r="I2" t="n">
-        <v>5.711958939766202</v>
+        <v>1.249635911018254</v>
       </c>
       <c r="J2" t="n">
-        <v>5.830666921314815</v>
+        <v>1.280495457777474</v>
       </c>
       <c r="K2" t="n">
-        <v>5.943329181270659</v>
+        <v>1.053045290342948</v>
       </c>
       <c r="L2" t="n">
-        <v>6.00243974407524</v>
+        <v>5.526072072548247</v>
       </c>
       <c r="M2" t="n">
-        <v>1.394591773252819</v>
+        <v>5.913255524790232</v>
       </c>
       <c r="N2" t="n">
-        <v>1.195220428190612</v>
+        <v>0.848793402476975</v>
       </c>
       <c r="O2" t="n">
-        <v>5.687184656765264</v>
+        <v>3.269184419009298</v>
       </c>
       <c r="P2" t="n">
-        <v>4.519988941268744</v>
+        <v>6.422614297142333</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.802731168547739</v>
+        <v>4.242422732968461</v>
       </c>
       <c r="R2" t="n">
-        <v>2.455817512355318</v>
+        <v>0.8484332900383772</v>
       </c>
       <c r="S2" t="n">
-        <v>6.763430702325566</v>
+        <v>2.759926310268532</v>
       </c>
       <c r="T2" t="n">
-        <v>4.814400455530509</v>
+        <v>3.015832578560114</v>
       </c>
       <c r="U2" t="n">
-        <v>5.58919390552605</v>
+        <v>3.730241276622465</v>
       </c>
       <c r="V2" t="n">
-        <v>5.221707361305777</v>
+        <v>3.007367100420031</v>
       </c>
       <c r="W2" t="n">
-        <v>3.526857325379094</v>
+        <v>1.97768178729073</v>
       </c>
       <c r="X2" t="n">
-        <v>7.900465998228944</v>
+        <v>2.598017824486111</v>
       </c>
       <c r="Y2" t="n">
-        <v>7.799126304986717</v>
-      </c>
-      <c r="Z2" t="inlineStr"/>
-      <c r="AA2" t="inlineStr"/>
+        <v>1.932855573557691</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>1.521095305765024</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>1.770938241668305</v>
+      </c>
       <c r="AB2" t="n">
-        <v>7.830530422518848</v>
-      </c>
-      <c r="AC2" t="inlineStr"/>
-      <c r="AD2" t="inlineStr"/>
+        <v>2.051195572619406</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>1.298355902250022</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>1.446826953773514</v>
+      </c>
       <c r="AE2" t="n">
-        <v>7.551649534865954</v>
+        <v>0.3829865377248102</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.540994835509429</v>
+        <v>0.37253666005624</v>
       </c>
       <c r="AG2" t="n">
-        <v>6.681070402295684</v>
+        <v>4.568460846170892</v>
       </c>
       <c r="AH2" t="n">
-        <v>6.632166209059823</v>
+        <v>3.267530292377081</v>
       </c>
       <c r="AI2" t="n">
-        <v>3.732389565009188</v>
-      </c>
-      <c r="AJ2" t="inlineStr"/>
+        <v>1.343084947667983</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>3.464356199511611</v>
+      </c>
       <c r="AK2" t="n">
-        <v>5.578798677288393</v>
+        <v>0.3221262964310132</v>
       </c>
       <c r="AL2" t="n">
-        <v>7.361465132482224</v>
+        <v>1.166088558942259</v>
       </c>
       <c r="AM2" t="n">
-        <v>6.089151805281328</v>
+        <v>3.848962613103422</v>
       </c>
       <c r="AN2" t="n">
-        <v>5.171514441325853</v>
+        <v>6.506320377360568</v>
       </c>
       <c r="AO2" t="n">
-        <v>2.527127276054172</v>
+        <v>1.829167492067056</v>
       </c>
       <c r="AP2" t="n">
-        <v>3.12130656886058</v>
+        <v>2.10525949664166</v>
       </c>
       <c r="AQ2" t="n">
-        <v>6.290819352426952</v>
+        <v>2.165855050450581</v>
       </c>
       <c r="AR2" t="n">
-        <v>4.629798437845892</v>
+        <v>1.954018285491098</v>
       </c>
       <c r="AS2" t="n">
-        <v>5.684558612088227</v>
-      </c>
-      <c r="AT2" t="n">
-        <v>4.674900121571088</v>
-      </c>
-      <c r="AU2" t="inlineStr"/>
-      <c r="AV2" t="n">
-        <v>6.337595995582506</v>
+        <v>3.390224876316808</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>蚌埠禹会</t>
+          <t>安庆宜秀</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2.125058257303821</v>
+        <v>6.337595995582506</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="n">
-        <v>3.019136394379814</v>
+        <v>2.125058257303821</v>
       </c>
       <c r="E3" t="n">
-        <v>4.92173007993976</v>
+        <v>5.44251844154606</v>
       </c>
       <c r="F3" t="n">
-        <v>4.949964399892869</v>
+        <v>5.518224394091405</v>
       </c>
       <c r="G3" t="n">
-        <v>1.849045782106494</v>
+        <v>2.771823953689807</v>
       </c>
       <c r="H3" t="n">
-        <v>2.865810299976583</v>
+        <v>5.711958939766202</v>
       </c>
       <c r="I3" t="n">
-        <v>5.668258119767196</v>
+        <v>5.830666921314815</v>
       </c>
       <c r="J3" t="n">
-        <v>5.798626035474665</v>
+        <v>5.943329181270659</v>
       </c>
       <c r="K3" t="n">
-        <v>5.926247351907148</v>
+        <v>6.00243974407524</v>
       </c>
       <c r="L3" t="n">
-        <v>5.904258859025926</v>
+        <v>1.394591773252819</v>
       </c>
       <c r="M3" t="n">
-        <v>0.9206596965890684</v>
+        <v>1.195220428190612</v>
       </c>
       <c r="N3" t="n">
-        <v>0.9357628272226061</v>
+        <v>5.687184656765264</v>
       </c>
       <c r="O3" t="n">
-        <v>5.459959112847599</v>
+        <v>4.519988941268744</v>
       </c>
       <c r="P3" t="n">
-        <v>3.145582019603364</v>
+        <v>1.802731168547739</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.6542635330757853</v>
+        <v>2.455817512355318</v>
       </c>
       <c r="R3" t="n">
-        <v>3.328059896765971</v>
+        <v>6.763430702325566</v>
       </c>
       <c r="S3" t="n">
-        <v>6.516414725920055</v>
+        <v>4.814400455530509</v>
       </c>
       <c r="T3" t="n">
-        <v>5.32649462031328</v>
+        <v>5.58919390552605</v>
       </c>
       <c r="U3" t="n">
-        <v>6.192519552646664</v>
+        <v>5.221707361305777</v>
       </c>
       <c r="V3" t="n">
-        <v>3.593988227676602</v>
+        <v>3.526857325379094</v>
       </c>
       <c r="W3" t="n">
-        <v>2.885133656619508</v>
-      </c>
-      <c r="X3" t="n">
-        <v>6.00737039635523</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>7.671717148843906</v>
-      </c>
-      <c r="Z3" t="inlineStr"/>
-      <c r="AA3" t="n">
-        <v>7.789714803699174</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>7.38659137330782</v>
-      </c>
+        <v>7.799126304986717</v>
+      </c>
+      <c r="X3" t="inlineStr"/>
+      <c r="Y3" t="inlineStr"/>
+      <c r="Z3" t="n">
+        <v>7.830530422518848</v>
+      </c>
+      <c r="AA3" t="inlineStr"/>
+      <c r="AB3" t="inlineStr"/>
       <c r="AC3" t="n">
-        <v>7.646194777661571</v>
+        <v>7.551649534865954</v>
       </c>
       <c r="AD3" t="n">
-        <v>7.922132375290451</v>
+        <v>6.540994835509429</v>
       </c>
       <c r="AE3" t="n">
-        <v>7.172012435490998</v>
+        <v>6.681070402295684</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.539685455872357</v>
+        <v>6.632166209059823</v>
       </c>
       <c r="AG3" t="n">
-        <v>6.255247931453159</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>6.228330255551135</v>
-      </c>
+        <v>3.732389565009188</v>
+      </c>
+      <c r="AH3" t="inlineStr"/>
       <c r="AI3" t="n">
-        <v>1.945443838079611</v>
-      </c>
-      <c r="AJ3" t="inlineStr"/>
+        <v>5.578798677288393</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>7.361465132482224</v>
+      </c>
       <c r="AK3" t="n">
-        <v>4.772106751893916</v>
+        <v>6.089151805281328</v>
       </c>
       <c r="AL3" t="n">
-        <v>7.868856882667588</v>
+        <v>5.171514441325853</v>
       </c>
       <c r="AM3" t="n">
-        <v>5.571721915896892</v>
+        <v>2.527127276054172</v>
       </c>
       <c r="AN3" t="n">
-        <v>4.791079162769123</v>
+        <v>3.12130656886058</v>
       </c>
       <c r="AO3" t="n">
-        <v>2.354078616995535</v>
+        <v>6.290819352426952</v>
       </c>
       <c r="AP3" t="n">
-        <v>1.114473112463049</v>
+        <v>4.629798437845892</v>
       </c>
       <c r="AQ3" t="n">
-        <v>5.227635358271483</v>
+        <v>5.684558612088227</v>
       </c>
       <c r="AR3" t="n">
-        <v>3.821478118189038</v>
-      </c>
-      <c r="AS3" t="n">
-        <v>5.98684757237056</v>
-      </c>
-      <c r="AT3" t="n">
-        <v>3.943725061786961</v>
-      </c>
-      <c r="AU3" t="inlineStr"/>
-      <c r="AV3" t="n">
-        <v>5.875280525859243</v>
-      </c>
+        <v>4.674900121571088</v>
+      </c>
+      <c r="AS3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>亳州谯城</t>
+          <t>蚌埠禹会</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3.653553627079105</v>
+        <v>5.875280525859243</v>
       </c>
       <c r="C4" t="n">
-        <v>3.019136394379814</v>
+        <v>2.125058257303821</v>
       </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="n">
-        <v>7.940477433755038</v>
+        <v>4.92173007993976</v>
       </c>
       <c r="F4" t="n">
-        <v>7.967082852452721</v>
+        <v>4.949964399892869</v>
       </c>
       <c r="G4" t="n">
-        <v>4.866514795921201</v>
+        <v>1.849045782106494</v>
       </c>
       <c r="H4" t="n">
-        <v>0.8014461154570504</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
+        <v>5.668258119767196</v>
+      </c>
+      <c r="I4" t="n">
+        <v>5.798626035474665</v>
+      </c>
+      <c r="J4" t="n">
+        <v>5.926247351907148</v>
+      </c>
+      <c r="K4" t="n">
+        <v>5.904258859025926</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.9206596965890684</v>
+      </c>
       <c r="M4" t="n">
-        <v>3.544032382953758</v>
+        <v>0.9357628272226061</v>
       </c>
       <c r="N4" t="n">
-        <v>3.216035089037263</v>
-      </c>
-      <c r="O4" t="inlineStr"/>
+        <v>5.459959112847599</v>
+      </c>
+      <c r="O4" t="n">
+        <v>3.145582019603364</v>
+      </c>
       <c r="P4" t="n">
-        <v>6.012619033777311</v>
+        <v>0.6542635330757853</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.52157365054069</v>
+        <v>3.328059896765971</v>
       </c>
       <c r="R4" t="n">
-        <v>5.890603634492003</v>
-      </c>
-      <c r="S4" t="inlineStr"/>
-      <c r="T4" t="inlineStr"/>
-      <c r="U4" t="inlineStr"/>
+        <v>6.516414725920055</v>
+      </c>
+      <c r="S4" t="n">
+        <v>5.32649462031328</v>
+      </c>
+      <c r="T4" t="n">
+        <v>6.192519552646664</v>
+      </c>
+      <c r="U4" t="n">
+        <v>3.593988227676602</v>
+      </c>
       <c r="V4" t="n">
-        <v>6.240034689144077</v>
+        <v>2.885133656619508</v>
       </c>
       <c r="W4" t="n">
-        <v>5.902073761038287</v>
-      </c>
-      <c r="X4" t="n">
-        <v>5.199164729275788</v>
-      </c>
-      <c r="Y4" t="inlineStr"/>
-      <c r="Z4" t="inlineStr"/>
-      <c r="AA4" t="inlineStr"/>
-      <c r="AB4" t="inlineStr"/>
-      <c r="AC4" t="inlineStr"/>
-      <c r="AD4" t="inlineStr"/>
-      <c r="AE4" t="inlineStr"/>
-      <c r="AF4" t="inlineStr"/>
-      <c r="AG4" t="inlineStr"/>
+        <v>7.671717148843906</v>
+      </c>
+      <c r="X4" t="inlineStr"/>
+      <c r="Y4" t="n">
+        <v>7.789714803699174</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>7.38659137330782</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>7.646194777661571</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>7.922132375290451</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>7.172012435490998</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>6.539685455872357</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>6.255247931453159</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>6.228330255551135</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>1.945443838079611</v>
+      </c>
       <c r="AH4" t="inlineStr"/>
       <c r="AI4" t="n">
-        <v>4.655701027661277</v>
-      </c>
-      <c r="AJ4" t="inlineStr"/>
+        <v>4.772106751893916</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>7.868856882667588</v>
+      </c>
       <c r="AK4" t="n">
-        <v>7.765029035399036</v>
-      </c>
-      <c r="AL4" t="inlineStr"/>
-      <c r="AM4" t="inlineStr"/>
+        <v>5.571721915896892</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>4.791079162769123</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>2.354078616995535</v>
+      </c>
       <c r="AN4" t="n">
-        <v>7.807160356017849</v>
+        <v>1.114473112463049</v>
       </c>
       <c r="AO4" t="n">
-        <v>5.269017384910742</v>
+        <v>5.227635358271483</v>
       </c>
       <c r="AP4" t="n">
-        <v>2.616045404677608</v>
-      </c>
-      <c r="AQ4" t="inlineStr"/>
+        <v>3.821478118189038</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>5.98684757237056</v>
+      </c>
       <c r="AR4" t="n">
-        <v>6.828218637452795</v>
+        <v>3.943725061786961</v>
       </c>
       <c r="AS4" t="inlineStr"/>
-      <c r="AT4" t="n">
-        <v>6.956691358574742</v>
-      </c>
-      <c r="AU4" t="inlineStr"/>
-      <c r="AV4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -1052,13 +1060,13 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>0.9537006077431388</v>
+      </c>
+      <c r="C5" t="n">
         <v>5.44251844154606</v>
       </c>
-      <c r="C5" t="n">
+      <c r="D5" t="n">
         <v>4.92173007993976</v>
-      </c>
-      <c r="D5" t="n">
-        <v>7.940477433755038</v>
       </c>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="n">
@@ -1068,125 +1076,118 @@
         <v>3.080845005877781</v>
       </c>
       <c r="H5" t="n">
-        <v>7.731958871758311</v>
+        <v>1.333787786391752</v>
       </c>
       <c r="I5" t="n">
-        <v>1.333787786391752</v>
+        <v>1.426354549437325</v>
       </c>
       <c r="J5" t="n">
-        <v>1.426354549437325</v>
+        <v>1.530151455886214</v>
       </c>
       <c r="K5" t="n">
-        <v>1.530151455886214</v>
+        <v>1.364355135737691</v>
       </c>
       <c r="L5" t="n">
-        <v>1.364355135737691</v>
+        <v>4.582609689993129</v>
       </c>
       <c r="M5" t="n">
-        <v>4.582609689993129</v>
+        <v>4.971086607869094</v>
       </c>
       <c r="N5" t="n">
-        <v>4.971086607869094</v>
+        <v>0.852636455179353</v>
       </c>
       <c r="O5" t="n">
-        <v>0.852636455179353</v>
+        <v>2.430230530841861</v>
       </c>
       <c r="P5" t="n">
-        <v>2.430230530841861</v>
+        <v>5.469908192968647</v>
       </c>
       <c r="Q5" t="n">
-        <v>5.469908192968647</v>
+        <v>3.479855052647222</v>
       </c>
       <c r="R5" t="n">
-        <v>3.479855052647222</v>
+        <v>1.668514800197433</v>
       </c>
       <c r="S5" t="n">
-        <v>1.668514800197433</v>
+        <v>2.493220657895649</v>
       </c>
       <c r="T5" t="n">
-        <v>2.493220657895649</v>
+        <v>3.009783995781592</v>
       </c>
       <c r="U5" t="n">
-        <v>3.009783995781592</v>
+        <v>3.021283874791314</v>
       </c>
       <c r="V5" t="n">
-        <v>3.021283874791314</v>
+        <v>2.056068091602336</v>
       </c>
       <c r="W5" t="n">
-        <v>2.056068091602336</v>
-      </c>
-      <c r="X5" t="inlineStr"/>
+        <v>2.847230946913237</v>
+      </c>
+      <c r="X5" t="n">
+        <v>3.469114427185252</v>
+      </c>
       <c r="Y5" t="n">
-        <v>2.847230946913237</v>
+        <v>2.880033377757848</v>
       </c>
       <c r="Z5" t="n">
-        <v>3.469114427185252</v>
+        <v>2.471182669124586</v>
       </c>
       <c r="AA5" t="n">
-        <v>2.880033377757848</v>
+        <v>2.724486365610104</v>
       </c>
       <c r="AB5" t="n">
-        <v>2.471182669124586</v>
+        <v>3.003749980865141</v>
       </c>
       <c r="AC5" t="n">
-        <v>2.724486365610104</v>
+        <v>2.250650884200665</v>
       </c>
       <c r="AD5" t="n">
-        <v>3.003749980865141</v>
+        <v>1.990060166041502</v>
       </c>
       <c r="AE5" t="n">
-        <v>2.250650884200665</v>
+        <v>1.333780534404241</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.990060166041502</v>
+        <v>1.30979446503718</v>
       </c>
       <c r="AG5" t="n">
-        <v>1.333780534404241</v>
+        <v>3.66660037254168</v>
       </c>
       <c r="AH5" t="n">
-        <v>1.30979446503718</v>
+        <v>3.991242524178967</v>
       </c>
       <c r="AI5" t="n">
-        <v>3.66660037254168</v>
+        <v>0.7318830115647861</v>
       </c>
       <c r="AJ5" t="n">
-        <v>3.991242524178967</v>
+        <v>3.913127286266713</v>
       </c>
       <c r="AK5" t="n">
-        <v>0.7318830115647861</v>
+        <v>0.6601107919530182</v>
       </c>
       <c r="AL5" t="n">
-        <v>3.913127286266713</v>
+        <v>0.3996073850559351</v>
       </c>
       <c r="AM5" t="n">
-        <v>0.6601107919530182</v>
+        <v>2.930332334554974</v>
       </c>
       <c r="AN5" t="n">
-        <v>0.3996073850559351</v>
+        <v>5.567781136038186</v>
       </c>
       <c r="AO5" t="n">
-        <v>2.930332334554974</v>
+        <v>1.610908442101419</v>
       </c>
       <c r="AP5" t="n">
-        <v>5.567781136038186</v>
+        <v>1.183885444681833</v>
       </c>
       <c r="AQ5" t="n">
-        <v>1.610908442101419</v>
+        <v>2.233393299347</v>
       </c>
       <c r="AR5" t="n">
-        <v>1.183885444681833</v>
+        <v>1.018481894150803</v>
       </c>
       <c r="AS5" t="n">
-        <v>2.233393299347</v>
-      </c>
-      <c r="AT5" t="n">
-        <v>1.018481894150803</v>
-      </c>
-      <c r="AU5" t="n">
         <v>4.320140786011478</v>
-      </c>
-      <c r="AV5" t="n">
-        <v>0.9537006077431388</v>
       </c>
     </row>
     <row r="6">
@@ -1196,13 +1197,13 @@
         </is>
       </c>
       <c r="B6" t="n">
+        <v>0.9334751873927306</v>
+      </c>
+      <c r="C6" t="n">
         <v>5.518224394091405</v>
       </c>
-      <c r="C6" t="n">
+      <c r="D6" t="n">
         <v>4.949964399892869</v>
-      </c>
-      <c r="D6" t="n">
-        <v>7.967082852452721</v>
       </c>
       <c r="E6" t="n">
         <v>0.1313268511828129</v>
@@ -1212,125 +1213,118 @@
         <v>3.115715241367772</v>
       </c>
       <c r="H6" t="n">
-        <v>7.771131954686513</v>
+        <v>1.437562118652151</v>
       </c>
       <c r="I6" t="n">
-        <v>1.437562118652151</v>
+        <v>1.524564451431469</v>
       </c>
       <c r="J6" t="n">
-        <v>1.524564451431469</v>
+        <v>1.623679524375172</v>
       </c>
       <c r="K6" t="n">
-        <v>1.623679524375172</v>
+        <v>1.448098905272096</v>
       </c>
       <c r="L6" t="n">
-        <v>1.448098905272096</v>
+        <v>4.633434029050956</v>
       </c>
       <c r="M6" t="n">
-        <v>4.633434029050956</v>
+        <v>5.022838131012763</v>
       </c>
       <c r="N6" t="n">
-        <v>5.022838131012763</v>
+        <v>0.9469875022535608</v>
       </c>
       <c r="O6" t="n">
-        <v>0.9469875022535608</v>
+        <v>2.387256181677335</v>
       </c>
       <c r="P6" t="n">
-        <v>2.387256181677335</v>
+        <v>5.506712330970193</v>
       </c>
       <c r="Q6" t="n">
-        <v>5.506712330970193</v>
+        <v>3.587158459625996</v>
       </c>
       <c r="R6" t="n">
-        <v>3.587158459625996</v>
+        <v>1.692006517254472</v>
       </c>
       <c r="S6" t="n">
-        <v>1.692006517254472</v>
+        <v>2.62365766970504</v>
       </c>
       <c r="T6" t="n">
-        <v>2.62365766970504</v>
+        <v>3.132321252947434</v>
       </c>
       <c r="U6" t="n">
-        <v>3.132321252947434</v>
+        <v>2.948043018432374</v>
       </c>
       <c r="V6" t="n">
-        <v>2.948043018432375</v>
+        <v>2.099727970377457</v>
       </c>
       <c r="W6" t="n">
-        <v>2.099727970377457</v>
-      </c>
-      <c r="X6" t="inlineStr"/>
+        <v>2.866574968485057</v>
+      </c>
+      <c r="X6" t="n">
+        <v>3.489369386838293</v>
+      </c>
       <c r="Y6" t="n">
-        <v>2.866574968485057</v>
+        <v>2.841603707827563</v>
       </c>
       <c r="Z6" t="n">
-        <v>3.489369386838293</v>
+        <v>2.43670950454879</v>
       </c>
       <c r="AA6" t="n">
-        <v>2.841603707827563</v>
+        <v>2.70034055754518</v>
       </c>
       <c r="AB6" t="n">
-        <v>2.43670950454879</v>
+        <v>2.972238707089848</v>
       </c>
       <c r="AC6" t="n">
-        <v>2.70034055754518</v>
+        <v>2.230643812830885</v>
       </c>
       <c r="AD6" t="n">
-        <v>2.972238707089848</v>
+        <v>2.059268757524075</v>
       </c>
       <c r="AE6" t="n">
-        <v>2.230643812830885</v>
+        <v>1.316452439119677</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.059268757524075</v>
+        <v>1.299955427513849</v>
       </c>
       <c r="AG6" t="n">
-        <v>1.316452439119677</v>
+        <v>3.649530304470188</v>
       </c>
       <c r="AH6" t="n">
-        <v>1.299955427513849</v>
+        <v>4.044719514220331</v>
       </c>
       <c r="AI6" t="n">
-        <v>3.649530304470188</v>
+        <v>0.6185883635211837</v>
       </c>
       <c r="AJ6" t="n">
-        <v>4.044719514220331</v>
+        <v>4.003497642853453</v>
       </c>
       <c r="AK6" t="n">
-        <v>0.6185883635211837</v>
+        <v>0.6221116975282154</v>
       </c>
       <c r="AL6" t="n">
-        <v>4.003497642853453</v>
+        <v>0.5295408785998366</v>
       </c>
       <c r="AM6" t="n">
-        <v>0.6221116975282154</v>
+        <v>2.999509426256644</v>
       </c>
       <c r="AN6" t="n">
-        <v>0.5295408785998366</v>
+        <v>5.573254285500265</v>
       </c>
       <c r="AO6" t="n">
-        <v>2.999509426256644</v>
+        <v>1.481675602417276</v>
       </c>
       <c r="AP6" t="n">
-        <v>5.573254285500265</v>
+        <v>1.174465512165618</v>
       </c>
       <c r="AQ6" t="n">
-        <v>1.481675602417276</v>
+        <v>2.348869211536295</v>
       </c>
       <c r="AR6" t="n">
-        <v>1.174465512165618</v>
+        <v>1.020549902624575</v>
       </c>
       <c r="AS6" t="n">
-        <v>2.348869211536295</v>
-      </c>
-      <c r="AT6" t="n">
-        <v>1.020549902624575</v>
-      </c>
-      <c r="AU6" t="n">
         <v>4.318821375395948</v>
-      </c>
-      <c r="AV6" t="n">
-        <v>0.9334751873927306</v>
       </c>
     </row>
     <row r="7">
@@ -1340,13 +1334,13 @@
         </is>
       </c>
       <c r="B7" t="n">
+        <v>4.034314552626756</v>
+      </c>
+      <c r="C7" t="n">
         <v>2.771823953689807</v>
       </c>
-      <c r="C7" t="n">
+      <c r="D7" t="n">
         <v>1.849045782106494</v>
-      </c>
-      <c r="D7" t="n">
-        <v>4.866514795921201</v>
       </c>
       <c r="E7" t="n">
         <v>3.080845005877781</v>
@@ -1356,5742 +1350,5227 @@
       </c>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="n">
-        <v>4.656656141713589</v>
+        <v>3.844248229855619</v>
       </c>
       <c r="I7" t="n">
-        <v>3.844248229855619</v>
+        <v>3.974834607836576</v>
       </c>
       <c r="J7" t="n">
-        <v>3.974834607836576</v>
+        <v>4.103372371717034</v>
       </c>
       <c r="K7" t="n">
-        <v>4.103372371717034</v>
+        <v>4.069066834722143</v>
       </c>
       <c r="L7" t="n">
-        <v>4.069066834722143</v>
+        <v>1.58611082762462</v>
       </c>
       <c r="M7" t="n">
-        <v>1.58611082762462</v>
+        <v>1.973054900301166</v>
       </c>
       <c r="N7" t="n">
-        <v>1.973054900301166</v>
+        <v>3.614894223139828</v>
       </c>
       <c r="O7" t="n">
-        <v>3.614894223139828</v>
+        <v>1.760707959056027</v>
       </c>
       <c r="P7" t="n">
-        <v>1.760707959056027</v>
+        <v>2.391143577455042</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.391143577455042</v>
+        <v>2.272054777866385</v>
       </c>
       <c r="R7" t="n">
-        <v>2.272054777866385</v>
+        <v>4.667568260211089</v>
       </c>
       <c r="S7" t="n">
-        <v>4.667568260211089</v>
+        <v>3.705860958209534</v>
       </c>
       <c r="T7" t="n">
-        <v>3.705860958209534</v>
+        <v>4.572202747892516</v>
       </c>
       <c r="U7" t="n">
-        <v>4.572202747892516</v>
+        <v>2.538588958143554</v>
       </c>
       <c r="V7" t="n">
-        <v>2.538588958143554</v>
+        <v>1.036088917240697</v>
       </c>
       <c r="W7" t="n">
-        <v>1.036088917240697</v>
+        <v>5.825234740231869</v>
       </c>
       <c r="X7" t="n">
-        <v>7.186809139044118</v>
+        <v>6.429715384057735</v>
       </c>
       <c r="Y7" t="n">
-        <v>5.825234740231869</v>
+        <v>5.957169840838548</v>
       </c>
       <c r="Z7" t="n">
-        <v>6.429715384057735</v>
+        <v>5.550755001580852</v>
       </c>
       <c r="AA7" t="n">
-        <v>5.957169840838548</v>
+        <v>5.804197045954506</v>
       </c>
       <c r="AB7" t="n">
-        <v>5.550755001580852</v>
+        <v>6.084416371196066</v>
       </c>
       <c r="AC7" t="n">
-        <v>5.804197045954506</v>
+        <v>5.328626842506878</v>
       </c>
       <c r="AD7" t="n">
-        <v>6.084416371196066</v>
+        <v>4.712460308201176</v>
       </c>
       <c r="AE7" t="n">
-        <v>5.328626842506878</v>
+        <v>4.412539482439512</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.712460308201176</v>
+        <v>4.38367104042656</v>
       </c>
       <c r="AG7" t="n">
-        <v>4.412539482439512</v>
+        <v>1.447159877495956</v>
       </c>
       <c r="AH7" t="n">
-        <v>4.38367104042656</v>
+        <v>6.705066170973562</v>
       </c>
       <c r="AI7" t="n">
-        <v>1.447159877495956</v>
+        <v>2.996419289988744</v>
       </c>
       <c r="AJ7" t="n">
-        <v>6.705066170973562</v>
+        <v>6.158608802988837</v>
       </c>
       <c r="AK7" t="n">
-        <v>2.996419289988744</v>
+        <v>3.735474522598292</v>
       </c>
       <c r="AL7" t="n">
-        <v>6.158608802988837</v>
+        <v>2.94205187642083</v>
       </c>
       <c r="AM7" t="n">
-        <v>3.735474522598292</v>
+        <v>0.8740650494184389</v>
       </c>
       <c r="AN7" t="n">
-        <v>2.94205187642083</v>
+        <v>2.645554341412951</v>
       </c>
       <c r="AO7" t="n">
-        <v>0.8740650494184389</v>
+        <v>3.58439843118022</v>
       </c>
       <c r="AP7" t="n">
-        <v>2.645554341412951</v>
+        <v>2.026497080733349</v>
       </c>
       <c r="AQ7" t="n">
-        <v>3.58439843118022</v>
+        <v>4.24762397023258</v>
       </c>
       <c r="AR7" t="n">
-        <v>2.026497080733349</v>
+        <v>2.127919846021523</v>
       </c>
       <c r="AS7" t="n">
-        <v>4.24762397023258</v>
-      </c>
-      <c r="AT7" t="n">
-        <v>2.127919846021523</v>
-      </c>
-      <c r="AU7" t="n">
         <v>7.35629480984621</v>
-      </c>
-      <c r="AV7" t="n">
-        <v>4.034314552626756</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>阜阳颍州</t>
+          <t>杭州拱墅</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3.040147842505698</v>
+        <v>1.242959028967368</v>
       </c>
       <c r="C8" t="n">
-        <v>2.865810299976583</v>
+        <v>5.711958939766202</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8014461154570504</v>
+        <v>5.668258119767196</v>
       </c>
       <c r="E8" t="n">
-        <v>7.731958871758311</v>
+        <v>1.333787786391752</v>
       </c>
       <c r="F8" t="n">
-        <v>7.771131954686513</v>
+        <v>1.437562118652151</v>
       </c>
       <c r="G8" t="n">
-        <v>4.656656141713589</v>
+        <v>3.844248229855619</v>
       </c>
       <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
+      <c r="I8" t="n">
+        <v>0.1305887759618449</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.2592973012383402</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.306514632661038</v>
+      </c>
+      <c r="L8" t="n">
+        <v>5.142944429708958</v>
+      </c>
       <c r="M8" t="n">
-        <v>3.193915821273361</v>
+        <v>5.510142507466024</v>
       </c>
       <c r="N8" t="n">
-        <v>2.826988718606301</v>
-      </c>
-      <c r="O8" t="inlineStr"/>
+        <v>0.5013344296639587</v>
+      </c>
+      <c r="O8" t="n">
+        <v>3.64729425968771</v>
+      </c>
       <c r="P8" t="n">
-        <v>5.987921818461557</v>
+        <v>6.132172007079593</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.266671068724649</v>
+        <v>3.396326302390994</v>
       </c>
       <c r="R8" t="n">
-        <v>5.391535427129084</v>
-      </c>
-      <c r="S8" t="inlineStr"/>
+        <v>1.1299676371657</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1.547536859780318</v>
+      </c>
       <c r="T8" t="n">
-        <v>7.698303259944445</v>
-      </c>
-      <c r="U8" t="inlineStr"/>
+        <v>1.788967940075971</v>
+      </c>
+      <c r="U8" t="n">
+        <v>4.320973867955511</v>
+      </c>
       <c r="V8" t="n">
-        <v>6.326681550390608</v>
+        <v>2.835894221686654</v>
       </c>
       <c r="W8" t="n">
-        <v>5.676170005622988</v>
+        <v>2.088478081738976</v>
       </c>
       <c r="X8" t="n">
-        <v>5.963820495086582</v>
-      </c>
-      <c r="Y8" t="inlineStr"/>
-      <c r="Z8" t="inlineStr"/>
-      <c r="AA8" t="inlineStr"/>
-      <c r="AB8" t="inlineStr"/>
-      <c r="AC8" t="inlineStr"/>
-      <c r="AD8" t="inlineStr"/>
-      <c r="AE8" t="inlineStr"/>
-      <c r="AF8" t="inlineStr"/>
-      <c r="AG8" t="inlineStr"/>
-      <c r="AH8" t="inlineStr"/>
+        <v>2.648208112752703</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>2.700361231523179</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>2.308884927613819</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>2.416901558114508</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>2.737201695279448</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>1.981609121879635</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>0.8719681886412812</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>1.35177875488146</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>1.275220714921623</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>4.742245474344866</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>2.872427637832782</v>
+      </c>
       <c r="AI8" t="n">
-        <v>4.689831983127175</v>
-      </c>
-      <c r="AJ8" t="inlineStr"/>
+        <v>2.055621349518697</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>2.597604946732942</v>
+      </c>
       <c r="AK8" t="n">
-        <v>7.628986679145592</v>
-      </c>
-      <c r="AL8" t="inlineStr"/>
-      <c r="AM8" t="inlineStr"/>
+        <v>1.302348810131232</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>1.113992334818136</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>3.400000651096501</v>
+      </c>
       <c r="AN8" t="n">
-        <v>7.561991384964504</v>
+        <v>6.471234258310188</v>
       </c>
       <c r="AO8" t="n">
-        <v>4.93605862715502</v>
+        <v>2.847412949258052</v>
       </c>
       <c r="AP8" t="n">
-        <v>2.771847095147041</v>
-      </c>
-      <c r="AQ8" t="inlineStr"/>
+        <v>2.341380632947291</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>0.9510628283476812</v>
+      </c>
       <c r="AR8" t="n">
-        <v>6.669589501247534</v>
-      </c>
-      <c r="AS8" t="inlineStr"/>
-      <c r="AT8" t="n">
-        <v>6.781656206082317</v>
-      </c>
-      <c r="AU8" t="inlineStr"/>
-      <c r="AV8" t="inlineStr"/>
+        <v>2.155041027059594</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>3.652341507829979</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>杭州拱墅</t>
+          <t>杭州江干</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>5.711958939766202</v>
+        <v>1.249635911018254</v>
       </c>
       <c r="C9" t="n">
-        <v>5.668258119767196</v>
-      </c>
-      <c r="D9" t="inlineStr"/>
+        <v>5.830666921314815</v>
+      </c>
+      <c r="D9" t="n">
+        <v>5.798626035474665</v>
+      </c>
       <c r="E9" t="n">
-        <v>1.333787786391752</v>
+        <v>1.426354549437325</v>
       </c>
       <c r="F9" t="n">
-        <v>1.437562118652151</v>
+        <v>1.524564451431469</v>
       </c>
       <c r="G9" t="n">
-        <v>3.844248229855619</v>
-      </c>
-      <c r="H9" t="inlineStr"/>
+        <v>3.974834607836576</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.1305887759618449</v>
+      </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="n">
-        <v>0.1305887759618449</v>
+        <v>0.1289619971799695</v>
       </c>
       <c r="K9" t="n">
-        <v>0.2592973012383402</v>
+        <v>0.2311215286930505</v>
       </c>
       <c r="L9" t="n">
-        <v>0.306514632661038</v>
+        <v>5.271018083766782</v>
       </c>
       <c r="M9" t="n">
-        <v>5.142944429708958</v>
+        <v>5.637539643885174</v>
       </c>
       <c r="N9" t="n">
-        <v>5.510142507466024</v>
+        <v>0.5782249301107593</v>
       </c>
       <c r="O9" t="n">
-        <v>0.5013344296639587</v>
+        <v>3.763732503074869</v>
       </c>
       <c r="P9" t="n">
-        <v>3.64729425968771</v>
+        <v>6.261560010755812</v>
       </c>
       <c r="Q9" t="n">
-        <v>6.132172007079593</v>
+        <v>3.503386424974458</v>
       </c>
       <c r="R9" t="n">
-        <v>3.396326302390994</v>
+        <v>1.04776929860225</v>
       </c>
       <c r="S9" t="n">
-        <v>1.1299676371657</v>
+        <v>1.590949036407951</v>
       </c>
       <c r="T9" t="n">
-        <v>1.547536859780318</v>
+        <v>1.766583937809693</v>
       </c>
       <c r="U9" t="n">
-        <v>1.788967940075971</v>
+        <v>4.427307000246259</v>
       </c>
       <c r="V9" t="n">
-        <v>4.320973867955511</v>
+        <v>2.966100390566762</v>
       </c>
       <c r="W9" t="n">
-        <v>2.835894221686654</v>
-      </c>
-      <c r="X9" t="inlineStr"/>
+        <v>1.968491032057929</v>
+      </c>
+      <c r="X9" t="n">
+        <v>2.522847967609413</v>
+      </c>
       <c r="Y9" t="n">
-        <v>2.088478081738976</v>
+        <v>2.617218799155479</v>
       </c>
       <c r="Z9" t="n">
-        <v>2.648208112752703</v>
+        <v>2.231917995157105</v>
       </c>
       <c r="AA9" t="n">
-        <v>2.700361231523179</v>
+        <v>2.326308324376391</v>
       </c>
       <c r="AB9" t="n">
-        <v>2.308884927613819</v>
+        <v>2.646713592708058</v>
       </c>
       <c r="AC9" t="n">
-        <v>2.416901558114508</v>
+        <v>1.90057746071155</v>
       </c>
       <c r="AD9" t="n">
-        <v>2.737201695279448</v>
+        <v>0.7420960934406765</v>
       </c>
       <c r="AE9" t="n">
-        <v>1.981609121879635</v>
+        <v>1.320954834387602</v>
       </c>
       <c r="AF9" t="n">
-        <v>0.8719681886412812</v>
+        <v>1.24327229077806</v>
       </c>
       <c r="AG9" t="n">
-        <v>1.35177875488146</v>
+        <v>4.868131769230489</v>
       </c>
       <c r="AH9" t="n">
-        <v>1.275220714921623</v>
+        <v>2.742906137558017</v>
       </c>
       <c r="AI9" t="n">
-        <v>4.742245474344866</v>
+        <v>2.140230817658508</v>
       </c>
       <c r="AJ9" t="n">
-        <v>2.872427637832782</v>
+        <v>2.491940883951944</v>
       </c>
       <c r="AK9" t="n">
-        <v>2.055621349518697</v>
+        <v>1.340423587847551</v>
       </c>
       <c r="AL9" t="n">
-        <v>2.597604946732942</v>
+        <v>1.227699543153975</v>
       </c>
       <c r="AM9" t="n">
-        <v>1.302348810131232</v>
+        <v>3.528019625547971</v>
       </c>
       <c r="AN9" t="n">
-        <v>1.113992334818136</v>
+        <v>6.601519052220143</v>
       </c>
       <c r="AO9" t="n">
-        <v>3.400000651096501</v>
+        <v>2.908888007654054</v>
       </c>
       <c r="AP9" t="n">
-        <v>6.471234258310188</v>
+        <v>2.458894781756903</v>
       </c>
       <c r="AQ9" t="n">
-        <v>2.847412949258052</v>
+        <v>0.9180731187291846</v>
       </c>
       <c r="AR9" t="n">
-        <v>2.341380632947291</v>
+        <v>2.272811895498166</v>
       </c>
       <c r="AS9" t="n">
-        <v>0.9510628283476812</v>
-      </c>
-      <c r="AT9" t="n">
-        <v>2.155041027059594</v>
-      </c>
-      <c r="AU9" t="n">
-        <v>3.652341507829979</v>
-      </c>
-      <c r="AV9" t="n">
-        <v>1.242959028967368</v>
+        <v>3.531471950229228</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>杭州江干</t>
+          <t>杭州萧山</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5.830666921314815</v>
+        <v>1.280495457777474</v>
       </c>
       <c r="C10" t="n">
-        <v>5.798626035474665</v>
-      </c>
-      <c r="D10" t="inlineStr"/>
+        <v>5.943329181270659</v>
+      </c>
+      <c r="D10" t="n">
+        <v>5.926247351907148</v>
+      </c>
       <c r="E10" t="n">
-        <v>1.426354549437325</v>
+        <v>1.530151455886214</v>
       </c>
       <c r="F10" t="n">
-        <v>1.524564451431469</v>
+        <v>1.623679524375172</v>
       </c>
       <c r="G10" t="n">
-        <v>3.974834607836576</v>
-      </c>
-      <c r="H10" t="inlineStr"/>
+        <v>4.103372371717034</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.2592973012383402</v>
+      </c>
       <c r="I10" t="n">
-        <v>0.1305887759618449</v>
+        <v>0.1289619971799695</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="n">
-        <v>0.1289619971799695</v>
+        <v>0.2275938423024963</v>
       </c>
       <c r="L10" t="n">
-        <v>0.2311215286930505</v>
+        <v>5.394986271261294</v>
       </c>
       <c r="M10" t="n">
-        <v>5.271018083766782</v>
+        <v>5.760589022127273</v>
       </c>
       <c r="N10" t="n">
-        <v>5.637539643885174</v>
+        <v>0.677691402792689</v>
       </c>
       <c r="O10" t="n">
-        <v>0.5782249301107593</v>
+        <v>3.884086917673003</v>
       </c>
       <c r="P10" t="n">
-        <v>3.763732503074869</v>
+        <v>6.387400801195356</v>
       </c>
       <c r="Q10" t="n">
-        <v>6.261560010755812</v>
+        <v>3.603994868370435</v>
       </c>
       <c r="R10" t="n">
-        <v>3.503386424974458</v>
+        <v>0.9871024518074221</v>
       </c>
       <c r="S10" t="n">
-        <v>1.04776929860225</v>
+        <v>1.632445448459141</v>
       </c>
       <c r="T10" t="n">
-        <v>1.590949036407951</v>
+        <v>1.742434696378482</v>
       </c>
       <c r="U10" t="n">
-        <v>1.766583937809693</v>
+        <v>4.539528313061776</v>
       </c>
       <c r="V10" t="n">
-        <v>4.427307000246259</v>
+        <v>3.095051070925799</v>
       </c>
       <c r="W10" t="n">
-        <v>2.966100390566762</v>
-      </c>
-      <c r="X10" t="inlineStr"/>
+        <v>1.856809243834946</v>
+      </c>
+      <c r="X10" t="n">
+        <v>2.403535980470653</v>
+      </c>
       <c r="Y10" t="n">
-        <v>1.968491032057929</v>
+        <v>2.548529636153031</v>
       </c>
       <c r="Z10" t="n">
-        <v>2.522847967609413</v>
+        <v>2.170902407353204</v>
       </c>
       <c r="AA10" t="n">
-        <v>2.617218799155479</v>
+        <v>2.249733373131832</v>
       </c>
       <c r="AB10" t="n">
-        <v>2.231917995157105</v>
+        <v>2.569716873819826</v>
       </c>
       <c r="AC10" t="n">
-        <v>2.326308324376391</v>
+        <v>1.835971608462423</v>
       </c>
       <c r="AD10" t="n">
-        <v>2.646713592708058</v>
+        <v>0.6163010677207208</v>
       </c>
       <c r="AE10" t="n">
-        <v>1.90057746071155</v>
+        <v>1.314085440351047</v>
       </c>
       <c r="AF10" t="n">
-        <v>0.7420960934406765</v>
+        <v>1.236020344323488</v>
       </c>
       <c r="AG10" t="n">
-        <v>1.320954834387602</v>
+        <v>4.995126259220478</v>
       </c>
       <c r="AH10" t="n">
-        <v>1.24327229077806</v>
+        <v>2.614066566401052</v>
       </c>
       <c r="AI10" t="n">
-        <v>4.868131769230489</v>
+        <v>2.235973977747959</v>
       </c>
       <c r="AJ10" t="n">
-        <v>2.742906137558017</v>
+        <v>2.383301528389323</v>
       </c>
       <c r="AK10" t="n">
-        <v>2.140230817658508</v>
+        <v>1.39923826426589</v>
       </c>
       <c r="AL10" t="n">
-        <v>2.491940883951944</v>
+        <v>1.347466607638822</v>
       </c>
       <c r="AM10" t="n">
-        <v>1.340423587847551</v>
+        <v>3.652014457973057</v>
       </c>
       <c r="AN10" t="n">
-        <v>1.227699543153975</v>
+        <v>6.730453607941351</v>
       </c>
       <c r="AO10" t="n">
-        <v>3.528019625547971</v>
+        <v>2.983442930068868</v>
       </c>
       <c r="AP10" t="n">
-        <v>6.601519052220143</v>
+        <v>2.58036705773074</v>
       </c>
       <c r="AQ10" t="n">
-        <v>2.908888007654054</v>
+        <v>0.8916657007792644</v>
       </c>
       <c r="AR10" t="n">
-        <v>2.458894781756903</v>
+        <v>2.394538844385724</v>
       </c>
       <c r="AS10" t="n">
-        <v>0.9180731187291846</v>
-      </c>
-      <c r="AT10" t="n">
-        <v>2.272811895498166</v>
-      </c>
-      <c r="AU10" t="n">
-        <v>3.531471950229228</v>
-      </c>
-      <c r="AV10" t="n">
-        <v>1.249635911018254</v>
+        <v>3.417823282712178</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>杭州萧山</t>
+          <t>杭州余杭</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>5.943329181270659</v>
+        <v>1.053045290342948</v>
       </c>
       <c r="C11" t="n">
-        <v>5.926247351907148</v>
-      </c>
-      <c r="D11" t="inlineStr"/>
+        <v>6.00243974407524</v>
+      </c>
+      <c r="D11" t="n">
+        <v>5.904258859025926</v>
+      </c>
       <c r="E11" t="n">
-        <v>1.530151455886214</v>
+        <v>1.364355135737691</v>
       </c>
       <c r="F11" t="n">
-        <v>1.623679524375172</v>
+        <v>1.448098905272096</v>
       </c>
       <c r="G11" t="n">
-        <v>4.103372371717034</v>
-      </c>
-      <c r="H11" t="inlineStr"/>
+        <v>4.069066834722143</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.306514632661038</v>
+      </c>
       <c r="I11" t="n">
-        <v>0.2592973012383402</v>
+        <v>0.2311215286930505</v>
       </c>
       <c r="J11" t="n">
-        <v>0.1289619971799695</v>
+        <v>0.2275938423024963</v>
       </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>0.2275938423024963</v>
+        <v>5.403704917680107</v>
       </c>
       <c r="M11" t="n">
-        <v>5.394986271261294</v>
+        <v>5.774618236559187</v>
       </c>
       <c r="N11" t="n">
-        <v>5.760589022127273</v>
+        <v>0.5217481468733248</v>
       </c>
       <c r="O11" t="n">
-        <v>0.677691402792689</v>
+        <v>3.756406783175547</v>
       </c>
       <c r="P11" t="n">
-        <v>3.884086917673003</v>
+        <v>6.382260691452944</v>
       </c>
       <c r="Q11" t="n">
-        <v>6.387400801195356</v>
+        <v>3.699794241295079</v>
       </c>
       <c r="R11" t="n">
-        <v>3.603994868370435</v>
+        <v>0.824674745406235</v>
       </c>
       <c r="S11" t="n">
-        <v>0.9871024518074221</v>
+        <v>1.822023203427734</v>
       </c>
       <c r="T11" t="n">
-        <v>1.632445448459141</v>
+        <v>1.968888034577265</v>
       </c>
       <c r="U11" t="n">
-        <v>1.742434696378482</v>
+        <v>4.384679211330385</v>
       </c>
       <c r="V11" t="n">
-        <v>4.539528313061776</v>
+        <v>3.047706146584028</v>
       </c>
       <c r="W11" t="n">
-        <v>3.095051070925799</v>
-      </c>
-      <c r="X11" t="inlineStr"/>
+        <v>1.806718920312428</v>
+      </c>
+      <c r="X11" t="n">
+        <v>2.382289141773821</v>
+      </c>
       <c r="Y11" t="n">
-        <v>1.856809243834946</v>
+        <v>2.395369345309246</v>
       </c>
       <c r="Z11" t="n">
-        <v>2.403535980470653</v>
+        <v>2.006310434236994</v>
       </c>
       <c r="AA11" t="n">
-        <v>2.548529636153031</v>
+        <v>2.110435126969739</v>
       </c>
       <c r="AB11" t="n">
-        <v>2.170902407353204</v>
+        <v>2.430756022278134</v>
       </c>
       <c r="AC11" t="n">
-        <v>2.249733373131832</v>
+        <v>1.67718105864019</v>
       </c>
       <c r="AD11" t="n">
-        <v>2.569716873819826</v>
+        <v>0.660085653820001</v>
       </c>
       <c r="AE11" t="n">
-        <v>1.835971608462423</v>
+        <v>1.095913253529229</v>
       </c>
       <c r="AF11" t="n">
-        <v>0.6163010677207208</v>
+        <v>1.017963021818801</v>
       </c>
       <c r="AG11" t="n">
-        <v>1.314085440351047</v>
+        <v>4.904344051158853</v>
       </c>
       <c r="AH11" t="n">
-        <v>1.236020344323488</v>
+        <v>2.690813097570832</v>
       </c>
       <c r="AI11" t="n">
-        <v>4.995126259220478</v>
+        <v>2.051820509335382</v>
       </c>
       <c r="AJ11" t="n">
-        <v>2.614066566401052</v>
+        <v>2.557587803174087</v>
       </c>
       <c r="AK11" t="n">
-        <v>2.235973977747959</v>
+        <v>1.180496678162911</v>
       </c>
       <c r="AL11" t="n">
-        <v>2.383301528389323</v>
+        <v>1.229187499044717</v>
       </c>
       <c r="AM11" t="n">
-        <v>1.39923826426589</v>
+        <v>3.662486587338785</v>
       </c>
       <c r="AN11" t="n">
-        <v>1.347466607638822</v>
+        <v>6.680411125975461</v>
       </c>
       <c r="AO11" t="n">
-        <v>3.652014457973057</v>
+        <v>2.772966366643835</v>
       </c>
       <c r="AP11" t="n">
-        <v>6.730453607941351</v>
+        <v>2.460500083801341</v>
       </c>
       <c r="AQ11" t="n">
-        <v>2.983442930068868</v>
+        <v>1.117895168854031</v>
       </c>
       <c r="AR11" t="n">
-        <v>2.58036705773074</v>
+        <v>2.276547403718233</v>
       </c>
       <c r="AS11" t="n">
-        <v>0.8916657007792644</v>
-      </c>
-      <c r="AT11" t="n">
-        <v>2.394538844385724</v>
-      </c>
-      <c r="AU11" t="n">
-        <v>3.417823282712178</v>
-      </c>
-      <c r="AV11" t="n">
-        <v>1.280495457777474</v>
+        <v>3.370417816017891</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>杭州余杭</t>
+          <t>合肥肥东</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>6.00243974407524</v>
+        <v>5.526072072548247</v>
       </c>
       <c r="C12" t="n">
-        <v>5.904258859025926</v>
-      </c>
-      <c r="D12" t="inlineStr"/>
+        <v>1.394591773252819</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.9206596965890684</v>
+      </c>
       <c r="E12" t="n">
-        <v>1.364355135737691</v>
+        <v>4.582609689993129</v>
       </c>
       <c r="F12" t="n">
-        <v>1.448098905272096</v>
+        <v>4.633434029050956</v>
       </c>
       <c r="G12" t="n">
-        <v>4.069066834722143</v>
-      </c>
-      <c r="H12" t="inlineStr"/>
+        <v>1.58611082762462</v>
+      </c>
+      <c r="H12" t="n">
+        <v>5.142944429708958</v>
+      </c>
       <c r="I12" t="n">
-        <v>0.306514632661038</v>
+        <v>5.271018083766782</v>
       </c>
       <c r="J12" t="n">
-        <v>0.2311215286930505</v>
+        <v>5.394986271261294</v>
       </c>
       <c r="K12" t="n">
-        <v>0.2275938423024963</v>
+        <v>5.403704917680107</v>
       </c>
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
-        <v>5.403704917680107</v>
+        <v>0.3907071689215004</v>
       </c>
       <c r="N12" t="n">
-        <v>5.774618236559187</v>
+        <v>5.003567461716224</v>
       </c>
       <c r="O12" t="n">
-        <v>0.5217481468733248</v>
+        <v>3.241130467906357</v>
       </c>
       <c r="P12" t="n">
-        <v>3.756406783175547</v>
+        <v>1.048450970017358</v>
       </c>
       <c r="Q12" t="n">
-        <v>6.382260691452944</v>
+        <v>2.47136895964429</v>
       </c>
       <c r="R12" t="n">
-        <v>3.699794241295079</v>
+        <v>6.083830721781998</v>
       </c>
       <c r="S12" t="n">
-        <v>0.824674745406235</v>
+        <v>4.608062726690155</v>
       </c>
       <c r="T12" t="n">
-        <v>1.822023203427734</v>
+        <v>5.460654944143823</v>
       </c>
       <c r="U12" t="n">
-        <v>1.968888034577265</v>
+        <v>3.875945205299385</v>
       </c>
       <c r="V12" t="n">
-        <v>4.384679211330385</v>
+        <v>2.537077296596816</v>
       </c>
       <c r="W12" t="n">
-        <v>3.047706146584028</v>
-      </c>
-      <c r="X12" t="inlineStr"/>
+        <v>7.203450079554827</v>
+      </c>
+      <c r="X12" t="n">
+        <v>7.785847200256343</v>
+      </c>
       <c r="Y12" t="n">
-        <v>1.806718920312428</v>
+        <v>7.458863074977853</v>
       </c>
       <c r="Z12" t="n">
-        <v>2.382289141773821</v>
+        <v>7.046867441956808</v>
       </c>
       <c r="AA12" t="n">
-        <v>2.395369345309246</v>
+        <v>7.280774487835939</v>
       </c>
       <c r="AB12" t="n">
-        <v>2.006310434236994</v>
+        <v>7.5731569958831</v>
       </c>
       <c r="AC12" t="n">
-        <v>2.110435126969739</v>
+        <v>6.802378468847735</v>
       </c>
       <c r="AD12" t="n">
-        <v>2.430756022278134</v>
+        <v>6.011007020409724</v>
       </c>
       <c r="AE12" t="n">
-        <v>1.67718105864019</v>
+        <v>5.895154615013937</v>
       </c>
       <c r="AF12" t="n">
-        <v>0.660085653820001</v>
+        <v>5.858292844195306</v>
       </c>
       <c r="AG12" t="n">
-        <v>1.095913253529229</v>
+        <v>2.342453985841017</v>
       </c>
       <c r="AH12" t="n">
-        <v>1.017963021818801</v>
+        <v>7.918827249060791</v>
       </c>
       <c r="AI12" t="n">
-        <v>4.904344051158853</v>
+        <v>4.568867145554847</v>
       </c>
       <c r="AJ12" t="n">
-        <v>2.690813097570832</v>
+        <v>7.181488668128554</v>
       </c>
       <c r="AK12" t="n">
-        <v>2.051820509335382</v>
+        <v>5.24270970023204</v>
       </c>
       <c r="AL12" t="n">
-        <v>2.557587803174087</v>
+        <v>4.386193273398968</v>
       </c>
       <c r="AM12" t="n">
-        <v>1.180496678162911</v>
+        <v>1.743002575822543</v>
       </c>
       <c r="AN12" t="n">
-        <v>1.229187499044717</v>
+        <v>2.034129114736582</v>
       </c>
       <c r="AO12" t="n">
-        <v>3.662486587338785</v>
+        <v>5.16836413698991</v>
       </c>
       <c r="AP12" t="n">
-        <v>6.680411125975461</v>
+        <v>3.597176056693153</v>
       </c>
       <c r="AQ12" t="n">
-        <v>2.772966366643835</v>
+        <v>5.343958839624212</v>
       </c>
       <c r="AR12" t="n">
-        <v>2.460500083801341</v>
-      </c>
-      <c r="AS12" t="n">
-        <v>1.117895168854031</v>
-      </c>
-      <c r="AT12" t="n">
-        <v>2.276547403718233</v>
-      </c>
-      <c r="AU12" t="n">
-        <v>3.370417816017891</v>
-      </c>
-      <c r="AV12" t="n">
-        <v>1.053045290342948</v>
-      </c>
+        <v>3.682953153394105</v>
+      </c>
+      <c r="AS12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>合肥肥东</t>
+          <t>合肥蜀山</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1.394591773252819</v>
+        <v>5.913255524790232</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9206596965890684</v>
+        <v>1.195220428190612</v>
       </c>
       <c r="D13" t="n">
-        <v>3.544032382953758</v>
+        <v>0.9357628272226061</v>
       </c>
       <c r="E13" t="n">
-        <v>4.582609689993129</v>
+        <v>4.971086607869094</v>
       </c>
       <c r="F13" t="n">
-        <v>4.633434029050956</v>
+        <v>5.022838131012763</v>
       </c>
       <c r="G13" t="n">
-        <v>1.58611082762462</v>
+        <v>1.973054900301166</v>
       </c>
       <c r="H13" t="n">
-        <v>3.193915821273361</v>
+        <v>5.510142507466024</v>
       </c>
       <c r="I13" t="n">
-        <v>5.142944429708958</v>
+        <v>5.637539643885174</v>
       </c>
       <c r="J13" t="n">
-        <v>5.271018083766782</v>
+        <v>5.760589022127273</v>
       </c>
       <c r="K13" t="n">
-        <v>5.394986271261294</v>
+        <v>5.774618236559187</v>
       </c>
       <c r="L13" t="n">
-        <v>5.403704917680107</v>
+        <v>0.3907071689215004</v>
       </c>
       <c r="M13" t="inlineStr"/>
       <c r="N13" t="n">
-        <v>0.3907071689215004</v>
+        <v>5.381474242036439</v>
       </c>
       <c r="O13" t="n">
-        <v>5.003567461716224</v>
+        <v>3.601287123628318</v>
       </c>
       <c r="P13" t="n">
-        <v>3.241130467906357</v>
+        <v>0.8013475036434394</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.048450970017358</v>
+        <v>2.714798818598765</v>
       </c>
       <c r="R13" t="n">
-        <v>2.47136895964429</v>
+        <v>6.463165527244398</v>
       </c>
       <c r="S13" t="n">
-        <v>6.083830721781998</v>
+        <v>4.922338748963911</v>
       </c>
       <c r="T13" t="n">
-        <v>4.608062726690155</v>
+        <v>5.766093095815578</v>
       </c>
       <c r="U13" t="n">
-        <v>5.460654944143823</v>
+        <v>4.204045665246328</v>
       </c>
       <c r="V13" t="n">
-        <v>3.875945205299385</v>
+        <v>2.927355080221021</v>
       </c>
       <c r="W13" t="n">
-        <v>2.537077296596816</v>
-      </c>
-      <c r="X13" t="n">
-        <v>6.92744420214227</v>
-      </c>
+        <v>7.576987238794763</v>
+      </c>
+      <c r="X13" t="inlineStr"/>
       <c r="Y13" t="n">
-        <v>7.203450079554827</v>
+        <v>7.846111018142965</v>
       </c>
       <c r="Z13" t="n">
-        <v>7.785847200256343</v>
+        <v>7.433747141503305</v>
       </c>
       <c r="AA13" t="n">
-        <v>7.458863074977853</v>
+        <v>7.665698565990843</v>
       </c>
       <c r="AB13" t="n">
-        <v>7.046867441956808</v>
+        <v>7.959167915068445</v>
       </c>
       <c r="AC13" t="n">
-        <v>7.280774487835939</v>
+        <v>7.187248560440116</v>
       </c>
       <c r="AD13" t="n">
-        <v>7.5731569958831</v>
+        <v>6.375999486798867</v>
       </c>
       <c r="AE13" t="n">
-        <v>6.802378468847735</v>
+        <v>6.281354143192727</v>
       </c>
       <c r="AF13" t="n">
-        <v>6.011007020409724</v>
+        <v>6.243797843183419</v>
       </c>
       <c r="AG13" t="n">
-        <v>5.895154615013937</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>5.858292844195306</v>
-      </c>
+        <v>2.627984116514542</v>
+      </c>
+      <c r="AH13" t="inlineStr"/>
       <c r="AI13" t="n">
-        <v>2.342453985841017</v>
+        <v>4.959145976546065</v>
       </c>
       <c r="AJ13" t="n">
-        <v>7.918827249060791</v>
+        <v>7.501325038787653</v>
       </c>
       <c r="AK13" t="n">
-        <v>4.568867145554847</v>
+        <v>5.631195393447428</v>
       </c>
       <c r="AL13" t="n">
-        <v>7.181488668128554</v>
+        <v>4.770506337914973</v>
       </c>
       <c r="AM13" t="n">
-        <v>5.24270970023204</v>
+        <v>2.112222524309054</v>
       </c>
       <c r="AN13" t="n">
-        <v>4.386193273398968</v>
+        <v>1.990244544090537</v>
       </c>
       <c r="AO13" t="n">
-        <v>1.743002575822543</v>
+        <v>5.551944914306288</v>
       </c>
       <c r="AP13" t="n">
-        <v>2.034129114736582</v>
+        <v>3.987434459453759</v>
       </c>
       <c r="AQ13" t="n">
-        <v>5.16836413698991</v>
+        <v>5.68280338796619</v>
       </c>
       <c r="AR13" t="n">
-        <v>3.597176056693153</v>
-      </c>
-      <c r="AS13" t="n">
-        <v>5.343958839624212</v>
-      </c>
-      <c r="AT13" t="n">
-        <v>3.682953153394105</v>
-      </c>
-      <c r="AU13" t="inlineStr"/>
-      <c r="AV13" t="n">
-        <v>5.526072072548247</v>
-      </c>
+        <v>4.073655991513716</v>
+      </c>
+      <c r="AS13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>合肥蜀山</t>
+          <t>湖州吴兴</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.195220428190612</v>
+        <v>0.848793402476975</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9357628272226061</v>
+        <v>5.687184656765264</v>
       </c>
       <c r="D14" t="n">
-        <v>3.216035089037263</v>
+        <v>5.459959112847599</v>
       </c>
       <c r="E14" t="n">
-        <v>4.971086607869094</v>
+        <v>0.852636455179353</v>
       </c>
       <c r="F14" t="n">
-        <v>5.022838131012763</v>
+        <v>0.9469875022535608</v>
       </c>
       <c r="G14" t="n">
-        <v>1.973054900301166</v>
+        <v>3.614894223139828</v>
       </c>
       <c r="H14" t="n">
-        <v>2.826988718606301</v>
+        <v>0.5013344296639587</v>
       </c>
       <c r="I14" t="n">
-        <v>5.510142507466024</v>
+        <v>0.5782249301107593</v>
       </c>
       <c r="J14" t="n">
-        <v>5.637539643885174</v>
+        <v>0.677691402792689</v>
       </c>
       <c r="K14" t="n">
-        <v>5.760589022127273</v>
+        <v>0.5217481468733248</v>
       </c>
       <c r="L14" t="n">
-        <v>5.774618236559187</v>
+        <v>5.003567461716224</v>
       </c>
       <c r="M14" t="n">
-        <v>0.3907071689215004</v>
+        <v>5.381474242036439</v>
       </c>
       <c r="N14" t="inlineStr"/>
       <c r="O14" t="n">
-        <v>5.381474242036441</v>
+        <v>3.235032445956869</v>
       </c>
       <c r="P14" t="n">
-        <v>3.601287123628318</v>
+        <v>5.959261935519462</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.8013475036434394</v>
+        <v>3.478731991911583</v>
       </c>
       <c r="R14" t="n">
-        <v>2.714798818598765</v>
+        <v>1.084311197802864</v>
       </c>
       <c r="S14" t="n">
-        <v>6.463165527244398</v>
+        <v>1.922635482414571</v>
       </c>
       <c r="T14" t="n">
-        <v>4.922338748963911</v>
+        <v>2.27039103431643</v>
       </c>
       <c r="U14" t="n">
-        <v>5.766093095815578</v>
+        <v>3.867443459256239</v>
       </c>
       <c r="V14" t="n">
-        <v>4.204045665246328</v>
+        <v>2.583319318103306</v>
       </c>
       <c r="W14" t="n">
-        <v>2.927355080221021</v>
+        <v>2.212290013506309</v>
       </c>
       <c r="X14" t="n">
-        <v>6.857675435770736</v>
+        <v>2.814898035074296</v>
       </c>
       <c r="Y14" t="n">
-        <v>7.576987238794763</v>
-      </c>
-      <c r="Z14" t="inlineStr"/>
+        <v>2.579879948922974</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>2.168642755297754</v>
+      </c>
       <c r="AA14" t="n">
-        <v>7.846111018142965</v>
+        <v>2.340437971523301</v>
       </c>
       <c r="AB14" t="n">
-        <v>7.433747141503305</v>
+        <v>2.652907656715986</v>
       </c>
       <c r="AC14" t="n">
-        <v>7.665698565990843</v>
+        <v>1.871263686283158</v>
       </c>
       <c r="AD14" t="n">
-        <v>7.959167915068445</v>
+        <v>1.173499287991367</v>
       </c>
       <c r="AE14" t="n">
-        <v>7.187248560440116</v>
+        <v>1.071186410243623</v>
       </c>
       <c r="AF14" t="n">
-        <v>6.375999486798867</v>
+        <v>1.004949426553091</v>
       </c>
       <c r="AG14" t="n">
-        <v>6.281354143192727</v>
+        <v>4.396233469120249</v>
       </c>
       <c r="AH14" t="n">
-        <v>6.243797843183419</v>
+        <v>3.201836569433058</v>
       </c>
       <c r="AI14" t="n">
-        <v>2.627984116514542</v>
-      </c>
-      <c r="AJ14" t="inlineStr"/>
+        <v>1.562012413881411</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>3.060494420698309</v>
+      </c>
       <c r="AK14" t="n">
-        <v>4.959145976546065</v>
+        <v>0.8320781082250754</v>
       </c>
       <c r="AL14" t="n">
-        <v>7.501325038787653</v>
+        <v>0.7158488355163384</v>
       </c>
       <c r="AM14" t="n">
-        <v>5.631195393447428</v>
+        <v>3.27434816882552</v>
       </c>
       <c r="AN14" t="n">
-        <v>4.770506337914973</v>
+        <v>6.20333551266338</v>
       </c>
       <c r="AO14" t="n">
-        <v>2.112222524309054</v>
+        <v>2.347096635895322</v>
       </c>
       <c r="AP14" t="n">
-        <v>1.990244544090537</v>
+        <v>1.941431977043855</v>
       </c>
       <c r="AQ14" t="n">
-        <v>5.551944914306288</v>
+        <v>1.445477536760952</v>
       </c>
       <c r="AR14" t="n">
-        <v>3.987434459453759</v>
+        <v>1.758386965544299</v>
       </c>
       <c r="AS14" t="n">
-        <v>5.68280338796619</v>
-      </c>
-      <c r="AT14" t="n">
-        <v>4.073655991513716</v>
-      </c>
-      <c r="AU14" t="inlineStr"/>
-      <c r="AV14" t="n">
-        <v>5.913255524790232</v>
+        <v>3.758361904954366</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>湖州吴兴</t>
+          <t>淮安经开</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>5.687184656765264</v>
+        <v>3.269184419009298</v>
       </c>
       <c r="C15" t="n">
-        <v>5.459959112847599</v>
-      </c>
-      <c r="D15" t="inlineStr"/>
+        <v>4.519988941268744</v>
+      </c>
+      <c r="D15" t="n">
+        <v>3.145582019603364</v>
+      </c>
       <c r="E15" t="n">
-        <v>0.852636455179353</v>
+        <v>2.430230530841861</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9469875022535608</v>
+        <v>2.387256181677335</v>
       </c>
       <c r="G15" t="n">
-        <v>3.614894223139828</v>
-      </c>
-      <c r="H15" t="inlineStr"/>
+        <v>1.760707959056027</v>
+      </c>
+      <c r="H15" t="n">
+        <v>3.64729425968771</v>
+      </c>
       <c r="I15" t="n">
-        <v>0.5013344296639587</v>
+        <v>3.763732503074869</v>
       </c>
       <c r="J15" t="n">
-        <v>0.5782249301107593</v>
+        <v>3.884086917673003</v>
       </c>
       <c r="K15" t="n">
-        <v>0.677691402792689</v>
+        <v>3.756406783175547</v>
       </c>
       <c r="L15" t="n">
-        <v>0.5217481468733248</v>
+        <v>3.241130467906357</v>
       </c>
       <c r="M15" t="n">
-        <v>5.003567461716224</v>
+        <v>3.601287123628318</v>
       </c>
       <c r="N15" t="n">
-        <v>5.381474242036441</v>
+        <v>3.235032445956869</v>
       </c>
       <c r="O15" t="inlineStr"/>
       <c r="P15" t="n">
-        <v>3.235032445956869</v>
+        <v>3.790298068339288</v>
       </c>
       <c r="Q15" t="n">
-        <v>5.959261935519462</v>
+        <v>3.682803016979895</v>
       </c>
       <c r="R15" t="n">
-        <v>3.478731991911583</v>
+        <v>4.075312209657036</v>
       </c>
       <c r="S15" t="n">
-        <v>1.084311197802864</v>
+        <v>4.2072887204827</v>
       </c>
       <c r="T15" t="n">
-        <v>1.922635482414571</v>
+        <v>4.977038608497121</v>
       </c>
       <c r="U15" t="n">
-        <v>2.27039103431643</v>
+        <v>0.8991425368723023</v>
       </c>
       <c r="V15" t="n">
-        <v>3.867443459256239</v>
+        <v>1.51242092365636</v>
       </c>
       <c r="W15" t="n">
-        <v>2.583319318103306</v>
-      </c>
-      <c r="X15" t="inlineStr"/>
+        <v>5.241614916672993</v>
+      </c>
+      <c r="X15" t="n">
+        <v>5.86389526002933</v>
+      </c>
       <c r="Y15" t="n">
-        <v>2.212290013506309</v>
+        <v>5.010343417342598</v>
       </c>
       <c r="Z15" t="n">
-        <v>2.814898035074296</v>
+        <v>4.644525300623216</v>
       </c>
       <c r="AA15" t="n">
-        <v>2.579879948922974</v>
+        <v>4.94911777558737</v>
       </c>
       <c r="AB15" t="n">
-        <v>2.168642755297754</v>
+        <v>5.175732583416029</v>
       </c>
       <c r="AC15" t="n">
-        <v>2.340437971523301</v>
+        <v>4.510990985281853</v>
       </c>
       <c r="AD15" t="n">
-        <v>2.652907656715986</v>
+        <v>4.404813362810547</v>
       </c>
       <c r="AE15" t="n">
-        <v>1.871263686283158</v>
+        <v>3.639253244911542</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.173499287991367</v>
+        <v>3.640902742004986</v>
       </c>
       <c r="AG15" t="n">
-        <v>1.071186410243623</v>
+        <v>1.38685254820585</v>
       </c>
       <c r="AH15" t="n">
-        <v>1.004949426553091</v>
+        <v>6.419915611501649</v>
       </c>
       <c r="AI15" t="n">
-        <v>4.396233469120249</v>
+        <v>1.946305506923405</v>
       </c>
       <c r="AJ15" t="n">
-        <v>3.201836569433058</v>
+        <v>6.231011612232806</v>
       </c>
       <c r="AK15" t="n">
-        <v>1.562012413881411</v>
+        <v>2.948007068305716</v>
       </c>
       <c r="AL15" t="n">
-        <v>3.060494420698309</v>
+        <v>2.536620419796961</v>
       </c>
       <c r="AM15" t="n">
-        <v>0.8320781082250754</v>
+        <v>2.362480911921098</v>
       </c>
       <c r="AN15" t="n">
-        <v>0.7158488355163384</v>
+        <v>3.444504652697473</v>
       </c>
       <c r="AO15" t="n">
-        <v>3.27434816882552</v>
+        <v>2.130631035994389</v>
       </c>
       <c r="AP15" t="n">
-        <v>6.20333551266338</v>
+        <v>1.306606711169933</v>
       </c>
       <c r="AQ15" t="n">
-        <v>2.347096635895322</v>
+        <v>4.380119186025216</v>
       </c>
       <c r="AR15" t="n">
-        <v>1.941431977043855</v>
+        <v>1.493124043520194</v>
       </c>
       <c r="AS15" t="n">
-        <v>1.445477536760952</v>
-      </c>
-      <c r="AT15" t="n">
-        <v>1.758386965544299</v>
-      </c>
-      <c r="AU15" t="n">
-        <v>3.758361904954366</v>
-      </c>
-      <c r="AV15" t="n">
-        <v>0.848793402476975</v>
+        <v>6.635950589509479</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>淮安经开</t>
+          <t>淮南经开</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>4.519988941268744</v>
+        <v>6.422614297142333</v>
       </c>
       <c r="C16" t="n">
-        <v>3.145582019603364</v>
+        <v>1.802731168547739</v>
       </c>
       <c r="D16" t="n">
-        <v>6.012619033777311</v>
+        <v>0.6542635330757853</v>
       </c>
       <c r="E16" t="n">
-        <v>2.430230530841861</v>
+        <v>5.469908192968647</v>
       </c>
       <c r="F16" t="n">
-        <v>2.387256181677335</v>
+        <v>5.506712330970193</v>
       </c>
       <c r="G16" t="n">
-        <v>1.760707959056027</v>
+        <v>2.391143577455042</v>
       </c>
       <c r="H16" t="n">
-        <v>5.987921818461557</v>
+        <v>6.132172007079593</v>
       </c>
       <c r="I16" t="n">
-        <v>3.64729425968771</v>
+        <v>6.261560010755812</v>
       </c>
       <c r="J16" t="n">
-        <v>3.763732503074869</v>
+        <v>6.387400801195356</v>
       </c>
       <c r="K16" t="n">
-        <v>3.884086917673003</v>
+        <v>6.382260691452944</v>
       </c>
       <c r="L16" t="n">
-        <v>3.756406783175547</v>
+        <v>1.048450970017358</v>
       </c>
       <c r="M16" t="n">
-        <v>3.241130467906357</v>
+        <v>0.8013475036434394</v>
       </c>
       <c r="N16" t="n">
-        <v>3.601287123628318</v>
+        <v>5.959261935519462</v>
       </c>
       <c r="O16" t="n">
-        <v>3.235032445956869</v>
+        <v>3.790298068339288</v>
       </c>
       <c r="P16" t="inlineStr"/>
       <c r="Q16" t="n">
-        <v>3.790298068339288</v>
+        <v>3.500854006090932</v>
       </c>
       <c r="R16" t="n">
-        <v>3.682803016979895</v>
+        <v>7.029650438992133</v>
       </c>
       <c r="S16" t="n">
-        <v>4.075312209657036</v>
+        <v>5.654393420552077</v>
       </c>
       <c r="T16" t="n">
-        <v>4.2072887204827</v>
+        <v>6.50853311057577</v>
       </c>
       <c r="U16" t="n">
-        <v>4.977038608497121</v>
+        <v>4.247705405714242</v>
       </c>
       <c r="V16" t="n">
-        <v>0.8991425368723023</v>
-      </c>
-      <c r="W16" t="n">
-        <v>1.51242092365636</v>
-      </c>
-      <c r="X16" t="n">
-        <v>6.997509414773067</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>5.241614916672993</v>
-      </c>
+        <v>3.416018663127999</v>
+      </c>
+      <c r="W16" t="inlineStr"/>
+      <c r="X16" t="inlineStr"/>
+      <c r="Y16" t="inlineStr"/>
       <c r="Z16" t="n">
-        <v>5.86389526002933</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>5.010343417342598</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>4.644525300623216</v>
-      </c>
+        <v>7.940790558914808</v>
+      </c>
+      <c r="AA16" t="inlineStr"/>
+      <c r="AB16" t="inlineStr"/>
       <c r="AC16" t="n">
-        <v>4.94911777558737</v>
+        <v>7.713996907624112</v>
       </c>
       <c r="AD16" t="n">
-        <v>5.175732583416029</v>
+        <v>7.003514654489191</v>
       </c>
       <c r="AE16" t="n">
-        <v>4.510990985281853</v>
+        <v>6.79922515301293</v>
       </c>
       <c r="AF16" t="n">
-        <v>4.404813362810547</v>
+        <v>6.768221507576408</v>
       </c>
       <c r="AG16" t="n">
-        <v>3.639253244911542</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>3.640902742004986</v>
-      </c>
+        <v>2.597545470970275</v>
+      </c>
+      <c r="AH16" t="inlineStr"/>
       <c r="AI16" t="n">
-        <v>1.38685254820585</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>6.419915611501649</v>
-      </c>
+        <v>5.364990703545069</v>
+      </c>
+      <c r="AJ16" t="inlineStr"/>
       <c r="AK16" t="n">
-        <v>1.946305506923405</v>
+        <v>6.125937136566183</v>
       </c>
       <c r="AL16" t="n">
-        <v>6.231011612232806</v>
+        <v>5.311800324259093</v>
       </c>
       <c r="AM16" t="n">
-        <v>2.948007068305716</v>
+        <v>2.748388196077747</v>
       </c>
       <c r="AN16" t="n">
-        <v>2.536620419796961</v>
+        <v>1.338750943639257</v>
       </c>
       <c r="AO16" t="n">
-        <v>2.362480911921098</v>
+        <v>5.855943406607881</v>
       </c>
       <c r="AP16" t="n">
-        <v>3.444504652697473</v>
+        <v>4.403545167460071</v>
       </c>
       <c r="AQ16" t="n">
-        <v>2.130631035994389</v>
+        <v>6.376220219597844</v>
       </c>
       <c r="AR16" t="n">
-        <v>1.306606711169933</v>
-      </c>
-      <c r="AS16" t="n">
-        <v>4.380119186025216</v>
-      </c>
-      <c r="AT16" t="n">
-        <v>1.493124043520194</v>
-      </c>
-      <c r="AU16" t="n">
-        <v>6.635950589509479</v>
-      </c>
-      <c r="AV16" t="n">
-        <v>3.269184419009298</v>
-      </c>
+        <v>4.515001201933524</v>
+      </c>
+      <c r="AS16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>淮南经开</t>
+          <t>黄山屯溪</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1.802731168547739</v>
+        <v>4.242422732968461</v>
       </c>
       <c r="C17" t="n">
-        <v>0.6542635330757853</v>
+        <v>2.455817512355318</v>
       </c>
       <c r="D17" t="n">
-        <v>2.52157365054069</v>
+        <v>3.328059896765971</v>
       </c>
       <c r="E17" t="n">
-        <v>5.469908192968647</v>
+        <v>3.479855052647222</v>
       </c>
       <c r="F17" t="n">
-        <v>5.506712330970193</v>
+        <v>3.587158459625996</v>
       </c>
       <c r="G17" t="n">
-        <v>2.391143577455042</v>
+        <v>2.272054777866385</v>
       </c>
       <c r="H17" t="n">
-        <v>2.266671068724649</v>
+        <v>3.396326302390994</v>
       </c>
       <c r="I17" t="n">
-        <v>6.132172007079593</v>
+        <v>3.503386424974458</v>
       </c>
       <c r="J17" t="n">
-        <v>6.261560010755812</v>
+        <v>3.603994868370435</v>
       </c>
       <c r="K17" t="n">
-        <v>6.387400801195356</v>
+        <v>3.699794241295079</v>
       </c>
       <c r="L17" t="n">
-        <v>6.382260691452944</v>
+        <v>2.47136895964429</v>
       </c>
       <c r="M17" t="n">
-        <v>1.048450970017358</v>
+        <v>2.714798818598765</v>
       </c>
       <c r="N17" t="n">
-        <v>0.8013475036434394</v>
+        <v>3.478731991911583</v>
       </c>
       <c r="O17" t="n">
-        <v>5.959261935519462</v>
+        <v>3.682803016979895</v>
       </c>
       <c r="P17" t="n">
-        <v>3.790298068339288</v>
+        <v>3.500854006090932</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="n">
-        <v>3.500854006090932</v>
+        <v>4.505137091849824</v>
       </c>
       <c r="S17" t="n">
-        <v>7.029650438992133</v>
+        <v>2.359353111551982</v>
       </c>
       <c r="T17" t="n">
-        <v>5.654393420552077</v>
+        <v>3.140917794248679</v>
       </c>
       <c r="U17" t="n">
-        <v>6.50853311057577</v>
+        <v>4.572524986494345</v>
       </c>
       <c r="V17" t="n">
-        <v>4.247705405714242</v>
+        <v>2.197593014568191</v>
       </c>
       <c r="W17" t="n">
-        <v>3.416018663127999</v>
+        <v>5.45140175543932</v>
       </c>
       <c r="X17" t="n">
-        <v>6.112982295951485</v>
-      </c>
-      <c r="Y17" t="inlineStr"/>
-      <c r="Z17" t="inlineStr"/>
-      <c r="AA17" t="inlineStr"/>
+        <v>5.956868205817151</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>6.05296431608919</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>5.644759267995803</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>5.794270300807752</v>
+      </c>
       <c r="AB17" t="n">
-        <v>7.940790558914808</v>
-      </c>
-      <c r="AC17" t="inlineStr"/>
-      <c r="AD17" t="inlineStr"/>
+        <v>6.112320981051046</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>5.337406270809764</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>4.174173556606089</v>
+      </c>
       <c r="AE17" t="n">
-        <v>7.713996907624112</v>
+        <v>4.537568026975589</v>
       </c>
       <c r="AF17" t="n">
-        <v>7.003514654489191</v>
+        <v>4.476692364488459</v>
       </c>
       <c r="AG17" t="n">
-        <v>6.79922515301293</v>
+        <v>3.7188848323318</v>
       </c>
       <c r="AH17" t="n">
-        <v>6.768221507576408</v>
+        <v>5.841153438137186</v>
       </c>
       <c r="AI17" t="n">
-        <v>2.597545470970275</v>
-      </c>
-      <c r="AJ17" t="inlineStr"/>
+        <v>3.862388393337203</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>4.910677640081492</v>
+      </c>
       <c r="AK17" t="n">
-        <v>5.364990703545069</v>
-      </c>
-      <c r="AL17" t="inlineStr"/>
+        <v>4.055764270726406</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>3.126285266390688</v>
+      </c>
       <c r="AM17" t="n">
-        <v>6.125937136566183</v>
+        <v>1.410354019729213</v>
       </c>
       <c r="AN17" t="n">
-        <v>5.311800324259093</v>
+        <v>4.414932021161586</v>
       </c>
       <c r="AO17" t="n">
-        <v>2.748388196077747</v>
+        <v>4.747800363594246</v>
       </c>
       <c r="AP17" t="n">
-        <v>1.338750943639257</v>
+        <v>3.094290461737357</v>
       </c>
       <c r="AQ17" t="n">
-        <v>5.855943406607881</v>
+        <v>3.246772008044311</v>
       </c>
       <c r="AR17" t="n">
-        <v>4.403545167460071</v>
+        <v>3.046692440150599</v>
       </c>
       <c r="AS17" t="n">
-        <v>6.376220219597844</v>
-      </c>
-      <c r="AT17" t="n">
-        <v>4.515001201933524</v>
-      </c>
-      <c r="AU17" t="inlineStr"/>
-      <c r="AV17" t="n">
-        <v>6.422614297142333</v>
+        <v>6.998370974817727</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>黄山屯溪</t>
+          <t>嘉兴秀洲</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>2.455817512355318</v>
+        <v>0.8484332900383772</v>
       </c>
       <c r="C18" t="n">
-        <v>3.328059896765971</v>
+        <v>6.763430702325566</v>
       </c>
       <c r="D18" t="n">
-        <v>5.890603634492003</v>
+        <v>6.516414725920055</v>
       </c>
       <c r="E18" t="n">
-        <v>3.479855052647222</v>
+        <v>1.668514800197433</v>
       </c>
       <c r="F18" t="n">
-        <v>3.587158459625996</v>
+        <v>1.692006517254472</v>
       </c>
       <c r="G18" t="n">
-        <v>2.272054777866385</v>
+        <v>4.667568260211089</v>
       </c>
       <c r="H18" t="n">
-        <v>5.391535427129084</v>
+        <v>1.1299676371657</v>
       </c>
       <c r="I18" t="n">
-        <v>3.396326302390994</v>
+        <v>1.04776929860225</v>
       </c>
       <c r="J18" t="n">
-        <v>3.503386424974458</v>
+        <v>0.9871024518074221</v>
       </c>
       <c r="K18" t="n">
-        <v>3.603994868370435</v>
+        <v>0.824674745406235</v>
       </c>
       <c r="L18" t="n">
-        <v>3.699794241295079</v>
+        <v>6.083830721781998</v>
       </c>
       <c r="M18" t="n">
-        <v>2.47136895964429</v>
+        <v>6.463165527244398</v>
       </c>
       <c r="N18" t="n">
-        <v>2.714798818598765</v>
+        <v>1.084311197802864</v>
       </c>
       <c r="O18" t="n">
-        <v>3.478731991911583</v>
+        <v>4.075312209657036</v>
       </c>
       <c r="P18" t="n">
-        <v>3.682803016979895</v>
+        <v>7.029650438992133</v>
       </c>
       <c r="Q18" t="n">
-        <v>3.500854006090932</v>
+        <v>4.505137091849824</v>
       </c>
       <c r="R18" t="inlineStr"/>
       <c r="S18" t="n">
-        <v>4.505137091849824</v>
+        <v>2.618137805955514</v>
       </c>
       <c r="T18" t="n">
-        <v>2.359353111551982</v>
+        <v>2.622621276788438</v>
       </c>
       <c r="U18" t="n">
-        <v>3.140917794248679</v>
+        <v>4.572490923148279</v>
       </c>
       <c r="V18" t="n">
-        <v>4.572524986494345</v>
+        <v>3.631640832066251</v>
       </c>
       <c r="W18" t="n">
-        <v>2.197593014568191</v>
-      </c>
-      <c r="X18" t="inlineStr"/>
+        <v>1.179244213983458</v>
+      </c>
+      <c r="X18" t="n">
+        <v>1.800641008468799</v>
+      </c>
       <c r="Y18" t="n">
-        <v>5.45140175543932</v>
+        <v>1.57069567783702</v>
       </c>
       <c r="Z18" t="n">
-        <v>5.956868205817151</v>
+        <v>1.184839128829973</v>
       </c>
       <c r="AA18" t="n">
-        <v>6.05296431608919</v>
+        <v>1.290707925213937</v>
       </c>
       <c r="AB18" t="n">
-        <v>5.644759267995803</v>
+        <v>1.610277408780498</v>
       </c>
       <c r="AC18" t="n">
-        <v>5.794270300807752</v>
+        <v>0.8529117613465814</v>
       </c>
       <c r="AD18" t="n">
-        <v>6.112320981051046</v>
+        <v>0.7693951033443286</v>
       </c>
       <c r="AE18" t="n">
-        <v>5.337406270809764</v>
+        <v>0.58445359760113</v>
       </c>
       <c r="AF18" t="n">
-        <v>4.174173556606089</v>
+        <v>0.5317862432368822</v>
       </c>
       <c r="AG18" t="n">
-        <v>4.537568026975589</v>
+        <v>5.335088150831615</v>
       </c>
       <c r="AH18" t="n">
-        <v>4.476692364488459</v>
+        <v>2.419406292259198</v>
       </c>
       <c r="AI18" t="n">
-        <v>3.7188848323318</v>
+        <v>2.178748549765661</v>
       </c>
       <c r="AJ18" t="n">
-        <v>5.841153438137186</v>
+        <v>2.712896711686308</v>
       </c>
       <c r="AK18" t="n">
-        <v>3.862388393337203</v>
+        <v>1.149280926116686</v>
       </c>
       <c r="AL18" t="n">
-        <v>4.910677640081492</v>
+        <v>1.726055179873634</v>
       </c>
       <c r="AM18" t="n">
-        <v>4.055764270726406</v>
+        <v>4.35796607549895</v>
       </c>
       <c r="AN18" t="n">
-        <v>3.126285266390688</v>
+        <v>7.217504093128869</v>
       </c>
       <c r="AO18" t="n">
-        <v>1.410354019729213</v>
+        <v>2.65185512821556</v>
       </c>
       <c r="AP18" t="n">
-        <v>4.414932021161586</v>
+        <v>2.852332293950497</v>
       </c>
       <c r="AQ18" t="n">
-        <v>4.747800363594246</v>
+        <v>1.803478430031106</v>
       </c>
       <c r="AR18" t="n">
-        <v>3.094290461737357</v>
+        <v>2.684289677963203</v>
       </c>
       <c r="AS18" t="n">
-        <v>3.246772008044311</v>
-      </c>
-      <c r="AT18" t="n">
-        <v>3.046692440150599</v>
-      </c>
-      <c r="AU18" t="n">
-        <v>6.998370974817727</v>
-      </c>
-      <c r="AV18" t="n">
-        <v>4.242422732968461</v>
+        <v>2.688946900265759</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>嘉兴秀洲</t>
+          <t>金华婺城</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>6.763430702325566</v>
+        <v>2.759926310268532</v>
       </c>
       <c r="C19" t="n">
-        <v>6.516414725920055</v>
-      </c>
-      <c r="D19" t="inlineStr"/>
+        <v>4.814400455530509</v>
+      </c>
+      <c r="D19" t="n">
+        <v>5.32649462031328</v>
+      </c>
       <c r="E19" t="n">
-        <v>1.668514800197433</v>
+        <v>2.493220657895649</v>
       </c>
       <c r="F19" t="n">
-        <v>1.692006517254472</v>
+        <v>2.62365766970504</v>
       </c>
       <c r="G19" t="n">
-        <v>4.667568260211089</v>
-      </c>
-      <c r="H19" t="inlineStr"/>
+        <v>3.705860958209534</v>
+      </c>
+      <c r="H19" t="n">
+        <v>1.547536859780318</v>
+      </c>
       <c r="I19" t="n">
-        <v>1.1299676371657</v>
+        <v>1.590949036407951</v>
       </c>
       <c r="J19" t="n">
-        <v>1.04776929860225</v>
+        <v>1.632445448459141</v>
       </c>
       <c r="K19" t="n">
-        <v>0.9871024518074221</v>
+        <v>1.822023203427734</v>
       </c>
       <c r="L19" t="n">
-        <v>0.824674745406235</v>
+        <v>4.608062726690155</v>
       </c>
       <c r="M19" t="n">
-        <v>6.083830721781998</v>
+        <v>4.922338748963911</v>
       </c>
       <c r="N19" t="n">
-        <v>6.463165527244398</v>
+        <v>1.922635482414571</v>
       </c>
       <c r="O19" t="n">
-        <v>1.084311197802864</v>
+        <v>4.2072887204827</v>
       </c>
       <c r="P19" t="n">
-        <v>4.075312209657036</v>
+        <v>5.654393420552077</v>
       </c>
       <c r="Q19" t="n">
-        <v>7.029650438992133</v>
+        <v>2.359353111551982</v>
       </c>
       <c r="R19" t="n">
-        <v>4.505137091849824</v>
+        <v>2.618137805955514</v>
       </c>
       <c r="S19" t="inlineStr"/>
       <c r="T19" t="n">
-        <v>2.618137805955514</v>
+        <v>0.8698420921328033</v>
       </c>
       <c r="U19" t="n">
-        <v>2.622621276788438</v>
+        <v>5.038026280021672</v>
       </c>
       <c r="V19" t="n">
-        <v>4.572490923148279</v>
+        <v>2.917561413591376</v>
       </c>
       <c r="W19" t="n">
-        <v>3.631640832066251</v>
-      </c>
-      <c r="X19" t="inlineStr"/>
+        <v>3.299055841070818</v>
+      </c>
+      <c r="X19" t="n">
+        <v>3.724777444984984</v>
+      </c>
       <c r="Y19" t="n">
-        <v>1.179244213983458</v>
+        <v>4.16571421202264</v>
       </c>
       <c r="Z19" t="n">
-        <v>1.800641008468799</v>
+        <v>3.798538675404372</v>
       </c>
       <c r="AA19" t="n">
-        <v>1.57069567783702</v>
+        <v>3.853209887185684</v>
       </c>
       <c r="AB19" t="n">
-        <v>1.184839128829973</v>
+        <v>4.169855493235212</v>
       </c>
       <c r="AC19" t="n">
-        <v>1.290707925213937</v>
+        <v>3.461191574347803</v>
       </c>
       <c r="AD19" t="n">
-        <v>1.610277408780498</v>
+        <v>2.048468878007268</v>
       </c>
       <c r="AE19" t="n">
-        <v>0.8529117613465814</v>
+        <v>2.899246426214405</v>
       </c>
       <c r="AF19" t="n">
-        <v>0.7693951033443286</v>
+        <v>2.822755850762911</v>
       </c>
       <c r="AG19" t="n">
-        <v>0.58445359760113</v>
+        <v>4.948997578118352</v>
       </c>
       <c r="AH19" t="n">
-        <v>0.5317862432368822</v>
+        <v>3.491042595049306</v>
       </c>
       <c r="AI19" t="n">
-        <v>5.335088150831615</v>
+        <v>3.187931275410094</v>
       </c>
       <c r="AJ19" t="n">
-        <v>2.419406292259198</v>
+        <v>2.580703884138221</v>
       </c>
       <c r="AK19" t="n">
-        <v>2.178748549765661</v>
+        <v>2.744526882841941</v>
       </c>
       <c r="AL19" t="n">
-        <v>2.712896711686308</v>
+        <v>2.113053757527196</v>
       </c>
       <c r="AM19" t="n">
-        <v>1.149280926116686</v>
+        <v>2.981991195859334</v>
       </c>
       <c r="AN19" t="n">
-        <v>1.726055179873634</v>
+        <v>6.300349304769385</v>
       </c>
       <c r="AO19" t="n">
-        <v>4.35796607549895</v>
+        <v>4.102810166451956</v>
       </c>
       <c r="AP19" t="n">
-        <v>7.217504093128869</v>
+        <v>3.009882736951814</v>
       </c>
       <c r="AQ19" t="n">
-        <v>2.65185512821556</v>
+        <v>0.9522240275563882</v>
       </c>
       <c r="AR19" t="n">
-        <v>2.852332293950497</v>
+        <v>2.846680234654654</v>
       </c>
       <c r="AS19" t="n">
-        <v>1.803478430031106</v>
-      </c>
-      <c r="AT19" t="n">
-        <v>2.684289677963203</v>
-      </c>
-      <c r="AU19" t="n">
-        <v>2.688946900265759</v>
-      </c>
-      <c r="AV19" t="n">
-        <v>0.8484332900383771</v>
+        <v>4.780045071785903</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>金华婺城</t>
+          <t>丽水莲都</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>4.814400455530509</v>
+        <v>3.015832578560114</v>
       </c>
       <c r="C20" t="n">
-        <v>5.32649462031328</v>
-      </c>
-      <c r="D20" t="inlineStr"/>
+        <v>5.58919390552605</v>
+      </c>
+      <c r="D20" t="n">
+        <v>6.192519552646664</v>
+      </c>
       <c r="E20" t="n">
-        <v>2.493220657895649</v>
+        <v>3.009783995781592</v>
       </c>
       <c r="F20" t="n">
-        <v>2.62365766970504</v>
+        <v>3.132321252947434</v>
       </c>
       <c r="G20" t="n">
-        <v>3.705860958209534</v>
+        <v>4.572202747892516</v>
       </c>
       <c r="H20" t="n">
-        <v>7.698303259944445</v>
+        <v>1.788967940075971</v>
       </c>
       <c r="I20" t="n">
-        <v>1.547536859780318</v>
+        <v>1.766583937809693</v>
       </c>
       <c r="J20" t="n">
-        <v>1.590949036407951</v>
+        <v>1.742434696378482</v>
       </c>
       <c r="K20" t="n">
-        <v>1.632445448459141</v>
+        <v>1.968888034577265</v>
       </c>
       <c r="L20" t="n">
-        <v>1.822023203427734</v>
+        <v>5.460654944143823</v>
       </c>
       <c r="M20" t="n">
-        <v>4.608062726690155</v>
+        <v>5.766093095815578</v>
       </c>
       <c r="N20" t="n">
-        <v>4.922338748963911</v>
+        <v>2.27039103431643</v>
       </c>
       <c r="O20" t="n">
-        <v>1.922635482414571</v>
+        <v>4.977038608497121</v>
       </c>
       <c r="P20" t="n">
-        <v>4.2072887204827</v>
+        <v>6.50853311057577</v>
       </c>
       <c r="Q20" t="n">
-        <v>5.654393420552077</v>
+        <v>3.140917794248679</v>
       </c>
       <c r="R20" t="n">
-        <v>2.359353111551982</v>
+        <v>2.622621276788438</v>
       </c>
       <c r="S20" t="n">
-        <v>2.618137805955514</v>
+        <v>0.8698420921328033</v>
       </c>
       <c r="T20" t="inlineStr"/>
       <c r="U20" t="n">
-        <v>0.8698420921328033</v>
+        <v>5.774550874590577</v>
       </c>
       <c r="V20" t="n">
-        <v>5.038026280021672</v>
+        <v>3.756435251089115</v>
       </c>
       <c r="W20" t="n">
-        <v>2.917561413591376</v>
-      </c>
-      <c r="X20" t="inlineStr"/>
+        <v>2.989201968859801</v>
+      </c>
+      <c r="X20" t="n">
+        <v>3.295803190819409</v>
+      </c>
       <c r="Y20" t="n">
-        <v>3.299055841070818</v>
+        <v>4.045480794817339</v>
       </c>
       <c r="Z20" t="n">
-        <v>3.724777444984984</v>
+        <v>3.729668001450801</v>
       </c>
       <c r="AA20" t="n">
-        <v>4.16571421202264</v>
+        <v>3.708464874966734</v>
       </c>
       <c r="AB20" t="n">
-        <v>3.798538675404372</v>
+        <v>4.00697687366603</v>
       </c>
       <c r="AC20" t="n">
-        <v>3.853209887185684</v>
+        <v>3.393061550378155</v>
       </c>
       <c r="AD20" t="n">
-        <v>4.169855493235212</v>
+        <v>1.900787992527922</v>
       </c>
       <c r="AE20" t="n">
-        <v>3.461191574347803</v>
+        <v>3.047353097791343</v>
       </c>
       <c r="AF20" t="n">
-        <v>2.048468878007268</v>
+        <v>2.96961885594768</v>
       </c>
       <c r="AG20" t="n">
-        <v>2.899246426214405</v>
+        <v>5.791381034175473</v>
       </c>
       <c r="AH20" t="n">
-        <v>2.822755850762911</v>
+        <v>2.843905263132631</v>
       </c>
       <c r="AI20" t="n">
-        <v>4.948997578118352</v>
+        <v>3.738284233868649</v>
       </c>
       <c r="AJ20" t="n">
-        <v>3.491042595049306</v>
+        <v>1.772753858959953</v>
       </c>
       <c r="AK20" t="n">
-        <v>3.187931275410094</v>
+        <v>3.090716872191787</v>
       </c>
       <c r="AL20" t="n">
-        <v>2.580703884138221</v>
+        <v>2.675794959067133</v>
       </c>
       <c r="AM20" t="n">
-        <v>2.744526882841941</v>
+        <v>3.851063176797943</v>
       </c>
       <c r="AN20" t="n">
-        <v>2.113053757527196</v>
+        <v>7.170170239695481</v>
       </c>
       <c r="AO20" t="n">
-        <v>2.981991195859334</v>
+        <v>4.598817579369514</v>
       </c>
       <c r="AP20" t="n">
-        <v>6.300349304769385</v>
+        <v>3.727622934032801</v>
       </c>
       <c r="AQ20" t="n">
-        <v>4.102810166451956</v>
+        <v>0.8510095802884138</v>
       </c>
       <c r="AR20" t="n">
-        <v>3.009882736951814</v>
+        <v>3.552543275243955</v>
       </c>
       <c r="AS20" t="n">
-        <v>0.9522240275563882</v>
-      </c>
-      <c r="AT20" t="n">
-        <v>2.846680234654654</v>
-      </c>
-      <c r="AU20" t="n">
-        <v>4.780045071785903</v>
-      </c>
-      <c r="AV20" t="n">
-        <v>2.759926310268532</v>
+        <v>4.334676912675881</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>丽水莲都</t>
+          <t>连云港海州</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>5.58919390552605</v>
+        <v>3.730241276622465</v>
       </c>
       <c r="C21" t="n">
-        <v>6.192519552646664</v>
-      </c>
-      <c r="D21" t="inlineStr"/>
+        <v>5.221707361305777</v>
+      </c>
+      <c r="D21" t="n">
+        <v>3.593988227676602</v>
+      </c>
       <c r="E21" t="n">
-        <v>3.009783995781592</v>
+        <v>3.021283874791314</v>
       </c>
       <c r="F21" t="n">
-        <v>3.132321252947434</v>
+        <v>2.948043018432374</v>
       </c>
       <c r="G21" t="n">
-        <v>4.572202747892516</v>
-      </c>
-      <c r="H21" t="inlineStr"/>
+        <v>2.538588958143554</v>
+      </c>
+      <c r="H21" t="n">
+        <v>4.320973867955511</v>
+      </c>
       <c r="I21" t="n">
-        <v>1.788967940075971</v>
+        <v>4.427307000246259</v>
       </c>
       <c r="J21" t="n">
-        <v>1.766583937809693</v>
+        <v>4.539528313061776</v>
       </c>
       <c r="K21" t="n">
-        <v>1.742434696378482</v>
+        <v>4.384679211330385</v>
       </c>
       <c r="L21" t="n">
-        <v>1.968888034577265</v>
+        <v>3.875945205299385</v>
       </c>
       <c r="M21" t="n">
-        <v>5.460654944143823</v>
+        <v>4.204045665246328</v>
       </c>
       <c r="N21" t="n">
-        <v>5.766093095815578</v>
+        <v>3.867443459256239</v>
       </c>
       <c r="O21" t="n">
-        <v>2.27039103431643</v>
+        <v>0.8991425368723023</v>
       </c>
       <c r="P21" t="n">
-        <v>4.977038608497121</v>
+        <v>4.247705405714242</v>
       </c>
       <c r="Q21" t="n">
-        <v>6.50853311057577</v>
+        <v>4.572524986494345</v>
       </c>
       <c r="R21" t="n">
-        <v>3.140917794248679</v>
+        <v>4.572490923148279</v>
       </c>
       <c r="S21" t="n">
-        <v>2.622621276788438</v>
+        <v>5.038026280021672</v>
       </c>
       <c r="T21" t="n">
-        <v>0.8698420921328033</v>
+        <v>5.774550874590577</v>
       </c>
       <c r="U21" t="inlineStr"/>
       <c r="V21" t="n">
-        <v>5.774550874590577</v>
+        <v>2.411497216032527</v>
       </c>
       <c r="W21" t="n">
-        <v>3.756435251089115</v>
-      </c>
-      <c r="X21" t="inlineStr"/>
+        <v>5.697134713891852</v>
+      </c>
+      <c r="X21" t="n">
+        <v>6.310114820019536</v>
+      </c>
       <c r="Y21" t="n">
-        <v>2.989201968859801</v>
+        <v>5.276817407822468</v>
       </c>
       <c r="Z21" t="n">
-        <v>3.295803190819409</v>
+        <v>4.950061478149649</v>
       </c>
       <c r="AA21" t="n">
-        <v>4.045480794817339</v>
+        <v>5.272605602882866</v>
       </c>
       <c r="AB21" t="n">
-        <v>3.729668001450801</v>
+        <v>5.459547404921794</v>
       </c>
       <c r="AC21" t="n">
-        <v>3.708464874966734</v>
+        <v>4.873349752374859</v>
       </c>
       <c r="AD21" t="n">
-        <v>4.00697687366603</v>
+        <v>5.007260994827309</v>
       </c>
       <c r="AE21" t="n">
-        <v>3.393061550378155</v>
+        <v>4.071041996439091</v>
       </c>
       <c r="AF21" t="n">
-        <v>1.900787992527922</v>
+        <v>4.08846263380955</v>
       </c>
       <c r="AG21" t="n">
-        <v>3.047353097791343</v>
+        <v>1.653741734640211</v>
       </c>
       <c r="AH21" t="n">
-        <v>2.96961885594768</v>
+        <v>6.976296067195839</v>
       </c>
       <c r="AI21" t="n">
-        <v>5.791381034175473</v>
+        <v>2.395251797581559</v>
       </c>
       <c r="AJ21" t="n">
-        <v>2.843905263132631</v>
+        <v>6.918399552156456</v>
       </c>
       <c r="AK21" t="n">
-        <v>3.738284233868649</v>
+        <v>3.423254329665634</v>
       </c>
       <c r="AL21" t="n">
-        <v>1.772753858959953</v>
+        <v>3.212499266294506</v>
       </c>
       <c r="AM21" t="n">
-        <v>3.090716872191787</v>
+        <v>3.226317421170954</v>
       </c>
       <c r="AN21" t="n">
-        <v>2.675794959067133</v>
+        <v>3.624001448672241</v>
       </c>
       <c r="AO21" t="n">
-        <v>3.851063176797943</v>
+        <v>2.206576607310702</v>
       </c>
       <c r="AP21" t="n">
-        <v>7.170170239695481</v>
+        <v>2.047599891944339</v>
       </c>
       <c r="AQ21" t="n">
-        <v>4.598817579369514</v>
+        <v>5.124753572261031</v>
       </c>
       <c r="AR21" t="n">
-        <v>3.727622934032801</v>
+        <v>2.225879924309131</v>
       </c>
       <c r="AS21" t="n">
-        <v>0.8510095802884138</v>
-      </c>
-      <c r="AT21" t="n">
-        <v>3.552543275243955</v>
-      </c>
-      <c r="AU21" t="n">
-        <v>4.334676912675881</v>
-      </c>
-      <c r="AV21" t="n">
-        <v>3.015832578560114</v>
+        <v>6.986146344478215</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>连云港海州</t>
+          <t>南京江宁</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>5.221707361305777</v>
+        <v>3.007367100420031</v>
       </c>
       <c r="C22" t="n">
-        <v>3.593988227676602</v>
+        <v>3.526857325379094</v>
       </c>
       <c r="D22" t="n">
-        <v>6.240034689144077</v>
+        <v>2.885133656619508</v>
       </c>
       <c r="E22" t="n">
-        <v>3.021283874791314</v>
+        <v>2.056068091602336</v>
       </c>
       <c r="F22" t="n">
-        <v>2.948043018432375</v>
+        <v>2.099727970377457</v>
       </c>
       <c r="G22" t="n">
-        <v>2.538588958143554</v>
+        <v>1.036088917240697</v>
       </c>
       <c r="H22" t="n">
-        <v>6.326681550390608</v>
+        <v>2.835894221686654</v>
       </c>
       <c r="I22" t="n">
-        <v>4.320973867955511</v>
+        <v>2.966100390566762</v>
       </c>
       <c r="J22" t="n">
-        <v>4.427307000246259</v>
+        <v>3.095051070925799</v>
       </c>
       <c r="K22" t="n">
-        <v>4.539528313061776</v>
+        <v>3.047706146584028</v>
       </c>
       <c r="L22" t="n">
-        <v>4.384679211330385</v>
+        <v>2.537077296596816</v>
       </c>
       <c r="M22" t="n">
-        <v>3.875945205299385</v>
+        <v>2.927355080221021</v>
       </c>
       <c r="N22" t="n">
-        <v>4.204045665246328</v>
+        <v>2.583319318103306</v>
       </c>
       <c r="O22" t="n">
-        <v>3.867443459256239</v>
+        <v>1.51242092365636</v>
       </c>
       <c r="P22" t="n">
-        <v>0.8991425368723023</v>
+        <v>3.416018663127999</v>
       </c>
       <c r="Q22" t="n">
-        <v>4.247705405714242</v>
+        <v>2.197593014568191</v>
       </c>
       <c r="R22" t="n">
-        <v>4.572524986494345</v>
+        <v>3.631640832066251</v>
       </c>
       <c r="S22" t="n">
-        <v>4.572490923148279</v>
+        <v>2.917561413591376</v>
       </c>
       <c r="T22" t="n">
-        <v>5.038026280021672</v>
+        <v>3.756435251089115</v>
       </c>
       <c r="U22" t="n">
-        <v>5.774550874590577</v>
+        <v>2.411497216032527</v>
       </c>
       <c r="V22" t="inlineStr"/>
       <c r="W22" t="n">
-        <v>2.411497216032527</v>
+        <v>4.791312580517474</v>
       </c>
       <c r="X22" t="n">
-        <v>6.512072856826183</v>
+        <v>5.397898224402331</v>
       </c>
       <c r="Y22" t="n">
-        <v>5.697134713891852</v>
+        <v>4.936042632474296</v>
       </c>
       <c r="Z22" t="n">
-        <v>6.310114820019536</v>
+        <v>4.527076899470085</v>
       </c>
       <c r="AA22" t="n">
-        <v>5.276817407822468</v>
+        <v>4.774662183124604</v>
       </c>
       <c r="AB22" t="n">
-        <v>4.950061478149649</v>
+        <v>5.058562400368449</v>
       </c>
       <c r="AC22" t="n">
-        <v>5.272605602882866</v>
+        <v>4.298041922802806</v>
       </c>
       <c r="AD22" t="n">
-        <v>5.459547404921794</v>
+        <v>3.697664691111375</v>
       </c>
       <c r="AE22" t="n">
-        <v>4.873349752374859</v>
+        <v>3.383261619070876</v>
       </c>
       <c r="AF22" t="n">
-        <v>5.007260994827309</v>
+        <v>3.352351122197104</v>
       </c>
       <c r="AG22" t="n">
-        <v>4.071041996439091</v>
+        <v>2.034981925393884</v>
       </c>
       <c r="AH22" t="n">
-        <v>4.08846263380955</v>
+        <v>5.706765762049836</v>
       </c>
       <c r="AI22" t="n">
-        <v>1.653741734640211</v>
+        <v>2.059612439258478</v>
       </c>
       <c r="AJ22" t="n">
-        <v>6.976296067195839</v>
+        <v>5.240675606567508</v>
       </c>
       <c r="AK22" t="n">
-        <v>2.395251797581559</v>
+        <v>2.714524276058664</v>
       </c>
       <c r="AL22" t="n">
-        <v>6.918399552156456</v>
+        <v>1.905975341378429</v>
       </c>
       <c r="AM22" t="n">
-        <v>3.423254329665634</v>
+        <v>1.035933685858282</v>
       </c>
       <c r="AN22" t="n">
-        <v>3.212499266294506</v>
+        <v>3.635561979788772</v>
       </c>
       <c r="AO22" t="n">
-        <v>3.226317421170954</v>
+        <v>2.780334315605925</v>
       </c>
       <c r="AP22" t="n">
-        <v>3.624001448672241</v>
+        <v>1.10294951911696</v>
       </c>
       <c r="AQ22" t="n">
-        <v>2.206576607310702</v>
+        <v>3.324308564538155</v>
       </c>
       <c r="AR22" t="n">
-        <v>2.047599891944339</v>
+        <v>1.158278660834298</v>
       </c>
       <c r="AS22" t="n">
-        <v>5.124753572261031</v>
-      </c>
-      <c r="AT22" t="n">
-        <v>2.225879924309131</v>
-      </c>
-      <c r="AU22" t="n">
-        <v>6.986146344478215</v>
-      </c>
-      <c r="AV22" t="n">
-        <v>3.730241276622465</v>
+        <v>6.320262580618135</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>南京江宁</t>
+          <t>宁波慈溪</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>3.526857325379094</v>
+        <v>1.97768178729073</v>
       </c>
       <c r="C23" t="n">
-        <v>2.885133656619508</v>
+        <v>7.799126304986717</v>
       </c>
       <c r="D23" t="n">
-        <v>5.902073761038287</v>
+        <v>7.671717148843906</v>
       </c>
       <c r="E23" t="n">
-        <v>2.056068091602336</v>
+        <v>2.847230946913237</v>
       </c>
       <c r="F23" t="n">
-        <v>2.099727970377457</v>
+        <v>2.866574968485057</v>
       </c>
       <c r="G23" t="n">
-        <v>1.036088917240697</v>
+        <v>5.825234740231869</v>
       </c>
       <c r="H23" t="n">
-        <v>5.676170005622988</v>
+        <v>2.088478081738976</v>
       </c>
       <c r="I23" t="n">
-        <v>2.835894221686654</v>
+        <v>1.968491032057929</v>
       </c>
       <c r="J23" t="n">
-        <v>2.966100390566762</v>
+        <v>1.856809243834946</v>
       </c>
       <c r="K23" t="n">
-        <v>3.095051070925799</v>
+        <v>1.806718920312428</v>
       </c>
       <c r="L23" t="n">
-        <v>3.047706146584028</v>
+        <v>7.203450079554827</v>
       </c>
       <c r="M23" t="n">
-        <v>2.537077296596816</v>
+        <v>7.576987238794763</v>
       </c>
       <c r="N23" t="n">
-        <v>2.927355080221021</v>
+        <v>2.212290013506309</v>
       </c>
       <c r="O23" t="n">
-        <v>2.583319318103306</v>
-      </c>
-      <c r="P23" t="n">
-        <v>1.51242092365636</v>
-      </c>
+        <v>5.241614916672993</v>
+      </c>
+      <c r="P23" t="inlineStr"/>
       <c r="Q23" t="n">
-        <v>3.416018663127999</v>
+        <v>5.45140175543932</v>
       </c>
       <c r="R23" t="n">
-        <v>2.197593014568191</v>
+        <v>1.179244213983458</v>
       </c>
       <c r="S23" t="n">
-        <v>3.631640832066251</v>
+        <v>3.299055841070818</v>
       </c>
       <c r="T23" t="n">
-        <v>2.917561413591376</v>
+        <v>2.989201968859801</v>
       </c>
       <c r="U23" t="n">
-        <v>3.756435251089115</v>
+        <v>5.697134713891852</v>
       </c>
       <c r="V23" t="n">
-        <v>2.411497216032527</v>
+        <v>4.791312580517474</v>
       </c>
       <c r="W23" t="inlineStr"/>
       <c r="X23" t="n">
-        <v>7.960874238877704</v>
+        <v>0.6228637828841102</v>
       </c>
       <c r="Y23" t="n">
-        <v>4.791312580517474</v>
+        <v>1.261042197276367</v>
       </c>
       <c r="Z23" t="n">
-        <v>5.397898224402331</v>
+        <v>1.159158035100704</v>
       </c>
       <c r="AA23" t="n">
-        <v>4.936042632474296</v>
+        <v>0.9331650845256635</v>
       </c>
       <c r="AB23" t="n">
-        <v>4.527076899470085</v>
+        <v>1.140101396791216</v>
       </c>
       <c r="AC23" t="n">
-        <v>4.774662183124604</v>
+        <v>0.9770691809421852</v>
       </c>
       <c r="AD23" t="n">
-        <v>5.058562400368449</v>
+        <v>1.280178660870162</v>
       </c>
       <c r="AE23" t="n">
-        <v>4.298041922802806</v>
+        <v>1.626092771977694</v>
       </c>
       <c r="AF23" t="n">
-        <v>3.697664691111375</v>
+        <v>1.611164843639536</v>
       </c>
       <c r="AG23" t="n">
-        <v>3.383261619070876</v>
+        <v>6.513405235410272</v>
       </c>
       <c r="AH23" t="n">
-        <v>3.352351122197104</v>
+        <v>1.479718025376108</v>
       </c>
       <c r="AI23" t="n">
-        <v>2.034981925393884</v>
+        <v>3.32008521727414</v>
       </c>
       <c r="AJ23" t="n">
-        <v>5.706765762049836</v>
+        <v>2.303236791129148</v>
       </c>
       <c r="AK23" t="n">
-        <v>2.059612439258478</v>
+        <v>2.296032545439423</v>
       </c>
       <c r="AL23" t="n">
-        <v>5.240675606567508</v>
+        <v>2.89206336440806</v>
       </c>
       <c r="AM23" t="n">
-        <v>2.714524276058664</v>
-      </c>
-      <c r="AN23" t="n">
-        <v>1.90597534137843</v>
-      </c>
+        <v>5.464960499408247</v>
+      </c>
+      <c r="AN23" t="inlineStr"/>
       <c r="AO23" t="n">
-        <v>1.035933685858282</v>
+        <v>3.658033462154726</v>
       </c>
       <c r="AP23" t="n">
-        <v>3.635561979788772</v>
+        <v>4.031114399693598</v>
       </c>
       <c r="AQ23" t="n">
-        <v>2.780334315605925</v>
+        <v>2.35520259486875</v>
       </c>
       <c r="AR23" t="n">
-        <v>1.10294951911696</v>
+        <v>3.863527245004391</v>
       </c>
       <c r="AS23" t="n">
-        <v>3.324308564538155</v>
-      </c>
-      <c r="AT23" t="n">
-        <v>1.158278660834298</v>
-      </c>
-      <c r="AU23" t="n">
-        <v>6.320262580618135</v>
-      </c>
-      <c r="AV23" t="n">
-        <v>3.007367100420031</v>
+        <v>1.564201739382928</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>南通通州</t>
+          <t>宁波鄞州</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>7.900465998228944</v>
-      </c>
-      <c r="C24" t="n">
-        <v>6.00737039635523</v>
-      </c>
-      <c r="D24" t="n">
-        <v>5.199164729275788</v>
-      </c>
-      <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr"/>
+        <v>2.598017824486111</v>
+      </c>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="n">
+        <v>3.469114427185252</v>
+      </c>
+      <c r="F24" t="n">
+        <v>3.489369386838293</v>
+      </c>
       <c r="G24" t="n">
-        <v>7.186809139044118</v>
+        <v>6.429715384057735</v>
       </c>
       <c r="H24" t="n">
-        <v>5.963820495086582</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>6.92744420214227</v>
-      </c>
+        <v>2.648208112752703</v>
+      </c>
+      <c r="I24" t="n">
+        <v>2.522847967609413</v>
+      </c>
+      <c r="J24" t="n">
+        <v>2.403535980470653</v>
+      </c>
+      <c r="K24" t="n">
+        <v>2.382289141773821</v>
+      </c>
+      <c r="L24" t="n">
+        <v>7.785847200256343</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
       <c r="N24" t="n">
-        <v>6.857675435770736</v>
-      </c>
-      <c r="O24" t="inlineStr"/>
-      <c r="P24" t="n">
-        <v>6.997509414773067</v>
-      </c>
+        <v>2.814898035074296</v>
+      </c>
+      <c r="O24" t="n">
+        <v>5.86389526002933</v>
+      </c>
+      <c r="P24" t="inlineStr"/>
       <c r="Q24" t="n">
-        <v>6.112982295951485</v>
-      </c>
-      <c r="R24" t="inlineStr"/>
-      <c r="S24" t="inlineStr"/>
-      <c r="T24" t="inlineStr"/>
-      <c r="U24" t="inlineStr"/>
+        <v>5.956868205817151</v>
+      </c>
+      <c r="R24" t="n">
+        <v>1.800641008468799</v>
+      </c>
+      <c r="S24" t="n">
+        <v>3.724777444984984</v>
+      </c>
+      <c r="T24" t="n">
+        <v>3.295803190819409</v>
+      </c>
+      <c r="U24" t="n">
+        <v>6.310114820019536</v>
+      </c>
       <c r="V24" t="n">
-        <v>6.512072856826183</v>
+        <v>5.397898224402331</v>
       </c>
       <c r="W24" t="n">
-        <v>7.960874238877704</v>
+        <v>0.6228637828841102</v>
       </c>
       <c r="X24" t="inlineStr"/>
-      <c r="Y24" t="inlineStr"/>
-      <c r="Z24" t="inlineStr"/>
-      <c r="AA24" t="inlineStr"/>
-      <c r="AB24" t="inlineStr"/>
-      <c r="AC24" t="inlineStr"/>
-      <c r="AD24" t="inlineStr"/>
-      <c r="AE24" t="inlineStr"/>
-      <c r="AF24" t="inlineStr"/>
-      <c r="AG24" t="inlineStr"/>
-      <c r="AH24" t="inlineStr"/>
+      <c r="Y24" t="n">
+        <v>1.542613101437173</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>1.593320191215586</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>1.29111287491673</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>1.363570232682547</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>1.505825014863079</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>1.797183477068186</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>2.241003228875743</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>2.229585178249462</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>7.135587709500098</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>1.123620314224931</v>
+      </c>
       <c r="AI24" t="n">
-        <v>5.930019699452681</v>
-      </c>
-      <c r="AJ24" t="inlineStr"/>
-      <c r="AK24" t="inlineStr"/>
-      <c r="AL24" t="inlineStr"/>
-      <c r="AM24" t="inlineStr"/>
+        <v>3.939173705409103</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>2.258703461235859</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>2.91731904718104</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>3.504650293594692</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>6.044079554641366</v>
+      </c>
       <c r="AN24" t="inlineStr"/>
-      <c r="AO24" t="inlineStr"/>
+      <c r="AO24" t="n">
+        <v>4.24416717266243</v>
+      </c>
       <c r="AP24" t="n">
-        <v>4.89331764013026</v>
-      </c>
-      <c r="AQ24" t="inlineStr"/>
-      <c r="AR24" t="inlineStr"/>
-      <c r="AS24" t="inlineStr"/>
-      <c r="AT24" t="inlineStr"/>
-      <c r="AU24" t="inlineStr"/>
-      <c r="AV24" t="inlineStr"/>
+        <v>4.65296464345493</v>
+      </c>
+      <c r="AQ24" t="n">
+        <v>2.772756477563229</v>
+      </c>
+      <c r="AR24" t="n">
+        <v>4.48458590902136</v>
+      </c>
+      <c r="AS24" t="n">
+        <v>1.055340483750192</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>宁波慈溪</t>
+          <t>上海宝山</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>7.799126304986717</v>
-      </c>
-      <c r="C25" t="n">
-        <v>7.671717148843906</v>
-      </c>
-      <c r="D25" t="inlineStr"/>
+        <v>1.932855573557691</v>
+      </c>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="n">
+        <v>7.789714803699174</v>
+      </c>
       <c r="E25" t="n">
-        <v>2.847230946913237</v>
+        <v>2.880033377757848</v>
       </c>
       <c r="F25" t="n">
-        <v>2.866574968485057</v>
+        <v>2.841603707827563</v>
       </c>
       <c r="G25" t="n">
-        <v>5.825234740231869</v>
-      </c>
-      <c r="H25" t="inlineStr"/>
+        <v>5.957169840838548</v>
+      </c>
+      <c r="H25" t="n">
+        <v>2.700361231523179</v>
+      </c>
       <c r="I25" t="n">
-        <v>2.088478081738976</v>
+        <v>2.617218799155479</v>
       </c>
       <c r="J25" t="n">
-        <v>1.968491032057929</v>
+        <v>2.548529636153031</v>
       </c>
       <c r="K25" t="n">
-        <v>1.856809243834946</v>
+        <v>2.395369345309246</v>
       </c>
       <c r="L25" t="n">
-        <v>1.806718920312428</v>
+        <v>7.458863074977853</v>
       </c>
       <c r="M25" t="n">
-        <v>7.203450079554827</v>
+        <v>7.846111018142965</v>
       </c>
       <c r="N25" t="n">
-        <v>7.576987238794763</v>
+        <v>2.579879948922974</v>
       </c>
       <c r="O25" t="n">
-        <v>2.212290013506309</v>
-      </c>
-      <c r="P25" t="n">
-        <v>5.241614916672993</v>
-      </c>
-      <c r="Q25" t="inlineStr"/>
+        <v>5.010343417342598</v>
+      </c>
+      <c r="P25" t="inlineStr"/>
+      <c r="Q25" t="n">
+        <v>6.05296431608919</v>
+      </c>
       <c r="R25" t="n">
-        <v>5.45140175543932</v>
+        <v>1.57069567783702</v>
       </c>
       <c r="S25" t="n">
-        <v>1.179244213983458</v>
+        <v>4.16571421202264</v>
       </c>
       <c r="T25" t="n">
-        <v>3.299055841070818</v>
+        <v>4.045480794817339</v>
       </c>
       <c r="U25" t="n">
-        <v>2.989201968859801</v>
+        <v>5.276817407822468</v>
       </c>
       <c r="V25" t="n">
-        <v>5.697134713891852</v>
+        <v>4.936042632474296</v>
       </c>
       <c r="W25" t="n">
-        <v>4.791312580517474</v>
-      </c>
-      <c r="X25" t="inlineStr"/>
+        <v>1.261042197276367</v>
+      </c>
+      <c r="X25" t="n">
+        <v>1.542613101437173</v>
+      </c>
       <c r="Y25" t="inlineStr"/>
       <c r="Z25" t="n">
-        <v>0.6228637828841102</v>
+        <v>0.4153808956661311</v>
       </c>
       <c r="AA25" t="n">
-        <v>1.261042197276367</v>
+        <v>0.3454707468838207</v>
       </c>
       <c r="AB25" t="n">
-        <v>1.159158035100704</v>
+        <v>0.2042281737063245</v>
       </c>
       <c r="AC25" t="n">
-        <v>0.9331650845256635</v>
+        <v>0.7194264288145887</v>
       </c>
       <c r="AD25" t="n">
-        <v>1.140101396791216</v>
+        <v>2.157675715383807</v>
       </c>
       <c r="AE25" t="n">
-        <v>0.9770691809421852</v>
+        <v>1.569533695274838</v>
       </c>
       <c r="AF25" t="n">
-        <v>1.280178660870162</v>
+        <v>1.614557686784432</v>
       </c>
       <c r="AG25" t="n">
-        <v>1.626092771977694</v>
+        <v>6.37154820558172</v>
       </c>
       <c r="AH25" t="n">
-        <v>1.611164843639536</v>
+        <v>2.643599038995975</v>
       </c>
       <c r="AI25" t="n">
-        <v>6.513405235410272</v>
+        <v>3.085247746028958</v>
       </c>
       <c r="AJ25" t="n">
-        <v>1.479718025376108</v>
+        <v>3.563221077167656</v>
       </c>
       <c r="AK25" t="n">
-        <v>3.32008521727414</v>
+        <v>2.222108577816406</v>
       </c>
       <c r="AL25" t="n">
-        <v>2.303236791129148</v>
+        <v>3.087246836375471</v>
       </c>
       <c r="AM25" t="n">
-        <v>2.296032545439423</v>
-      </c>
-      <c r="AN25" t="n">
-        <v>2.89206336440806</v>
-      </c>
+        <v>5.776191914781242</v>
+      </c>
+      <c r="AN25" t="inlineStr"/>
       <c r="AO25" t="n">
-        <v>5.464960499408247</v>
-      </c>
-      <c r="AP25" t="inlineStr"/>
+        <v>3.086416542038411</v>
+      </c>
+      <c r="AP25" t="n">
+        <v>3.980959680151165</v>
+      </c>
       <c r="AQ25" t="n">
-        <v>3.658033462154726</v>
+        <v>3.291566071702908</v>
       </c>
       <c r="AR25" t="n">
-        <v>4.031114399693598</v>
+        <v>3.847924823290412</v>
       </c>
       <c r="AS25" t="n">
-        <v>2.35520259486875</v>
-      </c>
-      <c r="AT25" t="n">
-        <v>3.863527245004391</v>
-      </c>
-      <c r="AU25" t="n">
-        <v>1.564201739382928</v>
-      </c>
-      <c r="AV25" t="n">
-        <v>1.97768178729073</v>
+        <v>1.771553059311316</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>宁波鄞州</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr"/>
-      <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr"/>
+          <t>上海嘉定</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>1.521095305765024</v>
+      </c>
+      <c r="C26" t="n">
+        <v>7.830530422518848</v>
+      </c>
+      <c r="D26" t="n">
+        <v>7.38659137330782</v>
+      </c>
       <c r="E26" t="n">
-        <v>3.469114427185252</v>
+        <v>2.471182669124586</v>
       </c>
       <c r="F26" t="n">
-        <v>3.489369386838293</v>
+        <v>2.43670950454879</v>
       </c>
       <c r="G26" t="n">
-        <v>6.429715384057735</v>
-      </c>
-      <c r="H26" t="inlineStr"/>
+        <v>5.550755001580852</v>
+      </c>
+      <c r="H26" t="n">
+        <v>2.308884927613819</v>
+      </c>
       <c r="I26" t="n">
-        <v>2.648208112752703</v>
+        <v>2.231917995157105</v>
       </c>
       <c r="J26" t="n">
-        <v>2.522847967609413</v>
+        <v>2.170902407353204</v>
       </c>
       <c r="K26" t="n">
-        <v>2.403535980470653</v>
+        <v>2.006310434236994</v>
       </c>
       <c r="L26" t="n">
-        <v>2.382289141773821</v>
+        <v>7.046867441956808</v>
       </c>
       <c r="M26" t="n">
-        <v>7.785847200256343</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+        <v>7.433747141503305</v>
+      </c>
+      <c r="N26" t="n">
+        <v>2.168642755297754</v>
+      </c>
       <c r="O26" t="n">
-        <v>2.814898035074296</v>
+        <v>4.644525300623216</v>
       </c>
       <c r="P26" t="n">
-        <v>5.86389526002933</v>
-      </c>
-      <c r="Q26" t="inlineStr"/>
+        <v>7.940790558914808</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>5.644759267995803</v>
+      </c>
       <c r="R26" t="n">
-        <v>5.956868205817151</v>
+        <v>1.184839128829973</v>
       </c>
       <c r="S26" t="n">
-        <v>1.800641008468799</v>
+        <v>3.798538675404372</v>
       </c>
       <c r="T26" t="n">
-        <v>3.724777444984984</v>
+        <v>3.729668001450801</v>
       </c>
       <c r="U26" t="n">
-        <v>3.295803190819409</v>
+        <v>4.950061478149649</v>
       </c>
       <c r="V26" t="n">
-        <v>6.310114820019536</v>
+        <v>4.527076899470085</v>
       </c>
       <c r="W26" t="n">
-        <v>5.397898224402331</v>
-      </c>
-      <c r="X26" t="inlineStr"/>
+        <v>1.159158035100704</v>
+      </c>
+      <c r="X26" t="n">
+        <v>1.593320191215586</v>
+      </c>
       <c r="Y26" t="n">
-        <v>0.6228637828841102</v>
+        <v>0.4153808956661311</v>
       </c>
       <c r="Z26" t="inlineStr"/>
       <c r="AA26" t="n">
-        <v>1.542613101437173</v>
+        <v>0.3319029267770077</v>
       </c>
       <c r="AB26" t="n">
-        <v>1.593320191215586</v>
+        <v>0.5379077643645725</v>
       </c>
       <c r="AC26" t="n">
-        <v>1.29111287491673</v>
+        <v>0.3394743084139499</v>
       </c>
       <c r="AD26" t="n">
-        <v>1.363570232682547</v>
+        <v>1.829361945638972</v>
       </c>
       <c r="AE26" t="n">
-        <v>1.505825014863079</v>
+        <v>1.154791262148454</v>
       </c>
       <c r="AF26" t="n">
-        <v>1.797183477068186</v>
+        <v>1.199192482424219</v>
       </c>
       <c r="AG26" t="n">
-        <v>2.241003228875743</v>
+        <v>5.995835277042302</v>
       </c>
       <c r="AH26" t="n">
-        <v>2.229585178249462</v>
+        <v>2.625727016783557</v>
       </c>
       <c r="AI26" t="n">
-        <v>7.135587709500098</v>
+        <v>2.70759983634235</v>
       </c>
       <c r="AJ26" t="n">
-        <v>1.123620314224931</v>
+        <v>3.405303213697551</v>
       </c>
       <c r="AK26" t="n">
-        <v>3.939173705409103</v>
+        <v>1.815475631793541</v>
       </c>
       <c r="AL26" t="n">
-        <v>2.258703461235859</v>
+        <v>2.672457637794529</v>
       </c>
       <c r="AM26" t="n">
-        <v>2.91731904718104</v>
+        <v>5.361483904672296</v>
       </c>
       <c r="AN26" t="n">
-        <v>3.504650293594692</v>
+        <v>7.980576628613496</v>
       </c>
       <c r="AO26" t="n">
-        <v>6.044079554641366</v>
-      </c>
-      <c r="AP26" t="inlineStr"/>
+        <v>2.783665481930228</v>
+      </c>
+      <c r="AP26" t="n">
+        <v>3.585290939043268</v>
+      </c>
       <c r="AQ26" t="n">
-        <v>4.24416717266243</v>
+        <v>2.949074949454787</v>
       </c>
       <c r="AR26" t="n">
-        <v>4.65296464345493</v>
+        <v>3.448111329083013</v>
       </c>
       <c r="AS26" t="n">
-        <v>2.772756477563229</v>
-      </c>
-      <c r="AT26" t="n">
-        <v>4.48458590902136</v>
-      </c>
-      <c r="AU26" t="n">
-        <v>1.055340483750192</v>
-      </c>
-      <c r="AV26" t="n">
-        <v>2.598017824486111</v>
+        <v>2.042036709655265</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>上海宝山</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr"/>
-      <c r="C27" t="n">
-        <v>7.789714803699174</v>
-      </c>
-      <c r="D27" t="inlineStr"/>
+          <t>上海闵行</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>1.770938241668305</v>
+      </c>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="n">
+        <v>7.646194777661571</v>
+      </c>
       <c r="E27" t="n">
-        <v>2.880033377757848</v>
+        <v>2.724486365610104</v>
       </c>
       <c r="F27" t="n">
-        <v>2.841603707827563</v>
+        <v>2.70034055754518</v>
       </c>
       <c r="G27" t="n">
-        <v>5.957169840838548</v>
-      </c>
-      <c r="H27" t="inlineStr"/>
+        <v>5.804197045954506</v>
+      </c>
+      <c r="H27" t="n">
+        <v>2.416901558114508</v>
+      </c>
       <c r="I27" t="n">
-        <v>2.700361231523179</v>
+        <v>2.326308324376391</v>
       </c>
       <c r="J27" t="n">
-        <v>2.617218799155479</v>
+        <v>2.249733373131832</v>
       </c>
       <c r="K27" t="n">
-        <v>2.548529636153031</v>
+        <v>2.110435126969739</v>
       </c>
       <c r="L27" t="n">
-        <v>2.395369345309246</v>
+        <v>7.280774487835939</v>
       </c>
       <c r="M27" t="n">
-        <v>7.458863074977853</v>
+        <v>7.665698565990843</v>
       </c>
       <c r="N27" t="n">
-        <v>7.846111018142965</v>
+        <v>2.340437971523301</v>
       </c>
       <c r="O27" t="n">
-        <v>2.579879948922974</v>
-      </c>
-      <c r="P27" t="n">
-        <v>5.010343417342598</v>
-      </c>
-      <c r="Q27" t="inlineStr"/>
+        <v>4.94911777558737</v>
+      </c>
+      <c r="P27" t="inlineStr"/>
+      <c r="Q27" t="n">
+        <v>5.794270300807752</v>
+      </c>
       <c r="R27" t="n">
-        <v>6.05296431608919</v>
+        <v>1.290707925213937</v>
       </c>
       <c r="S27" t="n">
-        <v>1.57069567783702</v>
+        <v>3.853209887185684</v>
       </c>
       <c r="T27" t="n">
-        <v>4.16571421202264</v>
+        <v>3.708464874966734</v>
       </c>
       <c r="U27" t="n">
-        <v>4.045480794817339</v>
+        <v>5.272605602882866</v>
       </c>
       <c r="V27" t="n">
-        <v>5.276817407822468</v>
+        <v>4.774662183124604</v>
       </c>
       <c r="W27" t="n">
-        <v>4.936042632474296</v>
-      </c>
-      <c r="X27" t="inlineStr"/>
+        <v>0.9331650845256635</v>
+      </c>
+      <c r="X27" t="n">
+        <v>1.29111287491673</v>
+      </c>
       <c r="Y27" t="n">
-        <v>1.261042197276367</v>
+        <v>0.3454707468838207</v>
       </c>
       <c r="Z27" t="n">
-        <v>1.542613101437173</v>
+        <v>0.3319029267770077</v>
       </c>
       <c r="AA27" t="inlineStr"/>
       <c r="AB27" t="n">
-        <v>0.4153808956661311</v>
+        <v>0.3204207195309418</v>
       </c>
       <c r="AC27" t="n">
-        <v>0.3454707468838207</v>
+        <v>0.4784634321793431</v>
       </c>
       <c r="AD27" t="n">
-        <v>0.2042281737063245</v>
+        <v>1.828974545952423</v>
       </c>
       <c r="AE27" t="n">
-        <v>0.7194264288145887</v>
+        <v>1.391682101179489</v>
       </c>
       <c r="AF27" t="n">
-        <v>2.157675715383807</v>
+        <v>1.423464422973148</v>
       </c>
       <c r="AG27" t="n">
-        <v>1.569533695274838</v>
+        <v>6.291860317317654</v>
       </c>
       <c r="AH27" t="n">
-        <v>1.614557686784432</v>
+        <v>2.358863204209287</v>
       </c>
       <c r="AI27" t="n">
-        <v>6.37154820558172</v>
+        <v>3.006414044262092</v>
       </c>
       <c r="AJ27" t="n">
-        <v>2.643599038995975</v>
+        <v>3.228802334492255</v>
       </c>
       <c r="AK27" t="n">
-        <v>3.085247746028958</v>
+        <v>2.078663089055451</v>
       </c>
       <c r="AL27" t="n">
-        <v>3.563221077167656</v>
+        <v>2.895403325703134</v>
       </c>
       <c r="AM27" t="n">
-        <v>2.222108577816406</v>
-      </c>
-      <c r="AN27" t="n">
-        <v>3.087246836375471</v>
-      </c>
+        <v>5.579398049942712</v>
+      </c>
+      <c r="AN27" t="inlineStr"/>
       <c r="AO27" t="n">
-        <v>5.776191914781242</v>
-      </c>
-      <c r="AP27" t="inlineStr"/>
+        <v>3.11295594140623</v>
+      </c>
+      <c r="AP27" t="n">
+        <v>3.861970480999031</v>
+      </c>
       <c r="AQ27" t="n">
-        <v>3.086416542038411</v>
+        <v>2.965667173661614</v>
       </c>
       <c r="AR27" t="n">
-        <v>3.980959680151165</v>
+        <v>3.718466518977834</v>
       </c>
       <c r="AS27" t="n">
-        <v>3.291566071702908</v>
-      </c>
-      <c r="AT27" t="n">
-        <v>3.847924823290412</v>
-      </c>
-      <c r="AU27" t="n">
-        <v>1.771553059311316</v>
-      </c>
-      <c r="AV27" t="n">
-        <v>1.932855573557691</v>
+        <v>1.71488275072638</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>上海嘉定</t>
+          <t>上海浦东</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>7.830530422518848</v>
-      </c>
-      <c r="C28" t="n">
-        <v>7.38659137330782</v>
-      </c>
-      <c r="D28" t="inlineStr"/>
+        <v>2.051195572619406</v>
+      </c>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="n">
+        <v>7.922132375290451</v>
+      </c>
       <c r="E28" t="n">
-        <v>2.471182669124586</v>
+        <v>3.003749980865141</v>
       </c>
       <c r="F28" t="n">
-        <v>2.43670950454879</v>
+        <v>2.972238707089848</v>
       </c>
       <c r="G28" t="n">
-        <v>5.550755001580852</v>
-      </c>
-      <c r="H28" t="inlineStr"/>
+        <v>6.084416371196066</v>
+      </c>
+      <c r="H28" t="n">
+        <v>2.737201695279448</v>
+      </c>
       <c r="I28" t="n">
-        <v>2.308884927613819</v>
+        <v>2.646713592708058</v>
       </c>
       <c r="J28" t="n">
-        <v>2.231917995157105</v>
+        <v>2.569716873819826</v>
       </c>
       <c r="K28" t="n">
-        <v>2.170902407353204</v>
+        <v>2.430756022278134</v>
       </c>
       <c r="L28" t="n">
-        <v>2.006310434236994</v>
+        <v>7.5731569958831</v>
       </c>
       <c r="M28" t="n">
-        <v>7.046867441956808</v>
+        <v>7.959167915068445</v>
       </c>
       <c r="N28" t="n">
-        <v>7.433747141503305</v>
+        <v>2.652907656715986</v>
       </c>
       <c r="O28" t="n">
-        <v>2.168642755297754</v>
-      </c>
-      <c r="P28" t="n">
-        <v>4.644525300623216</v>
-      </c>
+        <v>5.175732583416029</v>
+      </c>
+      <c r="P28" t="inlineStr"/>
       <c r="Q28" t="n">
-        <v>7.940790558914808</v>
+        <v>6.112320981051046</v>
       </c>
       <c r="R28" t="n">
-        <v>5.644759267995803</v>
+        <v>1.610277408780498</v>
       </c>
       <c r="S28" t="n">
-        <v>1.184839128829973</v>
+        <v>4.169855493235212</v>
       </c>
       <c r="T28" t="n">
-        <v>3.798538675404372</v>
+        <v>4.00697687366603</v>
       </c>
       <c r="U28" t="n">
-        <v>3.729668001450801</v>
+        <v>5.459547404921794</v>
       </c>
       <c r="V28" t="n">
-        <v>4.950061478149649</v>
+        <v>5.058562400368449</v>
       </c>
       <c r="W28" t="n">
-        <v>4.527076899470085</v>
-      </c>
-      <c r="X28" t="inlineStr"/>
+        <v>1.140101396791216</v>
+      </c>
+      <c r="X28" t="n">
+        <v>1.363570232682547</v>
+      </c>
       <c r="Y28" t="n">
-        <v>1.159158035100704</v>
+        <v>0.2042281737063245</v>
       </c>
       <c r="Z28" t="n">
-        <v>1.593320191215586</v>
+        <v>0.5379077643645725</v>
       </c>
       <c r="AA28" t="n">
-        <v>0.4153808956661311</v>
+        <v>0.3204207195309418</v>
       </c>
       <c r="AB28" t="inlineStr"/>
       <c r="AC28" t="n">
-        <v>0.3319029267770077</v>
+        <v>0.7824940217019624</v>
       </c>
       <c r="AD28" t="n">
-        <v>0.5379077643645725</v>
+        <v>2.13887773589441</v>
       </c>
       <c r="AE28" t="n">
-        <v>0.3394743084139499</v>
+        <v>1.67806387354437</v>
       </c>
       <c r="AF28" t="n">
-        <v>1.829361945638972</v>
+        <v>1.7160454802059</v>
       </c>
       <c r="AG28" t="n">
-        <v>1.15479126214874</v>
+        <v>6.530881393594653</v>
       </c>
       <c r="AH28" t="n">
-        <v>1.199192482424219</v>
+        <v>2.475328290983077</v>
       </c>
       <c r="AI28" t="n">
-        <v>5.995835277042302</v>
+        <v>3.242642835564161</v>
       </c>
       <c r="AJ28" t="n">
-        <v>2.625727016783557</v>
+        <v>3.440491853951755</v>
       </c>
       <c r="AK28" t="n">
-        <v>2.70759983634235</v>
+        <v>2.35041534782011</v>
       </c>
       <c r="AL28" t="n">
-        <v>3.405303213697551</v>
+        <v>3.191608834557886</v>
       </c>
       <c r="AM28" t="n">
-        <v>1.815475631793541</v>
-      </c>
-      <c r="AN28" t="n">
-        <v>2.672457637794529</v>
-      </c>
+        <v>5.879177063143469</v>
+      </c>
+      <c r="AN28" t="inlineStr"/>
       <c r="AO28" t="n">
-        <v>5.361483904672296</v>
+        <v>3.275080506116679</v>
       </c>
       <c r="AP28" t="n">
-        <v>7.980576628613496</v>
+        <v>4.123096241456392</v>
       </c>
       <c r="AQ28" t="n">
-        <v>2.783665481930228</v>
+        <v>3.276204392903086</v>
       </c>
       <c r="AR28" t="n">
-        <v>3.585290939043268</v>
+        <v>3.98526640496722</v>
       </c>
       <c r="AS28" t="n">
-        <v>2.949074949454787</v>
-      </c>
-      <c r="AT28" t="n">
-        <v>3.448111329083013</v>
-      </c>
-      <c r="AU28" t="n">
-        <v>2.042036709655265</v>
-      </c>
-      <c r="AV28" t="n">
-        <v>1.521095305765024</v>
+        <v>1.570446229187304</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>上海闵行</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr"/>
+          <t>上海青浦</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>1.298355902250022</v>
+      </c>
       <c r="C29" t="n">
-        <v>7.646194777661571</v>
-      </c>
-      <c r="D29" t="inlineStr"/>
+        <v>7.551649534865954</v>
+      </c>
+      <c r="D29" t="n">
+        <v>7.172012435490998</v>
+      </c>
       <c r="E29" t="n">
-        <v>2.724486365610104</v>
+        <v>2.250650884200665</v>
       </c>
       <c r="F29" t="n">
-        <v>2.70034055754518</v>
+        <v>2.230643812830885</v>
       </c>
       <c r="G29" t="n">
-        <v>5.804197045954506</v>
-      </c>
-      <c r="H29" t="inlineStr"/>
+        <v>5.328626842506878</v>
+      </c>
+      <c r="H29" t="n">
+        <v>1.981609121879635</v>
+      </c>
       <c r="I29" t="n">
-        <v>2.416901558114508</v>
+        <v>1.90057746071155</v>
       </c>
       <c r="J29" t="n">
-        <v>2.326308324376391</v>
+        <v>1.835971608462423</v>
       </c>
       <c r="K29" t="n">
-        <v>2.249733373131832</v>
+        <v>1.67718105864019</v>
       </c>
       <c r="L29" t="n">
-        <v>2.110435126969739</v>
+        <v>6.802378468847735</v>
       </c>
       <c r="M29" t="n">
-        <v>7.280774487835939</v>
+        <v>7.187248560440116</v>
       </c>
       <c r="N29" t="n">
-        <v>7.665698565990843</v>
+        <v>1.871263686283158</v>
       </c>
       <c r="O29" t="n">
-        <v>2.340437971523301</v>
+        <v>4.510990985281853</v>
       </c>
       <c r="P29" t="n">
-        <v>4.94911777558737</v>
-      </c>
-      <c r="Q29" t="inlineStr"/>
+        <v>7.713996907624112</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>5.337406270809764</v>
+      </c>
       <c r="R29" t="n">
-        <v>5.794270300807752</v>
+        <v>0.8529117613465814</v>
       </c>
       <c r="S29" t="n">
-        <v>1.290707925213937</v>
+        <v>3.461191574347803</v>
       </c>
       <c r="T29" t="n">
-        <v>3.853209887185684</v>
+        <v>3.393061550378155</v>
       </c>
       <c r="U29" t="n">
-        <v>3.708464874966734</v>
+        <v>4.873349752374859</v>
       </c>
       <c r="V29" t="n">
-        <v>5.272605602882866</v>
+        <v>4.298041922802806</v>
       </c>
       <c r="W29" t="n">
-        <v>4.774662183124604</v>
-      </c>
-      <c r="X29" t="inlineStr"/>
+        <v>0.9770691809421852</v>
+      </c>
+      <c r="X29" t="n">
+        <v>1.505825014863079</v>
+      </c>
       <c r="Y29" t="n">
-        <v>0.9331650845256635</v>
+        <v>0.7194264288145887</v>
       </c>
       <c r="Z29" t="n">
-        <v>1.29111287491673</v>
+        <v>0.3394743084139499</v>
       </c>
       <c r="AA29" t="n">
-        <v>0.3454707468838207</v>
+        <v>0.4784634321793431</v>
       </c>
       <c r="AB29" t="n">
-        <v>0.3319029267770077</v>
+        <v>0.7824940217019624</v>
       </c>
       <c r="AC29" t="inlineStr"/>
       <c r="AD29" t="n">
-        <v>0.3204207195309418</v>
+        <v>1.492298407824386</v>
       </c>
       <c r="AE29" t="n">
-        <v>0.4784634321793431</v>
+        <v>0.9168708104961067</v>
       </c>
       <c r="AF29" t="n">
-        <v>1.828974545952423</v>
+        <v>0.945885640325686</v>
       </c>
       <c r="AG29" t="n">
-        <v>1.391682101179489</v>
+        <v>5.841516369969781</v>
       </c>
       <c r="AH29" t="n">
-        <v>1.423464422973148</v>
+        <v>2.455394054571885</v>
       </c>
       <c r="AI29" t="n">
-        <v>6.291860317317654</v>
+        <v>2.564762349594292</v>
       </c>
       <c r="AJ29" t="n">
-        <v>2.358863204209287</v>
+        <v>3.134829535348168</v>
       </c>
       <c r="AK29" t="n">
-        <v>3.006414044262092</v>
+        <v>1.610639522574323</v>
       </c>
       <c r="AL29" t="n">
-        <v>3.228802334492255</v>
+        <v>2.416941376189488</v>
       </c>
       <c r="AM29" t="n">
-        <v>2.078663089055451</v>
+        <v>5.101423436917194</v>
       </c>
       <c r="AN29" t="n">
-        <v>2.895403325703134</v>
+        <v>7.799942735262481</v>
       </c>
       <c r="AO29" t="n">
-        <v>5.579398049942712</v>
-      </c>
-      <c r="AP29" t="inlineStr"/>
+        <v>2.753992319423916</v>
+      </c>
+      <c r="AP29" t="n">
+        <v>3.39757030314208</v>
+      </c>
       <c r="AQ29" t="n">
-        <v>3.11295594140623</v>
+        <v>2.60969154729365</v>
       </c>
       <c r="AR29" t="n">
-        <v>3.861970480999031</v>
+        <v>3.250523386230524</v>
       </c>
       <c r="AS29" t="n">
-        <v>2.965667173661614</v>
-      </c>
-      <c r="AT29" t="n">
-        <v>3.718466518977834</v>
-      </c>
-      <c r="AU29" t="n">
-        <v>1.71488275072638</v>
-      </c>
-      <c r="AV29" t="n">
-        <v>1.770938241668305</v>
+        <v>2.126189717630052</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>上海浦东</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr"/>
+          <t>绍兴越城</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>1.446826953773514</v>
+      </c>
       <c r="C30" t="n">
-        <v>7.922132375290451</v>
-      </c>
-      <c r="D30" t="inlineStr"/>
+        <v>6.540994835509429</v>
+      </c>
+      <c r="D30" t="n">
+        <v>6.539685455872357</v>
+      </c>
       <c r="E30" t="n">
-        <v>3.003749980865141</v>
+        <v>1.990060166041502</v>
       </c>
       <c r="F30" t="n">
-        <v>2.972238707089848</v>
+        <v>2.059268757524075</v>
       </c>
       <c r="G30" t="n">
-        <v>6.084416371196066</v>
-      </c>
-      <c r="H30" t="inlineStr"/>
+        <v>4.712460308201176</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.8719681886412812</v>
+      </c>
       <c r="I30" t="n">
-        <v>2.737201695279448</v>
+        <v>0.7420960934406765</v>
       </c>
       <c r="J30" t="n">
-        <v>2.646713592708058</v>
+        <v>0.6163010677207208</v>
       </c>
       <c r="K30" t="n">
-        <v>2.569716873819826</v>
+        <v>0.660085653820001</v>
       </c>
       <c r="L30" t="n">
-        <v>2.430756022278134</v>
+        <v>6.011007020409724</v>
       </c>
       <c r="M30" t="n">
-        <v>7.5731569958831</v>
+        <v>6.375999486798867</v>
       </c>
       <c r="N30" t="n">
-        <v>7.959167915068445</v>
+        <v>1.173499287991367</v>
       </c>
       <c r="O30" t="n">
-        <v>2.652907656715986</v>
+        <v>4.404813362810547</v>
       </c>
       <c r="P30" t="n">
-        <v>5.175732583416029</v>
-      </c>
-      <c r="Q30" t="inlineStr"/>
+        <v>7.003514654489191</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>4.174173556606089</v>
+      </c>
       <c r="R30" t="n">
-        <v>6.112320981051046</v>
+        <v>0.7693951033443286</v>
       </c>
       <c r="S30" t="n">
-        <v>1.610277408780498</v>
+        <v>2.048468878007268</v>
       </c>
       <c r="T30" t="n">
-        <v>4.169855493235212</v>
+        <v>1.900787992527922</v>
       </c>
       <c r="U30" t="n">
-        <v>4.00697687366603</v>
+        <v>5.007260994827309</v>
       </c>
       <c r="V30" t="n">
-        <v>5.459547404921794</v>
+        <v>3.697664691111375</v>
       </c>
       <c r="W30" t="n">
-        <v>5.058562400368449</v>
-      </c>
-      <c r="X30" t="inlineStr"/>
+        <v>1.280178660870162</v>
+      </c>
+      <c r="X30" t="n">
+        <v>1.797183477068186</v>
+      </c>
       <c r="Y30" t="n">
-        <v>1.140101396791216</v>
+        <v>2.157675715383807</v>
       </c>
       <c r="Z30" t="n">
-        <v>1.363570232682547</v>
+        <v>1.829361945638972</v>
       </c>
       <c r="AA30" t="n">
-        <v>0.2042281737063245</v>
+        <v>1.828974545952423</v>
       </c>
       <c r="AB30" t="n">
-        <v>0.5379077643645725</v>
+        <v>2.13887773589441</v>
       </c>
       <c r="AC30" t="n">
-        <v>0.3204207195309418</v>
+        <v>1.492298407824386</v>
       </c>
       <c r="AD30" t="inlineStr"/>
       <c r="AE30" t="n">
-        <v>0.7824940217019624</v>
+        <v>1.307067232691015</v>
       </c>
       <c r="AF30" t="n">
-        <v>2.13887773589441</v>
+        <v>1.23821109945786</v>
       </c>
       <c r="AG30" t="n">
-        <v>1.67806387354437</v>
+        <v>5.564281401234235</v>
       </c>
       <c r="AH30" t="n">
-        <v>1.7160454802059</v>
+        <v>2.030861451506746</v>
       </c>
       <c r="AI30" t="n">
-        <v>6.530881393594653</v>
+        <v>2.638763194058269</v>
       </c>
       <c r="AJ30" t="n">
-        <v>2.475328290983077</v>
+        <v>2.017914281253853</v>
       </c>
       <c r="AK30" t="n">
-        <v>3.242642835564161</v>
+        <v>1.673119482194245</v>
       </c>
       <c r="AL30" t="n">
-        <v>3.440491853951755</v>
+        <v>1.887013549534444</v>
       </c>
       <c r="AM30" t="n">
-        <v>2.35041534782011</v>
+        <v>4.268086029879921</v>
       </c>
       <c r="AN30" t="n">
-        <v>3.191608834557886</v>
+        <v>7.332681597243199</v>
       </c>
       <c r="AO30" t="n">
-        <v>5.879177063143469</v>
-      </c>
-      <c r="AP30" t="inlineStr"/>
+        <v>3.267896769586474</v>
+      </c>
+      <c r="AP30" t="n">
+        <v>3.114791693368167</v>
+      </c>
       <c r="AQ30" t="n">
-        <v>3.275080506116679</v>
+        <v>1.137327359205453</v>
       </c>
       <c r="AR30" t="n">
-        <v>4.123096241456392</v>
+        <v>2.931886246066893</v>
       </c>
       <c r="AS30" t="n">
-        <v>3.276204392903086</v>
-      </c>
-      <c r="AT30" t="n">
-        <v>3.98526640496722</v>
-      </c>
-      <c r="AU30" t="n">
-        <v>1.570446229187304</v>
-      </c>
-      <c r="AV30" t="n">
-        <v>2.051195572619406</v>
+        <v>2.826120373092785</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>上海青浦</t>
+          <t>苏州相城</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>7.551649534865954</v>
+        <v>0.3829865377248102</v>
       </c>
       <c r="C31" t="n">
-        <v>7.172012435490998</v>
-      </c>
-      <c r="D31" t="inlineStr"/>
+        <v>6.681070402295684</v>
+      </c>
+      <c r="D31" t="n">
+        <v>6.255247931453159</v>
+      </c>
       <c r="E31" t="n">
-        <v>2.250650884200665</v>
+        <v>1.333780534404241</v>
       </c>
       <c r="F31" t="n">
-        <v>2.230643812830885</v>
+        <v>1.316452439119677</v>
       </c>
       <c r="G31" t="n">
-        <v>5.328626842506878</v>
-      </c>
-      <c r="H31" t="inlineStr"/>
+        <v>4.412539482439512</v>
+      </c>
+      <c r="H31" t="n">
+        <v>1.35177875488146</v>
+      </c>
       <c r="I31" t="n">
-        <v>1.981609121879635</v>
+        <v>1.320954834387602</v>
       </c>
       <c r="J31" t="n">
-        <v>1.90057746071155</v>
+        <v>1.314085440351047</v>
       </c>
       <c r="K31" t="n">
-        <v>1.835971608462423</v>
+        <v>1.095913253529229</v>
       </c>
       <c r="L31" t="n">
-        <v>1.67718105864019</v>
+        <v>5.895154615013937</v>
       </c>
       <c r="M31" t="n">
-        <v>6.802378468847735</v>
+        <v>6.281354143192727</v>
       </c>
       <c r="N31" t="n">
-        <v>7.187248560440116</v>
+        <v>1.071186410243623</v>
       </c>
       <c r="O31" t="n">
-        <v>1.871263686283158</v>
+        <v>3.639253244911542</v>
       </c>
       <c r="P31" t="n">
-        <v>4.510990985281853</v>
+        <v>6.79922515301293</v>
       </c>
       <c r="Q31" t="n">
-        <v>7.713996907624112</v>
+        <v>4.537568026975589</v>
       </c>
       <c r="R31" t="n">
-        <v>5.337406270809764</v>
+        <v>0.58445359760113</v>
       </c>
       <c r="S31" t="n">
-        <v>0.8529117613465814</v>
+        <v>2.899246426214405</v>
       </c>
       <c r="T31" t="n">
-        <v>3.461191574347803</v>
+        <v>3.047353097791343</v>
       </c>
       <c r="U31" t="n">
-        <v>3.393061550378155</v>
+        <v>4.071041996439091</v>
       </c>
       <c r="V31" t="n">
-        <v>4.873349752374859</v>
+        <v>3.383261619070876</v>
       </c>
       <c r="W31" t="n">
-        <v>4.298041922802806</v>
-      </c>
-      <c r="X31" t="inlineStr"/>
+        <v>1.626092771977694</v>
+      </c>
+      <c r="X31" t="n">
+        <v>2.241003228875743</v>
+      </c>
       <c r="Y31" t="n">
-        <v>0.9770691809421852</v>
+        <v>1.569533695274838</v>
       </c>
       <c r="Z31" t="n">
-        <v>1.505825014863079</v>
+        <v>1.154791262148454</v>
       </c>
       <c r="AA31" t="n">
-        <v>0.7194264288145887</v>
+        <v>1.391682101179489</v>
       </c>
       <c r="AB31" t="n">
-        <v>0.3394743084139499</v>
+        <v>1.67806387354437</v>
       </c>
       <c r="AC31" t="n">
-        <v>0.4784634321793431</v>
+        <v>0.9168708104961067</v>
       </c>
       <c r="AD31" t="n">
-        <v>0.7824940217019624</v>
+        <v>1.307067232691015</v>
       </c>
       <c r="AE31" t="inlineStr"/>
       <c r="AF31" t="n">
-        <v>1.492298407824386</v>
+        <v>0.07806521543632818</v>
       </c>
       <c r="AG31" t="n">
-        <v>0.9168708104961067</v>
+        <v>4.947502744769303</v>
       </c>
       <c r="AH31" t="n">
-        <v>0.945885640325686</v>
+        <v>2.972642343873876</v>
       </c>
       <c r="AI31" t="n">
-        <v>5.841516369969781</v>
+        <v>1.701344905137508</v>
       </c>
       <c r="AJ31" t="n">
-        <v>2.455394054571885</v>
+        <v>3.291628820860324</v>
       </c>
       <c r="AK31" t="n">
-        <v>2.564762349594292</v>
+        <v>0.701537935989044</v>
       </c>
       <c r="AL31" t="n">
-        <v>3.134829535348168</v>
+        <v>1.517720228174094</v>
       </c>
       <c r="AM31" t="n">
-        <v>1.610639522574323</v>
+        <v>4.206715450903823</v>
       </c>
       <c r="AN31" t="n">
-        <v>2.416941376189488</v>
+        <v>6.889240702353709</v>
       </c>
       <c r="AO31" t="n">
-        <v>5.101423436917194</v>
+        <v>2.081187566750908</v>
       </c>
       <c r="AP31" t="n">
-        <v>7.799942735262481</v>
+        <v>2.48786782322717</v>
       </c>
       <c r="AQ31" t="n">
-        <v>2.753992319423916</v>
+        <v>2.200529202075885</v>
       </c>
       <c r="AR31" t="n">
-        <v>3.39757030314208</v>
+        <v>2.336999961762126</v>
       </c>
       <c r="AS31" t="n">
-        <v>2.60969154729365</v>
-      </c>
-      <c r="AT31" t="n">
-        <v>3.250523386230524</v>
-      </c>
-      <c r="AU31" t="n">
-        <v>2.126189717630052</v>
-      </c>
-      <c r="AV31" t="n">
-        <v>1.298355902250022</v>
+        <v>3.009716444701166</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>绍兴越城</t>
+          <t>苏州园区</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>6.540994835509429</v>
+        <v>0.37253666005624</v>
       </c>
       <c r="C32" t="n">
-        <v>6.539685455872357</v>
-      </c>
-      <c r="D32" t="inlineStr"/>
+        <v>6.632166209059823</v>
+      </c>
+      <c r="D32" t="n">
+        <v>6.228330255551135</v>
+      </c>
       <c r="E32" t="n">
-        <v>1.990060166041502</v>
+        <v>1.30979446503718</v>
       </c>
       <c r="F32" t="n">
-        <v>2.059268757524075</v>
+        <v>1.299955427513849</v>
       </c>
       <c r="G32" t="n">
-        <v>4.712460308201176</v>
-      </c>
-      <c r="H32" t="inlineStr"/>
+        <v>4.38367104042656</v>
+      </c>
+      <c r="H32" t="n">
+        <v>1.275220714921623</v>
+      </c>
       <c r="I32" t="n">
-        <v>0.8719681886412812</v>
+        <v>1.24327229077806</v>
       </c>
       <c r="J32" t="n">
-        <v>0.7420960934406765</v>
+        <v>1.236020344323488</v>
       </c>
       <c r="K32" t="n">
-        <v>0.6163010677207208</v>
+        <v>1.017963021818801</v>
       </c>
       <c r="L32" t="n">
-        <v>0.660085653820001</v>
+        <v>5.858292844195306</v>
       </c>
       <c r="M32" t="n">
-        <v>6.011007020409724</v>
+        <v>6.243797843183419</v>
       </c>
       <c r="N32" t="n">
-        <v>6.375999486798867</v>
+        <v>1.004949426553091</v>
       </c>
       <c r="O32" t="n">
-        <v>1.173499287991367</v>
+        <v>3.640902742004986</v>
       </c>
       <c r="P32" t="n">
-        <v>4.404813362810547</v>
+        <v>6.768221507576408</v>
       </c>
       <c r="Q32" t="n">
-        <v>7.003514654489191</v>
+        <v>4.476692364488459</v>
       </c>
       <c r="R32" t="n">
-        <v>4.174173556606089</v>
+        <v>0.5317862432368822</v>
       </c>
       <c r="S32" t="n">
-        <v>0.7693951033443286</v>
+        <v>2.822755850762911</v>
       </c>
       <c r="T32" t="n">
-        <v>2.048468878007268</v>
+        <v>2.96961885594768</v>
       </c>
       <c r="U32" t="n">
-        <v>1.900787992527922</v>
+        <v>4.08846263380955</v>
       </c>
       <c r="V32" t="n">
-        <v>5.007260994827309</v>
+        <v>3.352351122197104</v>
       </c>
       <c r="W32" t="n">
-        <v>3.697664691111375</v>
-      </c>
-      <c r="X32" t="inlineStr"/>
+        <v>1.611164843639536</v>
+      </c>
+      <c r="X32" t="n">
+        <v>2.229585178249462</v>
+      </c>
       <c r="Y32" t="n">
-        <v>1.280178660870162</v>
+        <v>1.614557686784432</v>
       </c>
       <c r="Z32" t="n">
-        <v>1.797183477068186</v>
+        <v>1.199192482424219</v>
       </c>
       <c r="AA32" t="n">
-        <v>2.157675715383807</v>
+        <v>1.423464422973148</v>
       </c>
       <c r="AB32" t="n">
-        <v>1.829361945638972</v>
+        <v>1.7160454802059</v>
       </c>
       <c r="AC32" t="n">
-        <v>1.828974545952423</v>
+        <v>0.945885640325686</v>
       </c>
       <c r="AD32" t="n">
-        <v>2.13887773589441</v>
+        <v>1.23821109945786</v>
       </c>
       <c r="AE32" t="n">
-        <v>1.492298407824386</v>
+        <v>0.07806521543632818</v>
       </c>
       <c r="AF32" t="inlineStr"/>
       <c r="AG32" t="n">
-        <v>1.307067232691015</v>
+        <v>4.940464289788344</v>
       </c>
       <c r="AH32" t="n">
-        <v>1.23821109945786</v>
+        <v>2.936293127172794</v>
       </c>
       <c r="AI32" t="n">
-        <v>5.564281401234235</v>
+        <v>1.709588974431186</v>
       </c>
       <c r="AJ32" t="n">
-        <v>2.030861451506746</v>
+        <v>3.229960998967256</v>
       </c>
       <c r="AK32" t="n">
-        <v>2.638763194058269</v>
+        <v>0.6946622122490775</v>
       </c>
       <c r="AL32" t="n">
-        <v>2.017914281253853</v>
+        <v>1.475695062879853</v>
       </c>
       <c r="AM32" t="n">
-        <v>1.673119482194245</v>
+        <v>4.164144895667484</v>
       </c>
       <c r="AN32" t="n">
-        <v>1.887013549534444</v>
+        <v>6.872773844583955</v>
       </c>
       <c r="AO32" t="n">
-        <v>4.268086029879921</v>
+        <v>2.122699393890243</v>
       </c>
       <c r="AP32" t="n">
-        <v>7.332681597243199</v>
+        <v>2.473907203114529</v>
       </c>
       <c r="AQ32" t="n">
-        <v>3.267896769586474</v>
+        <v>2.122601829393356</v>
       </c>
       <c r="AR32" t="n">
-        <v>3.114791693368167</v>
+        <v>2.319626128210186</v>
       </c>
       <c r="AS32" t="n">
-        <v>1.137327359205453</v>
-      </c>
-      <c r="AT32" t="n">
-        <v>2.931886246066893</v>
-      </c>
-      <c r="AU32" t="n">
-        <v>2.826120373092785</v>
-      </c>
-      <c r="AV32" t="n">
-        <v>1.446826953773513</v>
+        <v>3.019693837212379</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>苏州相城</t>
+          <t>宿迁宿城</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>6.681070402295684</v>
+        <v>4.568460846170892</v>
       </c>
       <c r="C33" t="n">
-        <v>6.255247931453159</v>
-      </c>
-      <c r="D33" t="inlineStr"/>
+        <v>3.732389565009188</v>
+      </c>
+      <c r="D33" t="n">
+        <v>1.945443838079611</v>
+      </c>
       <c r="E33" t="n">
-        <v>1.333780534404241</v>
+        <v>3.66660037254168</v>
       </c>
       <c r="F33" t="n">
-        <v>1.316452439119677</v>
+        <v>3.649530304470188</v>
       </c>
       <c r="G33" t="n">
-        <v>4.412539482439512</v>
-      </c>
-      <c r="H33" t="inlineStr"/>
+        <v>1.447159877495956</v>
+      </c>
+      <c r="H33" t="n">
+        <v>4.742245474344866</v>
+      </c>
       <c r="I33" t="n">
-        <v>1.35177875488146</v>
+        <v>4.868131769230489</v>
       </c>
       <c r="J33" t="n">
-        <v>1.320954834387602</v>
+        <v>4.995126259220478</v>
       </c>
       <c r="K33" t="n">
-        <v>1.314085440351047</v>
+        <v>4.904344051158853</v>
       </c>
       <c r="L33" t="n">
-        <v>1.095913253529229</v>
+        <v>2.342453985841017</v>
       </c>
       <c r="M33" t="n">
-        <v>5.895154615013937</v>
+        <v>2.627984116514542</v>
       </c>
       <c r="N33" t="n">
-        <v>6.281354143192727</v>
+        <v>4.396233469120249</v>
       </c>
       <c r="O33" t="n">
-        <v>1.071186410243623</v>
+        <v>1.38685254820585</v>
       </c>
       <c r="P33" t="n">
-        <v>3.639253244911542</v>
+        <v>2.597545470970275</v>
       </c>
       <c r="Q33" t="n">
-        <v>6.79922515301293</v>
+        <v>3.7188848323318</v>
       </c>
       <c r="R33" t="n">
-        <v>4.537568026975589</v>
+        <v>5.335088150831615</v>
       </c>
       <c r="S33" t="n">
-        <v>0.58445359760113</v>
+        <v>4.948997578118352</v>
       </c>
       <c r="T33" t="n">
-        <v>2.899246426214405</v>
+        <v>5.791381034175473</v>
       </c>
       <c r="U33" t="n">
-        <v>3.047353097791343</v>
+        <v>1.653741734640211</v>
       </c>
       <c r="V33" t="n">
-        <v>4.071041996439091</v>
+        <v>2.034981925393884</v>
       </c>
       <c r="W33" t="n">
-        <v>3.383261619070876</v>
-      </c>
-      <c r="X33" t="inlineStr"/>
+        <v>6.513405235410272</v>
+      </c>
+      <c r="X33" t="n">
+        <v>7.135587709500098</v>
+      </c>
       <c r="Y33" t="n">
-        <v>1.626092771977694</v>
+        <v>6.37154820558172</v>
       </c>
       <c r="Z33" t="n">
-        <v>2.241003228875743</v>
+        <v>5.995835277042302</v>
       </c>
       <c r="AA33" t="n">
-        <v>1.569533695274838</v>
+        <v>6.291860317317654</v>
       </c>
       <c r="AB33" t="n">
-        <v>1.15479126214874</v>
+        <v>6.530881393594653</v>
       </c>
       <c r="AC33" t="n">
-        <v>1.391682101179489</v>
+        <v>5.841516369969781</v>
       </c>
       <c r="AD33" t="n">
-        <v>1.67806387354437</v>
+        <v>5.564281401234235</v>
       </c>
       <c r="AE33" t="n">
-        <v>0.9168708104961067</v>
+        <v>4.947502744769303</v>
       </c>
       <c r="AF33" t="n">
-        <v>1.307067232691015</v>
+        <v>4.940464289788344</v>
       </c>
       <c r="AG33" t="inlineStr"/>
       <c r="AH33" t="n">
-        <v>0.07806521543632818</v>
+        <v>7.595134786520196</v>
       </c>
       <c r="AI33" t="n">
-        <v>4.947502744769303</v>
+        <v>3.288305110882505</v>
       </c>
       <c r="AJ33" t="n">
-        <v>2.972642343873876</v>
+        <v>7.242886670790001</v>
       </c>
       <c r="AK33" t="n">
-        <v>1.701344905137508</v>
+        <v>4.2468158468277</v>
       </c>
       <c r="AL33" t="n">
-        <v>3.291628820860324</v>
+        <v>3.680400144974429</v>
       </c>
       <c r="AM33" t="n">
-        <v>0.701537935989044</v>
+        <v>2.318220816434313</v>
       </c>
       <c r="AN33" t="n">
-        <v>1.517720228174094</v>
+        <v>2.063857080485218</v>
       </c>
       <c r="AO33" t="n">
-        <v>4.206715450903823</v>
+        <v>3.511017165089576</v>
       </c>
       <c r="AP33" t="n">
-        <v>6.889240702353709</v>
+        <v>2.483095708073096</v>
       </c>
       <c r="AQ33" t="n">
-        <v>2.081187566750908</v>
+        <v>5.333944244683819</v>
       </c>
       <c r="AR33" t="n">
-        <v>2.48786782322717</v>
+        <v>2.655068840733878</v>
       </c>
       <c r="AS33" t="n">
-        <v>2.200529202075885</v>
-      </c>
-      <c r="AT33" t="n">
-        <v>2.336999961762126</v>
-      </c>
-      <c r="AU33" t="n">
-        <v>3.009716444701166</v>
-      </c>
-      <c r="AV33" t="n">
-        <v>0.3829865377248102</v>
+        <v>7.956943164568949</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>苏州园区</t>
+          <t>台州椒江</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>6.632166209059823</v>
-      </c>
-      <c r="C34" t="n">
-        <v>6.228330255551135</v>
-      </c>
+        <v>3.267530292377081</v>
+      </c>
+      <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr"/>
       <c r="E34" t="n">
-        <v>1.30979446503718</v>
+        <v>3.991242524178967</v>
       </c>
       <c r="F34" t="n">
-        <v>1.299955427513849</v>
+        <v>4.044719514220331</v>
       </c>
       <c r="G34" t="n">
-        <v>4.38367104042656</v>
-      </c>
-      <c r="H34" t="inlineStr"/>
+        <v>6.705066170973562</v>
+      </c>
+      <c r="H34" t="n">
+        <v>2.872427637832782</v>
+      </c>
       <c r="I34" t="n">
-        <v>1.275220714921623</v>
+        <v>2.742906137558017</v>
       </c>
       <c r="J34" t="n">
-        <v>1.24327229077806</v>
+        <v>2.614066566401052</v>
       </c>
       <c r="K34" t="n">
-        <v>1.236020344323488</v>
+        <v>2.690813097570832</v>
       </c>
       <c r="L34" t="n">
-        <v>1.017963021818801</v>
-      </c>
-      <c r="M34" t="n">
-        <v>5.858292844195306</v>
-      </c>
+        <v>7.918827249060791</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
       <c r="N34" t="n">
-        <v>6.243797843183419</v>
+        <v>3.201836569433058</v>
       </c>
       <c r="O34" t="n">
-        <v>1.004949426553091</v>
-      </c>
-      <c r="P34" t="n">
-        <v>3.640902742004986</v>
-      </c>
+        <v>6.419915611501649</v>
+      </c>
+      <c r="P34" t="inlineStr"/>
       <c r="Q34" t="n">
-        <v>6.768221507576408</v>
+        <v>5.841153438137186</v>
       </c>
       <c r="R34" t="n">
-        <v>4.476692364488459</v>
+        <v>2.419406292259198</v>
       </c>
       <c r="S34" t="n">
-        <v>0.5317862432368822</v>
+        <v>3.491042595049306</v>
       </c>
       <c r="T34" t="n">
-        <v>2.822755850762911</v>
+        <v>2.843905263132631</v>
       </c>
       <c r="U34" t="n">
-        <v>2.96961885594768</v>
+        <v>6.976296067195839</v>
       </c>
       <c r="V34" t="n">
-        <v>4.08846263380955</v>
+        <v>5.706765762049836</v>
       </c>
       <c r="W34" t="n">
-        <v>3.352351122197104</v>
-      </c>
-      <c r="X34" t="inlineStr"/>
+        <v>1.479718025376108</v>
+      </c>
+      <c r="X34" t="n">
+        <v>1.123620314224931</v>
+      </c>
       <c r="Y34" t="n">
-        <v>1.611164843639536</v>
+        <v>2.643599038995975</v>
       </c>
       <c r="Z34" t="n">
-        <v>2.229585178249462</v>
+        <v>2.625727016783557</v>
       </c>
       <c r="AA34" t="n">
-        <v>1.614557686784432</v>
+        <v>2.358863204209287</v>
       </c>
       <c r="AB34" t="n">
-        <v>1.199192482424219</v>
+        <v>2.475328290983077</v>
       </c>
       <c r="AC34" t="n">
-        <v>1.423464422973148</v>
+        <v>2.455394054571885</v>
       </c>
       <c r="AD34" t="n">
-        <v>1.7160454802059</v>
+        <v>2.030861451506746</v>
       </c>
       <c r="AE34" t="n">
-        <v>0.945885640325686</v>
+        <v>2.972642343873876</v>
       </c>
       <c r="AF34" t="n">
-        <v>1.23821109945786</v>
+        <v>2.936293127172794</v>
       </c>
       <c r="AG34" t="n">
-        <v>0.07806521543632818</v>
+        <v>7.595134786520196</v>
       </c>
       <c r="AH34" t="inlineStr"/>
       <c r="AI34" t="n">
-        <v>4.940464289788344</v>
+        <v>4.582102002177259</v>
       </c>
       <c r="AJ34" t="n">
-        <v>2.936293127172794</v>
+        <v>1.348484063852714</v>
       </c>
       <c r="AK34" t="n">
-        <v>1.709588974431186</v>
+        <v>3.560153390206271</v>
       </c>
       <c r="AL34" t="n">
-        <v>3.229960998967256</v>
+        <v>3.916946534981213</v>
       </c>
       <c r="AM34" t="n">
-        <v>0.6946622122490775</v>
-      </c>
-      <c r="AN34" t="n">
-        <v>1.475695062879853</v>
-      </c>
+        <v>6.189109622124219</v>
+      </c>
+      <c r="AN34" t="inlineStr"/>
       <c r="AO34" t="n">
-        <v>4.164144895667484</v>
+        <v>5.052367551471893</v>
       </c>
       <c r="AP34" t="n">
-        <v>6.872773844583955</v>
+        <v>5.140156145156435</v>
       </c>
       <c r="AQ34" t="n">
-        <v>2.122699393890243</v>
+        <v>2.605987626613949</v>
       </c>
       <c r="AR34" t="n">
-        <v>2.473907203114529</v>
+        <v>4.958666613831925</v>
       </c>
       <c r="AS34" t="n">
-        <v>2.122601829393356</v>
-      </c>
-      <c r="AT34" t="n">
-        <v>2.319626128210186</v>
-      </c>
-      <c r="AU34" t="n">
-        <v>3.019693837212379</v>
-      </c>
-      <c r="AV34" t="n">
-        <v>0.37253666005624</v>
+        <v>1.80031717165944</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>宿迁宿城</t>
+          <t>泰州海陵</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>3.732389565009188</v>
+        <v>1.343084947667983</v>
       </c>
       <c r="C35" t="n">
-        <v>1.945443838079611</v>
+        <v>5.578798677288393</v>
       </c>
       <c r="D35" t="n">
-        <v>4.655701027661277</v>
+        <v>4.772106751893916</v>
       </c>
       <c r="E35" t="n">
-        <v>3.66660037254168</v>
+        <v>0.7318830115647861</v>
       </c>
       <c r="F35" t="n">
-        <v>3.649530304470188</v>
+        <v>0.6185883635211837</v>
       </c>
       <c r="G35" t="n">
-        <v>1.447159877495956</v>
+        <v>2.996419289988744</v>
       </c>
       <c r="H35" t="n">
-        <v>4.689831983127175</v>
+        <v>2.055621349518697</v>
       </c>
       <c r="I35" t="n">
-        <v>4.742245474344866</v>
+        <v>2.140230817658508</v>
       </c>
       <c r="J35" t="n">
-        <v>4.868131769230489</v>
+        <v>2.235973977747959</v>
       </c>
       <c r="K35" t="n">
-        <v>4.995126259220478</v>
+        <v>2.051820509335382</v>
       </c>
       <c r="L35" t="n">
-        <v>4.904344051158853</v>
+        <v>4.568867145554847</v>
       </c>
       <c r="M35" t="n">
-        <v>2.342453985841017</v>
+        <v>4.959145976546065</v>
       </c>
       <c r="N35" t="n">
-        <v>2.627984116514542</v>
+        <v>1.562012413881411</v>
       </c>
       <c r="O35" t="n">
-        <v>4.396233469120249</v>
+        <v>1.946305506923405</v>
       </c>
       <c r="P35" t="n">
-        <v>1.38685254820585</v>
+        <v>5.364990703545069</v>
       </c>
       <c r="Q35" t="n">
-        <v>2.597545470970275</v>
+        <v>3.862388393337203</v>
       </c>
       <c r="R35" t="n">
-        <v>3.7188848323318</v>
+        <v>2.178748549765661</v>
       </c>
       <c r="S35" t="n">
-        <v>5.335088150831615</v>
+        <v>3.187931275410094</v>
       </c>
       <c r="T35" t="n">
-        <v>4.948997578118352</v>
+        <v>3.738284233868649</v>
       </c>
       <c r="U35" t="n">
-        <v>5.791381034175473</v>
+        <v>2.395251797581559</v>
       </c>
       <c r="V35" t="n">
-        <v>1.653741734640211</v>
+        <v>2.059612439258478</v>
       </c>
       <c r="W35" t="n">
-        <v>2.034981925393884</v>
+        <v>3.32008521727414</v>
       </c>
       <c r="X35" t="n">
-        <v>5.930019699452681</v>
+        <v>3.939173705409103</v>
       </c>
       <c r="Y35" t="n">
-        <v>6.513405235410272</v>
+        <v>3.085247746028958</v>
       </c>
       <c r="Z35" t="n">
-        <v>7.135587709500098</v>
+        <v>2.70759983634235</v>
       </c>
       <c r="AA35" t="n">
-        <v>6.37154820558172</v>
+        <v>3.006414044262092</v>
       </c>
       <c r="AB35" t="n">
-        <v>5.995835277042302</v>
+        <v>3.242642835564161</v>
       </c>
       <c r="AC35" t="n">
-        <v>6.291860317317654</v>
+        <v>2.564762349594292</v>
       </c>
       <c r="AD35" t="n">
-        <v>6.530881393594653</v>
+        <v>2.638763194058269</v>
       </c>
       <c r="AE35" t="n">
-        <v>5.841516369969781</v>
+        <v>1.701344905137508</v>
       </c>
       <c r="AF35" t="n">
-        <v>5.564281401234235</v>
+        <v>1.709588974431186</v>
       </c>
       <c r="AG35" t="n">
-        <v>4.947502744769303</v>
+        <v>3.288305110882505</v>
       </c>
       <c r="AH35" t="n">
-        <v>4.940464289788344</v>
+        <v>4.582102002177259</v>
       </c>
       <c r="AI35" t="inlineStr"/>
       <c r="AJ35" t="n">
-        <v>7.595134786520196</v>
+        <v>4.609357851794584</v>
       </c>
       <c r="AK35" t="n">
-        <v>3.288305110882505</v>
+        <v>1.029922420184561</v>
       </c>
       <c r="AL35" t="n">
-        <v>7.242886670790001</v>
+        <v>1.077341578875061</v>
       </c>
       <c r="AM35" t="n">
-        <v>4.2468158468277</v>
+        <v>3.057652123058623</v>
       </c>
       <c r="AN35" t="n">
-        <v>3.680400144974429</v>
+        <v>5.288518036019283</v>
       </c>
       <c r="AO35" t="n">
-        <v>2.318220816434313</v>
+        <v>0.9413664595006476</v>
       </c>
       <c r="AP35" t="n">
-        <v>2.063857080485218</v>
+        <v>0.9717149097175238</v>
       </c>
       <c r="AQ35" t="n">
-        <v>3.511017165089576</v>
+        <v>2.965070924056919</v>
       </c>
       <c r="AR35" t="n">
-        <v>2.483095708073096</v>
+        <v>0.9039683966454999</v>
       </c>
       <c r="AS35" t="n">
-        <v>5.333944244683819</v>
-      </c>
-      <c r="AT35" t="n">
-        <v>2.655068840733878</v>
-      </c>
-      <c r="AU35" t="n">
-        <v>7.956943164568949</v>
-      </c>
-      <c r="AV35" t="n">
-        <v>4.568460846170891</v>
+        <v>4.689703609860715</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>台州椒江</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr"/>
-      <c r="C36" t="inlineStr"/>
-      <c r="D36" t="inlineStr"/>
+          <t>温州龙湾</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>3.464356199511611</v>
+      </c>
+      <c r="C36" t="n">
+        <v>7.361465132482224</v>
+      </c>
+      <c r="D36" t="n">
+        <v>7.868856882667588</v>
+      </c>
       <c r="E36" t="n">
-        <v>3.991242524178967</v>
+        <v>3.913127286266713</v>
       </c>
       <c r="F36" t="n">
-        <v>4.044719514220331</v>
+        <v>4.003497642853453</v>
       </c>
       <c r="G36" t="n">
-        <v>6.705066170973562</v>
-      </c>
-      <c r="H36" t="inlineStr"/>
+        <v>6.158608802988837</v>
+      </c>
+      <c r="H36" t="n">
+        <v>2.597604946732942</v>
+      </c>
       <c r="I36" t="n">
-        <v>2.872427637832782</v>
+        <v>2.491940883951944</v>
       </c>
       <c r="J36" t="n">
-        <v>2.742906137558017</v>
+        <v>2.383301528389323</v>
       </c>
       <c r="K36" t="n">
-        <v>2.614066566401052</v>
+        <v>2.557587803174087</v>
       </c>
       <c r="L36" t="n">
-        <v>2.690813097570832</v>
+        <v>7.181488668128554</v>
       </c>
       <c r="M36" t="n">
-        <v>7.918827249060791</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+        <v>7.501325038787653</v>
+      </c>
+      <c r="N36" t="n">
+        <v>3.060494420698309</v>
+      </c>
       <c r="O36" t="n">
-        <v>3.201836569433058</v>
-      </c>
-      <c r="P36" t="n">
-        <v>6.419915611501649</v>
-      </c>
-      <c r="Q36" t="inlineStr"/>
+        <v>6.231011612232806</v>
+      </c>
+      <c r="P36" t="inlineStr"/>
+      <c r="Q36" t="n">
+        <v>4.910677640081492</v>
+      </c>
       <c r="R36" t="n">
-        <v>5.841153438137186</v>
+        <v>2.712896711686308</v>
       </c>
       <c r="S36" t="n">
-        <v>2.419406292259198</v>
+        <v>2.580703884138221</v>
       </c>
       <c r="T36" t="n">
-        <v>3.491042595049306</v>
+        <v>1.772753858959953</v>
       </c>
       <c r="U36" t="n">
-        <v>2.843905263132631</v>
+        <v>6.918399552156456</v>
       </c>
       <c r="V36" t="n">
-        <v>6.976296067195839</v>
+        <v>5.240675606567508</v>
       </c>
       <c r="W36" t="n">
-        <v>5.706765762049836</v>
-      </c>
-      <c r="X36" t="inlineStr"/>
+        <v>2.303236791129148</v>
+      </c>
+      <c r="X36" t="n">
+        <v>2.258703461235859</v>
+      </c>
       <c r="Y36" t="n">
-        <v>1.479718025376108</v>
+        <v>3.563221077167656</v>
       </c>
       <c r="Z36" t="n">
-        <v>1.123620314224931</v>
+        <v>3.405303213697551</v>
       </c>
       <c r="AA36" t="n">
-        <v>2.643599038995975</v>
+        <v>3.228802334492255</v>
       </c>
       <c r="AB36" t="n">
-        <v>2.625727016783557</v>
+        <v>3.440491853951755</v>
       </c>
       <c r="AC36" t="n">
-        <v>2.358863204209287</v>
+        <v>3.134829535348168</v>
       </c>
       <c r="AD36" t="n">
-        <v>2.475328290983077</v>
+        <v>2.017914281253853</v>
       </c>
       <c r="AE36" t="n">
-        <v>2.455394054571885</v>
+        <v>3.291628820860324</v>
       </c>
       <c r="AF36" t="n">
-        <v>2.030861451506746</v>
+        <v>3.229960998967256</v>
       </c>
       <c r="AG36" t="n">
-        <v>2.972642343873876</v>
+        <v>7.242886670790001</v>
       </c>
       <c r="AH36" t="n">
-        <v>2.936293127172794</v>
+        <v>1.348484063852714</v>
       </c>
       <c r="AI36" t="n">
-        <v>7.595134786520196</v>
+        <v>4.609357851794584</v>
       </c>
       <c r="AJ36" t="inlineStr"/>
       <c r="AK36" t="n">
-        <v>4.582102002177259</v>
+        <v>3.684746693117602</v>
       </c>
       <c r="AL36" t="n">
-        <v>1.348484063852714</v>
+        <v>3.70963502357465</v>
       </c>
       <c r="AM36" t="n">
-        <v>3.560153390206271</v>
-      </c>
-      <c r="AN36" t="n">
-        <v>3.916946534981213</v>
-      </c>
+        <v>5.514780141324716</v>
+      </c>
+      <c r="AN36" t="inlineStr"/>
       <c r="AO36" t="n">
-        <v>6.189109622124219</v>
-      </c>
-      <c r="AP36" t="inlineStr"/>
+        <v>5.284321431827447</v>
+      </c>
+      <c r="AP36" t="n">
+        <v>4.925158435925711</v>
+      </c>
       <c r="AQ36" t="n">
-        <v>5.052367551471893</v>
+        <v>1.916926978608774</v>
       </c>
       <c r="AR36" t="n">
-        <v>5.140156145156435</v>
+        <v>4.738773338651813</v>
       </c>
       <c r="AS36" t="n">
-        <v>2.605987626613949</v>
-      </c>
-      <c r="AT36" t="n">
-        <v>4.958666613831925</v>
-      </c>
-      <c r="AU36" t="n">
-        <v>1.80031717165944</v>
-      </c>
-      <c r="AV36" t="n">
-        <v>3.267530292377081</v>
+        <v>3.122092892203996</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>泰州海陵</t>
+          <t>无锡惠山</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>5.578798677288393</v>
+        <v>0.3221262964310132</v>
       </c>
       <c r="C37" t="n">
-        <v>4.772106751893916</v>
+        <v>6.089151805281328</v>
       </c>
       <c r="D37" t="n">
-        <v>7.765029035399036</v>
+        <v>5.571721915896892</v>
       </c>
       <c r="E37" t="n">
-        <v>0.7318830115647861</v>
+        <v>0.6601107919530182</v>
       </c>
       <c r="F37" t="n">
-        <v>0.6185883635211837</v>
+        <v>0.6221116975282154</v>
       </c>
       <c r="G37" t="n">
-        <v>2.996419289988744</v>
+        <v>3.735474522598292</v>
       </c>
       <c r="H37" t="n">
-        <v>7.628986679145592</v>
+        <v>1.302348810131232</v>
       </c>
       <c r="I37" t="n">
-        <v>2.055621349518697</v>
+        <v>1.340423587847551</v>
       </c>
       <c r="J37" t="n">
-        <v>2.140230817658508</v>
+        <v>1.39923826426589</v>
       </c>
       <c r="K37" t="n">
-        <v>2.235973977747959</v>
+        <v>1.180496678162911</v>
       </c>
       <c r="L37" t="n">
-        <v>2.051820509335382</v>
+        <v>5.24270970023204</v>
       </c>
       <c r="M37" t="n">
-        <v>4.568867145554847</v>
+        <v>5.631195393447428</v>
       </c>
       <c r="N37" t="n">
-        <v>4.959145976546065</v>
+        <v>0.8320781082250754</v>
       </c>
       <c r="O37" t="n">
-        <v>1.562012413881411</v>
+        <v>2.948007068305716</v>
       </c>
       <c r="P37" t="n">
-        <v>1.946305506923405</v>
+        <v>6.125937136566183</v>
       </c>
       <c r="Q37" t="n">
-        <v>5.364990703545069</v>
+        <v>4.055764270726406</v>
       </c>
       <c r="R37" t="n">
-        <v>3.862388393337203</v>
+        <v>1.149280926116686</v>
       </c>
       <c r="S37" t="n">
-        <v>2.178748549765661</v>
+        <v>2.744526882841941</v>
       </c>
       <c r="T37" t="n">
-        <v>3.187931275410094</v>
+        <v>3.090716872191787</v>
       </c>
       <c r="U37" t="n">
-        <v>3.738284233868649</v>
+        <v>3.423254329665634</v>
       </c>
       <c r="V37" t="n">
-        <v>2.395251797581559</v>
+        <v>2.714524276058664</v>
       </c>
       <c r="W37" t="n">
-        <v>2.059612439258478</v>
-      </c>
-      <c r="X37" t="inlineStr"/>
+        <v>2.296032545439423</v>
+      </c>
+      <c r="X37" t="n">
+        <v>2.91731904718104</v>
+      </c>
       <c r="Y37" t="n">
-        <v>3.32008521727414</v>
+        <v>2.222108577816406</v>
       </c>
       <c r="Z37" t="n">
-        <v>3.939173705409103</v>
+        <v>1.815475631793541</v>
       </c>
       <c r="AA37" t="n">
-        <v>3.085247746028958</v>
+        <v>2.078663089055451</v>
       </c>
       <c r="AB37" t="n">
-        <v>2.70759983634235</v>
+        <v>2.35041534782011</v>
       </c>
       <c r="AC37" t="n">
-        <v>3.006414044262092</v>
+        <v>1.610639522574323</v>
       </c>
       <c r="AD37" t="n">
-        <v>3.242642835564161</v>
+        <v>1.673119482194245</v>
       </c>
       <c r="AE37" t="n">
-        <v>2.564762349594292</v>
+        <v>0.701537935989044</v>
       </c>
       <c r="AF37" t="n">
-        <v>2.638763194058269</v>
+        <v>0.6946622122490775</v>
       </c>
       <c r="AG37" t="n">
-        <v>1.701344905137508</v>
+        <v>4.2468158468277</v>
       </c>
       <c r="AH37" t="n">
-        <v>1.709588974431186</v>
+        <v>3.560153390206271</v>
       </c>
       <c r="AI37" t="n">
-        <v>3.288305110882505</v>
+        <v>1.029922420184561</v>
       </c>
       <c r="AJ37" t="n">
-        <v>4.582102002177259</v>
+        <v>3.684746693117602</v>
       </c>
       <c r="AK37" t="inlineStr"/>
       <c r="AL37" t="n">
-        <v>4.609357851794584</v>
+        <v>0.9353711649937518</v>
       </c>
       <c r="AM37" t="n">
-        <v>1.029922420184561</v>
+        <v>3.584744189852986</v>
       </c>
       <c r="AN37" t="n">
-        <v>1.077341578875061</v>
+        <v>6.189856457026441</v>
       </c>
       <c r="AO37" t="n">
-        <v>3.057652123058623</v>
+        <v>1.602771250109865</v>
       </c>
       <c r="AP37" t="n">
-        <v>5.288518036019283</v>
+        <v>1.787623651491445</v>
       </c>
       <c r="AQ37" t="n">
-        <v>0.9413664595006476</v>
+        <v>2.251897812172089</v>
       </c>
       <c r="AR37" t="n">
-        <v>0.9717149097175238</v>
+        <v>1.64016439985667</v>
       </c>
       <c r="AS37" t="n">
-        <v>2.965070924056919</v>
-      </c>
-      <c r="AT37" t="n">
-        <v>0.9039683966454999</v>
-      </c>
-      <c r="AU37" t="n">
-        <v>4.689703609860715</v>
-      </c>
-      <c r="AV37" t="n">
-        <v>1.343084947667983</v>
+        <v>3.711023845692766</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>温州龙湾</t>
+          <t>无锡宜兴</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>7.361465132482224</v>
+        <v>1.166088558942259</v>
       </c>
       <c r="C38" t="n">
-        <v>7.868856882667588</v>
-      </c>
-      <c r="D38" t="inlineStr"/>
+        <v>5.171514441325853</v>
+      </c>
+      <c r="D38" t="n">
+        <v>4.791079162769123</v>
+      </c>
       <c r="E38" t="n">
-        <v>3.913127286266713</v>
+        <v>0.3996073850559351</v>
       </c>
       <c r="F38" t="n">
-        <v>4.003497642853453</v>
+        <v>0.5295408785998366</v>
       </c>
       <c r="G38" t="n">
-        <v>6.158608802988837</v>
-      </c>
-      <c r="H38" t="inlineStr"/>
+        <v>2.94205187642083</v>
+      </c>
+      <c r="H38" t="n">
+        <v>1.113992334818136</v>
+      </c>
       <c r="I38" t="n">
-        <v>2.597604946732942</v>
+        <v>1.227699543153975</v>
       </c>
       <c r="J38" t="n">
-        <v>2.491940883951944</v>
+        <v>1.347466607638822</v>
       </c>
       <c r="K38" t="n">
-        <v>2.383301528389323</v>
+        <v>1.229187499044717</v>
       </c>
       <c r="L38" t="n">
-        <v>2.557587803174087</v>
+        <v>4.386193273398968</v>
       </c>
       <c r="M38" t="n">
-        <v>7.181488668128554</v>
+        <v>4.770506337914973</v>
       </c>
       <c r="N38" t="n">
-        <v>7.501325038787653</v>
+        <v>0.7158488355163384</v>
       </c>
       <c r="O38" t="n">
-        <v>3.060494420698309</v>
+        <v>2.536620419796961</v>
       </c>
       <c r="P38" t="n">
-        <v>6.231011612232806</v>
-      </c>
-      <c r="Q38" t="inlineStr"/>
+        <v>5.311800324259093</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>3.126285266390688</v>
+      </c>
       <c r="R38" t="n">
-        <v>4.910677640081492</v>
+        <v>1.726055179873634</v>
       </c>
       <c r="S38" t="n">
-        <v>2.712896711686308</v>
+        <v>2.113053757527196</v>
       </c>
       <c r="T38" t="n">
-        <v>2.580703884138221</v>
+        <v>2.675794959067133</v>
       </c>
       <c r="U38" t="n">
-        <v>1.772753858959953</v>
+        <v>3.212499266294506</v>
       </c>
       <c r="V38" t="n">
-        <v>6.918399552156456</v>
+        <v>1.905975341378429</v>
       </c>
       <c r="W38" t="n">
-        <v>5.240675606567508</v>
-      </c>
-      <c r="X38" t="inlineStr"/>
+        <v>2.89206336440806</v>
+      </c>
+      <c r="X38" t="n">
+        <v>3.504650293594692</v>
+      </c>
       <c r="Y38" t="n">
-        <v>2.303236791129148</v>
+        <v>3.087246836375471</v>
       </c>
       <c r="Z38" t="n">
-        <v>2.258703461235859</v>
+        <v>2.672457637794529</v>
       </c>
       <c r="AA38" t="n">
-        <v>3.563221077167656</v>
+        <v>2.895403325703134</v>
       </c>
       <c r="AB38" t="n">
-        <v>3.405303213697551</v>
+        <v>3.191608834557886</v>
       </c>
       <c r="AC38" t="n">
-        <v>3.228802334492255</v>
+        <v>2.416941376189488</v>
       </c>
       <c r="AD38" t="n">
-        <v>3.440491853951755</v>
+        <v>1.887013549534444</v>
       </c>
       <c r="AE38" t="n">
-        <v>3.134829535348168</v>
+        <v>1.517720228174094</v>
       </c>
       <c r="AF38" t="n">
-        <v>2.017914281253853</v>
+        <v>1.475695062879853</v>
       </c>
       <c r="AG38" t="n">
-        <v>3.291628820860324</v>
+        <v>3.680400144974429</v>
       </c>
       <c r="AH38" t="n">
-        <v>3.229960998967256</v>
+        <v>3.916946534981213</v>
       </c>
       <c r="AI38" t="n">
-        <v>7.242886670790001</v>
+        <v>1.077341578875061</v>
       </c>
       <c r="AJ38" t="n">
-        <v>1.348484063852714</v>
+        <v>3.70963502357465</v>
       </c>
       <c r="AK38" t="n">
-        <v>4.609357851794584</v>
+        <v>0.9353711649937518</v>
       </c>
       <c r="AL38" t="inlineStr"/>
       <c r="AM38" t="n">
-        <v>3.684746693117602</v>
+        <v>2.689034058127677</v>
       </c>
       <c r="AN38" t="n">
-        <v>3.70963502357465</v>
+        <v>5.503161139349748</v>
       </c>
       <c r="AO38" t="n">
-        <v>5.514780141324716</v>
-      </c>
-      <c r="AP38" t="inlineStr"/>
+        <v>1.992165690794899</v>
+      </c>
+      <c r="AP38" t="n">
+        <v>1.233985758350705</v>
+      </c>
       <c r="AQ38" t="n">
-        <v>5.284321431827447</v>
+        <v>1.938502762078589</v>
       </c>
       <c r="AR38" t="n">
-        <v>4.925158435925711</v>
+        <v>1.048872149021876</v>
       </c>
       <c r="AS38" t="n">
-        <v>1.916926978608774</v>
-      </c>
-      <c r="AT38" t="n">
-        <v>4.738773338651813</v>
-      </c>
-      <c r="AU38" t="n">
-        <v>3.122092892203996</v>
-      </c>
-      <c r="AV38" t="n">
-        <v>3.464356199511611</v>
+        <v>4.414324271987695</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>无锡惠山</t>
+          <t>芜湖弋江</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>6.089151805281328</v>
+        <v>3.848962613103422</v>
       </c>
       <c r="C39" t="n">
-        <v>5.571721915896892</v>
-      </c>
-      <c r="D39" t="inlineStr"/>
+        <v>2.527127276054172</v>
+      </c>
+      <c r="D39" t="n">
+        <v>2.354078616995535</v>
+      </c>
       <c r="E39" t="n">
-        <v>0.6601107919530182</v>
+        <v>2.930332334554974</v>
       </c>
       <c r="F39" t="n">
-        <v>0.6221116975282154</v>
+        <v>2.999509426256644</v>
       </c>
       <c r="G39" t="n">
-        <v>3.735474522598292</v>
-      </c>
-      <c r="H39" t="inlineStr"/>
+        <v>0.8740650494184389</v>
+      </c>
+      <c r="H39" t="n">
+        <v>3.400000651096501</v>
+      </c>
       <c r="I39" t="n">
-        <v>1.302348810131232</v>
+        <v>3.528019625547971</v>
       </c>
       <c r="J39" t="n">
-        <v>1.340423587847551</v>
+        <v>3.652014457973057</v>
       </c>
       <c r="K39" t="n">
-        <v>1.39923826426589</v>
+        <v>3.662486587338785</v>
       </c>
       <c r="L39" t="n">
-        <v>1.180496678162911</v>
+        <v>1.743002575822543</v>
       </c>
       <c r="M39" t="n">
-        <v>5.24270970023204</v>
+        <v>2.112222524309054</v>
       </c>
       <c r="N39" t="n">
-        <v>5.631195393447428</v>
+        <v>3.27434816882552</v>
       </c>
       <c r="O39" t="n">
-        <v>0.8320781082250754</v>
+        <v>2.362480911921098</v>
       </c>
       <c r="P39" t="n">
-        <v>2.948007068305716</v>
+        <v>2.748388196077747</v>
       </c>
       <c r="Q39" t="n">
-        <v>6.125937136566183</v>
+        <v>1.410354019729213</v>
       </c>
       <c r="R39" t="n">
-        <v>4.055764270726406</v>
+        <v>4.35796607549895</v>
       </c>
       <c r="S39" t="n">
-        <v>1.149280926116686</v>
+        <v>2.981991195859334</v>
       </c>
       <c r="T39" t="n">
-        <v>2.744526882841941</v>
+        <v>3.851063176797943</v>
       </c>
       <c r="U39" t="n">
-        <v>3.090716872191787</v>
+        <v>3.226317421170954</v>
       </c>
       <c r="V39" t="n">
-        <v>3.423254329665634</v>
+        <v>1.035933685858282</v>
       </c>
       <c r="W39" t="n">
-        <v>2.714524276058664</v>
-      </c>
-      <c r="X39" t="inlineStr"/>
+        <v>5.464960499408247</v>
+      </c>
+      <c r="X39" t="n">
+        <v>6.044079554641366</v>
+      </c>
       <c r="Y39" t="n">
-        <v>2.296032545439423</v>
+        <v>5.776191914781242</v>
       </c>
       <c r="Z39" t="n">
-        <v>2.91731904718104</v>
+        <v>5.361483904672296</v>
       </c>
       <c r="AA39" t="n">
-        <v>2.222108577816406</v>
+        <v>5.579398049942712</v>
       </c>
       <c r="AB39" t="n">
-        <v>1.815475631793541</v>
+        <v>5.879177063143469</v>
       </c>
       <c r="AC39" t="n">
-        <v>2.078663089055451</v>
+        <v>5.101423436917194</v>
       </c>
       <c r="AD39" t="n">
-        <v>2.35041534782011</v>
+        <v>4.268086029879921</v>
       </c>
       <c r="AE39" t="n">
-        <v>1.610639522574323</v>
+        <v>4.206715450903823</v>
       </c>
       <c r="AF39" t="n">
-        <v>1.673119482194245</v>
+        <v>4.164144895667484</v>
       </c>
       <c r="AG39" t="n">
-        <v>0.701537935989044</v>
+        <v>2.318220816434313</v>
       </c>
       <c r="AH39" t="n">
-        <v>0.6946622122490775</v>
+        <v>6.189109622124219</v>
       </c>
       <c r="AI39" t="n">
-        <v>4.2468158468277</v>
+        <v>3.057652123058623</v>
       </c>
       <c r="AJ39" t="n">
-        <v>3.560153390206271</v>
+        <v>5.514780141324716</v>
       </c>
       <c r="AK39" t="n">
-        <v>1.029922420184561</v>
+        <v>3.584744189852986</v>
       </c>
       <c r="AL39" t="n">
-        <v>3.684746693117602</v>
+        <v>2.689034058127677</v>
       </c>
       <c r="AM39" t="inlineStr"/>
       <c r="AN39" t="n">
-        <v>0.9353711649937518</v>
+        <v>3.322968699791007</v>
       </c>
       <c r="AO39" t="n">
-        <v>3.584744189852986</v>
+        <v>3.813953087240937</v>
       </c>
       <c r="AP39" t="n">
-        <v>6.189856457026441</v>
+        <v>2.12608619170258</v>
       </c>
       <c r="AQ39" t="n">
-        <v>1.602771250109865</v>
+        <v>3.638451567770833</v>
       </c>
       <c r="AR39" t="n">
-        <v>1.787623651491445</v>
+        <v>2.155516639274251</v>
       </c>
       <c r="AS39" t="n">
-        <v>2.251897812172089</v>
-      </c>
-      <c r="AT39" t="n">
-        <v>1.64016439985667</v>
-      </c>
-      <c r="AU39" t="n">
-        <v>3.711023845692766</v>
-      </c>
-      <c r="AV39" t="n">
-        <v>0.3221262964310132</v>
+        <v>7.024154765317708</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>无锡宜兴</t>
+          <t>徐州铜山</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>5.171514441325853</v>
+        <v>6.506320377360568</v>
       </c>
       <c r="C40" t="n">
-        <v>4.791079162769123</v>
+        <v>3.12130656886058</v>
       </c>
       <c r="D40" t="n">
-        <v>7.807160356017849</v>
+        <v>1.114473112463049</v>
       </c>
       <c r="E40" t="n">
-        <v>0.3996073850559351</v>
+        <v>5.567781136038186</v>
       </c>
       <c r="F40" t="n">
-        <v>0.5295408785998366</v>
+        <v>5.573254285500265</v>
       </c>
       <c r="G40" t="n">
-        <v>2.94205187642083</v>
+        <v>2.645554341412951</v>
       </c>
       <c r="H40" t="n">
-        <v>7.561991384964504</v>
+        <v>6.471234258310188</v>
       </c>
       <c r="I40" t="n">
-        <v>1.113992334818136</v>
+        <v>6.601519052220143</v>
       </c>
       <c r="J40" t="n">
-        <v>1.227699543153975</v>
+        <v>6.730453607941351</v>
       </c>
       <c r="K40" t="n">
-        <v>1.347466607638822</v>
+        <v>6.680411125975461</v>
       </c>
       <c r="L40" t="n">
-        <v>1.229187499044717</v>
+        <v>2.034129114736582</v>
       </c>
       <c r="M40" t="n">
-        <v>4.386193273398968</v>
+        <v>1.990244544090537</v>
       </c>
       <c r="N40" t="n">
-        <v>4.770506337914973</v>
+        <v>6.20333551266338</v>
       </c>
       <c r="O40" t="n">
-        <v>0.7158488355163384</v>
+        <v>3.444504652697473</v>
       </c>
       <c r="P40" t="n">
-        <v>2.536620419796961</v>
+        <v>1.338750943639257</v>
       </c>
       <c r="Q40" t="n">
-        <v>5.311800324259093</v>
+        <v>4.414932021161586</v>
       </c>
       <c r="R40" t="n">
-        <v>3.126285266390688</v>
+        <v>7.217504093128869</v>
       </c>
       <c r="S40" t="n">
-        <v>1.726055179873634</v>
+        <v>6.300349304769385</v>
       </c>
       <c r="T40" t="n">
-        <v>2.113053757527196</v>
+        <v>7.170170239695481</v>
       </c>
       <c r="U40" t="n">
-        <v>2.675794959067133</v>
+        <v>3.624001448672241</v>
       </c>
       <c r="V40" t="n">
-        <v>3.212499266294506</v>
-      </c>
-      <c r="W40" t="n">
-        <v>1.90597534137843</v>
-      </c>
+        <v>3.635561979788772</v>
+      </c>
+      <c r="W40" t="inlineStr"/>
       <c r="X40" t="inlineStr"/>
-      <c r="Y40" t="n">
-        <v>2.89206336440806</v>
-      </c>
+      <c r="Y40" t="inlineStr"/>
       <c r="Z40" t="n">
-        <v>3.504650293594692</v>
-      </c>
-      <c r="AA40" t="n">
-        <v>3.087246836375471</v>
-      </c>
-      <c r="AB40" t="n">
-        <v>2.672457637794529</v>
-      </c>
+        <v>7.980576628613496</v>
+      </c>
+      <c r="AA40" t="inlineStr"/>
+      <c r="AB40" t="inlineStr"/>
       <c r="AC40" t="n">
-        <v>2.895403325703134</v>
+        <v>7.799942735262481</v>
       </c>
       <c r="AD40" t="n">
-        <v>3.191608834557886</v>
+        <v>7.332681597243199</v>
       </c>
       <c r="AE40" t="n">
-        <v>2.416941376189488</v>
+        <v>6.889240702353709</v>
       </c>
       <c r="AF40" t="n">
-        <v>1.887013549534444</v>
+        <v>6.872773844583955</v>
       </c>
       <c r="AG40" t="n">
-        <v>1.517720228174094</v>
-      </c>
-      <c r="AH40" t="n">
-        <v>1.475695062879853</v>
-      </c>
+        <v>2.063857080485218</v>
+      </c>
+      <c r="AH40" t="inlineStr"/>
       <c r="AI40" t="n">
-        <v>3.680400144974429</v>
-      </c>
-      <c r="AJ40" t="n">
-        <v>3.916946534981213</v>
-      </c>
+        <v>5.288518036019283</v>
+      </c>
+      <c r="AJ40" t="inlineStr"/>
       <c r="AK40" t="n">
-        <v>1.077341578875061</v>
+        <v>6.189856457026441</v>
       </c>
       <c r="AL40" t="n">
-        <v>3.70963502357465</v>
+        <v>5.503161139349748</v>
       </c>
       <c r="AM40" t="n">
-        <v>0.9353711649937518</v>
+        <v>3.322968699791007</v>
       </c>
       <c r="AN40" t="inlineStr"/>
       <c r="AO40" t="n">
-        <v>2.689034058127677</v>
+        <v>5.573429810568092</v>
       </c>
       <c r="AP40" t="n">
-        <v>5.503161139349748</v>
+        <v>4.402385406559224</v>
       </c>
       <c r="AQ40" t="n">
-        <v>1.992165690794899</v>
+        <v>6.89027848539064</v>
       </c>
       <c r="AR40" t="n">
-        <v>1.233985758350705</v>
-      </c>
-      <c r="AS40" t="n">
-        <v>1.938502762078589</v>
-      </c>
-      <c r="AT40" t="n">
-        <v>1.048872149021876</v>
-      </c>
-      <c r="AU40" t="n">
-        <v>4.414324271987695</v>
-      </c>
-      <c r="AV40" t="n">
-        <v>1.166088558942259</v>
-      </c>
+        <v>4.5531497162146</v>
+      </c>
+      <c r="AS40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>芜湖弋江</t>
+          <t>盐城亭湖</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2.527127276054172</v>
+        <v>1.829167492067056</v>
       </c>
       <c r="C41" t="n">
-        <v>2.354078616995535</v>
+        <v>6.290819352426952</v>
       </c>
       <c r="D41" t="n">
-        <v>5.269017384910742</v>
+        <v>5.227635358271483</v>
       </c>
       <c r="E41" t="n">
-        <v>2.930332334554974</v>
+        <v>1.610908442101419</v>
       </c>
       <c r="F41" t="n">
-        <v>2.999509426256644</v>
+        <v>1.481675602417276</v>
       </c>
       <c r="G41" t="n">
-        <v>0.8740650494184389</v>
+        <v>3.58439843118022</v>
       </c>
       <c r="H41" t="n">
-        <v>4.93605862715502</v>
+        <v>2.847412949258052</v>
       </c>
       <c r="I41" t="n">
-        <v>3.400000651096501</v>
+        <v>2.908888007654054</v>
       </c>
       <c r="J41" t="n">
-        <v>3.528019625547971</v>
+        <v>2.983442930068868</v>
       </c>
       <c r="K41" t="n">
-        <v>3.652014457973057</v>
+        <v>2.772966366643835</v>
       </c>
       <c r="L41" t="n">
-        <v>3.662486587338785</v>
+        <v>5.16836413698991</v>
       </c>
       <c r="M41" t="n">
-        <v>1.743002575822543</v>
+        <v>5.551944914306288</v>
       </c>
       <c r="N41" t="n">
-        <v>2.112222524309054</v>
+        <v>2.347096635895322</v>
       </c>
       <c r="O41" t="n">
-        <v>3.27434816882552</v>
+        <v>2.130631035994389</v>
       </c>
       <c r="P41" t="n">
-        <v>2.362480911921098</v>
+        <v>5.855943406607881</v>
       </c>
       <c r="Q41" t="n">
-        <v>2.748388196077747</v>
+        <v>4.747800363594246</v>
       </c>
       <c r="R41" t="n">
-        <v>1.410354019729213</v>
+        <v>2.65185512821556</v>
       </c>
       <c r="S41" t="n">
-        <v>4.35796607549895</v>
+        <v>4.102810166451956</v>
       </c>
       <c r="T41" t="n">
-        <v>2.981991195859334</v>
+        <v>4.598817579369514</v>
       </c>
       <c r="U41" t="n">
-        <v>3.851063176797943</v>
+        <v>2.206576607310702</v>
       </c>
       <c r="V41" t="n">
-        <v>3.226317421170954</v>
+        <v>2.780334315605925</v>
       </c>
       <c r="W41" t="n">
-        <v>1.035933685858282</v>
-      </c>
-      <c r="X41" t="inlineStr"/>
+        <v>3.658033462154726</v>
+      </c>
+      <c r="X41" t="n">
+        <v>4.24416717266243</v>
+      </c>
       <c r="Y41" t="n">
-        <v>5.464960499408247</v>
+        <v>3.086416542038411</v>
       </c>
       <c r="Z41" t="n">
-        <v>6.044079554641366</v>
+        <v>2.783665481930228</v>
       </c>
       <c r="AA41" t="n">
-        <v>5.776191914781242</v>
+        <v>3.11295594140623</v>
       </c>
       <c r="AB41" t="n">
-        <v>5.361483904672296</v>
+        <v>3.275080506116679</v>
       </c>
       <c r="AC41" t="n">
-        <v>5.579398049942712</v>
+        <v>2.753992319423916</v>
       </c>
       <c r="AD41" t="n">
-        <v>5.879177063143469</v>
+        <v>3.267896769586474</v>
       </c>
       <c r="AE41" t="n">
-        <v>5.101423436917194</v>
+        <v>2.081187566750908</v>
       </c>
       <c r="AF41" t="n">
-        <v>4.268086029879921</v>
+        <v>2.122699393890243</v>
       </c>
       <c r="AG41" t="n">
-        <v>4.206715450903823</v>
+        <v>3.511017165089576</v>
       </c>
       <c r="AH41" t="n">
-        <v>4.164144895667484</v>
+        <v>5.052367551471893</v>
       </c>
       <c r="AI41" t="n">
-        <v>2.318220816434313</v>
+        <v>0.9413664595006476</v>
       </c>
       <c r="AJ41" t="n">
-        <v>6.189109622124219</v>
+        <v>5.284321431827447</v>
       </c>
       <c r="AK41" t="n">
-        <v>3.057652123058623</v>
+        <v>1.602771250109865</v>
       </c>
       <c r="AL41" t="n">
-        <v>5.514780141324716</v>
+        <v>1.992165690794899</v>
       </c>
       <c r="AM41" t="n">
-        <v>3.584744189852986</v>
+        <v>3.813953087240937</v>
       </c>
       <c r="AN41" t="n">
-        <v>2.689034058127677</v>
+        <v>5.573429810568092</v>
       </c>
       <c r="AO41" t="inlineStr"/>
       <c r="AP41" t="n">
-        <v>3.322968699791007</v>
+        <v>1.695344063693299</v>
       </c>
       <c r="AQ41" t="n">
-        <v>3.813953087240937</v>
+        <v>3.790718395934737</v>
       </c>
       <c r="AR41" t="n">
-        <v>2.12608619170258</v>
+        <v>1.707546039024583</v>
       </c>
       <c r="AS41" t="n">
-        <v>3.638451567770833</v>
-      </c>
-      <c r="AT41" t="n">
-        <v>2.155516639274251</v>
-      </c>
-      <c r="AU41" t="n">
-        <v>7.024154765317708</v>
-      </c>
-      <c r="AV41" t="n">
-        <v>3.848962613103422</v>
+        <v>4.825410149567941</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>徐州铜山</t>
+          <t>扬州邗江</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3.12130656886058</v>
+        <v>2.10525949664166</v>
       </c>
       <c r="C42" t="n">
-        <v>1.114473112463049</v>
+        <v>4.629798437845892</v>
       </c>
       <c r="D42" t="n">
-        <v>2.616045404677608</v>
+        <v>3.821478118189038</v>
       </c>
       <c r="E42" t="n">
-        <v>5.567781136038186</v>
+        <v>1.183885444681833</v>
       </c>
       <c r="F42" t="n">
-        <v>5.573254285500265</v>
+        <v>1.174465512165618</v>
       </c>
       <c r="G42" t="n">
-        <v>2.645554341412951</v>
+        <v>2.026497080733349</v>
       </c>
       <c r="H42" t="n">
-        <v>2.771847095147041</v>
+        <v>2.341380632947291</v>
       </c>
       <c r="I42" t="n">
-        <v>6.471234258310188</v>
+        <v>2.458894781756903</v>
       </c>
       <c r="J42" t="n">
-        <v>6.601519052220143</v>
+        <v>2.58036705773074</v>
       </c>
       <c r="K42" t="n">
-        <v>6.730453607941351</v>
+        <v>2.460500083801341</v>
       </c>
       <c r="L42" t="n">
-        <v>6.680411125975461</v>
+        <v>3.597176056693153</v>
       </c>
       <c r="M42" t="n">
-        <v>2.034129114736582</v>
+        <v>3.987434459453759</v>
       </c>
       <c r="N42" t="n">
-        <v>1.990244544090537</v>
+        <v>1.941431977043855</v>
       </c>
       <c r="O42" t="n">
-        <v>6.20333551266338</v>
+        <v>1.306606711169933</v>
       </c>
       <c r="P42" t="n">
-        <v>3.444504652697473</v>
+        <v>4.403545167460071</v>
       </c>
       <c r="Q42" t="n">
-        <v>1.338750943639257</v>
+        <v>3.094290461737357</v>
       </c>
       <c r="R42" t="n">
-        <v>4.414932021161586</v>
+        <v>2.852332293950497</v>
       </c>
       <c r="S42" t="n">
-        <v>7.217504093128869</v>
+        <v>3.009882736951814</v>
       </c>
       <c r="T42" t="n">
-        <v>6.300349304769385</v>
+        <v>3.727622934032801</v>
       </c>
       <c r="U42" t="n">
-        <v>7.170170239695481</v>
+        <v>2.047599891944339</v>
       </c>
       <c r="V42" t="n">
-        <v>3.624001448672241</v>
+        <v>1.10294951911696</v>
       </c>
       <c r="W42" t="n">
-        <v>3.635561979788772</v>
+        <v>4.031114399693598</v>
       </c>
       <c r="X42" t="n">
-        <v>4.89331764013026</v>
-      </c>
-      <c r="Y42" t="inlineStr"/>
-      <c r="Z42" t="inlineStr"/>
-      <c r="AA42" t="inlineStr"/>
+        <v>4.65296464345493</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>3.980959680151165</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>3.585290939043268</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>3.861970480999031</v>
+      </c>
       <c r="AB42" t="n">
-        <v>7.980576628613496</v>
-      </c>
-      <c r="AC42" t="inlineStr"/>
-      <c r="AD42" t="inlineStr"/>
+        <v>4.123096241456392</v>
+      </c>
+      <c r="AC42" t="n">
+        <v>3.39757030314208</v>
+      </c>
+      <c r="AD42" t="n">
+        <v>3.114791693368167</v>
+      </c>
       <c r="AE42" t="n">
-        <v>7.799942735262481</v>
+        <v>2.48786782322717</v>
       </c>
       <c r="AF42" t="n">
-        <v>7.332681597243199</v>
+        <v>2.473907203114529</v>
       </c>
       <c r="AG42" t="n">
-        <v>6.889240702353709</v>
+        <v>2.483095708073096</v>
       </c>
       <c r="AH42" t="n">
-        <v>6.872773844583955</v>
+        <v>5.140156145156435</v>
       </c>
       <c r="AI42" t="n">
-        <v>2.063857080485218</v>
-      </c>
-      <c r="AJ42" t="inlineStr"/>
+        <v>0.9717149097175238</v>
+      </c>
+      <c r="AJ42" t="n">
+        <v>4.925158435925711</v>
+      </c>
       <c r="AK42" t="n">
-        <v>5.288518036019283</v>
-      </c>
-      <c r="AL42" t="inlineStr"/>
+        <v>1.787623651491445</v>
+      </c>
+      <c r="AL42" t="n">
+        <v>1.233985758350705</v>
+      </c>
       <c r="AM42" t="n">
-        <v>6.189856457026441</v>
+        <v>2.12608619170258</v>
       </c>
       <c r="AN42" t="n">
-        <v>5.503161139349748</v>
+        <v>4.402385406559224</v>
       </c>
       <c r="AO42" t="n">
-        <v>3.322968699791007</v>
+        <v>1.695344063693299</v>
       </c>
       <c r="AP42" t="inlineStr"/>
       <c r="AQ42" t="n">
-        <v>5.573429810568092</v>
+        <v>3.088178554889862</v>
       </c>
       <c r="AR42" t="n">
-        <v>4.402385406559224</v>
+        <v>0.1865174585886082</v>
       </c>
       <c r="AS42" t="n">
-        <v>6.89027848539064</v>
-      </c>
-      <c r="AT42" t="n">
-        <v>4.5531497162146</v>
-      </c>
-      <c r="AU42" t="inlineStr"/>
-      <c r="AV42" t="n">
-        <v>6.506320377360568</v>
+        <v>5.493231391147998</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>盐城亭湖</t>
+          <t>义乌稠江</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>6.290819352426952</v>
+        <v>2.165855050450581</v>
       </c>
       <c r="C43" t="n">
-        <v>5.227635358271483</v>
-      </c>
-      <c r="D43" t="inlineStr"/>
+        <v>5.684558612088227</v>
+      </c>
+      <c r="D43" t="n">
+        <v>5.98684757237056</v>
+      </c>
       <c r="E43" t="n">
-        <v>1.610908442101419</v>
+        <v>2.233393299347</v>
       </c>
       <c r="F43" t="n">
-        <v>1.481675602417276</v>
+        <v>2.348869211536295</v>
       </c>
       <c r="G43" t="n">
-        <v>3.58439843118022</v>
-      </c>
-      <c r="H43" t="inlineStr"/>
+        <v>4.24762397023258</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0.9510628283476812</v>
+      </c>
       <c r="I43" t="n">
-        <v>2.847412949258052</v>
+        <v>0.9180731187291846</v>
       </c>
       <c r="J43" t="n">
-        <v>2.908888007654054</v>
+        <v>0.8916657007792644</v>
       </c>
       <c r="K43" t="n">
-        <v>2.983442930068868</v>
+        <v>1.117895168854031</v>
       </c>
       <c r="L43" t="n">
-        <v>2.772966366643835</v>
+        <v>5.343958839624212</v>
       </c>
       <c r="M43" t="n">
-        <v>5.16836413698991</v>
+        <v>5.68280338796619</v>
       </c>
       <c r="N43" t="n">
-        <v>5.551944914306288</v>
+        <v>1.445477536760952</v>
       </c>
       <c r="O43" t="n">
-        <v>2.347096635895322</v>
+        <v>4.380119186025216</v>
       </c>
       <c r="P43" t="n">
-        <v>2.130631035994389</v>
+        <v>6.376220219597844</v>
       </c>
       <c r="Q43" t="n">
-        <v>5.855943406607881</v>
+        <v>3.246772008044311</v>
       </c>
       <c r="R43" t="n">
-        <v>4.747800363594246</v>
+        <v>1.803478430031106</v>
       </c>
       <c r="S43" t="n">
-        <v>2.65185512821556</v>
+        <v>0.9522240275563882</v>
       </c>
       <c r="T43" t="n">
-        <v>4.102810166451956</v>
+        <v>0.8510095802884138</v>
       </c>
       <c r="U43" t="n">
-        <v>4.598817579369514</v>
+        <v>5.124753572261031</v>
       </c>
       <c r="V43" t="n">
-        <v>2.206576607310702</v>
+        <v>3.324308564538155</v>
       </c>
       <c r="W43" t="n">
-        <v>2.780334315605925</v>
-      </c>
-      <c r="X43" t="inlineStr"/>
+        <v>2.35520259486875</v>
+      </c>
+      <c r="X43" t="n">
+        <v>2.772756477563229</v>
+      </c>
       <c r="Y43" t="n">
-        <v>3.658033462154726</v>
+        <v>3.291566071702908</v>
       </c>
       <c r="Z43" t="n">
-        <v>4.24416717266243</v>
+        <v>2.949074949454787</v>
       </c>
       <c r="AA43" t="n">
-        <v>3.086416542038411</v>
+        <v>2.965667173661614</v>
       </c>
       <c r="AB43" t="n">
-        <v>2.783665481930228</v>
+        <v>3.276204392903086</v>
       </c>
       <c r="AC43" t="n">
-        <v>3.11295594140623</v>
+        <v>2.60969154729365</v>
       </c>
       <c r="AD43" t="n">
-        <v>3.275080506116679</v>
+        <v>1.137327359205453</v>
       </c>
       <c r="AE43" t="n">
-        <v>2.753992319423916</v>
+        <v>2.200529202075885</v>
       </c>
       <c r="AF43" t="n">
-        <v>3.267896769586474</v>
+        <v>2.122601829393356</v>
       </c>
       <c r="AG43" t="n">
-        <v>2.081187566750908</v>
+        <v>5.333944244683819</v>
       </c>
       <c r="AH43" t="n">
-        <v>2.122699393890243</v>
+        <v>2.605987626613949</v>
       </c>
       <c r="AI43" t="n">
-        <v>3.511017165089576</v>
+        <v>2.965070924056919</v>
       </c>
       <c r="AJ43" t="n">
-        <v>5.052367551471893</v>
+        <v>1.916926978608774</v>
       </c>
       <c r="AK43" t="n">
-        <v>0.9413664595006476</v>
+        <v>2.251897812172089</v>
       </c>
       <c r="AL43" t="n">
-        <v>5.284321431827447</v>
+        <v>1.938502762078589</v>
       </c>
       <c r="AM43" t="n">
-        <v>1.602771250109865</v>
+        <v>3.638451567770833</v>
       </c>
       <c r="AN43" t="n">
-        <v>1.992165690794899</v>
+        <v>6.89027848539064</v>
       </c>
       <c r="AO43" t="n">
-        <v>3.813953087240937</v>
+        <v>3.790718395934737</v>
       </c>
       <c r="AP43" t="n">
-        <v>5.573429810568092</v>
+        <v>3.088178554889862</v>
       </c>
       <c r="AQ43" t="inlineStr"/>
       <c r="AR43" t="n">
-        <v>1.695344063693299</v>
+        <v>2.904780817550313</v>
       </c>
       <c r="AS43" t="n">
-        <v>3.790718395934737</v>
-      </c>
-      <c r="AT43" t="n">
-        <v>1.707546039024583</v>
-      </c>
-      <c r="AU43" t="n">
-        <v>4.825410149567941</v>
-      </c>
-      <c r="AV43" t="n">
-        <v>1.829167492067055</v>
+        <v>3.827952654066792</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>扬州邗江</t>
+          <t>镇江新区</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>4.629798437845892</v>
+        <v>1.954018285491098</v>
       </c>
       <c r="C44" t="n">
-        <v>3.821478118189038</v>
+        <v>4.674900121571088</v>
       </c>
       <c r="D44" t="n">
-        <v>6.828218637452795</v>
+        <v>3.943725061786961</v>
       </c>
       <c r="E44" t="n">
-        <v>1.183885444681833</v>
+        <v>1.018481894150803</v>
       </c>
       <c r="F44" t="n">
-        <v>1.174465512165618</v>
+        <v>1.020549902624575</v>
       </c>
       <c r="G44" t="n">
-        <v>2.026497080733349</v>
+        <v>2.127919846021523</v>
       </c>
       <c r="H44" t="n">
-        <v>6.669589501247534</v>
+        <v>2.155041027059594</v>
       </c>
       <c r="I44" t="n">
-        <v>2.341380632947291</v>
+        <v>2.272811895498166</v>
       </c>
       <c r="J44" t="n">
-        <v>2.458894781756903</v>
+        <v>2.394538844385724</v>
       </c>
       <c r="K44" t="n">
-        <v>2.58036705773074</v>
+        <v>2.276547403718233</v>
       </c>
       <c r="L44" t="n">
-        <v>2.460500083801341</v>
+        <v>3.682953153394105</v>
       </c>
       <c r="M44" t="n">
-        <v>3.597176056693153</v>
+        <v>4.073655991513716</v>
       </c>
       <c r="N44" t="n">
-        <v>3.987434459453759</v>
+        <v>1.758386965544299</v>
       </c>
       <c r="O44" t="n">
-        <v>1.941431977043855</v>
+        <v>1.493124043520194</v>
       </c>
       <c r="P44" t="n">
-        <v>1.306606711169933</v>
+        <v>4.515001201933524</v>
       </c>
       <c r="Q44" t="n">
-        <v>4.403545167460071</v>
+        <v>3.046692440150599</v>
       </c>
       <c r="R44" t="n">
-        <v>3.094290461737357</v>
+        <v>2.684289677963203</v>
       </c>
       <c r="S44" t="n">
-        <v>2.852332293950497</v>
+        <v>2.846680234654654</v>
       </c>
       <c r="T44" t="n">
-        <v>3.009882736951814</v>
+        <v>3.552543275243955</v>
       </c>
       <c r="U44" t="n">
-        <v>3.727622934032801</v>
+        <v>2.225879924309131</v>
       </c>
       <c r="V44" t="n">
-        <v>2.047599891944339</v>
+        <v>1.158278660834298</v>
       </c>
       <c r="W44" t="n">
-        <v>1.10294951911696</v>
-      </c>
-      <c r="X44" t="inlineStr"/>
+        <v>3.863527245004391</v>
+      </c>
+      <c r="X44" t="n">
+        <v>4.48458590902136</v>
+      </c>
       <c r="Y44" t="n">
-        <v>4.031114399693598</v>
+        <v>3.847924823290412</v>
       </c>
       <c r="Z44" t="n">
-        <v>4.65296464345493</v>
+        <v>3.448111329083013</v>
       </c>
       <c r="AA44" t="n">
-        <v>3.980959680151165</v>
+        <v>3.718466518977834</v>
       </c>
       <c r="AB44" t="n">
-        <v>3.585290939043268</v>
+        <v>3.98526640496722</v>
       </c>
       <c r="AC44" t="n">
-        <v>3.861970480999031</v>
+        <v>3.250523386230524</v>
       </c>
       <c r="AD44" t="n">
-        <v>4.123096241456392</v>
+        <v>2.931886246066893</v>
       </c>
       <c r="AE44" t="n">
-        <v>3.39757030314208</v>
+        <v>2.336999961762126</v>
       </c>
       <c r="AF44" t="n">
-        <v>3.114791693368167</v>
+        <v>2.319626128210186</v>
       </c>
       <c r="AG44" t="n">
-        <v>2.48786782322717</v>
+        <v>2.655068840733878</v>
       </c>
       <c r="AH44" t="n">
-        <v>2.473907203114529</v>
+        <v>4.958666613831925</v>
       </c>
       <c r="AI44" t="n">
-        <v>2.483095708073096</v>
+        <v>0.9039683966454999</v>
       </c>
       <c r="AJ44" t="n">
-        <v>5.140156145156435</v>
+        <v>4.738773338651813</v>
       </c>
       <c r="AK44" t="n">
-        <v>0.9717149097175238</v>
+        <v>1.64016439985667</v>
       </c>
       <c r="AL44" t="n">
-        <v>4.925158435925711</v>
+        <v>1.048872149021876</v>
       </c>
       <c r="AM44" t="n">
-        <v>1.787623651491445</v>
+        <v>2.155516639274251</v>
       </c>
       <c r="AN44" t="n">
-        <v>1.233985758350705</v>
+        <v>4.5531497162146</v>
       </c>
       <c r="AO44" t="n">
-        <v>2.12608619170258</v>
+        <v>1.707546039024583</v>
       </c>
       <c r="AP44" t="n">
-        <v>4.402385406559224</v>
+        <v>0.1865174585886082</v>
       </c>
       <c r="AQ44" t="n">
-        <v>1.695344063693299</v>
+        <v>2.904780817550313</v>
       </c>
       <c r="AR44" t="inlineStr"/>
       <c r="AS44" t="n">
-        <v>3.088178554889862</v>
-      </c>
-      <c r="AT44" t="n">
-        <v>0.1865174585886082</v>
-      </c>
-      <c r="AU44" t="n">
-        <v>5.493231391147998</v>
-      </c>
-      <c r="AV44" t="n">
-        <v>2.10525949664166</v>
+        <v>5.33636846560245</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>义乌稠江</t>
+          <t>舟山定海</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>5.684558612088227</v>
-      </c>
-      <c r="C45" t="n">
-        <v>5.98684757237056</v>
-      </c>
+        <v>3.390224876316808</v>
+      </c>
+      <c r="C45" t="inlineStr"/>
       <c r="D45" t="inlineStr"/>
       <c r="E45" t="n">
-        <v>2.233393299347</v>
+        <v>4.320140786011478</v>
       </c>
       <c r="F45" t="n">
-        <v>2.348869211536295</v>
+        <v>4.318821375395948</v>
       </c>
       <c r="G45" t="n">
-        <v>4.24762397023258</v>
-      </c>
-      <c r="H45" t="inlineStr"/>
+        <v>7.35629480984621</v>
+      </c>
+      <c r="H45" t="n">
+        <v>3.652341507829979</v>
+      </c>
       <c r="I45" t="n">
-        <v>0.9510628283476812</v>
+        <v>3.531471950229228</v>
       </c>
       <c r="J45" t="n">
-        <v>0.9180731187291846</v>
+        <v>3.417823282712178</v>
       </c>
       <c r="K45" t="n">
-        <v>0.8916657007792644</v>
-      </c>
-      <c r="L45" t="n">
-        <v>1.117895168854031</v>
-      </c>
-      <c r="M45" t="n">
-        <v>5.343958839624212</v>
-      </c>
+        <v>3.370417816017891</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
+      <c r="M45" t="inlineStr"/>
       <c r="N45" t="n">
-        <v>5.68280338796619</v>
+        <v>3.758361904954366</v>
       </c>
       <c r="O45" t="n">
-        <v>1.445477536760952</v>
-      </c>
-      <c r="P45" t="n">
-        <v>4.380119186025216</v>
-      </c>
+        <v>6.635950589509479</v>
+      </c>
+      <c r="P45" t="inlineStr"/>
       <c r="Q45" t="n">
-        <v>6.376220219597844</v>
+        <v>6.998370974817727</v>
       </c>
       <c r="R45" t="n">
-        <v>3.246772008044311</v>
+        <v>2.688946900265759</v>
       </c>
       <c r="S45" t="n">
-        <v>1.803478430031106</v>
+        <v>4.780045071785903</v>
       </c>
       <c r="T45" t="n">
-        <v>0.9522240275563882</v>
+        <v>4.334676912675881</v>
       </c>
       <c r="U45" t="n">
-        <v>0.8510095802884138</v>
+        <v>6.986146344478215</v>
       </c>
       <c r="V45" t="n">
-        <v>5.124753572261031</v>
+        <v>6.320262580618135</v>
       </c>
       <c r="W45" t="n">
-        <v>3.324308564538155</v>
-      </c>
-      <c r="X45" t="inlineStr"/>
+        <v>1.564201739382928</v>
+      </c>
+      <c r="X45" t="n">
+        <v>1.055340483750192</v>
+      </c>
       <c r="Y45" t="n">
-        <v>2.35520259486875</v>
+        <v>1.771553059311316</v>
       </c>
       <c r="Z45" t="n">
-        <v>2.772756477563229</v>
+        <v>2.042036709655265</v>
       </c>
       <c r="AA45" t="n">
-        <v>3.291566071702908</v>
+        <v>1.71488275072638</v>
       </c>
       <c r="AB45" t="n">
-        <v>2.949074949454787</v>
+        <v>1.570446229187304</v>
       </c>
       <c r="AC45" t="n">
-        <v>2.965667173661614</v>
+        <v>2.126189717630052</v>
       </c>
       <c r="AD45" t="n">
-        <v>3.276204392903086</v>
+        <v>2.826120373092785</v>
       </c>
       <c r="AE45" t="n">
-        <v>2.60969154729365</v>
+        <v>3.009716444701166</v>
       </c>
       <c r="AF45" t="n">
-        <v>1.137327359205453</v>
+        <v>3.019693837212379</v>
       </c>
       <c r="AG45" t="n">
-        <v>2.200529202075885</v>
+        <v>7.956943164568949</v>
       </c>
       <c r="AH45" t="n">
-        <v>2.122601829393356</v>
+        <v>1.80031717165944</v>
       </c>
       <c r="AI45" t="n">
-        <v>5.333944244683819</v>
+        <v>4.689703609860715</v>
       </c>
       <c r="AJ45" t="n">
-        <v>2.605987626613949</v>
+        <v>3.122092892203996</v>
       </c>
       <c r="AK45" t="n">
-        <v>2.965070924056919</v>
+        <v>3.711023845692766</v>
       </c>
       <c r="AL45" t="n">
-        <v>1.916926978608774</v>
+        <v>4.414324271987695</v>
       </c>
       <c r="AM45" t="n">
-        <v>2.251897812172089</v>
-      </c>
-      <c r="AN45" t="n">
-        <v>1.938502762078589</v>
-      </c>
+        <v>7.024154765317708</v>
+      </c>
+      <c r="AN45" t="inlineStr"/>
       <c r="AO45" t="n">
-        <v>3.638451567770833</v>
+        <v>4.825410149567941</v>
       </c>
       <c r="AP45" t="n">
-        <v>6.89027848539064</v>
+        <v>5.493231391147998</v>
       </c>
       <c r="AQ45" t="n">
-        <v>3.790718395934737</v>
+        <v>3.827952654066792</v>
       </c>
       <c r="AR45" t="n">
-        <v>3.088178554889862</v>
+        <v>5.33636846560245</v>
       </c>
       <c r="AS45" t="inlineStr"/>
-      <c r="AT45" t="n">
-        <v>2.904780817550313</v>
-      </c>
-      <c r="AU45" t="n">
-        <v>3.827952654066792</v>
-      </c>
-      <c r="AV45" t="n">
-        <v>2.165855050450581</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="inlineStr">
-        <is>
-          <t>镇江新区</t>
-        </is>
-      </c>
-      <c r="B46" t="n">
-        <v>4.674900121571088</v>
-      </c>
-      <c r="C46" t="n">
-        <v>3.943725061786961</v>
-      </c>
-      <c r="D46" t="n">
-        <v>6.956691358574742</v>
-      </c>
-      <c r="E46" t="n">
-        <v>1.018481894150803</v>
-      </c>
-      <c r="F46" t="n">
-        <v>1.020549902624575</v>
-      </c>
-      <c r="G46" t="n">
-        <v>2.127919846021523</v>
-      </c>
-      <c r="H46" t="n">
-        <v>6.781656206082317</v>
-      </c>
-      <c r="I46" t="n">
-        <v>2.155041027059594</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2.272811895498166</v>
-      </c>
-      <c r="K46" t="n">
-        <v>2.394538844385724</v>
-      </c>
-      <c r="L46" t="n">
-        <v>2.276547403718233</v>
-      </c>
-      <c r="M46" t="n">
-        <v>3.682953153394105</v>
-      </c>
-      <c r="N46" t="n">
-        <v>4.073655991513716</v>
-      </c>
-      <c r="O46" t="n">
-        <v>1.758386965544299</v>
-      </c>
-      <c r="P46" t="n">
-        <v>1.493124043520194</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>4.515001201933524</v>
-      </c>
-      <c r="R46" t="n">
-        <v>3.046692440150599</v>
-      </c>
-      <c r="S46" t="n">
-        <v>2.684289677963203</v>
-      </c>
-      <c r="T46" t="n">
-        <v>2.846680234654654</v>
-      </c>
-      <c r="U46" t="n">
-        <v>3.552543275243955</v>
-      </c>
-      <c r="V46" t="n">
-        <v>2.225879924309131</v>
-      </c>
-      <c r="W46" t="n">
-        <v>1.158278660834298</v>
-      </c>
-      <c r="X46" t="inlineStr"/>
-      <c r="Y46" t="n">
-        <v>3.863527245004391</v>
-      </c>
-      <c r="Z46" t="n">
-        <v>4.48458590902136</v>
-      </c>
-      <c r="AA46" t="n">
-        <v>3.847924823290412</v>
-      </c>
-      <c r="AB46" t="n">
-        <v>3.448111329083013</v>
-      </c>
-      <c r="AC46" t="n">
-        <v>3.718466518977834</v>
-      </c>
-      <c r="AD46" t="n">
-        <v>3.98526640496722</v>
-      </c>
-      <c r="AE46" t="n">
-        <v>3.250523386230524</v>
-      </c>
-      <c r="AF46" t="n">
-        <v>2.931886246066893</v>
-      </c>
-      <c r="AG46" t="n">
-        <v>2.336999961762126</v>
-      </c>
-      <c r="AH46" t="n">
-        <v>2.319626128210186</v>
-      </c>
-      <c r="AI46" t="n">
-        <v>2.655068840733878</v>
-      </c>
-      <c r="AJ46" t="n">
-        <v>4.958666613831925</v>
-      </c>
-      <c r="AK46" t="n">
-        <v>0.9039683966454999</v>
-      </c>
-      <c r="AL46" t="n">
-        <v>4.738773338651813</v>
-      </c>
-      <c r="AM46" t="n">
-        <v>1.64016439985667</v>
-      </c>
-      <c r="AN46" t="n">
-        <v>1.048872149021876</v>
-      </c>
-      <c r="AO46" t="n">
-        <v>2.155516639274251</v>
-      </c>
-      <c r="AP46" t="n">
-        <v>4.5531497162146</v>
-      </c>
-      <c r="AQ46" t="n">
-        <v>1.707546039024583</v>
-      </c>
-      <c r="AR46" t="n">
-        <v>0.1865174585886082</v>
-      </c>
-      <c r="AS46" t="n">
-        <v>2.904780817550313</v>
-      </c>
-      <c r="AT46" t="inlineStr"/>
-      <c r="AU46" t="n">
-        <v>5.33636846560245</v>
-      </c>
-      <c r="AV46" t="n">
-        <v>1.954018285491098</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="inlineStr">
-        <is>
-          <t>舟山定海</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr"/>
-      <c r="C47" t="inlineStr"/>
-      <c r="D47" t="inlineStr"/>
-      <c r="E47" t="n">
-        <v>4.320140786011478</v>
-      </c>
-      <c r="F47" t="n">
-        <v>4.318821375395948</v>
-      </c>
-      <c r="G47" t="n">
-        <v>7.35629480984621</v>
-      </c>
-      <c r="H47" t="inlineStr"/>
-      <c r="I47" t="n">
-        <v>3.652341507829979</v>
-      </c>
-      <c r="J47" t="n">
-        <v>3.531471950229228</v>
-      </c>
-      <c r="K47" t="n">
-        <v>3.417823282712178</v>
-      </c>
-      <c r="L47" t="n">
-        <v>3.370417816017891</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
-      <c r="N47" t="inlineStr"/>
-      <c r="O47" t="n">
-        <v>3.758361904954366</v>
-      </c>
-      <c r="P47" t="n">
-        <v>6.635950589509479</v>
-      </c>
-      <c r="Q47" t="inlineStr"/>
-      <c r="R47" t="n">
-        <v>6.998370974817727</v>
-      </c>
-      <c r="S47" t="n">
-        <v>2.688946900265759</v>
-      </c>
-      <c r="T47" t="n">
-        <v>4.780045071785903</v>
-      </c>
-      <c r="U47" t="n">
-        <v>4.334676912675881</v>
-      </c>
-      <c r="V47" t="n">
-        <v>6.986146344478215</v>
-      </c>
-      <c r="W47" t="n">
-        <v>6.320262580618135</v>
-      </c>
-      <c r="X47" t="inlineStr"/>
-      <c r="Y47" t="n">
-        <v>1.564201739382928</v>
-      </c>
-      <c r="Z47" t="n">
-        <v>1.055340483750192</v>
-      </c>
-      <c r="AA47" t="n">
-        <v>1.771553059311316</v>
-      </c>
-      <c r="AB47" t="n">
-        <v>2.042036709655265</v>
-      </c>
-      <c r="AC47" t="n">
-        <v>1.71488275072638</v>
-      </c>
-      <c r="AD47" t="n">
-        <v>1.570446229187304</v>
-      </c>
-      <c r="AE47" t="n">
-        <v>2.126189717630052</v>
-      </c>
-      <c r="AF47" t="n">
-        <v>2.826120373092785</v>
-      </c>
-      <c r="AG47" t="n">
-        <v>3.009716444701166</v>
-      </c>
-      <c r="AH47" t="n">
-        <v>3.019693837212379</v>
-      </c>
-      <c r="AI47" t="n">
-        <v>7.956943164568949</v>
-      </c>
-      <c r="AJ47" t="n">
-        <v>1.80031717165944</v>
-      </c>
-      <c r="AK47" t="n">
-        <v>4.689703609860715</v>
-      </c>
-      <c r="AL47" t="n">
-        <v>3.122092892203996</v>
-      </c>
-      <c r="AM47" t="n">
-        <v>3.711023845692766</v>
-      </c>
-      <c r="AN47" t="n">
-        <v>4.414324271987695</v>
-      </c>
-      <c r="AO47" t="n">
-        <v>7.024154765317708</v>
-      </c>
-      <c r="AP47" t="inlineStr"/>
-      <c r="AQ47" t="n">
-        <v>4.825410149567941</v>
-      </c>
-      <c r="AR47" t="n">
-        <v>5.493231391147998</v>
-      </c>
-      <c r="AS47" t="n">
-        <v>3.827952654066792</v>
-      </c>
-      <c r="AT47" t="n">
-        <v>5.33636846560245</v>
-      </c>
-      <c r="AU47" t="inlineStr"/>
-      <c r="AV47" t="n">
-        <v>3.390224876316808</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="1" t="inlineStr">
-        <is>
-          <t>无锡华友</t>
-        </is>
-      </c>
-      <c r="B48" t="n">
-        <v>6.337595995582506</v>
-      </c>
-      <c r="C48" t="n">
-        <v>5.875280525859243</v>
-      </c>
-      <c r="D48" t="inlineStr"/>
-      <c r="E48" t="n">
-        <v>0.9537006077431388</v>
-      </c>
-      <c r="F48" t="n">
-        <v>0.9334751873927306</v>
-      </c>
-      <c r="G48" t="n">
-        <v>4.034314552626756</v>
-      </c>
-      <c r="H48" t="inlineStr"/>
-      <c r="I48" t="n">
-        <v>1.242959028967368</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1.249635911018254</v>
-      </c>
-      <c r="K48" t="n">
-        <v>1.280495457777474</v>
-      </c>
-      <c r="L48" t="n">
-        <v>1.053045290342948</v>
-      </c>
-      <c r="M48" t="n">
-        <v>5.526072072548247</v>
-      </c>
-      <c r="N48" t="n">
-        <v>5.913255524790232</v>
-      </c>
-      <c r="O48" t="n">
-        <v>0.848793402476975</v>
-      </c>
-      <c r="P48" t="n">
-        <v>3.269184419009298</v>
-      </c>
-      <c r="Q48" t="n">
-        <v>6.422614297142333</v>
-      </c>
-      <c r="R48" t="n">
-        <v>4.242422732968461</v>
-      </c>
-      <c r="S48" t="n">
-        <v>0.8484332900383771</v>
-      </c>
-      <c r="T48" t="n">
-        <v>2.759926310268532</v>
-      </c>
-      <c r="U48" t="n">
-        <v>3.015832578560114</v>
-      </c>
-      <c r="V48" t="n">
-        <v>3.730241276622465</v>
-      </c>
-      <c r="W48" t="n">
-        <v>3.007367100420031</v>
-      </c>
-      <c r="X48" t="inlineStr"/>
-      <c r="Y48" t="n">
-        <v>1.97768178729073</v>
-      </c>
-      <c r="Z48" t="n">
-        <v>2.598017824486111</v>
-      </c>
-      <c r="AA48" t="n">
-        <v>1.932855573557691</v>
-      </c>
-      <c r="AB48" t="n">
-        <v>1.521095305765024</v>
-      </c>
-      <c r="AC48" t="n">
-        <v>1.770938241668305</v>
-      </c>
-      <c r="AD48" t="n">
-        <v>2.051195572619406</v>
-      </c>
-      <c r="AE48" t="n">
-        <v>1.298355902250022</v>
-      </c>
-      <c r="AF48" t="n">
-        <v>1.446826953773513</v>
-      </c>
-      <c r="AG48" t="n">
-        <v>0.3829865377248102</v>
-      </c>
-      <c r="AH48" t="n">
-        <v>0.37253666005624</v>
-      </c>
-      <c r="AI48" t="n">
-        <v>4.568460846170891</v>
-      </c>
-      <c r="AJ48" t="n">
-        <v>3.267530292377081</v>
-      </c>
-      <c r="AK48" t="n">
-        <v>1.343084947667983</v>
-      </c>
-      <c r="AL48" t="n">
-        <v>3.464356199511611</v>
-      </c>
-      <c r="AM48" t="n">
-        <v>0.3221262964310132</v>
-      </c>
-      <c r="AN48" t="n">
-        <v>1.166088558942259</v>
-      </c>
-      <c r="AO48" t="n">
-        <v>3.848962613103422</v>
-      </c>
-      <c r="AP48" t="n">
-        <v>6.506320377360568</v>
-      </c>
-      <c r="AQ48" t="n">
-        <v>1.829167492067055</v>
-      </c>
-      <c r="AR48" t="n">
-        <v>2.10525949664166</v>
-      </c>
-      <c r="AS48" t="n">
-        <v>2.165855050450581</v>
-      </c>
-      <c r="AT48" t="n">
-        <v>1.954018285491098</v>
-      </c>
-      <c r="AU48" t="n">
-        <v>3.390224876316808</v>
-      </c>
-      <c r="AV48" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/train/2/time_matrix.xlsx
+++ b/train/2/time_matrix.xlsx
@@ -867,13 +867,21 @@
       <c r="W3" t="n">
         <v>7.799126304986717</v>
       </c>
-      <c r="X3" t="inlineStr"/>
-      <c r="Y3" t="inlineStr"/>
+      <c r="X3" t="n">
+        <v>8.337686801352426</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>8.245796525682158</v>
+      </c>
       <c r="Z3" t="n">
         <v>7.830530422518848</v>
       </c>
-      <c r="AA3" t="inlineStr"/>
-      <c r="AB3" t="inlineStr"/>
+      <c r="AA3" t="n">
+        <v>8.025254720363446</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>8.334022517164005</v>
+      </c>
       <c r="AC3" t="n">
         <v>7.551649534865954</v>
       </c>
@@ -889,7 +897,9 @@
       <c r="AG3" t="n">
         <v>3.732389565009188</v>
       </c>
-      <c r="AH3" t="inlineStr"/>
+      <c r="AH3" t="n">
+        <v>8.287586687102396</v>
+      </c>
       <c r="AI3" t="n">
         <v>5.578798677288393</v>
       </c>
@@ -920,7 +930,9 @@
       <c r="AR3" t="n">
         <v>4.674900121571088</v>
       </c>
-      <c r="AS3" t="inlineStr"/>
+      <c r="AS3" t="n">
+        <v>9.361148920809155</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -992,7 +1004,9 @@
       <c r="W4" t="n">
         <v>7.671717148843906</v>
       </c>
-      <c r="X4" t="inlineStr"/>
+      <c r="X4" t="n">
+        <v>8.273574236712902</v>
+      </c>
       <c r="Y4" t="n">
         <v>7.789714803699174</v>
       </c>
@@ -1020,7 +1034,9 @@
       <c r="AG4" t="n">
         <v>1.945443838079611</v>
       </c>
-      <c r="AH4" t="inlineStr"/>
+      <c r="AH4" t="n">
+        <v>8.508486534735443</v>
+      </c>
       <c r="AI4" t="n">
         <v>4.772106751893916</v>
       </c>
@@ -1051,7 +1067,9 @@
       <c r="AR4" t="n">
         <v>3.943725061786961</v>
       </c>
-      <c r="AS4" t="inlineStr"/>
+      <c r="AS4" t="n">
+        <v>9.205243363788258</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -2145,7 +2163,9 @@
       <c r="AR12" t="n">
         <v>3.682953153394105</v>
       </c>
-      <c r="AS12" t="inlineStr"/>
+      <c r="AS12" t="n">
+        <v>8.759773478584039</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -2217,7 +2237,9 @@
       <c r="W13" t="n">
         <v>7.576987238794763</v>
       </c>
-      <c r="X13" t="inlineStr"/>
+      <c r="X13" t="n">
+        <v>8.155855230120336</v>
+      </c>
       <c r="Y13" t="n">
         <v>7.846111018142965</v>
       </c>
@@ -2245,7 +2267,9 @@
       <c r="AG13" t="n">
         <v>2.627984116514542</v>
       </c>
-      <c r="AH13" t="inlineStr"/>
+      <c r="AH13" t="n">
+        <v>8.267820457907346</v>
+      </c>
       <c r="AI13" t="n">
         <v>4.959145976546065</v>
       </c>
@@ -2276,7 +2300,9 @@
       <c r="AR13" t="n">
         <v>4.073655991513716</v>
       </c>
-      <c r="AS13" t="inlineStr"/>
+      <c r="AS13" t="n">
+        <v>9.135311300977863</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -2619,14 +2645,24 @@
       <c r="V16" t="n">
         <v>3.416018663127999</v>
       </c>
-      <c r="W16" t="inlineStr"/>
-      <c r="X16" t="inlineStr"/>
-      <c r="Y16" t="inlineStr"/>
+      <c r="W16" t="n">
+        <v>8.169678667404003</v>
+      </c>
+      <c r="X16" t="n">
+        <v>8.762309585139855</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>8.347919887822917</v>
+      </c>
       <c r="Z16" t="n">
         <v>7.940790558914808</v>
       </c>
-      <c r="AA16" t="inlineStr"/>
-      <c r="AB16" t="inlineStr"/>
+      <c r="AA16" t="n">
+        <v>8.19067967058051</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>8.473580037645874</v>
+      </c>
       <c r="AC16" t="n">
         <v>7.713996907624112</v>
       </c>
@@ -2642,11 +2678,15 @@
       <c r="AG16" t="n">
         <v>2.597545470970275</v>
       </c>
-      <c r="AH16" t="inlineStr"/>
+      <c r="AH16" t="n">
+        <v>8.937483985368868</v>
+      </c>
       <c r="AI16" t="n">
         <v>5.364990703545069</v>
       </c>
-      <c r="AJ16" t="inlineStr"/>
+      <c r="AJ16" t="n">
+        <v>8.224979508359105</v>
+      </c>
       <c r="AK16" t="n">
         <v>6.125937136566183</v>
       </c>
@@ -2671,7 +2711,9 @@
       <c r="AR16" t="n">
         <v>4.515001201933524</v>
       </c>
-      <c r="AS16" t="inlineStr"/>
+      <c r="AS16" t="n">
+        <v>9.716274795541215</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -3543,7 +3585,9 @@
       <c r="O23" t="n">
         <v>5.241614916672993</v>
       </c>
-      <c r="P23" t="inlineStr"/>
+      <c r="P23" t="n">
+        <v>8.169678667404003</v>
+      </c>
       <c r="Q23" t="n">
         <v>5.45140175543932</v>
       </c>
@@ -3611,7 +3655,9 @@
       <c r="AM23" t="n">
         <v>5.464960499408247</v>
       </c>
-      <c r="AN23" t="inlineStr"/>
+      <c r="AN23" t="n">
+        <v>8.392391065205363</v>
+      </c>
       <c r="AO23" t="n">
         <v>3.658033462154726</v>
       </c>
@@ -3637,8 +3683,12 @@
       <c r="B24" t="n">
         <v>2.598017824486111</v>
       </c>
-      <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr"/>
+      <c r="C24" t="n">
+        <v>8.337686801352426</v>
+      </c>
+      <c r="D24" t="n">
+        <v>8.273574236712902</v>
+      </c>
       <c r="E24" t="n">
         <v>3.469114427185252</v>
       </c>
@@ -3663,14 +3713,18 @@
       <c r="L24" t="n">
         <v>7.785847200256343</v>
       </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="M24" t="n">
+        <v>8.155855230120336</v>
+      </c>
       <c r="N24" t="n">
         <v>2.814898035074296</v>
       </c>
       <c r="O24" t="n">
         <v>5.86389526002933</v>
       </c>
-      <c r="P24" t="inlineStr"/>
+      <c r="P24" t="n">
+        <v>8.762309585139855</v>
+      </c>
       <c r="Q24" t="n">
         <v>5.956868205817151</v>
       </c>
@@ -3738,7 +3792,9 @@
       <c r="AM24" t="n">
         <v>6.044079554641366</v>
       </c>
-      <c r="AN24" t="inlineStr"/>
+      <c r="AN24" t="n">
+        <v>9.007413971654451</v>
+      </c>
       <c r="AO24" t="n">
         <v>4.24416717266243</v>
       </c>
@@ -3764,7 +3820,9 @@
       <c r="B25" t="n">
         <v>1.932855573557691</v>
       </c>
-      <c r="C25" t="inlineStr"/>
+      <c r="C25" t="n">
+        <v>8.245796525682158</v>
+      </c>
       <c r="D25" t="n">
         <v>7.789714803699174</v>
       </c>
@@ -3801,7 +3859,9 @@
       <c r="O25" t="n">
         <v>5.010343417342598</v>
       </c>
-      <c r="P25" t="inlineStr"/>
+      <c r="P25" t="n">
+        <v>8.347919887822917</v>
+      </c>
       <c r="Q25" t="n">
         <v>6.05296431608919</v>
       </c>
@@ -3869,7 +3929,9 @@
       <c r="AM25" t="n">
         <v>5.776191914781242</v>
       </c>
-      <c r="AN25" t="inlineStr"/>
+      <c r="AN25" t="n">
+        <v>8.368729880442096</v>
+      </c>
       <c r="AO25" t="n">
         <v>3.086416542038411</v>
       </c>
@@ -4032,7 +4094,9 @@
       <c r="B27" t="n">
         <v>1.770938241668305</v>
       </c>
-      <c r="C27" t="inlineStr"/>
+      <c r="C27" t="n">
+        <v>8.025254720363446</v>
+      </c>
       <c r="D27" t="n">
         <v>7.646194777661571</v>
       </c>
@@ -4069,7 +4133,9 @@
       <c r="O27" t="n">
         <v>4.94911777558737</v>
       </c>
-      <c r="P27" t="inlineStr"/>
+      <c r="P27" t="n">
+        <v>8.19067967058051</v>
+      </c>
       <c r="Q27" t="n">
         <v>5.794270300807752</v>
       </c>
@@ -4137,7 +4203,9 @@
       <c r="AM27" t="n">
         <v>5.579398049942712</v>
       </c>
-      <c r="AN27" t="inlineStr"/>
+      <c r="AN27" t="n">
+        <v>8.263060814336173</v>
+      </c>
       <c r="AO27" t="n">
         <v>3.11295594140623</v>
       </c>
@@ -4163,7 +4231,9 @@
       <c r="B28" t="n">
         <v>2.051195572619406</v>
       </c>
-      <c r="C28" t="inlineStr"/>
+      <c r="C28" t="n">
+        <v>8.334022517164005</v>
+      </c>
       <c r="D28" t="n">
         <v>7.922132375290451</v>
       </c>
@@ -4200,7 +4270,9 @@
       <c r="O28" t="n">
         <v>5.175732583416029</v>
       </c>
-      <c r="P28" t="inlineStr"/>
+      <c r="P28" t="n">
+        <v>8.473580037645874</v>
+      </c>
       <c r="Q28" t="n">
         <v>6.112320981051046</v>
       </c>
@@ -4268,7 +4340,9 @@
       <c r="AM28" t="n">
         <v>5.879177063143469</v>
       </c>
-      <c r="AN28" t="inlineStr"/>
+      <c r="AN28" t="n">
+        <v>8.518316457454862</v>
+      </c>
       <c r="AO28" t="n">
         <v>3.275080506116679</v>
       </c>
@@ -4979,8 +5053,12 @@
       <c r="B34" t="n">
         <v>3.267530292377081</v>
       </c>
-      <c r="C34" t="inlineStr"/>
-      <c r="D34" t="inlineStr"/>
+      <c r="C34" t="n">
+        <v>8.287586687102396</v>
+      </c>
+      <c r="D34" t="n">
+        <v>8.508486534735443</v>
+      </c>
       <c r="E34" t="n">
         <v>3.991242524178967</v>
       </c>
@@ -5005,14 +5083,18 @@
       <c r="L34" t="n">
         <v>7.918827249060791</v>
       </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="M34" t="n">
+        <v>8.267820457907346</v>
+      </c>
       <c r="N34" t="n">
         <v>3.201836569433058</v>
       </c>
       <c r="O34" t="n">
         <v>6.419915611501649</v>
       </c>
-      <c r="P34" t="inlineStr"/>
+      <c r="P34" t="n">
+        <v>8.937483985368868</v>
+      </c>
       <c r="Q34" t="n">
         <v>5.841153438137186</v>
       </c>
@@ -5080,7 +5162,9 @@
       <c r="AM34" t="n">
         <v>6.189109622124219</v>
       </c>
-      <c r="AN34" t="inlineStr"/>
+      <c r="AN34" t="n">
+        <v>9.340532708400682</v>
+      </c>
       <c r="AO34" t="n">
         <v>5.052367551471893</v>
       </c>
@@ -5282,7 +5366,9 @@
       <c r="O36" t="n">
         <v>6.231011612232806</v>
       </c>
-      <c r="P36" t="inlineStr"/>
+      <c r="P36" t="n">
+        <v>8.224979508359105</v>
+      </c>
       <c r="Q36" t="n">
         <v>4.910677640081492</v>
       </c>
@@ -5350,7 +5436,9 @@
       <c r="AM36" t="n">
         <v>5.514780141324716</v>
       </c>
-      <c r="AN36" t="inlineStr"/>
+      <c r="AN36" t="n">
+        <v>8.796809315723344</v>
+      </c>
       <c r="AO36" t="n">
         <v>5.284321431827447</v>
       </c>
@@ -5847,14 +5935,24 @@
       <c r="V40" t="n">
         <v>3.635561979788772</v>
       </c>
-      <c r="W40" t="inlineStr"/>
-      <c r="X40" t="inlineStr"/>
-      <c r="Y40" t="inlineStr"/>
+      <c r="W40" t="n">
+        <v>8.392391065205363</v>
+      </c>
+      <c r="X40" t="n">
+        <v>9.007413971654451</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>8.368729880442096</v>
+      </c>
       <c r="Z40" t="n">
         <v>7.980576628613496</v>
       </c>
-      <c r="AA40" t="inlineStr"/>
-      <c r="AB40" t="inlineStr"/>
+      <c r="AA40" t="n">
+        <v>8.263060814336173</v>
+      </c>
+      <c r="AB40" t="n">
+        <v>8.518316457454862</v>
+      </c>
       <c r="AC40" t="n">
         <v>7.799942735262481</v>
       </c>
@@ -5870,11 +5968,15 @@
       <c r="AG40" t="n">
         <v>2.063857080485218</v>
       </c>
-      <c r="AH40" t="inlineStr"/>
+      <c r="AH40" t="n">
+        <v>9.340532708400682</v>
+      </c>
       <c r="AI40" t="n">
         <v>5.288518036019283</v>
       </c>
-      <c r="AJ40" t="inlineStr"/>
+      <c r="AJ40" t="n">
+        <v>8.796809315723344</v>
+      </c>
       <c r="AK40" t="n">
         <v>6.189856457026441</v>
       </c>
@@ -5897,7 +5999,9 @@
       <c r="AR40" t="n">
         <v>4.5531497162146</v>
       </c>
-      <c r="AS40" t="inlineStr"/>
+      <c r="AS40" t="n">
+        <v>9.887895272478126</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
@@ -6456,8 +6560,12 @@
       <c r="B45" t="n">
         <v>3.390224876316808</v>
       </c>
-      <c r="C45" t="inlineStr"/>
-      <c r="D45" t="inlineStr"/>
+      <c r="C45" t="n">
+        <v>9.361148920809155</v>
+      </c>
+      <c r="D45" t="n">
+        <v>9.205243363788258</v>
+      </c>
       <c r="E45" t="n">
         <v>4.320140786011478</v>
       </c>
@@ -6479,15 +6587,21 @@
       <c r="K45" t="n">
         <v>3.370417816017891</v>
       </c>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>8.759773478584039</v>
+      </c>
+      <c r="M45" t="n">
+        <v>9.135311300977863</v>
+      </c>
       <c r="N45" t="n">
         <v>3.758361904954366</v>
       </c>
       <c r="O45" t="n">
         <v>6.635950589509479</v>
       </c>
-      <c r="P45" t="inlineStr"/>
+      <c r="P45" t="n">
+        <v>9.716274795541215</v>
+      </c>
       <c r="Q45" t="n">
         <v>6.998370974817727</v>
       </c>
@@ -6557,7 +6671,9 @@
       <c r="AM45" t="n">
         <v>7.024154765317708</v>
       </c>
-      <c r="AN45" t="inlineStr"/>
+      <c r="AN45" t="n">
+        <v>9.887895272478126</v>
+      </c>
       <c r="AO45" t="n">
         <v>4.825410149567941</v>
       </c>
